--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1880" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="20380" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="meta_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="88">
   <si>
     <t>date</t>
   </si>
@@ -85,13 +86,214 @@
   </si>
   <si>
     <t>incb_num</t>
+  </si>
+  <si>
+    <t>samp_period</t>
+  </si>
+  <si>
+    <t>ld0051</t>
+  </si>
+  <si>
+    <t>tc0140</t>
+  </si>
+  <si>
+    <t>ld0042</t>
+  </si>
+  <si>
+    <t>tc0103</t>
+  </si>
+  <si>
+    <t>ld0170</t>
+  </si>
+  <si>
+    <t>tc0415</t>
+  </si>
+  <si>
+    <t>ld0133</t>
+  </si>
+  <si>
+    <t>tc0314</t>
+  </si>
+  <si>
+    <t>ld0146</t>
+  </si>
+  <si>
+    <t>tc0340</t>
+  </si>
+  <si>
+    <t>ld0020</t>
+  </si>
+  <si>
+    <t>tc0032</t>
+  </si>
+  <si>
+    <t>ld0154</t>
+  </si>
+  <si>
+    <t>tc02(A)0</t>
+  </si>
+  <si>
+    <t>ld0118</t>
+  </si>
+  <si>
+    <t>tc0251</t>
+  </si>
+  <si>
+    <t>ld0150</t>
+  </si>
+  <si>
+    <t>tc0344</t>
+  </si>
+  <si>
+    <t>ld0140</t>
+  </si>
+  <si>
+    <t>tc0325</t>
+  </si>
+  <si>
+    <t>ld0011</t>
+  </si>
+  <si>
+    <t>tc0015</t>
+  </si>
+  <si>
+    <t>ld0018</t>
+  </si>
+  <si>
+    <t>tc0A30</t>
+  </si>
+  <si>
+    <t>ld0105</t>
+  </si>
+  <si>
+    <t>tc0230</t>
+  </si>
+  <si>
+    <t>ld0002</t>
+  </si>
+  <si>
+    <t>tc0002</t>
+  </si>
+  <si>
+    <t>ld0095</t>
+  </si>
+  <si>
+    <t>tc0214</t>
+  </si>
+  <si>
+    <t>ld0088</t>
+  </si>
+  <si>
+    <t>tc0203</t>
+  </si>
+  <si>
+    <t>ld0142</t>
+  </si>
+  <si>
+    <t>tc0331</t>
+  </si>
+  <si>
+    <t>ld0049</t>
+  </si>
+  <si>
+    <t>tc01(12)0</t>
+  </si>
+  <si>
+    <t>ld0027</t>
+  </si>
+  <si>
+    <t>tc0043</t>
+  </si>
+  <si>
+    <t>ld0155</t>
+  </si>
+  <si>
+    <t>tc1342</t>
+  </si>
+  <si>
+    <t>ld0089</t>
+  </si>
+  <si>
+    <t>tc0204</t>
+  </si>
+  <si>
+    <t>incb_temp_id</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +320,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,7 +367,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -169,23 +378,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,99 +833,5410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="1">
+        <v>18.059000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>19.408000000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>22</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="1">
+        <v>17.395</v>
+      </c>
+      <c r="J3" s="1">
+        <v>18.853000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.44236111111111115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="1">
+        <v>17.725999999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>18.972999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>22</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17.256</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18.404</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>22</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="1">
+        <v>17.593</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18.861999999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>22</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.4458333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="1">
+        <v>17.199000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>22</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="1">
+        <v>17.425999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18.689</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>22</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="1">
+        <v>17.422000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>19.123999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>22</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="1">
+        <v>17.696000000000002</v>
+      </c>
+      <c r="J10" s="1">
+        <v>19.064</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>22</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.45208333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1">
+        <v>17.629000000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18.766999999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>22</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18.059000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>19.408000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>28</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17.395</v>
+      </c>
+      <c r="J13" s="1">
+        <v>18.853000000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>28</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1">
+        <v>17.725999999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>18.972999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>28</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.56111111111111112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1">
+        <v>17.256</v>
+      </c>
+      <c r="J15" s="1">
+        <v>18.404</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>28</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="1">
+        <v>17.593</v>
+      </c>
+      <c r="J16" s="1">
+        <v>18.861999999999998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>28</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.56388888888888888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="1">
+        <v>17.199000000000002</v>
+      </c>
+      <c r="J17" s="1">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>28</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.56527777777777777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="1">
+        <v>17.425999999999998</v>
+      </c>
+      <c r="J18" s="1">
+        <v>18.689</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>28</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="1">
+        <v>17.422000000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>19.123999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>28</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.56805555555555554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1">
+        <v>17.696000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>19.064</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>28</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.56874999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="1">
+        <v>17.629000000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18.766999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>28</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>18.364000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>32</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.44236111111111115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1">
+        <v>16.364000000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>32</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>16.692</v>
+      </c>
+      <c r="J24" s="1">
+        <v>17.808</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>32</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>16.228000000000002</v>
+      </c>
+      <c r="J25" s="1">
+        <v>17.34</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>32</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.4465277777777778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1">
+        <v>29</v>
+      </c>
+      <c r="I26" s="1">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="J26" s="1">
+        <v>17.811</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>32</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="1">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>17.831</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>32</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
+        <v>16.408000000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <v>17.637</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>32</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="1">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1">
+        <v>16.608000000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>18.053999999999998</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>32</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>16.664999999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>18.024999999999999</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>32</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1">
+        <v>16.62</v>
+      </c>
+      <c r="J31" s="1">
+        <v>17.739000000000001</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>32</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="1">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>18.364000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>24</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.56458333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="1">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1">
+        <v>16.364000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>24</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>16.692</v>
+      </c>
+      <c r="J34" s="1">
+        <v>17.808</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>24</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.56736111111111109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>16.228000000000002</v>
+      </c>
+      <c r="J35" s="1">
+        <v>17.34</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>24</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.56874999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="1">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="J36" s="1">
+        <v>17.811</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>24</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1">
+        <v>28</v>
+      </c>
+      <c r="I37" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="J37" s="1">
+        <v>17.831</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>24</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.57152777777777775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="1">
+        <v>27</v>
+      </c>
+      <c r="I38" s="1">
+        <v>16.408000000000001</v>
+      </c>
+      <c r="J38" s="1">
+        <v>17.637</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>24</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="1">
+        <v>29</v>
+      </c>
+      <c r="I39" s="1">
+        <v>16.608000000000001</v>
+      </c>
+      <c r="J39" s="1">
+        <v>18.053999999999998</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>24</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0.57430555555555551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="I40" s="1">
+        <v>16.664999999999999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>18.024999999999999</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>24</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="1">
+        <v>27</v>
+      </c>
+      <c r="I41" s="1">
+        <v>16.62</v>
+      </c>
+      <c r="J41" s="1">
+        <v>17.739000000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>24</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.57708333333333328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="1">
+        <v>22</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="M52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="1">
+        <v>21</v>
+      </c>
+      <c r="I62" s="1">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="J62" s="1">
+        <v>18.073</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>26</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I63" s="1">
+        <v>17.61</v>
+      </c>
+      <c r="J63" s="1">
+        <v>18.916</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>26</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>17.622</v>
+      </c>
+      <c r="J64" s="1">
+        <v>18.984999999999999</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>26</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="1">
+        <v>20</v>
+      </c>
+      <c r="I65" s="1">
+        <v>17.824999999999999</v>
+      </c>
+      <c r="J65" s="1">
+        <v>18.922000000000001</v>
+      </c>
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>26</v>
+      </c>
+      <c r="N65" s="8">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I66" s="1">
+        <v>17.687999999999999</v>
+      </c>
+      <c r="J66" s="1">
+        <v>19.093</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>26</v>
+      </c>
+      <c r="N66" s="8">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I67" s="1">
+        <v>17.675000000000001</v>
+      </c>
+      <c r="J67" s="1">
+        <v>19.024000000000001</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>26</v>
+      </c>
+      <c r="N67" s="8">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="O67" s="8">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" s="1">
+        <v>20</v>
+      </c>
+      <c r="I68" s="1">
+        <v>17.486000000000001</v>
+      </c>
+      <c r="J68" s="1">
+        <v>18.571999999999999</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>26</v>
+      </c>
+      <c r="N68" s="8">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="O68" s="8">
+        <v>0.49027777777777781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="1">
+        <v>21</v>
+      </c>
+      <c r="I69" s="1">
+        <v>17.651</v>
+      </c>
+      <c r="J69" s="1">
+        <v>19.12</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
+        <v>26</v>
+      </c>
+      <c r="N69" s="8">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0.4916666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="J70" s="1">
+        <v>18.838999999999999</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>26</v>
+      </c>
+      <c r="N70" s="8">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="O70" s="8">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>20</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>17.565999999999999</v>
+      </c>
+      <c r="J71" s="1">
+        <v>18.672999999999998</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>26</v>
+      </c>
+      <c r="N71" s="8">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="O71" s="8">
+        <v>0.49444444444444446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>21</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" s="1">
+        <v>21</v>
+      </c>
+      <c r="I72" s="1">
+        <v>17.526</v>
+      </c>
+      <c r="J72" s="1">
+        <v>18.815999999999999</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>26</v>
+      </c>
+      <c r="N72" s="8">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="1">
+        <v>21</v>
+      </c>
+      <c r="I73" s="1">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="J73" s="1">
+        <v>18.073</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1">
+        <v>24</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0.58888888888888891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>17.61</v>
+      </c>
+      <c r="J74" s="1">
+        <v>18.916</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1">
+        <v>24</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I75" s="1">
+        <v>17.622</v>
+      </c>
+      <c r="J75" s="1">
+        <v>18.984999999999999</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1">
+        <v>24</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0.59166666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" s="1">
+        <v>20</v>
+      </c>
+      <c r="I76" s="1">
+        <v>17.824999999999999</v>
+      </c>
+      <c r="J76" s="1">
+        <v>18.922000000000001</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>24</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I77" s="1">
+        <v>17.687999999999999</v>
+      </c>
+      <c r="J77" s="1">
+        <v>19.093</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2</v>
+      </c>
+      <c r="L77" s="1">
+        <v>2</v>
+      </c>
+      <c r="M77" s="1">
+        <v>24</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0.59444444444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>16</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>17.675000000000001</v>
+      </c>
+      <c r="J78" s="1">
+        <v>19.024000000000001</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1">
+        <v>24</v>
+      </c>
+      <c r="N78" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0.59513888888888888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="1">
+        <v>20</v>
+      </c>
+      <c r="I79" s="1">
+        <v>17.486000000000001</v>
+      </c>
+      <c r="J79" s="1">
+        <v>18.571999999999999</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1">
+        <v>2</v>
+      </c>
+      <c r="M79" s="1">
+        <v>24</v>
+      </c>
+      <c r="N79" s="8">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0.59652777777777777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="1">
+        <v>21</v>
+      </c>
+      <c r="I80" s="1">
+        <v>17.651</v>
+      </c>
+      <c r="J80" s="1">
+        <v>19.12</v>
+      </c>
+      <c r="K80" s="1">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1">
+        <v>2</v>
+      </c>
+      <c r="M80" s="1">
+        <v>24</v>
+      </c>
+      <c r="N80" s="8">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0.59791666666666665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I81" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="J81" s="1">
+        <v>18.838999999999999</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2</v>
+      </c>
+      <c r="L81" s="1">
+        <v>2</v>
+      </c>
+      <c r="M81" s="1">
+        <v>24</v>
+      </c>
+      <c r="N81" s="8">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>20</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I82" s="1">
+        <v>17.565999999999999</v>
+      </c>
+      <c r="J82" s="1">
+        <v>18.672999999999998</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2</v>
+      </c>
+      <c r="L82" s="1">
+        <v>2</v>
+      </c>
+      <c r="M82" s="1">
+        <v>24</v>
+      </c>
+      <c r="N82" s="8">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>21</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" s="1">
+        <v>21</v>
+      </c>
+      <c r="I83" s="1">
+        <v>17.526</v>
+      </c>
+      <c r="J83" s="1">
+        <v>18.815999999999999</v>
+      </c>
+      <c r="K83" s="1">
+        <v>2</v>
+      </c>
+      <c r="L83" s="1">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1">
+        <v>24</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0.60138888888888886</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>15.856999999999999</v>
+      </c>
+      <c r="J84" s="1">
+        <v>17.038</v>
+      </c>
+      <c r="K84" s="1">
+        <v>2</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <v>30</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O84" s="8">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I85" s="1">
+        <v>16.600999999999999</v>
+      </c>
+      <c r="J85" s="1">
+        <v>17.876000000000001</v>
+      </c>
+      <c r="K85" s="1">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>30</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I86" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="J86" s="1">
+        <v>17.925999999999998</v>
+      </c>
+      <c r="K86" s="1">
+        <v>2</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>30</v>
+      </c>
+      <c r="N86" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O86" s="8">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" s="1">
+        <v>30</v>
+      </c>
+      <c r="I87" s="1">
+        <v>16.809000000000001</v>
+      </c>
+      <c r="J87" s="1">
+        <v>17.898</v>
+      </c>
+      <c r="K87" s="1">
+        <v>2</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>30</v>
+      </c>
+      <c r="N87" s="8">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="O87" s="8">
+        <v>0.49236111111111108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>15</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="1">
+        <v>29</v>
+      </c>
+      <c r="I88" s="1">
+        <v>16.666</v>
+      </c>
+      <c r="J88" s="1">
+        <v>18.007999999999999</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>30</v>
+      </c>
+      <c r="N88" s="8">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="O88" s="8">
+        <v>0.49374999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" s="1">
+        <v>26</v>
+      </c>
+      <c r="I89" s="1">
+        <v>16.666</v>
+      </c>
+      <c r="J89" s="1">
+        <v>18.007999999999999</v>
+      </c>
+      <c r="K89" s="1">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>30</v>
+      </c>
+      <c r="N89" s="8">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="O89" s="8">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H90" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I90" s="1">
+        <v>16.471</v>
+      </c>
+      <c r="J90" s="1">
+        <v>17.501000000000001</v>
+      </c>
+      <c r="K90" s="1">
+        <v>2</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>30</v>
+      </c>
+      <c r="N90" s="8">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="O90" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H91" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I91" s="1">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="J91" s="1">
+        <v>18.053999999999998</v>
+      </c>
+      <c r="K91" s="1">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>30</v>
+      </c>
+      <c r="N91" s="8">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="O91" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" s="1">
+        <v>28</v>
+      </c>
+      <c r="I92" s="1">
+        <v>16.408999999999999</v>
+      </c>
+      <c r="J92" s="1">
+        <v>17.818999999999999</v>
+      </c>
+      <c r="K92" s="1">
+        <v>2</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>30</v>
+      </c>
+      <c r="N92" s="8">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="O92" s="8">
+        <v>0.49861111111111112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>20</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H93" s="1">
+        <v>31</v>
+      </c>
+      <c r="I93" s="1">
+        <v>16.768999999999998</v>
+      </c>
+      <c r="J93" s="1">
+        <v>17.815000000000001</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>30</v>
+      </c>
+      <c r="N93" s="8">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="O93" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>21</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H94" s="1">
+        <v>28</v>
+      </c>
+      <c r="I94" s="1">
+        <v>16.584</v>
+      </c>
+      <c r="J94" s="1">
+        <v>17.817</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>30</v>
+      </c>
+      <c r="N94" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="O94" s="8">
+        <v>0.50138888888888888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="I95" s="1">
+        <v>15.856999999999999</v>
+      </c>
+      <c r="J95" s="1">
+        <v>17.038</v>
+      </c>
+      <c r="K95" s="1">
+        <v>2</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1">
+        <v>28</v>
+      </c>
+      <c r="N95" s="8">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="O95" s="8">
+        <v>0.59166666666666667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I96" s="1">
+        <v>16.600999999999999</v>
+      </c>
+      <c r="J96" s="1">
+        <v>17.876000000000001</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2</v>
+      </c>
+      <c r="L96" s="1">
+        <v>2</v>
+      </c>
+      <c r="M96" s="1">
+        <v>28</v>
+      </c>
+      <c r="N96" s="8">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="O96" s="8">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I97" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="J97" s="1">
+        <v>17.925999999999998</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>2</v>
+      </c>
+      <c r="M97" s="1">
+        <v>28</v>
+      </c>
+      <c r="N97" s="8">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="O97" s="8">
+        <v>0.59444444444444444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="1">
+        <v>30</v>
+      </c>
+      <c r="I98" s="1">
+        <v>16.809000000000001</v>
+      </c>
+      <c r="J98" s="1">
+        <v>17.898</v>
+      </c>
+      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>2</v>
+      </c>
+      <c r="M98" s="1">
+        <v>28</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="O98" s="8">
+        <v>0.59583333333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="1">
+        <v>29</v>
+      </c>
+      <c r="I99" s="1">
+        <v>16.666</v>
+      </c>
+      <c r="J99" s="1">
+        <v>18.007999999999999</v>
+      </c>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1">
+        <v>28</v>
+      </c>
+      <c r="N99" s="8">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="O99" s="8">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" s="1">
+        <v>26</v>
+      </c>
+      <c r="I100" s="1">
+        <v>16.666</v>
+      </c>
+      <c r="J100" s="1">
+        <v>18.007999999999999</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1">
+        <v>28</v>
+      </c>
+      <c r="N100" s="8">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="O100" s="8">
+        <v>0.59861111111111109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>17</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H101" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I101" s="1">
+        <v>16.471</v>
+      </c>
+      <c r="J101" s="1">
+        <v>17.501000000000001</v>
+      </c>
+      <c r="K101" s="1">
+        <v>2</v>
+      </c>
+      <c r="L101" s="1">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1">
+        <v>28</v>
+      </c>
+      <c r="N101" s="8">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="O101" s="8">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I102" s="1">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="J102" s="1">
+        <v>18.053999999999998</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>2</v>
+      </c>
+      <c r="M102" s="1">
+        <v>28</v>
+      </c>
+      <c r="N102" s="8">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O102" s="8">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>19</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" s="1">
+        <v>28</v>
+      </c>
+      <c r="I103" s="1">
+        <v>16.408999999999999</v>
+      </c>
+      <c r="J103" s="1">
+        <v>17.818999999999999</v>
+      </c>
+      <c r="K103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>2</v>
+      </c>
+      <c r="M103" s="1">
+        <v>28</v>
+      </c>
+      <c r="N103" s="8">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="O103" s="8">
+        <v>0.60138888888888886</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>20</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" s="1">
+        <v>31</v>
+      </c>
+      <c r="I104" s="1">
+        <v>16.768999999999998</v>
+      </c>
+      <c r="J104" s="1">
+        <v>17.815000000000001</v>
+      </c>
+      <c r="K104" s="1">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1">
+        <v>28</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0.60277777777777775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>21</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" s="1">
+        <v>28</v>
+      </c>
+      <c r="I105" s="1">
+        <v>16.584</v>
+      </c>
+      <c r="J105" s="1">
+        <v>17.817</v>
+      </c>
+      <c r="K105" s="1">
+        <v>2</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1">
+        <v>28</v>
+      </c>
+      <c r="N105" s="8">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="O105" s="8">
+        <v>0.60555555555555551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106" s="1">
+        <v>2</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>12</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K108" s="1">
+        <v>2</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K109" s="1">
+        <v>2</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K110" s="1">
+        <v>2</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>16</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K111" s="1">
+        <v>2</v>
+      </c>
+      <c r="L111" s="1">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>17</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K112" s="1">
+        <v>2</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K113" s="1">
+        <v>2</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>19</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K114" s="1">
+        <v>2</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>20</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K115" s="1">
+        <v>2</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>21</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K116" s="1">
+        <v>2</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K117" s="1">
+        <v>2</v>
+      </c>
+      <c r="L117" s="1">
+        <v>2</v>
+      </c>
+      <c r="M117" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>12</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K118" s="1">
+        <v>2</v>
+      </c>
+      <c r="L118" s="1">
+        <v>2</v>
+      </c>
+      <c r="M118" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K119" s="1">
+        <v>2</v>
+      </c>
+      <c r="L119" s="1">
+        <v>2</v>
+      </c>
+      <c r="M119" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K120" s="1">
+        <v>2</v>
+      </c>
+      <c r="L120" s="1">
+        <v>2</v>
+      </c>
+      <c r="M120" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K121" s="1">
+        <v>2</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2</v>
+      </c>
+      <c r="M121" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>16</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K122" s="1">
+        <v>2</v>
+      </c>
+      <c r="L122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>17</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K123" s="1">
+        <v>2</v>
+      </c>
+      <c r="L123" s="1">
+        <v>2</v>
+      </c>
+      <c r="M123" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>18</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K124" s="1">
+        <v>2</v>
+      </c>
+      <c r="L124" s="1">
+        <v>2</v>
+      </c>
+      <c r="M124" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>19</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K125" s="1">
+        <v>2</v>
+      </c>
+      <c r="L125" s="1">
+        <v>2</v>
+      </c>
+      <c r="M125" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>13</v>
+      <c r="E126" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K126" s="1">
+        <v>2</v>
+      </c>
+      <c r="L126" s="1">
+        <v>2</v>
+      </c>
+      <c r="M126" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>21</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K127" s="1">
+        <v>2</v>
+      </c>
+      <c r="L127" s="1">
+        <v>2</v>
+      </c>
+      <c r="M127" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:X127">
+    <sortCondition ref="K2:K127"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -616,4 +6245,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="20380" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="25220" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="95">
   <si>
     <t>date</t>
   </si>
@@ -284,16 +284,38 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>date of sample</t>
+  </si>
+  <si>
+    <t>time when chamber was flushed</t>
+  </si>
+  <si>
+    <t>time when both samples have been taken</t>
+  </si>
+  <si>
+    <t>t_diff</t>
+  </si>
+  <si>
+    <t>air_collect_notes</t>
+  </si>
+  <si>
+    <t>fms_notes</t>
+  </si>
+  <si>
+    <t>defecate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +353,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -367,7 +394,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -422,8 +449,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,11 +513,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="94">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -479,6 +568,26 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -504,6 +613,26 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -833,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X127"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -855,13 +984,15 @@
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
     <col min="14" max="15" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28" ht="16" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,35 +1038,47 @@
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Z1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="16" customHeight="1">
       <c r="A2" s="3">
         <v>42730</v>
       </c>
@@ -981,8 +1124,12 @@
       <c r="O2" s="8">
         <v>0.44166666666666665</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="P2" s="2">
+        <f>O2*1440-N2*1440</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16" customHeight="1">
       <c r="A3" s="3">
         <v>42730</v>
       </c>
@@ -1028,8 +1175,12 @@
       <c r="O3" s="8">
         <v>0.44236111111111115</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="P3" s="2">
+        <f>O3*1440-N3*1440</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16" customHeight="1">
       <c r="A4" s="3">
         <v>42730</v>
       </c>
@@ -1075,8 +1226,12 @@
       <c r="O4" s="8">
         <v>0.44305555555555554</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="P4" s="2">
+        <f>O4*1440-N4*1440</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16" customHeight="1">
       <c r="A5" s="3">
         <v>42730</v>
       </c>
@@ -1122,8 +1277,12 @@
       <c r="O5" s="8">
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="P5" s="2">
+        <f>O5*1440-N5*1440</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16" customHeight="1">
       <c r="A6" s="3">
         <v>42730</v>
       </c>
@@ -1169,8 +1328,12 @@
       <c r="O6" s="8">
         <v>0.4458333333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="P6" s="2">
+        <f>O6*1440-N6*1440</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16" customHeight="1">
       <c r="A7" s="3">
         <v>42730</v>
       </c>
@@ -1216,8 +1379,12 @@
       <c r="O7" s="8">
         <v>0.44722222222222219</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="P7" s="2">
+        <f>O7*1440-N7*1440</f>
+        <v>109.00000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16" customHeight="1">
       <c r="A8" s="3">
         <v>42730</v>
       </c>
@@ -1263,8 +1430,12 @@
       <c r="O8" s="8">
         <v>0.44930555555555557</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="P8" s="2">
+        <f>O8*1440-N8*1440</f>
+        <v>110.00000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16" customHeight="1">
       <c r="A9" s="3">
         <v>42730</v>
       </c>
@@ -1310,8 +1481,12 @@
       <c r="O9" s="8">
         <v>0.45069444444444445</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="P9" s="2">
+        <f>O9*1440-N9*1440</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16" customHeight="1">
       <c r="A10" s="3">
         <v>42730</v>
       </c>
@@ -1357,8 +1532,12 @@
       <c r="O10" s="8">
         <v>0.45208333333333334</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="P10" s="2">
+        <f>O10*1440-N10*1440</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="16" customHeight="1">
       <c r="A11" s="3">
         <v>42730</v>
       </c>
@@ -1404,55 +1583,63 @@
       <c r="O11" s="8">
         <v>0.45347222222222222</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="P11" s="2">
+        <f>O11*1440-N11*1440</f>
+        <v>109.99999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="16" customHeight="1">
       <c r="A12" s="3">
         <v>42730</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="H12" s="1">
+        <v>21</v>
       </c>
       <c r="I12" s="1">
-        <v>18.059000000000001</v>
+        <v>16.867999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>19.408000000000001</v>
+        <v>18.073</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" s="8">
-        <v>0.49583333333333335</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="O12" s="8">
-        <v>0.55833333333333335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="P12" s="2">
+        <f>O12*1440-N12*1440</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16" customHeight="1">
       <c r="A13" s="3">
         <v>42730</v>
       </c>
@@ -1463,43 +1650,47 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17.61</v>
+      </c>
+      <c r="J13" s="1">
+        <v>18.916</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>26</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="1">
-        <v>17.395</v>
-      </c>
-      <c r="J13" s="1">
-        <v>18.853000000000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>28</v>
-      </c>
       <c r="N13" s="8">
-        <v>0.49722222222222223</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="O13" s="8">
-        <v>0.55972222222222223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="P13" s="2">
+        <f>O13*1440-N13*1440</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16" customHeight="1">
       <c r="A14" s="3">
         <v>42730</v>
       </c>
@@ -1510,43 +1701,47 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21.5</v>
       </c>
       <c r="I14" s="1">
-        <v>17.725999999999999</v>
+        <v>17.622</v>
       </c>
       <c r="J14" s="1">
-        <v>18.972999999999999</v>
+        <v>18.984999999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14" s="8">
-        <v>0.49861111111111112</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="O14" s="8">
-        <v>0.56111111111111112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="P14" s="2">
+        <f>O14*1440-N14*1440</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16" customHeight="1">
       <c r="A15" s="3">
         <v>42730</v>
       </c>
@@ -1557,43 +1752,47 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>17.256</v>
+        <v>17.824999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>18.404</v>
+        <v>18.922000000000001</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="8">
-        <v>0.5</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="O15" s="8">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="P15" s="2">
+        <f>O15*1440-N15*1440</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16" customHeight="1">
       <c r="A16" s="3">
         <v>42730</v>
       </c>
@@ -1604,43 +1803,47 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="H16" s="1">
+        <v>19.5</v>
       </c>
       <c r="I16" s="1">
-        <v>17.593</v>
+        <v>17.687999999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>18.861999999999998</v>
+        <v>19.093</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="8">
-        <v>0.50069444444444444</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="O16" s="8">
-        <v>0.56388888888888888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="P16" s="2">
+        <f>O16*1440-N16*1440</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16" customHeight="1">
       <c r="A17" s="3">
         <v>42730</v>
       </c>
@@ -1651,43 +1854,47 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20.5</v>
       </c>
       <c r="I17" s="1">
-        <v>17.199000000000002</v>
+        <v>17.675000000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>18.835999999999999</v>
+        <v>19.024000000000001</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N17" s="8">
-        <v>0.50208333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="O17" s="8">
-        <v>0.56527777777777777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="P17" s="2">
+        <f>O17*1440-N17*1440</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" customHeight="1">
       <c r="A18" s="3">
         <v>42730</v>
       </c>
@@ -1698,43 +1905,47 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
       </c>
       <c r="I18" s="1">
-        <v>17.425999999999998</v>
+        <v>17.486000000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>18.689</v>
+        <v>18.571999999999999</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N18" s="8">
-        <v>0.50347222222222221</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="O18" s="8">
-        <v>0.56666666666666665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="P18" s="2">
+        <f>O18*1440-N18*1440</f>
+        <v>81.000000000000114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16" customHeight="1">
       <c r="A19" s="3">
         <v>42730</v>
       </c>
@@ -1745,43 +1956,47 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="H19" s="1">
+        <v>21</v>
       </c>
       <c r="I19" s="1">
-        <v>17.422000000000001</v>
+        <v>17.651</v>
       </c>
       <c r="J19" s="1">
-        <v>19.123999999999999</v>
+        <v>19.12</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N19" s="8">
-        <v>0.50416666666666665</v>
+        <v>0.43541666666666662</v>
       </c>
       <c r="O19" s="8">
-        <v>0.56805555555555554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="P19" s="2">
+        <f>O19*1440-N19*1440</f>
+        <v>81.000000000000114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16" customHeight="1">
       <c r="A20" s="3">
         <v>42730</v>
       </c>
@@ -1792,43 +2007,47 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20.5</v>
       </c>
       <c r="I20" s="1">
-        <v>17.696000000000002</v>
+        <v>17.3</v>
       </c>
       <c r="J20" s="1">
-        <v>19.064</v>
+        <v>18.838999999999999</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N20" s="8">
-        <v>0.50555555555555554</v>
+        <v>0.4368055555555555</v>
       </c>
       <c r="O20" s="8">
-        <v>0.56874999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="P20" s="2">
+        <f>O20*1440-N20*1440</f>
+        <v>81.000000000000114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16" customHeight="1">
       <c r="A21" s="3">
         <v>42730</v>
       </c>
@@ -1839,562 +2058,610 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>17.565999999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18.672999999999998</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>26</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="P21" s="2">
+        <f>O21*1440-N21*1440</f>
+        <v>80.999999999999886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16" customHeight="1">
+      <c r="A22" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17.526</v>
+      </c>
+      <c r="J22" s="1">
+        <v>18.815999999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>26</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="P22" s="2">
+        <f>O22*1440-N22*1440</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16" customHeight="1">
+      <c r="A23" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1">
+        <v>18.059000000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>19.408000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>28</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="P23" s="2">
+        <f>O23*1440-N23*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16" customHeight="1">
+      <c r="A24" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="1">
+        <v>17.395</v>
+      </c>
+      <c r="J24" s="1">
+        <v>18.853000000000002</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>28</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="P24" s="2">
+        <f>O24*1440-N24*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16" customHeight="1">
+      <c r="A25" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="1">
+        <v>17.725999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>18.972999999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>28</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="P25" s="2">
+        <f>O25*1440-N25*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16" customHeight="1">
+      <c r="A26" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="1">
+        <v>17.256</v>
+      </c>
+      <c r="J26" s="1">
+        <v>18.404</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>28</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="P26" s="2">
+        <f>O26*1440-N26*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16" customHeight="1">
+      <c r="A27" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="1">
+        <v>17.593</v>
+      </c>
+      <c r="J27" s="1">
+        <v>18.861999999999998</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>28</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="P27" s="2">
+        <f>O27*1440-N27*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16" customHeight="1">
+      <c r="A28" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="1">
+        <v>17.199000000000002</v>
+      </c>
+      <c r="J28" s="1">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>28</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="P28" s="2">
+        <f>O28*1440-N28*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16" customHeight="1">
+      <c r="A29" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="1">
+        <v>17.425999999999998</v>
+      </c>
+      <c r="J29" s="1">
+        <v>18.689</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>28</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="P29" s="2">
+        <f>O29*1440-N29*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16" customHeight="1">
+      <c r="A30" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="1">
+        <v>17.422000000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>19.123999999999999</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>28</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="P30" s="2">
+        <f>O30*1440-N30*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16" customHeight="1">
+      <c r="A31" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="1">
+        <v>17.696000000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>19.064</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>28</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="P31" s="2">
+        <f>O31*1440-N31*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16" customHeight="1">
+      <c r="A32" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I32" s="1">
         <v>17.629000000000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J32" s="1">
         <v>18.766999999999999</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
         <v>28</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N32" s="8">
         <v>0.50694444444444442</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O32" s="8">
         <v>0.56944444444444442</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="1">
-        <v>27</v>
-      </c>
-      <c r="I22" s="1">
-        <v>17.027999999999999</v>
-      </c>
-      <c r="J22" s="1">
-        <v>18.364000000000001</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>32</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0.44236111111111115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1">
-        <v>28</v>
-      </c>
-      <c r="I23" s="1">
-        <v>16.364000000000001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>17.797000000000001</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>32</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0.38125000000000003</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0.44375000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="I24" s="1">
-        <v>16.692</v>
-      </c>
-      <c r="J24" s="1">
-        <v>17.808</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>32</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0.44513888888888892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="I25" s="1">
-        <v>16.228000000000002</v>
-      </c>
-      <c r="J25" s="1">
-        <v>17.34</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>32</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0.4465277777777778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="1">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1">
-        <v>16.574000000000002</v>
-      </c>
-      <c r="J26" s="1">
-        <v>17.811</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
-        <v>32</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0.38472222222222219</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="1">
-        <v>28</v>
-      </c>
-      <c r="I27" s="1">
-        <v>16.603000000000002</v>
-      </c>
-      <c r="J27" s="1">
-        <v>17.831</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>32</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0.44930555555555557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="1">
-        <v>27</v>
-      </c>
-      <c r="I28" s="1">
-        <v>16.408000000000001</v>
-      </c>
-      <c r="J28" s="1">
-        <v>17.637</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
-        <v>32</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="O28" s="8">
-        <v>0.45069444444444445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="1">
-        <v>29</v>
-      </c>
-      <c r="I29" s="1">
-        <v>16.608000000000001</v>
-      </c>
-      <c r="J29" s="1">
-        <v>18.053999999999998</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
-        <v>32</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0.4513888888888889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>16.664999999999999</v>
-      </c>
-      <c r="J30" s="1">
-        <v>18.024999999999999</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1">
-        <v>32</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="O30" s="8">
-        <v>0.45347222222222222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="1">
-        <v>27</v>
-      </c>
-      <c r="I31" s="1">
-        <v>16.62</v>
-      </c>
-      <c r="J31" s="1">
-        <v>17.739000000000001</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1">
-        <v>32</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0.39097222222222222</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0.4548611111111111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="1">
-        <v>27</v>
-      </c>
-      <c r="I32" s="1">
-        <v>17.027999999999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>18.364000000000001</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1">
-        <v>24</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0.56458333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="2">
+        <f>O32*1440-N32*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16" customHeight="1">
       <c r="A33" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -2403,28 +2670,28 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I33" s="1">
-        <v>16.364000000000001</v>
+        <v>16.867999999999999</v>
       </c>
       <c r="J33" s="1">
-        <v>17.797000000000001</v>
+        <v>18.073</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="1">
         <v>2</v>
@@ -2433,15 +2700,19 @@
         <v>24</v>
       </c>
       <c r="N33" s="8">
-        <v>0.50347222222222221</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="O33" s="8">
-        <v>0.56597222222222221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="P33" s="2">
+        <f>O33*1440-N33*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16" customHeight="1">
       <c r="A34" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -2450,28 +2721,28 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H34" s="1">
-        <v>28.5</v>
+        <v>20.5</v>
       </c>
       <c r="I34" s="1">
-        <v>16.692</v>
+        <v>17.61</v>
       </c>
       <c r="J34" s="1">
-        <v>17.808</v>
+        <v>18.916</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="1">
         <v>2</v>
@@ -2480,15 +2751,19 @@
         <v>24</v>
       </c>
       <c r="N34" s="8">
-        <v>0.50486111111111109</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="O34" s="8">
-        <v>0.56736111111111109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="P34" s="2">
+        <f>O34*1440-N34*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16" customHeight="1">
       <c r="A35" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -2497,28 +2772,28 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H35" s="1">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="I35" s="1">
-        <v>16.228000000000002</v>
+        <v>17.622</v>
       </c>
       <c r="J35" s="1">
-        <v>17.34</v>
+        <v>18.984999999999999</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1">
         <v>2</v>
@@ -2527,15 +2802,19 @@
         <v>24</v>
       </c>
       <c r="N35" s="8">
-        <v>0.50624999999999998</v>
+        <v>0.52916666666666667</v>
       </c>
       <c r="O35" s="8">
-        <v>0.56874999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="P35" s="2">
+        <f>O35*1440-N35*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16" customHeight="1">
       <c r="A36" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -2544,28 +2823,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H36" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I36" s="1">
-        <v>16.574000000000002</v>
+        <v>17.824999999999999</v>
       </c>
       <c r="J36" s="1">
-        <v>17.811</v>
+        <v>18.922000000000001</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1">
         <v>2</v>
@@ -2574,15 +2853,19 @@
         <v>24</v>
       </c>
       <c r="N36" s="8">
-        <v>0.50763888888888886</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="O36" s="8">
-        <v>0.57013888888888886</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="P36" s="2">
+        <f>O36*1440-N36*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16" customHeight="1">
       <c r="A37" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -2591,28 +2874,28 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H37" s="1">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="I37" s="1">
-        <v>16.603000000000002</v>
+        <v>17.687999999999999</v>
       </c>
       <c r="J37" s="1">
-        <v>17.831</v>
+        <v>19.093</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="1">
         <v>2</v>
@@ -2621,15 +2904,19 @@
         <v>24</v>
       </c>
       <c r="N37" s="8">
-        <v>0.5083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="O37" s="8">
-        <v>0.57152777777777775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="P37" s="2">
+        <f>O37*1440-N37*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16" customHeight="1">
       <c r="A38" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -2638,28 +2925,28 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H38" s="1">
-        <v>27</v>
+        <v>20.5</v>
       </c>
       <c r="I38" s="1">
-        <v>16.408000000000001</v>
+        <v>17.675000000000001</v>
       </c>
       <c r="J38" s="1">
-        <v>17.637</v>
+        <v>19.024000000000001</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -2668,15 +2955,19 @@
         <v>24</v>
       </c>
       <c r="N38" s="8">
-        <v>0.50972222222222219</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="O38" s="8">
-        <v>0.57291666666666663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="P38" s="2">
+        <f>O38*1440-N38*1440</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16" customHeight="1">
       <c r="A39" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -2685,28 +2976,28 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H39" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I39" s="1">
-        <v>16.608000000000001</v>
+        <v>17.486000000000001</v>
       </c>
       <c r="J39" s="1">
-        <v>18.053999999999998</v>
+        <v>18.571999999999999</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="1">
         <v>2</v>
@@ -2715,15 +3006,19 @@
         <v>24</v>
       </c>
       <c r="N39" s="8">
-        <v>0.51111111111111118</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="O39" s="8">
-        <v>0.57430555555555551</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="P39" s="2">
+        <f>O39*1440-N39*1440</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16" customHeight="1">
       <c r="A40" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -2732,28 +3027,28 @@
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H40" s="1">
-        <v>29.5</v>
+        <v>21</v>
       </c>
       <c r="I40" s="1">
-        <v>16.664999999999999</v>
+        <v>17.651</v>
       </c>
       <c r="J40" s="1">
-        <v>18.024999999999999</v>
+        <v>19.12</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1">
         <v>2</v>
@@ -2762,15 +3057,19 @@
         <v>24</v>
       </c>
       <c r="N40" s="8">
-        <v>0.51250000000000007</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="O40" s="8">
-        <v>0.5756944444444444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="P40" s="2">
+        <f>O40*1440-N40*1440</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16" customHeight="1">
       <c r="A41" s="3">
-        <v>42731</v>
+        <v>42730</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -2779,28 +3078,28 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H41" s="1">
-        <v>27</v>
+        <v>20.5</v>
       </c>
       <c r="I41" s="1">
-        <v>16.62</v>
+        <v>17.3</v>
       </c>
       <c r="J41" s="1">
-        <v>17.739000000000001</v>
+        <v>18.838999999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="1">
         <v>2</v>
@@ -2809,405 +3108,631 @@
         <v>24</v>
       </c>
       <c r="N41" s="8">
-        <v>0.51388888888888895</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="O41" s="8">
-        <v>0.57708333333333328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="P41" s="2">
+        <f>O41*1440-N41*1440</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16" customHeight="1">
       <c r="A42" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B42" s="2">
+        <v>42730</v>
+      </c>
+      <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>17.565999999999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>18.672999999999998</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>24</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="P42" s="2">
+        <f>O42*1440-N42*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16" customHeight="1">
+      <c r="A43" s="3">
+        <v>42730</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="1">
+        <v>21</v>
+      </c>
+      <c r="I43" s="1">
+        <v>17.526</v>
+      </c>
+      <c r="J43" s="1">
+        <v>18.815999999999999</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>24</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="P43" s="2">
+        <f>O43*1440-N43*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16" customHeight="1">
+      <c r="A44" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="1">
-        <v>22</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="H44" s="1">
+        <v>27</v>
+      </c>
+      <c r="I44" s="1">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>18.364000000000001</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>32</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="P44" s="2">
+        <f>O44*1440-N44*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16" customHeight="1">
+      <c r="A45" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="1">
-        <v>23</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="H45" s="1">
+        <v>28</v>
+      </c>
+      <c r="I45" s="1">
+        <v>16.364000000000001</v>
+      </c>
+      <c r="J45" s="1">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>32</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="P45" s="2">
+        <f>O45*1440-N45*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16" customHeight="1">
+      <c r="A46" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="H46" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>16.692</v>
+      </c>
+      <c r="J46" s="1">
+        <v>17.808</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>32</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="P46" s="2">
+        <f>O46*1440-N46*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16" customHeight="1">
+      <c r="A47" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
         <v>4</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="H47" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>16.228000000000002</v>
+      </c>
+      <c r="J47" s="1">
+        <v>17.34</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>32</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="P47" s="2">
+        <f>O47*1440-N47*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16" customHeight="1">
+      <c r="A48" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>5</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="H48" s="1">
+        <v>29</v>
+      </c>
+      <c r="I48" s="1">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="J48" s="1">
+        <v>17.811</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>32</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P48" s="2">
+        <f>O48*1440-N48*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16" customHeight="1">
+      <c r="A49" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
         <v>6</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="H49" s="1">
+        <v>28</v>
+      </c>
+      <c r="I49" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="J49" s="1">
+        <v>17.831</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>32</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="P49" s="2">
+        <f>O49*1440-N49*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16" customHeight="1">
+      <c r="A50" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
         <v>7</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="H50" s="1">
+        <v>27</v>
+      </c>
+      <c r="I50" s="1">
+        <v>16.408000000000001</v>
+      </c>
+      <c r="J50" s="1">
+        <v>17.637</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>32</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="P50" s="2">
+        <f>O50*1440-N50*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16" customHeight="1">
+      <c r="A51" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
         <v>8</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="H51" s="1">
+        <v>29</v>
+      </c>
+      <c r="I51" s="1">
+        <v>16.608000000000001</v>
+      </c>
+      <c r="J51" s="1">
+        <v>18.053999999999998</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>32</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="P51" s="2">
+        <f>O51*1440-N51*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16" customHeight="1">
+      <c r="A52" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
         <v>9</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="H52" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>16.664999999999999</v>
+      </c>
+      <c r="J52" s="1">
+        <v>18.024999999999999</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>32</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="P52" s="2">
+        <f>O52*1440-N52*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="16" customHeight="1">
+      <c r="A53" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
         <v>10</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1">
-        <v>2</v>
-      </c>
-      <c r="M52" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="3">
-        <v>42732</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>67</v>
+      <c r="H53" s="1">
+        <v>27</v>
+      </c>
+      <c r="I53" s="1">
+        <v>16.62</v>
+      </c>
+      <c r="J53" s="1">
+        <v>17.739000000000001</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="P53" s="2">
+        <f>O53*1440-N53*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="16" customHeight="1">
       <c r="A54" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -3216,30 +3741,49 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="H54" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>15.856999999999999</v>
+      </c>
+      <c r="J54" s="1">
+        <v>17.038</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="N54" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="P54" s="2">
+        <f>O54*1440-N54*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="16" customHeight="1">
       <c r="A55" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -3248,30 +3792,49 @@
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="H55" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>16.600999999999999</v>
+      </c>
+      <c r="J55" s="1">
+        <v>17.876000000000001</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="N55" s="8">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="P55" s="2">
+        <f>O55*1440-N55*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="16" customHeight="1">
       <c r="A56" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -3280,30 +3843,49 @@
         <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="H56" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>16.603000000000002</v>
+      </c>
+      <c r="J56" s="1">
+        <v>17.925999999999998</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="N56" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="P56" s="2">
+        <f>O56*1440-N56*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="16" customHeight="1">
       <c r="A57" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -3312,30 +3894,49 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="H57" s="1">
+        <v>30</v>
+      </c>
+      <c r="I57" s="1">
+        <v>16.809000000000001</v>
+      </c>
+      <c r="J57" s="1">
+        <v>17.898</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="N57" s="8">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="P57" s="2">
+        <f>O57*1440-N57*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="16" customHeight="1">
       <c r="A58" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -3344,30 +3945,49 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
+      </c>
+      <c r="H58" s="1">
+        <v>29</v>
+      </c>
+      <c r="I58" s="1">
+        <v>16.666</v>
+      </c>
+      <c r="J58" s="1">
+        <v>18.007999999999999</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="N58" s="8">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="P58" s="2">
+        <f>O58*1440-N58*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="16" customHeight="1">
       <c r="A59" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -3376,30 +3996,49 @@
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="H59" s="1">
+        <v>26</v>
+      </c>
+      <c r="I59" s="1">
+        <v>16.666</v>
+      </c>
+      <c r="J59" s="1">
+        <v>18.007999999999999</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="N59" s="8">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="P59" s="2">
+        <f>O59*1440-N59*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="16" customHeight="1">
       <c r="A60" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
@@ -3408,30 +4047,49 @@
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="H60" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I60" s="1">
+        <v>16.471</v>
+      </c>
+      <c r="J60" s="1">
+        <v>17.501000000000001</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="N60" s="8">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="P60" s="2">
+        <f>O60*1440-N60*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16" customHeight="1">
       <c r="A61" s="3">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -3440,30 +4098,49 @@
         <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="H61" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I61" s="1">
+        <v>16.632000000000001</v>
+      </c>
+      <c r="J61" s="1">
+        <v>18.053999999999998</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="N61" s="8">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="P61" s="2">
+        <f>O61*1440-N61*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="16" customHeight="1">
       <c r="A62" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -3472,233 +4149,253 @@
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H62" s="1">
+        <v>28</v>
+      </c>
+      <c r="I62" s="1">
+        <v>16.408999999999999</v>
+      </c>
+      <c r="J62" s="1">
+        <v>17.818999999999999</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>30</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="P62" s="2">
+        <f>O62*1440-N62*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16" customHeight="1">
+      <c r="A63" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" s="1">
+        <v>31</v>
+      </c>
+      <c r="I63" s="1">
+        <v>16.768999999999998</v>
+      </c>
+      <c r="J63" s="1">
+        <v>17.815000000000001</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>30</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P63" s="2">
+        <f>O63*1440-N63*1440</f>
+        <v>91.000000000000114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="16" customHeight="1">
+      <c r="A64" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
         <v>21</v>
       </c>
-      <c r="I62" s="1">
-        <v>16.867999999999999</v>
-      </c>
-      <c r="J62" s="1">
-        <v>18.073</v>
-      </c>
-      <c r="K62" s="1">
-        <v>2</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1">
+      <c r="E64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="1">
+        <v>28</v>
+      </c>
+      <c r="I64" s="1">
+        <v>16.584</v>
+      </c>
+      <c r="J64" s="1">
+        <v>17.817</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>30</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="P64" s="2">
+        <f>O64*1440-N64*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="16" customHeight="1">
+      <c r="A65" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="1">
+        <v>27</v>
+      </c>
+      <c r="I65" s="1">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="J65" s="1">
+        <v>18.364000000000001</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1">
+        <v>24</v>
+      </c>
+      <c r="N65" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="P65" s="2">
+        <f>O65*1440-N65*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="16" customHeight="1">
+      <c r="A66" s="3">
+        <v>42731</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N62" s="8">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="O62" s="8">
-        <v>0.48194444444444445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="3">
-        <v>42730</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>12</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="I63" s="1">
-        <v>17.61</v>
-      </c>
-      <c r="J63" s="1">
-        <v>18.916</v>
-      </c>
-      <c r="K63" s="1">
-        <v>2</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1</v>
-      </c>
-      <c r="M63" s="1">
-        <v>26</v>
-      </c>
-      <c r="N63" s="8">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="O63" s="8">
-        <v>0.48333333333333334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="3">
-        <v>42730</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>13</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="I64" s="1">
-        <v>17.622</v>
-      </c>
-      <c r="J64" s="1">
-        <v>18.984999999999999</v>
-      </c>
-      <c r="K64" s="1">
-        <v>2</v>
-      </c>
-      <c r="L64" s="1">
-        <v>1</v>
-      </c>
-      <c r="M64" s="1">
-        <v>26</v>
-      </c>
-      <c r="N64" s="8">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="O64" s="8">
-        <v>0.48472222222222222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="3">
-        <v>42730</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="1">
-        <v>20</v>
-      </c>
-      <c r="I65" s="1">
-        <v>17.824999999999999</v>
-      </c>
-      <c r="J65" s="1">
-        <v>18.922000000000001</v>
-      </c>
-      <c r="K65" s="1">
-        <v>2</v>
-      </c>
-      <c r="L65" s="1">
-        <v>1</v>
-      </c>
-      <c r="M65" s="1">
-        <v>26</v>
-      </c>
-      <c r="N65" s="8">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="O65" s="8">
-        <v>0.4861111111111111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="3">
-        <v>42730</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>15</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="I66" s="1">
-        <v>17.687999999999999</v>
+        <v>16.364000000000001</v>
       </c>
       <c r="J66" s="1">
-        <v>19.093</v>
+        <v>17.797000000000001</v>
       </c>
       <c r="K66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N66" s="8">
-        <v>0.43124999999999997</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="O66" s="8">
-        <v>0.48749999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="P66" s="2">
+        <f>O66*1440-N66*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="16" customHeight="1">
       <c r="A67" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -3707,45 +4404,49 @@
         <v>1</v>
       </c>
       <c r="D67" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H67" s="1">
-        <v>20.5</v>
+        <v>28.5</v>
       </c>
       <c r="I67" s="1">
-        <v>17.675000000000001</v>
+        <v>16.692</v>
       </c>
       <c r="J67" s="1">
-        <v>19.024000000000001</v>
+        <v>17.808</v>
       </c>
       <c r="K67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N67" s="8">
-        <v>0.43333333333333335</v>
+        <v>0.50486111111111109</v>
       </c>
       <c r="O67" s="8">
-        <v>0.48888888888888887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="P67" s="2">
+        <f>O67*1440-N67*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="16" customHeight="1">
       <c r="A68" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -3754,45 +4455,49 @@
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H68" s="1">
-        <v>20</v>
+        <v>23.5</v>
       </c>
       <c r="I68" s="1">
-        <v>17.486000000000001</v>
+        <v>16.228000000000002</v>
       </c>
       <c r="J68" s="1">
-        <v>18.571999999999999</v>
+        <v>17.34</v>
       </c>
       <c r="K68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N68" s="8">
-        <v>0.43402777777777773</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="O68" s="8">
-        <v>0.49027777777777781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="P68" s="2">
+        <f>O68*1440-N68*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="16" customHeight="1">
       <c r="A69" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -3801,45 +4506,49 @@
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H69" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I69" s="1">
-        <v>17.651</v>
+        <v>16.574000000000002</v>
       </c>
       <c r="J69" s="1">
-        <v>19.12</v>
+        <v>17.811</v>
       </c>
       <c r="K69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N69" s="8">
-        <v>0.43541666666666662</v>
+        <v>0.50763888888888886</v>
       </c>
       <c r="O69" s="8">
-        <v>0.4916666666666667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="P69" s="2">
+        <f>O69*1440-N69*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="16" customHeight="1">
       <c r="A70" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
@@ -3848,45 +4557,49 @@
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H70" s="1">
-        <v>20.5</v>
+        <v>28</v>
       </c>
       <c r="I70" s="1">
-        <v>17.3</v>
+        <v>16.603000000000002</v>
       </c>
       <c r="J70" s="1">
-        <v>18.838999999999999</v>
+        <v>17.831</v>
       </c>
       <c r="K70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N70" s="8">
-        <v>0.4368055555555555</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="O70" s="8">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="P70" s="2">
+        <f>O70*1440-N70*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="16" customHeight="1">
       <c r="A71" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -3895,45 +4608,49 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H71" s="1">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="I71" s="1">
-        <v>17.565999999999999</v>
+        <v>16.408000000000001</v>
       </c>
       <c r="J71" s="1">
-        <v>18.672999999999998</v>
+        <v>17.637</v>
       </c>
       <c r="K71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N71" s="8">
-        <v>0.4381944444444445</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="O71" s="8">
-        <v>0.49444444444444446</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="P71" s="2">
+        <f>O71*1440-N71*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="16" customHeight="1">
       <c r="A72" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -3942,45 +4659,49 @@
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H72" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I72" s="1">
-        <v>17.526</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="J72" s="1">
-        <v>18.815999999999999</v>
+        <v>18.053999999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N72" s="8">
-        <v>0.43888888888888888</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="O72" s="8">
-        <v>0.49583333333333335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="P72" s="2">
+        <f>O72*1440-N72*1440</f>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="16" customHeight="1">
       <c r="A73" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -3989,28 +4710,28 @@
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H73" s="1">
-        <v>21</v>
+        <v>29.5</v>
       </c>
       <c r="I73" s="1">
-        <v>16.867999999999999</v>
+        <v>16.664999999999999</v>
       </c>
       <c r="J73" s="1">
-        <v>18.073</v>
+        <v>18.024999999999999</v>
       </c>
       <c r="K73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1">
         <v>2</v>
@@ -4019,15 +4740,19 @@
         <v>24</v>
       </c>
       <c r="N73" s="8">
-        <v>0.52638888888888891</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="O73" s="8">
-        <v>0.58888888888888891</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="P73" s="2">
+        <f>O73*1440-N73*1440</f>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="16" customHeight="1">
       <c r="A74" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -4036,28 +4761,28 @@
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H74" s="1">
-        <v>20.5</v>
+        <v>27</v>
       </c>
       <c r="I74" s="1">
-        <v>17.61</v>
+        <v>16.62</v>
       </c>
       <c r="J74" s="1">
-        <v>18.916</v>
+        <v>17.739000000000001</v>
       </c>
       <c r="K74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1">
         <v>2</v>
@@ -4066,15 +4791,19 @@
         <v>24</v>
       </c>
       <c r="N74" s="8">
-        <v>0.52777777777777779</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="O74" s="8">
-        <v>0.59027777777777779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="P74" s="2">
+        <f>O74*1440-N74*1440</f>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="16" customHeight="1">
       <c r="A75" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -4083,25 +4812,25 @@
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H75" s="1">
-        <v>21.5</v>
+        <v>30.5</v>
       </c>
       <c r="I75" s="1">
-        <v>17.622</v>
+        <v>15.856999999999999</v>
       </c>
       <c r="J75" s="1">
-        <v>18.984999999999999</v>
+        <v>17.038</v>
       </c>
       <c r="K75" s="1">
         <v>2</v>
@@ -4110,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N75" s="8">
         <v>0.52916666666666667</v>
@@ -4118,10 +4847,14 @@
       <c r="O75" s="8">
         <v>0.59166666666666667</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75" s="2">
+        <f>O75*1440-N75*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="16" customHeight="1">
       <c r="A76" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -4130,25 +4863,25 @@
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H76" s="1">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="I76" s="1">
-        <v>17.824999999999999</v>
+        <v>16.600999999999999</v>
       </c>
       <c r="J76" s="1">
-        <v>18.922000000000001</v>
+        <v>17.876000000000001</v>
       </c>
       <c r="K76" s="1">
         <v>2</v>
@@ -4157,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="M76" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N76" s="8">
         <v>0.53055555555555556</v>
@@ -4165,10 +4898,14 @@
       <c r="O76" s="8">
         <v>0.59305555555555556</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76" s="2">
+        <f>O76*1440-N76*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="16" customHeight="1">
       <c r="A77" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
@@ -4177,25 +4914,25 @@
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H77" s="1">
-        <v>19.5</v>
+        <v>27.5</v>
       </c>
       <c r="I77" s="1">
-        <v>17.687999999999999</v>
+        <v>16.603000000000002</v>
       </c>
       <c r="J77" s="1">
-        <v>19.093</v>
+        <v>17.925999999999998</v>
       </c>
       <c r="K77" s="1">
         <v>2</v>
@@ -4204,18 +4941,22 @@
         <v>2</v>
       </c>
       <c r="M77" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N77" s="8">
-        <v>0.53125</v>
+        <v>0.53194444444444444</v>
       </c>
       <c r="O77" s="8">
         <v>0.59444444444444444</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77" s="2">
+        <f>O77*1440-N77*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="16" customHeight="1">
       <c r="A78" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -4224,25 +4965,25 @@
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H78" s="1">
-        <v>20.5</v>
+        <v>30</v>
       </c>
       <c r="I78" s="1">
-        <v>17.675000000000001</v>
+        <v>16.809000000000001</v>
       </c>
       <c r="J78" s="1">
-        <v>19.024000000000001</v>
+        <v>17.898</v>
       </c>
       <c r="K78" s="1">
         <v>2</v>
@@ -4251,18 +4992,22 @@
         <v>2</v>
       </c>
       <c r="M78" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N78" s="8">
         <v>0.53333333333333333</v>
       </c>
       <c r="O78" s="8">
-        <v>0.59513888888888888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="P78" s="2">
+        <f>O78*1440-N78*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="16" customHeight="1">
       <c r="A79" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4271,25 +5016,25 @@
         <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H79" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I79" s="1">
-        <v>17.486000000000001</v>
+        <v>16.666</v>
       </c>
       <c r="J79" s="1">
-        <v>18.571999999999999</v>
+        <v>18.007999999999999</v>
       </c>
       <c r="K79" s="1">
         <v>2</v>
@@ -4298,18 +5043,22 @@
         <v>2</v>
       </c>
       <c r="M79" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N79" s="8">
         <v>0.53472222222222221</v>
       </c>
       <c r="O79" s="8">
-        <v>0.59652777777777777</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="P79" s="2">
+        <f>O79*1440-N79*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="16" customHeight="1">
       <c r="A80" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -4318,25 +5067,25 @@
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H80" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I80" s="1">
-        <v>17.651</v>
+        <v>16.666</v>
       </c>
       <c r="J80" s="1">
-        <v>19.12</v>
+        <v>18.007999999999999</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
@@ -4345,18 +5094,22 @@
         <v>2</v>
       </c>
       <c r="M80" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N80" s="8">
         <v>0.53611111111111109</v>
       </c>
       <c r="O80" s="8">
-        <v>0.59791666666666665</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="P80" s="2">
+        <f>O80*1440-N80*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="16" customHeight="1">
       <c r="A81" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -4365,25 +5118,25 @@
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H81" s="1">
-        <v>20.5</v>
+        <v>28.5</v>
       </c>
       <c r="I81" s="1">
-        <v>17.3</v>
+        <v>16.471</v>
       </c>
       <c r="J81" s="1">
-        <v>18.838999999999999</v>
+        <v>17.501000000000001</v>
       </c>
       <c r="K81" s="1">
         <v>2</v>
@@ -4392,18 +5145,22 @@
         <v>2</v>
       </c>
       <c r="M81" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N81" s="8">
-        <v>0.53749999999999998</v>
+        <v>0.53680555555555554</v>
       </c>
       <c r="O81" s="8">
         <v>0.59930555555555554</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81" s="2">
+        <f>O81*1440-N81*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="16" customHeight="1">
       <c r="A82" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -4412,25 +5169,25 @@
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H82" s="1">
-        <v>19.5</v>
+        <v>28.5</v>
       </c>
       <c r="I82" s="1">
-        <v>17.565999999999999</v>
+        <v>16.632000000000001</v>
       </c>
       <c r="J82" s="1">
-        <v>18.672999999999998</v>
+        <v>18.053999999999998</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
@@ -4439,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="M82" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N82" s="8">
         <v>0.53819444444444442</v>
@@ -4447,10 +5204,14 @@
       <c r="O82" s="8">
         <v>0.60069444444444442</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82" s="2">
+        <f>O82*1440-N82*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="16" customHeight="1">
       <c r="A83" s="3">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -4459,25 +5220,25 @@
         <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H83" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I83" s="1">
-        <v>17.526</v>
+        <v>16.408999999999999</v>
       </c>
       <c r="J83" s="1">
-        <v>18.815999999999999</v>
+        <v>17.818999999999999</v>
       </c>
       <c r="K83" s="1">
         <v>2</v>
@@ -4486,16 +5247,20 @@
         <v>2</v>
       </c>
       <c r="M83" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N83" s="8">
-        <v>0.53888888888888886</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="O83" s="8">
         <v>0.60138888888888886</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83" s="2">
+        <f>O83*1440-N83*1440</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="16" customHeight="1">
       <c r="A84" s="3">
         <v>42731</v>
       </c>
@@ -4506,43 +5271,47 @@
         <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H84" s="1">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="I84" s="1">
-        <v>15.856999999999999</v>
+        <v>16.768999999999998</v>
       </c>
       <c r="J84" s="1">
-        <v>17.038</v>
+        <v>17.815000000000001</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
       </c>
       <c r="L84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N84" s="8">
-        <v>0.42499999999999999</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="O84" s="8">
-        <v>0.48749999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="P84" s="2">
+        <f>O84*1440-N84*1440</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="16" customHeight="1">
       <c r="A85" s="3">
         <v>42731</v>
       </c>
@@ -4553,983 +5322,1070 @@
         <v>1</v>
       </c>
       <c r="D85" s="1">
+        <v>21</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="1">
+        <v>28</v>
+      </c>
+      <c r="I85" s="1">
+        <v>16.584</v>
+      </c>
+      <c r="J85" s="1">
+        <v>17.817</v>
+      </c>
+      <c r="K85" s="1">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>2</v>
+      </c>
+      <c r="M85" s="1">
+        <v>28</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="P85" s="2">
+        <f>O85*1440-N85*1440</f>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="16" customHeight="1">
+      <c r="A86" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H86" s="1">
+        <v>22</v>
+      </c>
+      <c r="I86" s="1">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="J86" s="1">
+        <v>18.379000000000001</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>26</v>
+      </c>
+      <c r="N86" s="8">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="O86" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="P86" s="2">
+        <f t="shared" ref="P86:P87" si="0">O86*1440-N86*1440</f>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="16" customHeight="1">
+      <c r="A87" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="1">
+        <v>23</v>
+      </c>
+      <c r="I87" s="1">
+        <v>16.364999999999998</v>
+      </c>
+      <c r="J87" s="1">
+        <v>17.821000000000002</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>26</v>
+      </c>
+      <c r="N87" s="8">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="O87" s="8">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="P87" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="15"/>
+    </row>
+    <row r="88" spans="1:19" ht="16" customHeight="1">
+      <c r="A88" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I88" s="1">
+        <v>16.696000000000002</v>
+      </c>
+      <c r="J88" s="1">
+        <v>17.818999999999999</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>26</v>
+      </c>
+      <c r="N88" s="9">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="O88" s="8">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="P88" s="2">
+        <f>O88*1440-N88*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="16" customHeight="1">
+      <c r="A89" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I89" s="1">
+        <v>16.236000000000001</v>
+      </c>
+      <c r="J89" s="1">
+        <v>17.343</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>26</v>
+      </c>
+      <c r="N89" s="8">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="O89" s="8">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="P89" s="2">
+        <f>O89*1440-N89*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="16" customHeight="1">
+      <c r="A90" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="1">
+        <v>22</v>
+      </c>
+      <c r="I90" s="1">
+        <v>16.574999999999999</v>
+      </c>
+      <c r="J90" s="1">
+        <v>17.800999999999998</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>26</v>
+      </c>
+      <c r="N90" s="8">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="O90" s="8">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="P90" s="2">
+        <f>O90*1440-N90*1440</f>
+        <v>91.000000000000057</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="16" customHeight="1">
+      <c r="A91" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" s="1">
+        <v>22</v>
+      </c>
+      <c r="I91" s="1">
+        <v>16.663</v>
+      </c>
+      <c r="J91" s="1">
+        <v>17.817</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>26</v>
+      </c>
+      <c r="N91" s="8">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="O91" s="8">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="P91" s="2">
+        <f>O91*1440-N91*1440</f>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="16" customHeight="1">
+      <c r="A92" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="1">
+        <v>22</v>
+      </c>
+      <c r="I92" s="1">
+        <v>16.417999999999999</v>
+      </c>
+      <c r="J92" s="1">
+        <v>17.611000000000001</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>26</v>
+      </c>
+      <c r="N92" s="8">
+        <v>0.34375</v>
+      </c>
+      <c r="O92" s="8">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="P92" s="2">
+        <f>O92*1440-N92*1440</f>
+        <v>91.000000000000114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="16" customHeight="1">
+      <c r="A93" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" s="1">
+        <v>23</v>
+      </c>
+      <c r="I93" s="1">
+        <v>16.585999999999999</v>
+      </c>
+      <c r="J93" s="1">
+        <v>17.981000000000002</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>26</v>
+      </c>
+      <c r="N93" s="8">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="O93" s="8">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="P93" s="2">
+        <f>O93*1440-N93*1440</f>
+        <v>91.000000000000114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="16" customHeight="1">
+      <c r="A94" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I94" s="1">
+        <v>16.664999999999999</v>
+      </c>
+      <c r="J94" s="1">
+        <v>17.995999999999999</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>26</v>
+      </c>
+      <c r="N94" s="8">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="O94" s="8">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="P94" s="2">
+        <f>O94*1440-N94*1440</f>
+        <v>90.999999999999943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="16" customHeight="1">
+      <c r="A95" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" s="1">
+        <v>22</v>
+      </c>
+      <c r="I95" s="1">
+        <v>16.623000000000001</v>
+      </c>
+      <c r="J95" s="1">
+        <v>17.704999999999998</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>26</v>
+      </c>
+      <c r="N95" s="8">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="O95" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="P95" s="2">
+        <f>O95*1440-N95*1440</f>
+        <v>90.000000000000057</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="16" customHeight="1">
+      <c r="A96" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I96" s="1">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="J96" s="1">
+        <v>17.032</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>32</v>
+      </c>
+      <c r="N96" s="8">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="O96" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="P96" s="2">
+        <f>O96*1440-N96*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="16" customHeight="1">
+      <c r="A97" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
         <v>12</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H97" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I97" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J97" s="1">
+        <v>17.87</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>32</v>
+      </c>
+      <c r="N97" s="8">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O97" s="8">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="P97" s="2">
+        <f>O97*1440-N97*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="16" customHeight="1">
+      <c r="A98" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>13</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" s="1">
+        <v>23</v>
+      </c>
+      <c r="I98" s="1">
+        <v>16.61</v>
+      </c>
+      <c r="J98" s="1">
+        <v>17.923999999999999</v>
+      </c>
+      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>32</v>
+      </c>
+      <c r="N98" s="8">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O98" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="P98" s="2">
+        <f>O98*1440-N98*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="16" customHeight="1">
+      <c r="A99" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I99" s="1">
+        <v>16.946999999999999</v>
+      </c>
+      <c r="J99" s="1">
+        <v>18.013999999999999</v>
+      </c>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>32</v>
+      </c>
+      <c r="N99" s="8">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O99" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="P99" s="2">
+        <f>O99*1440-N99*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="16" customHeight="1">
+      <c r="A100" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" s="1">
+        <v>22</v>
+      </c>
+      <c r="I100" s="1">
+        <v>16.66</v>
+      </c>
+      <c r="J100" s="1">
+        <v>18.006</v>
+      </c>
+      <c r="K100" s="1">
+        <v>2</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>32</v>
+      </c>
+      <c r="N100" s="8">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="O100" s="8">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="P100" s="2">
+        <f>O100*1440-N100*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="16" customHeight="1">
+      <c r="A101" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>16</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" s="1">
         <v>27.5</v>
       </c>
-      <c r="I85" s="1">
-        <v>16.600999999999999</v>
-      </c>
-      <c r="J85" s="1">
-        <v>17.876000000000001</v>
-      </c>
-      <c r="K85" s="1">
-        <v>2</v>
-      </c>
-      <c r="L85" s="1">
-        <v>1</v>
-      </c>
-      <c r="M85" s="1">
-        <v>30</v>
-      </c>
-      <c r="N85" s="8">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="O85" s="8">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>13</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H86" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="I86" s="1">
-        <v>16.603000000000002</v>
-      </c>
-      <c r="J86" s="1">
-        <v>17.925999999999998</v>
-      </c>
-      <c r="K86" s="1">
-        <v>2</v>
-      </c>
-      <c r="L86" s="1">
-        <v>1</v>
-      </c>
-      <c r="M86" s="1">
-        <v>30</v>
-      </c>
-      <c r="N86" s="8">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="O86" s="8">
-        <v>0.4909722222222222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="1">
-        <v>30</v>
-      </c>
-      <c r="I87" s="1">
-        <v>16.809000000000001</v>
-      </c>
-      <c r="J87" s="1">
-        <v>17.898</v>
-      </c>
-      <c r="K87" s="1">
-        <v>2</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1</v>
-      </c>
-      <c r="M87" s="1">
-        <v>30</v>
-      </c>
-      <c r="N87" s="8">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="O87" s="8">
-        <v>0.49236111111111108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>15</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H88" s="1">
-        <v>29</v>
-      </c>
-      <c r="I88" s="1">
-        <v>16.666</v>
-      </c>
-      <c r="J88" s="1">
-        <v>18.007999999999999</v>
-      </c>
-      <c r="K88" s="1">
-        <v>2</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1</v>
-      </c>
-      <c r="M88" s="1">
-        <v>30</v>
-      </c>
-      <c r="N88" s="8">
-        <v>0.42986111111111108</v>
-      </c>
-      <c r="O88" s="8">
-        <v>0.49374999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B89" s="1">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>16</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H89" s="1">
-        <v>26</v>
-      </c>
-      <c r="I89" s="1">
-        <v>16.666</v>
-      </c>
-      <c r="J89" s="1">
-        <v>18.007999999999999</v>
-      </c>
-      <c r="K89" s="1">
-        <v>2</v>
-      </c>
-      <c r="L89" s="1">
-        <v>1</v>
-      </c>
-      <c r="M89" s="1">
-        <v>30</v>
-      </c>
-      <c r="N89" s="8">
-        <v>0.43194444444444446</v>
-      </c>
-      <c r="O89" s="8">
-        <v>0.49513888888888885</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B90" s="1">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="I101" s="1">
+        <v>16.661999999999999</v>
+      </c>
+      <c r="J101" s="1">
+        <v>17.974</v>
+      </c>
+      <c r="K101" s="1">
+        <v>2</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>32</v>
+      </c>
+      <c r="N101" s="8">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="O101" s="8">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="P101" s="2">
+        <f>O101*1440-N101*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="16" customHeight="1">
+      <c r="A102" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
         <v>17</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H90" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="I90" s="1">
-        <v>16.471</v>
-      </c>
-      <c r="J90" s="1">
-        <v>17.501000000000001</v>
-      </c>
-      <c r="K90" s="1">
-        <v>2</v>
-      </c>
-      <c r="L90" s="1">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1">
-        <v>30</v>
-      </c>
-      <c r="N90" s="8">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="O90" s="8">
-        <v>0.49583333333333335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="H102" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I102" s="1">
+        <v>16.460999999999999</v>
+      </c>
+      <c r="J102" s="1">
+        <v>17.478999999999999</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>32</v>
+      </c>
+      <c r="N102" s="8">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O102" s="8">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="P102" s="2">
+        <f>O102*1440-N102*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="16" customHeight="1">
+      <c r="A103" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
         <v>18</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H91" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="I91" s="1">
-        <v>16.632000000000001</v>
-      </c>
-      <c r="J91" s="1">
-        <v>18.053999999999998</v>
-      </c>
-      <c r="K91" s="1">
-        <v>2</v>
-      </c>
-      <c r="L91" s="1">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1">
-        <v>30</v>
-      </c>
-      <c r="N91" s="8">
-        <v>0.43472222222222223</v>
-      </c>
-      <c r="O91" s="8">
-        <v>0.49722222222222223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="H103" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I103" s="1">
+        <v>16.631</v>
+      </c>
+      <c r="J103" s="1">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="K103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>32</v>
+      </c>
+      <c r="N103" s="8">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="O103" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="P103" s="2">
+        <f>O103*1440-N103*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="16" customHeight="1">
+      <c r="A104" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
         <v>19</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H92" s="1">
-        <v>28</v>
-      </c>
-      <c r="I92" s="1">
-        <v>16.408999999999999</v>
-      </c>
-      <c r="J92" s="1">
-        <v>17.818999999999999</v>
-      </c>
-      <c r="K92" s="1">
-        <v>2</v>
-      </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-      <c r="M92" s="1">
-        <v>30</v>
-      </c>
-      <c r="N92" s="8">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="O92" s="8">
-        <v>0.49861111111111112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B93" s="1">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="H104" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I104" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="J104" s="1">
+        <v>17.788</v>
+      </c>
+      <c r="K104" s="1">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>32</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="P104" s="2">
+        <f>O104*1440-N104*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="16" customHeight="1">
+      <c r="A105" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
         <v>20</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="1">
-        <v>31</v>
-      </c>
-      <c r="I93" s="1">
-        <v>16.768999999999998</v>
-      </c>
-      <c r="J93" s="1">
-        <v>17.815000000000001</v>
-      </c>
-      <c r="K93" s="1">
-        <v>2</v>
-      </c>
-      <c r="L93" s="1">
-        <v>1</v>
-      </c>
-      <c r="M93" s="1">
-        <v>30</v>
-      </c>
-      <c r="N93" s="8">
-        <v>0.4368055555555555</v>
-      </c>
-      <c r="O93" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" s="1">
-        <v>21</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H94" s="1">
-        <v>28</v>
-      </c>
-      <c r="I94" s="1">
-        <v>16.584</v>
-      </c>
-      <c r="J94" s="1">
-        <v>17.817</v>
-      </c>
-      <c r="K94" s="1">
-        <v>2</v>
-      </c>
-      <c r="L94" s="1">
-        <v>1</v>
-      </c>
-      <c r="M94" s="1">
-        <v>30</v>
-      </c>
-      <c r="N94" s="8">
-        <v>0.4375</v>
-      </c>
-      <c r="O94" s="8">
-        <v>0.50138888888888888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1">
-        <v>11</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="I95" s="1">
-        <v>15.856999999999999</v>
-      </c>
-      <c r="J95" s="1">
-        <v>17.038</v>
-      </c>
-      <c r="K95" s="1">
-        <v>2</v>
-      </c>
-      <c r="L95" s="1">
-        <v>2</v>
-      </c>
-      <c r="M95" s="1">
-        <v>28</v>
-      </c>
-      <c r="N95" s="8">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="O95" s="8">
-        <v>0.59166666666666667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1">
-        <v>12</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H96" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="I96" s="1">
-        <v>16.600999999999999</v>
-      </c>
-      <c r="J96" s="1">
-        <v>17.876000000000001</v>
-      </c>
-      <c r="K96" s="1">
-        <v>2</v>
-      </c>
-      <c r="L96" s="1">
-        <v>2</v>
-      </c>
-      <c r="M96" s="1">
-        <v>28</v>
-      </c>
-      <c r="N96" s="8">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="O96" s="8">
-        <v>0.59305555555555556</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-      <c r="D97" s="1">
-        <v>13</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H97" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="I97" s="1">
-        <v>16.603000000000002</v>
-      </c>
-      <c r="J97" s="1">
-        <v>17.925999999999998</v>
-      </c>
-      <c r="K97" s="1">
-        <v>2</v>
-      </c>
-      <c r="L97" s="1">
-        <v>2</v>
-      </c>
-      <c r="M97" s="1">
-        <v>28</v>
-      </c>
-      <c r="N97" s="8">
-        <v>0.53194444444444444</v>
-      </c>
-      <c r="O97" s="8">
-        <v>0.59444444444444444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H98" s="1">
-        <v>30</v>
-      </c>
-      <c r="I98" s="1">
-        <v>16.809000000000001</v>
-      </c>
-      <c r="J98" s="1">
-        <v>17.898</v>
-      </c>
-      <c r="K98" s="1">
-        <v>2</v>
-      </c>
-      <c r="L98" s="1">
-        <v>2</v>
-      </c>
-      <c r="M98" s="1">
-        <v>28</v>
-      </c>
-      <c r="N98" s="8">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="O98" s="8">
-        <v>0.59583333333333333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1">
-        <v>15</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="1">
-        <v>29</v>
-      </c>
-      <c r="I99" s="1">
-        <v>16.666</v>
-      </c>
-      <c r="J99" s="1">
-        <v>18.007999999999999</v>
-      </c>
-      <c r="K99" s="1">
-        <v>2</v>
-      </c>
-      <c r="L99" s="1">
-        <v>2</v>
-      </c>
-      <c r="M99" s="1">
-        <v>28</v>
-      </c>
-      <c r="N99" s="8">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="O99" s="8">
-        <v>0.59722222222222221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1">
-        <v>16</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H100" s="1">
-        <v>26</v>
-      </c>
-      <c r="I100" s="1">
-        <v>16.666</v>
-      </c>
-      <c r="J100" s="1">
-        <v>18.007999999999999</v>
-      </c>
-      <c r="K100" s="1">
-        <v>2</v>
-      </c>
-      <c r="L100" s="1">
-        <v>2</v>
-      </c>
-      <c r="M100" s="1">
-        <v>28</v>
-      </c>
-      <c r="N100" s="8">
-        <v>0.53611111111111109</v>
-      </c>
-      <c r="O100" s="8">
-        <v>0.59861111111111109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B101" s="1">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1">
-        <v>17</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H101" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="I101" s="1">
-        <v>16.471</v>
-      </c>
-      <c r="J101" s="1">
-        <v>17.501000000000001</v>
-      </c>
-      <c r="K101" s="1">
-        <v>2</v>
-      </c>
-      <c r="L101" s="1">
-        <v>2</v>
-      </c>
-      <c r="M101" s="1">
-        <v>28</v>
-      </c>
-      <c r="N101" s="8">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="O101" s="8">
-        <v>0.59930555555555554</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B102" s="1">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1">
-        <v>18</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H102" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="I102" s="1">
-        <v>16.632000000000001</v>
-      </c>
-      <c r="J102" s="1">
-        <v>18.053999999999998</v>
-      </c>
-      <c r="K102" s="1">
-        <v>2</v>
-      </c>
-      <c r="L102" s="1">
-        <v>2</v>
-      </c>
-      <c r="M102" s="1">
-        <v>28</v>
-      </c>
-      <c r="N102" s="8">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="O102" s="8">
-        <v>0.60069444444444442</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B103" s="1">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1">
-        <v>19</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H103" s="1">
-        <v>28</v>
-      </c>
-      <c r="I103" s="1">
-        <v>16.408999999999999</v>
-      </c>
-      <c r="J103" s="1">
-        <v>17.818999999999999</v>
-      </c>
-      <c r="K103" s="1">
-        <v>2</v>
-      </c>
-      <c r="L103" s="1">
-        <v>2</v>
-      </c>
-      <c r="M103" s="1">
-        <v>28</v>
-      </c>
-      <c r="N103" s="8">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="O103" s="8">
-        <v>0.60138888888888886</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B104" s="1">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1">
-        <v>20</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H104" s="1">
-        <v>31</v>
-      </c>
-      <c r="I104" s="1">
-        <v>16.768999999999998</v>
-      </c>
-      <c r="J104" s="1">
-        <v>17.815000000000001</v>
-      </c>
-      <c r="K104" s="1">
-        <v>2</v>
-      </c>
-      <c r="L104" s="1">
-        <v>2</v>
-      </c>
-      <c r="M104" s="1">
-        <v>28</v>
-      </c>
-      <c r="N104" s="8">
-        <v>0.54097222222222219</v>
-      </c>
-      <c r="O104" s="8">
-        <v>0.60277777777777775</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="3">
-        <v>42731</v>
-      </c>
-      <c r="B105" s="1">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1">
-        <v>21</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H105" s="1">
-        <v>28</v>
+        <v>23.5</v>
       </c>
       <c r="I105" s="1">
-        <v>16.584</v>
+        <v>16.527000000000001</v>
       </c>
       <c r="J105" s="1">
-        <v>17.817</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="K105" s="1">
         <v>2</v>
       </c>
       <c r="L105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M105" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N105" s="8">
-        <v>0.54236111111111118</v>
+        <v>0.38819444444444445</v>
       </c>
       <c r="O105" s="8">
-        <v>0.60555555555555551</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="P105" s="2">
+        <f>O105*1440-N105*1440</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="16" customHeight="1">
       <c r="A106" s="3">
         <v>42732</v>
       </c>
@@ -5540,16 +6396,25 @@
         <v>1</v>
       </c>
       <c r="D106" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="H106" s="1">
+        <v>23</v>
+      </c>
+      <c r="I106" s="1">
+        <v>16.46</v>
+      </c>
+      <c r="J106" s="1">
+        <v>17.675000000000001</v>
       </c>
       <c r="K106" s="1">
         <v>2</v>
@@ -5560,40 +6425,69 @@
       <c r="M106" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="N106" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O106" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="P106" s="2">
+        <f>O106*1440-N106*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="16" customHeight="1">
       <c r="A107" s="3">
         <v>42732</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
       </c>
       <c r="D107" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="H107" s="1">
+        <v>22</v>
+      </c>
+      <c r="I107" s="1">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="J107" s="1">
+        <v>18.379000000000001</v>
       </c>
       <c r="K107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M107" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="N107" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="O107" s="8">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="P107" s="2">
+        <f>O107*1440-N107*1440</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="16" customHeight="1">
       <c r="A108" s="3">
         <v>42732</v>
       </c>
@@ -5604,28 +6498,47 @@
         <v>1</v>
       </c>
       <c r="D108" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="H108" s="1">
+        <v>23</v>
+      </c>
+      <c r="I108" s="1">
+        <v>16.364999999999998</v>
+      </c>
+      <c r="J108" s="1">
+        <v>17.821000000000002</v>
       </c>
       <c r="K108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M108" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="N108" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="O108" s="8">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="P108" s="2">
+        <f>O108*1440-N108*1440</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="16" customHeight="1">
       <c r="A109" s="3">
         <v>42732</v>
       </c>
@@ -5636,28 +6549,47 @@
         <v>1</v>
       </c>
       <c r="D109" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="H109" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I109" s="1">
+        <v>16.696000000000002</v>
+      </c>
+      <c r="J109" s="1">
+        <v>17.818999999999999</v>
       </c>
       <c r="K109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M109" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="N109" s="8">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="O109" s="8">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="P109" s="2">
+        <f>O109*1440-N109*1440</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="16" customHeight="1">
       <c r="A110" s="3">
         <v>42732</v>
       </c>
@@ -5668,28 +6600,47 @@
         <v>1</v>
       </c>
       <c r="D110" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="H110" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="I110" s="1">
+        <v>16.236000000000001</v>
+      </c>
+      <c r="J110" s="1">
+        <v>17.343</v>
       </c>
       <c r="K110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="N110" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="O110" s="8">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="P110" s="2">
+        <f>O110*1440-N110*1440</f>
+        <v>81.000000000000114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="16" customHeight="1">
       <c r="A111" s="3">
         <v>42732</v>
       </c>
@@ -5700,28 +6651,47 @@
         <v>1</v>
       </c>
       <c r="D111" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="H111" s="1">
+        <v>22</v>
+      </c>
+      <c r="I111" s="1">
+        <v>16.574999999999999</v>
+      </c>
+      <c r="J111" s="1">
+        <v>17.800999999999998</v>
       </c>
       <c r="K111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M111" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="N111" s="8">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="O111" s="8">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="P111" s="2">
+        <f>O111*1440-N111*1440</f>
+        <v>82.000000000000114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="16" customHeight="1">
       <c r="A112" s="3">
         <v>42732</v>
       </c>
@@ -5732,28 +6702,47 @@
         <v>1</v>
       </c>
       <c r="D112" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="H112" s="1">
+        <v>22</v>
+      </c>
+      <c r="I112" s="1">
+        <v>16.663</v>
+      </c>
+      <c r="J112" s="1">
+        <v>17.817</v>
       </c>
       <c r="K112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N112" s="8">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="O112" s="8">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="P112" s="2">
+        <f>O112*1440-N112*1440</f>
+        <v>82.000000000000114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="16" customHeight="1">
       <c r="A113" s="3">
         <v>42732</v>
       </c>
@@ -5764,28 +6753,47 @@
         <v>1</v>
       </c>
       <c r="D113" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="H113" s="1">
+        <v>22</v>
+      </c>
+      <c r="I113" s="1">
+        <v>16.417999999999999</v>
+      </c>
+      <c r="J113" s="1">
+        <v>17.611000000000001</v>
       </c>
       <c r="K113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M113" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N113" s="8">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="O113" s="8">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="P113" s="2">
+        <f>O113*1440-N113*1440</f>
+        <v>81.999999999999886</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="16" customHeight="1">
       <c r="A114" s="3">
         <v>42732</v>
       </c>
@@ -5796,28 +6804,47 @@
         <v>1</v>
       </c>
       <c r="D114" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="H114" s="1">
+        <v>23</v>
+      </c>
+      <c r="I114" s="1">
+        <v>16.585999999999999</v>
+      </c>
+      <c r="J114" s="1">
+        <v>17.981000000000002</v>
       </c>
       <c r="K114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M114" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N114" s="8">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="O114" s="8">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="P114" s="2">
+        <f>O114*1440-N114*1440</f>
+        <v>81.000000000000114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="16" customHeight="1">
       <c r="A115" s="3">
         <v>42732</v>
       </c>
@@ -5828,28 +6855,47 @@
         <v>1</v>
       </c>
       <c r="D115" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="H115" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I115" s="1">
+        <v>16.664999999999999</v>
+      </c>
+      <c r="J115" s="1">
+        <v>17.995999999999999</v>
       </c>
       <c r="K115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N115" s="8">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="O115" s="8">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="P115" s="2">
+        <f>O115*1440-N115*1440</f>
+        <v>81.000000000000114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="16" customHeight="1">
       <c r="A116" s="3">
         <v>42732</v>
       </c>
@@ -5860,28 +6906,47 @@
         <v>1</v>
       </c>
       <c r="D116" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="H116" s="1">
+        <v>22</v>
+      </c>
+      <c r="I116" s="1">
+        <v>16.623000000000001</v>
+      </c>
+      <c r="J116" s="1">
+        <v>17.704999999999998</v>
       </c>
       <c r="K116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="N116" s="8">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="O116" s="8">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="P116" s="2">
+        <f>O116*1440-N116*1440</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="16" customHeight="1">
       <c r="A117" s="3">
         <v>42732</v>
       </c>
@@ -5903,6 +6968,15 @@
       <c r="G117" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="H117" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I117" s="1">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="J117" s="1">
+        <v>17.032</v>
+      </c>
       <c r="K117" s="1">
         <v>2</v>
       </c>
@@ -5912,8 +6986,18 @@
       <c r="M117" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="8">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="O117" s="8">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="P117" s="2">
+        <f>O117*1440-N117*1440</f>
+        <v>90.000000000000114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="16" customHeight="1">
       <c r="A118" s="3">
         <v>42732</v>
       </c>
@@ -5935,6 +7019,15 @@
       <c r="G118" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H118" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I118" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J118" s="1">
+        <v>17.87</v>
+      </c>
       <c r="K118" s="1">
         <v>2</v>
       </c>
@@ -5944,8 +7037,18 @@
       <c r="M118" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="8">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="O118" s="8">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="P118" s="2">
+        <f>O118*1440-N118*1440</f>
+        <v>90.000000000000114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="16" customHeight="1">
       <c r="A119" s="3">
         <v>42732</v>
       </c>
@@ -5967,6 +7070,15 @@
       <c r="G119" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="H119" s="1">
+        <v>23</v>
+      </c>
+      <c r="I119" s="1">
+        <v>16.61</v>
+      </c>
+      <c r="J119" s="1">
+        <v>17.923999999999999</v>
+      </c>
       <c r="K119" s="1">
         <v>2</v>
       </c>
@@ -5976,8 +7088,18 @@
       <c r="M119" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O119" s="8">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="P119" s="2">
+        <f>O119*1440-N119*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="16" customHeight="1">
       <c r="A120" s="3">
         <v>42732</v>
       </c>
@@ -5999,6 +7121,15 @@
       <c r="G120" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="H120" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I120" s="1">
+        <v>16.946999999999999</v>
+      </c>
+      <c r="J120" s="1">
+        <v>18.013999999999999</v>
+      </c>
       <c r="K120" s="1">
         <v>2</v>
       </c>
@@ -6008,8 +7139,18 @@
       <c r="M120" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="8">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="O120" s="8">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="P120" s="2">
+        <f>O120*1440-N120*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="16" customHeight="1">
       <c r="A121" s="3">
         <v>42732</v>
       </c>
@@ -6031,6 +7172,15 @@
       <c r="G121" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="H121" s="1">
+        <v>22</v>
+      </c>
+      <c r="I121" s="1">
+        <v>16.66</v>
+      </c>
+      <c r="J121" s="1">
+        <v>18.006</v>
+      </c>
       <c r="K121" s="1">
         <v>2</v>
       </c>
@@ -6040,8 +7190,18 @@
       <c r="M121" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O121" s="8">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="P121" s="2">
+        <f>O121*1440-N121*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="16" customHeight="1">
       <c r="A122" s="3">
         <v>42732</v>
       </c>
@@ -6063,6 +7223,15 @@
       <c r="G122" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="H122" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I122" s="1">
+        <v>16.661999999999999</v>
+      </c>
+      <c r="J122" s="1">
+        <v>17.974</v>
+      </c>
       <c r="K122" s="1">
         <v>2</v>
       </c>
@@ -6072,8 +7241,18 @@
       <c r="M122" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="8">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O122" s="8">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="P122" s="2">
+        <f>O122*1440-N122*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="16" customHeight="1">
       <c r="A123" s="3">
         <v>42732</v>
       </c>
@@ -6095,6 +7274,15 @@
       <c r="G123" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="H123" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I123" s="1">
+        <v>16.460999999999999</v>
+      </c>
+      <c r="J123" s="1">
+        <v>17.478999999999999</v>
+      </c>
       <c r="K123" s="1">
         <v>2</v>
       </c>
@@ -6104,8 +7292,18 @@
       <c r="M123" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="8">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="O123" s="8">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="P123" s="2">
+        <f>O123*1440-N123*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="16" customHeight="1">
       <c r="A124" s="3">
         <v>42732</v>
       </c>
@@ -6127,6 +7325,15 @@
       <c r="G124" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H124" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I124" s="1">
+        <v>16.631</v>
+      </c>
+      <c r="J124" s="1">
+        <v>18.015000000000001</v>
+      </c>
       <c r="K124" s="1">
         <v>2</v>
       </c>
@@ -6136,8 +7343,18 @@
       <c r="M124" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="8">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="O124" s="8">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="P124" s="2">
+        <f>O124*1440-N124*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="16" customHeight="1">
       <c r="A125" s="3">
         <v>42732</v>
       </c>
@@ -6159,6 +7376,15 @@
       <c r="G125" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="H125" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I125" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="J125" s="1">
+        <v>17.788</v>
+      </c>
       <c r="K125" s="1">
         <v>2</v>
       </c>
@@ -6168,8 +7394,18 @@
       <c r="M125" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="8">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="O125" s="8">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="P125" s="2">
+        <f>O125*1440-N125*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="16" customHeight="1">
       <c r="A126" s="3">
         <v>42732</v>
       </c>
@@ -6191,6 +7427,15 @@
       <c r="G126" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H126" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I126" s="1">
+        <v>16.527000000000001</v>
+      </c>
+      <c r="J126" s="1">
+        <v>17.559999999999999</v>
+      </c>
       <c r="K126" s="1">
         <v>2</v>
       </c>
@@ -6200,8 +7445,18 @@
       <c r="M126" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="8">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="O126" s="8">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="P126" s="2">
+        <f>O126*1440-N126*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="16" customHeight="1">
       <c r="A127" s="3">
         <v>42732</v>
       </c>
@@ -6223,6 +7478,15 @@
       <c r="G127" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="H127" s="1">
+        <v>23</v>
+      </c>
+      <c r="I127" s="1">
+        <v>16.46</v>
+      </c>
+      <c r="J127" s="1">
+        <v>17.675000000000001</v>
+      </c>
       <c r="K127" s="1">
         <v>2</v>
       </c>
@@ -6232,10 +7496,21 @@
       <c r="M127" s="1">
         <v>22</v>
       </c>
+      <c r="N127" s="8">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="O127" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="P127" s="2">
+        <f>O127*1440-N127*1440</f>
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:X127">
-    <sortCondition ref="K2:K127"/>
+  <sortState ref="A2:Y127">
+    <sortCondition ref="A2:A127"/>
+    <sortCondition ref="L2:L127"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6249,12 +7524,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="137">
   <si>
     <t>date</t>
   </si>
@@ -305,15 +305,142 @@
   </si>
   <si>
     <t>defecate</t>
+  </si>
+  <si>
+    <t>ld0175</t>
+  </si>
+  <si>
+    <t>tc0234</t>
+  </si>
+  <si>
+    <t>ld0104</t>
+  </si>
+  <si>
+    <t>tc0225</t>
+  </si>
+  <si>
+    <t>ld0043</t>
+  </si>
+  <si>
+    <t>tc0104</t>
+  </si>
+  <si>
+    <t>ld0076</t>
+  </si>
+  <si>
+    <t>tc0150</t>
+  </si>
+  <si>
+    <t>ld0128</t>
+  </si>
+  <si>
+    <t>tc0305</t>
+  </si>
+  <si>
+    <t>ld0138</t>
+  </si>
+  <si>
+    <t>tc0323</t>
+  </si>
+  <si>
+    <t>ld0171</t>
+  </si>
+  <si>
+    <t>tc0311</t>
+  </si>
+  <si>
+    <t>ld0111</t>
+  </si>
+  <si>
+    <t>tc0242</t>
+  </si>
+  <si>
+    <t>ld0119</t>
+  </si>
+  <si>
+    <t>tc0252</t>
+  </si>
+  <si>
+    <t>ld0092</t>
+  </si>
+  <si>
+    <t>tc0212</t>
+  </si>
+  <si>
+    <t>ld0077</t>
+  </si>
+  <si>
+    <t>tc0151</t>
+  </si>
+  <si>
+    <t>ld0013</t>
+  </si>
+  <si>
+    <t>tc0021</t>
+  </si>
+  <si>
+    <t>ld0075</t>
+  </si>
+  <si>
+    <t>tc0145</t>
+  </si>
+  <si>
+    <t>ld0006</t>
+  </si>
+  <si>
+    <t>tc0010</t>
+  </si>
+  <si>
+    <t>ld0143</t>
+  </si>
+  <si>
+    <t>tc0333</t>
+  </si>
+  <si>
+    <t>ld0069</t>
+  </si>
+  <si>
+    <t>tc0142</t>
+  </si>
+  <si>
+    <t>ld0137</t>
+  </si>
+  <si>
+    <t>tc0322</t>
+  </si>
+  <si>
+    <t>ld0065</t>
+  </si>
+  <si>
+    <t>tc0134</t>
+  </si>
+  <si>
+    <t>ld0153</t>
+  </si>
+  <si>
+    <t>tc0350</t>
+  </si>
+  <si>
+    <t>ld0107</t>
+  </si>
+  <si>
+    <t>tc0232</t>
+  </si>
+  <si>
+    <t>ld0115</t>
+  </si>
+  <si>
+    <t>tc0244</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -359,7 +486,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +511,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,8 +622,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,8 +705,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="128">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -588,6 +770,23 @@
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -633,6 +832,23 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -962,10 +1178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AB212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P200" sqref="P200:P212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -978,8 +1195,8 @@
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
@@ -1017,10 +1234,10 @@
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1103,10 +1320,10 @@
       <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="20">
         <v>18.059000000000001</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="20">
         <v>19.408000000000001</v>
       </c>
       <c r="K2" s="1">
@@ -1154,10 +1371,10 @@
       <c r="H3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="20">
         <v>17.395</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="20">
         <v>18.853000000000002</v>
       </c>
       <c r="K3" s="1">
@@ -1176,7 +1393,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="P3" s="2">
-        <f>O3*1440-N3*1440</f>
+        <f t="shared" ref="P3:P66" si="0">O3*1440-N3*1440</f>
         <v>109</v>
       </c>
     </row>
@@ -1205,10 +1422,10 @@
       <c r="H4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="20">
         <v>17.725999999999999</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="20">
         <v>18.972999999999999</v>
       </c>
       <c r="K4" s="1">
@@ -1227,7 +1444,7 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="P4" s="2">
-        <f>O4*1440-N4*1440</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -1256,10 +1473,10 @@
       <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="20">
         <v>17.256</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="20">
         <v>18.404</v>
       </c>
       <c r="K5" s="1">
@@ -1278,7 +1495,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="P5" s="2">
-        <f>O5*1440-N5*1440</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -1307,10 +1524,10 @@
       <c r="H6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="20">
         <v>17.593</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="20">
         <v>18.861999999999998</v>
       </c>
       <c r="K6" s="1">
@@ -1329,7 +1546,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="P6" s="2">
-        <f>O6*1440-N6*1440</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -1358,10 +1575,10 @@
       <c r="H7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="20">
         <v>17.199000000000002</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="20">
         <v>18.835999999999999</v>
       </c>
       <c r="K7" s="1">
@@ -1380,7 +1597,7 @@
         <v>0.44722222222222219</v>
       </c>
       <c r="P7" s="2">
-        <f>O7*1440-N7*1440</f>
+        <f t="shared" si="0"/>
         <v>109.00000000000011</v>
       </c>
     </row>
@@ -1409,10 +1626,10 @@
       <c r="H8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="20">
         <v>17.425999999999998</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="20">
         <v>18.689</v>
       </c>
       <c r="K8" s="1">
@@ -1431,7 +1648,7 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="P8" s="2">
-        <f>O8*1440-N8*1440</f>
+        <f t="shared" si="0"/>
         <v>110.00000000000011</v>
       </c>
     </row>
@@ -1460,10 +1677,10 @@
       <c r="H9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="20">
         <v>17.422000000000001</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="20">
         <v>19.123999999999999</v>
       </c>
       <c r="K9" s="1">
@@ -1482,7 +1699,7 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="P9" s="2">
-        <f>O9*1440-N9*1440</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
     </row>
@@ -1511,10 +1728,10 @@
       <c r="H10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="20">
         <v>17.696000000000002</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="20">
         <v>19.064</v>
       </c>
       <c r="K10" s="1">
@@ -1533,7 +1750,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="P10" s="2">
-        <f>O10*1440-N10*1440</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
     </row>
@@ -1562,10 +1779,10 @@
       <c r="H11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="20">
         <v>17.629000000000001</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="20">
         <v>18.766999999999999</v>
       </c>
       <c r="K11" s="1">
@@ -1584,7 +1801,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="P11" s="2">
-        <f>O11*1440-N11*1440</f>
+        <f t="shared" si="0"/>
         <v>109.99999999999989</v>
       </c>
     </row>
@@ -1613,10 +1830,10 @@
       <c r="H12" s="1">
         <v>21</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="20">
         <v>16.867999999999999</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="20">
         <v>18.073</v>
       </c>
       <c r="K12" s="1">
@@ -1635,7 +1852,7 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="P12" s="2">
-        <f>O12*1440-N12*1440</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1664,10 +1881,10 @@
       <c r="H13" s="1">
         <v>20.5</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="20">
         <v>17.61</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="20">
         <v>18.916</v>
       </c>
       <c r="K13" s="1">
@@ -1686,7 +1903,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="P13" s="2">
-        <f>O13*1440-N13*1440</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1715,10 +1932,10 @@
       <c r="H14" s="1">
         <v>21.5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="20">
         <v>17.622</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="20">
         <v>18.984999999999999</v>
       </c>
       <c r="K14" s="1">
@@ -1737,7 +1954,7 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="P14" s="2">
-        <f>O14*1440-N14*1440</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1766,10 +1983,10 @@
       <c r="H15" s="1">
         <v>20</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="20">
         <v>17.824999999999999</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="20">
         <v>18.922000000000001</v>
       </c>
       <c r="K15" s="1">
@@ -1788,7 +2005,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="P15" s="2">
-        <f>O15*1440-N15*1440</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1817,10 +2034,10 @@
       <c r="H16" s="1">
         <v>19.5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="20">
         <v>17.687999999999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="20">
         <v>19.093</v>
       </c>
       <c r="K16" s="1">
@@ -1839,7 +2056,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="P16" s="2">
-        <f>O16*1440-N16*1440</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -1868,10 +2085,10 @@
       <c r="H17" s="1">
         <v>20.5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="20">
         <v>17.675000000000001</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="20">
         <v>19.024000000000001</v>
       </c>
       <c r="K17" s="1">
@@ -1890,7 +2107,7 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="P17" s="2">
-        <f>O17*1440-N17*1440</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1919,10 +2136,10 @@
       <c r="H18" s="1">
         <v>20</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="20">
         <v>17.486000000000001</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="20">
         <v>18.571999999999999</v>
       </c>
       <c r="K18" s="1">
@@ -1941,7 +2158,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="P18" s="2">
-        <f>O18*1440-N18*1440</f>
+        <f t="shared" si="0"/>
         <v>81.000000000000114</v>
       </c>
     </row>
@@ -1970,10 +2187,10 @@
       <c r="H19" s="1">
         <v>21</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="20">
         <v>17.651</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="20">
         <v>19.12</v>
       </c>
       <c r="K19" s="1">
@@ -1992,7 +2209,7 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="P19" s="2">
-        <f>O19*1440-N19*1440</f>
+        <f t="shared" si="0"/>
         <v>81.000000000000114</v>
       </c>
     </row>
@@ -2021,10 +2238,10 @@
       <c r="H20" s="1">
         <v>20.5</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="20">
         <v>17.3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="20">
         <v>18.838999999999999</v>
       </c>
       <c r="K20" s="1">
@@ -2043,7 +2260,7 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="P20" s="2">
-        <f>O20*1440-N20*1440</f>
+        <f t="shared" si="0"/>
         <v>81.000000000000114</v>
       </c>
     </row>
@@ -2072,10 +2289,10 @@
       <c r="H21" s="1">
         <v>19.5</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="20">
         <v>17.565999999999999</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="20">
         <v>18.672999999999998</v>
       </c>
       <c r="K21" s="1">
@@ -2094,7 +2311,7 @@
         <v>0.49444444444444446</v>
       </c>
       <c r="P21" s="2">
-        <f>O21*1440-N21*1440</f>
+        <f t="shared" si="0"/>
         <v>80.999999999999886</v>
       </c>
     </row>
@@ -2123,10 +2340,10 @@
       <c r="H22" s="1">
         <v>21</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="20">
         <v>17.526</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="20">
         <v>18.815999999999999</v>
       </c>
       <c r="K22" s="1">
@@ -2145,7 +2362,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="P22" s="2">
-        <f>O22*1440-N22*1440</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
@@ -2174,10 +2391,10 @@
       <c r="H23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="20">
         <v>18.059000000000001</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="20">
         <v>19.408000000000001</v>
       </c>
       <c r="K23" s="1">
@@ -2196,7 +2413,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="P23" s="2">
-        <f>O23*1440-N23*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2225,10 +2442,10 @@
       <c r="H24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="20">
         <v>17.395</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="20">
         <v>18.853000000000002</v>
       </c>
       <c r="K24" s="1">
@@ -2247,7 +2464,7 @@
         <v>0.55972222222222223</v>
       </c>
       <c r="P24" s="2">
-        <f>O24*1440-N24*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2276,10 +2493,10 @@
       <c r="H25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="20">
         <v>17.725999999999999</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="20">
         <v>18.972999999999999</v>
       </c>
       <c r="K25" s="1">
@@ -2298,7 +2515,7 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="P25" s="2">
-        <f>O25*1440-N25*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2327,10 +2544,10 @@
       <c r="H26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="20">
         <v>17.256</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="20">
         <v>18.404</v>
       </c>
       <c r="K26" s="1">
@@ -2349,7 +2566,7 @@
         <v>0.5625</v>
       </c>
       <c r="P26" s="2">
-        <f>O26*1440-N26*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2378,10 +2595,10 @@
       <c r="H27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="20">
         <v>17.593</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="20">
         <v>18.861999999999998</v>
       </c>
       <c r="K27" s="1">
@@ -2400,7 +2617,7 @@
         <v>0.56388888888888888</v>
       </c>
       <c r="P27" s="2">
-        <f>O27*1440-N27*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -2429,10 +2646,10 @@
       <c r="H28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="20">
         <v>17.199000000000002</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="20">
         <v>18.835999999999999</v>
       </c>
       <c r="K28" s="1">
@@ -2451,7 +2668,7 @@
         <v>0.56527777777777777</v>
       </c>
       <c r="P28" s="2">
-        <f>O28*1440-N28*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -2480,10 +2697,10 @@
       <c r="H29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="20">
         <v>17.425999999999998</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="20">
         <v>18.689</v>
       </c>
       <c r="K29" s="1">
@@ -2502,7 +2719,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="P29" s="2">
-        <f>O29*1440-N29*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -2531,10 +2748,10 @@
       <c r="H30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="20">
         <v>17.422000000000001</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="20">
         <v>19.123999999999999</v>
       </c>
       <c r="K30" s="1">
@@ -2553,7 +2770,7 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="P30" s="2">
-        <f>O30*1440-N30*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -2582,10 +2799,10 @@
       <c r="H31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="20">
         <v>17.696000000000002</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="20">
         <v>19.064</v>
       </c>
       <c r="K31" s="1">
@@ -2604,7 +2821,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="P31" s="2">
-        <f>O31*1440-N31*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -2633,10 +2850,10 @@
       <c r="H32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="20">
         <v>17.629000000000001</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="20">
         <v>18.766999999999999</v>
       </c>
       <c r="K32" s="1">
@@ -2655,7 +2872,7 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="P32" s="2">
-        <f>O32*1440-N32*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2684,10 +2901,10 @@
       <c r="H33" s="1">
         <v>21</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="20">
         <v>16.867999999999999</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="20">
         <v>18.073</v>
       </c>
       <c r="K33" s="1">
@@ -2706,7 +2923,7 @@
         <v>0.58888888888888891</v>
       </c>
       <c r="P33" s="2">
-        <f>O33*1440-N33*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2735,10 +2952,10 @@
       <c r="H34" s="1">
         <v>20.5</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="20">
         <v>17.61</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="20">
         <v>18.916</v>
       </c>
       <c r="K34" s="1">
@@ -2757,7 +2974,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="P34" s="2">
-        <f>O34*1440-N34*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2786,10 +3003,10 @@
       <c r="H35" s="1">
         <v>21.5</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="20">
         <v>17.622</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="20">
         <v>18.984999999999999</v>
       </c>
       <c r="K35" s="1">
@@ -2808,7 +3025,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="P35" s="2">
-        <f>O35*1440-N35*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2837,10 +3054,10 @@
       <c r="H36" s="1">
         <v>20</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="20">
         <v>17.824999999999999</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="20">
         <v>18.922000000000001</v>
       </c>
       <c r="K36" s="1">
@@ -2859,7 +3076,7 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="P36" s="2">
-        <f>O36*1440-N36*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2888,10 +3105,10 @@
       <c r="H37" s="1">
         <v>19.5</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="20">
         <v>17.687999999999999</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="20">
         <v>19.093</v>
       </c>
       <c r="K37" s="1">
@@ -2910,7 +3127,7 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="P37" s="2">
-        <f>O37*1440-N37*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -2939,10 +3156,10 @@
       <c r="H38" s="1">
         <v>20.5</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="20">
         <v>17.675000000000001</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="20">
         <v>19.024000000000001</v>
       </c>
       <c r="K38" s="1">
@@ -2961,7 +3178,7 @@
         <v>0.59513888888888888</v>
       </c>
       <c r="P38" s="2">
-        <f>O38*1440-N38*1440</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -2990,10 +3207,10 @@
       <c r="H39" s="1">
         <v>20</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="20">
         <v>17.486000000000001</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="20">
         <v>18.571999999999999</v>
       </c>
       <c r="K39" s="1">
@@ -3012,7 +3229,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="P39" s="2">
-        <f>O39*1440-N39*1440</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -3041,10 +3258,10 @@
       <c r="H40" s="1">
         <v>21</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="20">
         <v>17.651</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="20">
         <v>19.12</v>
       </c>
       <c r="K40" s="1">
@@ -3063,7 +3280,7 @@
         <v>0.59791666666666665</v>
       </c>
       <c r="P40" s="2">
-        <f>O40*1440-N40*1440</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -3092,10 +3309,10 @@
       <c r="H41" s="1">
         <v>20.5</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="20">
         <v>17.3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="20">
         <v>18.838999999999999</v>
       </c>
       <c r="K41" s="1">
@@ -3114,7 +3331,7 @@
         <v>0.59930555555555554</v>
       </c>
       <c r="P41" s="2">
-        <f>O41*1440-N41*1440</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -3143,10 +3360,10 @@
       <c r="H42" s="1">
         <v>19.5</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="20">
         <v>17.565999999999999</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="20">
         <v>18.672999999999998</v>
       </c>
       <c r="K42" s="1">
@@ -3165,7 +3382,7 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="P42" s="2">
-        <f>O42*1440-N42*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3194,10 +3411,10 @@
       <c r="H43" s="1">
         <v>21</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="20">
         <v>17.526</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="20">
         <v>18.815999999999999</v>
       </c>
       <c r="K43" s="1">
@@ -3216,7 +3433,7 @@
         <v>0.60138888888888886</v>
       </c>
       <c r="P43" s="2">
-        <f>O43*1440-N43*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3245,10 +3462,10 @@
       <c r="H44" s="1">
         <v>27</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="20">
         <v>17.027999999999999</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="20">
         <v>18.364000000000001</v>
       </c>
       <c r="K44" s="1">
@@ -3267,7 +3484,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="P44" s="2">
-        <f>O44*1440-N44*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3296,10 +3513,10 @@
       <c r="H45" s="1">
         <v>28</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="20">
         <v>16.364000000000001</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="20">
         <v>17.797000000000001</v>
       </c>
       <c r="K45" s="1">
@@ -3318,7 +3535,7 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="P45" s="2">
-        <f>O45*1440-N45*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3347,10 +3564,10 @@
       <c r="H46" s="1">
         <v>28.5</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="20">
         <v>16.692</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="20">
         <v>17.808</v>
       </c>
       <c r="K46" s="1">
@@ -3369,7 +3586,7 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="P46" s="2">
-        <f>O46*1440-N46*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -3398,10 +3615,10 @@
       <c r="H47" s="1">
         <v>23.5</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="20">
         <v>16.228000000000002</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="20">
         <v>17.34</v>
       </c>
       <c r="K47" s="1">
@@ -3420,7 +3637,7 @@
         <v>0.4465277777777778</v>
       </c>
       <c r="P47" s="2">
-        <f>O47*1440-N47*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -3449,10 +3666,10 @@
       <c r="H48" s="1">
         <v>29</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="20">
         <v>16.574000000000002</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="20">
         <v>17.811</v>
       </c>
       <c r="K48" s="1">
@@ -3471,7 +3688,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="P48" s="2">
-        <f>O48*1440-N48*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -3500,10 +3717,10 @@
       <c r="H49" s="1">
         <v>28</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="20">
         <v>16.603000000000002</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="20">
         <v>17.831</v>
       </c>
       <c r="K49" s="1">
@@ -3522,7 +3739,7 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="P49" s="2">
-        <f>O49*1440-N49*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -3551,10 +3768,10 @@
       <c r="H50" s="1">
         <v>27</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="20">
         <v>16.408000000000001</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="20">
         <v>17.637</v>
       </c>
       <c r="K50" s="1">
@@ -3573,7 +3790,7 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="P50" s="2">
-        <f>O50*1440-N50*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -3602,10 +3819,10 @@
       <c r="H51" s="1">
         <v>29</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="20">
         <v>16.608000000000001</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="20">
         <v>18.053999999999998</v>
       </c>
       <c r="K51" s="1">
@@ -3624,7 +3841,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="P51" s="2">
-        <f>O51*1440-N51*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -3653,10 +3870,10 @@
       <c r="H52" s="1">
         <v>29.5</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="20">
         <v>16.664999999999999</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="20">
         <v>18.024999999999999</v>
       </c>
       <c r="K52" s="1">
@@ -3675,7 +3892,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="P52" s="2">
-        <f>O52*1440-N52*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -3704,10 +3921,10 @@
       <c r="H53" s="1">
         <v>27</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="20">
         <v>16.62</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="20">
         <v>17.739000000000001</v>
       </c>
       <c r="K53" s="1">
@@ -3726,7 +3943,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="P53" s="2">
-        <f>O53*1440-N53*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -3755,10 +3972,10 @@
       <c r="H54" s="1">
         <v>30.5</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="20">
         <v>15.856999999999999</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="20">
         <v>17.038</v>
       </c>
       <c r="K54" s="1">
@@ -3777,7 +3994,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="P54" s="2">
-        <f>O54*1440-N54*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3806,10 +4023,10 @@
       <c r="H55" s="1">
         <v>27.5</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="20">
         <v>16.600999999999999</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="20">
         <v>17.876000000000001</v>
       </c>
       <c r="K55" s="1">
@@ -3828,7 +4045,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="P55" s="2">
-        <f>O55*1440-N55*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -3857,10 +4074,10 @@
       <c r="H56" s="1">
         <v>27.5</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="20">
         <v>16.603000000000002</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="20">
         <v>17.925999999999998</v>
       </c>
       <c r="K56" s="1">
@@ -3879,7 +4096,7 @@
         <v>0.4909722222222222</v>
       </c>
       <c r="P56" s="2">
-        <f>O56*1440-N56*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -3908,10 +4125,10 @@
       <c r="H57" s="1">
         <v>30</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="20">
         <v>16.809000000000001</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="20">
         <v>17.898</v>
       </c>
       <c r="K57" s="1">
@@ -3930,7 +4147,7 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="P57" s="2">
-        <f>O57*1440-N57*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -3959,10 +4176,10 @@
       <c r="H58" s="1">
         <v>29</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="20">
         <v>16.666</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="20">
         <v>18.007999999999999</v>
       </c>
       <c r="K58" s="1">
@@ -3981,7 +4198,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="P58" s="2">
-        <f>O58*1440-N58*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -4010,10 +4227,10 @@
       <c r="H59" s="1">
         <v>26</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="20">
         <v>16.666</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="20">
         <v>18.007999999999999</v>
       </c>
       <c r="K59" s="1">
@@ -4032,7 +4249,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="P59" s="2">
-        <f>O59*1440-N59*1440</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -4061,10 +4278,10 @@
       <c r="H60" s="1">
         <v>28.5</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="20">
         <v>16.471</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="20">
         <v>17.501000000000001</v>
       </c>
       <c r="K60" s="1">
@@ -4083,7 +4300,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="P60" s="2">
-        <f>O60*1440-N60*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -4112,10 +4329,10 @@
       <c r="H61" s="1">
         <v>28.5</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="20">
         <v>16.632000000000001</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="20">
         <v>18.053999999999998</v>
       </c>
       <c r="K61" s="1">
@@ -4134,7 +4351,7 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="P61" s="2">
-        <f>O61*1440-N61*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -4163,10 +4380,10 @@
       <c r="H62" s="1">
         <v>28</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="20">
         <v>16.408999999999999</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="20">
         <v>17.818999999999999</v>
       </c>
       <c r="K62" s="1">
@@ -4185,7 +4402,7 @@
         <v>0.49861111111111112</v>
       </c>
       <c r="P62" s="2">
-        <f>O62*1440-N62*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -4214,10 +4431,10 @@
       <c r="H63" s="1">
         <v>31</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="20">
         <v>16.768999999999998</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="20">
         <v>17.815000000000001</v>
       </c>
       <c r="K63" s="1">
@@ -4236,7 +4453,7 @@
         <v>0.5</v>
       </c>
       <c r="P63" s="2">
-        <f>O63*1440-N63*1440</f>
+        <f t="shared" si="0"/>
         <v>91.000000000000114</v>
       </c>
     </row>
@@ -4265,10 +4482,10 @@
       <c r="H64" s="1">
         <v>28</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="20">
         <v>16.584</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="20">
         <v>17.817</v>
       </c>
       <c r="K64" s="1">
@@ -4287,7 +4504,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="P64" s="2">
-        <f>O64*1440-N64*1440</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
@@ -4316,10 +4533,10 @@
       <c r="H65" s="1">
         <v>27</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="20">
         <v>17.027999999999999</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="20">
         <v>18.364000000000001</v>
       </c>
       <c r="K65" s="1">
@@ -4338,7 +4555,7 @@
         <v>0.56458333333333333</v>
       </c>
       <c r="P65" s="2">
-        <f>O65*1440-N65*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -4367,10 +4584,10 @@
       <c r="H66" s="1">
         <v>28</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="20">
         <v>16.364000000000001</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="20">
         <v>17.797000000000001</v>
       </c>
       <c r="K66" s="1">
@@ -4389,7 +4606,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="P66" s="2">
-        <f>O66*1440-N66*1440</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -4418,10 +4635,10 @@
       <c r="H67" s="1">
         <v>28.5</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="20">
         <v>16.692</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="20">
         <v>17.808</v>
       </c>
       <c r="K67" s="1">
@@ -4440,7 +4657,7 @@
         <v>0.56736111111111109</v>
       </c>
       <c r="P67" s="2">
-        <f>O67*1440-N67*1440</f>
+        <f t="shared" ref="P67:P127" si="1">O67*1440-N67*1440</f>
         <v>90</v>
       </c>
     </row>
@@ -4469,10 +4686,10 @@
       <c r="H68" s="1">
         <v>23.5</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="20">
         <v>16.228000000000002</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="20">
         <v>17.34</v>
       </c>
       <c r="K68" s="1">
@@ -4491,7 +4708,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="P68" s="2">
-        <f>O68*1440-N68*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -4520,10 +4737,10 @@
       <c r="H69" s="1">
         <v>29</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="20">
         <v>16.574000000000002</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="20">
         <v>17.811</v>
       </c>
       <c r="K69" s="1">
@@ -4542,7 +4759,7 @@
         <v>0.57013888888888886</v>
       </c>
       <c r="P69" s="2">
-        <f>O69*1440-N69*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -4571,10 +4788,10 @@
       <c r="H70" s="1">
         <v>28</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="20">
         <v>16.603000000000002</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="20">
         <v>17.831</v>
       </c>
       <c r="K70" s="1">
@@ -4593,7 +4810,7 @@
         <v>0.57152777777777775</v>
       </c>
       <c r="P70" s="2">
-        <f>O70*1440-N70*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -4622,10 +4839,10 @@
       <c r="H71" s="1">
         <v>27</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="20">
         <v>16.408000000000001</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="20">
         <v>17.637</v>
       </c>
       <c r="K71" s="1">
@@ -4644,7 +4861,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="P71" s="2">
-        <f>O71*1440-N71*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -4673,10 +4890,10 @@
       <c r="H72" s="1">
         <v>29</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="20">
         <v>16.608000000000001</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="20">
         <v>18.053999999999998</v>
       </c>
       <c r="K72" s="1">
@@ -4695,7 +4912,7 @@
         <v>0.57430555555555551</v>
       </c>
       <c r="P72" s="2">
-        <f>O72*1440-N72*1440</f>
+        <f t="shared" si="1"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -4724,10 +4941,10 @@
       <c r="H73" s="1">
         <v>29.5</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="20">
         <v>16.664999999999999</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="20">
         <v>18.024999999999999</v>
       </c>
       <c r="K73" s="1">
@@ -4746,7 +4963,7 @@
         <v>0.5756944444444444</v>
       </c>
       <c r="P73" s="2">
-        <f>O73*1440-N73*1440</f>
+        <f t="shared" si="1"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -4775,10 +4992,10 @@
       <c r="H74" s="1">
         <v>27</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="20">
         <v>16.62</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="20">
         <v>17.739000000000001</v>
       </c>
       <c r="K74" s="1">
@@ -4797,7 +5014,7 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="P74" s="2">
-        <f>O74*1440-N74*1440</f>
+        <f t="shared" si="1"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -4826,10 +5043,10 @@
       <c r="H75" s="1">
         <v>30.5</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="20">
         <v>15.856999999999999</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="20">
         <v>17.038</v>
       </c>
       <c r="K75" s="1">
@@ -4848,7 +5065,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="P75" s="2">
-        <f>O75*1440-N75*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -4877,10 +5094,10 @@
       <c r="H76" s="1">
         <v>27.5</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="20">
         <v>16.600999999999999</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="20">
         <v>17.876000000000001</v>
       </c>
       <c r="K76" s="1">
@@ -4899,7 +5116,7 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="P76" s="2">
-        <f>O76*1440-N76*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -4928,10 +5145,10 @@
       <c r="H77" s="1">
         <v>27.5</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="20">
         <v>16.603000000000002</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="20">
         <v>17.925999999999998</v>
       </c>
       <c r="K77" s="1">
@@ -4950,7 +5167,7 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="P77" s="2">
-        <f>O77*1440-N77*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -4979,10 +5196,10 @@
       <c r="H78" s="1">
         <v>30</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="20">
         <v>16.809000000000001</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="20">
         <v>17.898</v>
       </c>
       <c r="K78" s="1">
@@ -5001,7 +5218,7 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="P78" s="2">
-        <f>O78*1440-N78*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5030,10 +5247,10 @@
       <c r="H79" s="1">
         <v>29</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="20">
         <v>16.666</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="20">
         <v>18.007999999999999</v>
       </c>
       <c r="K79" s="1">
@@ -5052,7 +5269,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="P79" s="2">
-        <f>O79*1440-N79*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5081,10 +5298,10 @@
       <c r="H80" s="1">
         <v>26</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="20">
         <v>16.666</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="20">
         <v>18.007999999999999</v>
       </c>
       <c r="K80" s="1">
@@ -5103,7 +5320,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="P80" s="2">
-        <f>O80*1440-N80*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5132,10 +5349,10 @@
       <c r="H81" s="1">
         <v>28.5</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="20">
         <v>16.471</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="20">
         <v>17.501000000000001</v>
       </c>
       <c r="K81" s="1">
@@ -5154,7 +5371,7 @@
         <v>0.59930555555555554</v>
       </c>
       <c r="P81" s="2">
-        <f>O81*1440-N81*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5183,10 +5400,10 @@
       <c r="H82" s="1">
         <v>28.5</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="20">
         <v>16.632000000000001</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="20">
         <v>18.053999999999998</v>
       </c>
       <c r="K82" s="1">
@@ -5205,7 +5422,7 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="P82" s="2">
-        <f>O82*1440-N82*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5234,10 +5451,10 @@
       <c r="H83" s="1">
         <v>28</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="20">
         <v>16.408999999999999</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="20">
         <v>17.818999999999999</v>
       </c>
       <c r="K83" s="1">
@@ -5256,7 +5473,7 @@
         <v>0.60138888888888886</v>
       </c>
       <c r="P83" s="2">
-        <f>O83*1440-N83*1440</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -5285,10 +5502,10 @@
       <c r="H84" s="1">
         <v>31</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="20">
         <v>16.768999999999998</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="20">
         <v>17.815000000000001</v>
       </c>
       <c r="K84" s="1">
@@ -5307,7 +5524,7 @@
         <v>0.60277777777777775</v>
       </c>
       <c r="P84" s="2">
-        <f>O84*1440-N84*1440</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -5336,10 +5553,10 @@
       <c r="H85" s="1">
         <v>28</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="20">
         <v>16.584</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="20">
         <v>17.817</v>
       </c>
       <c r="K85" s="1">
@@ -5358,7 +5575,7 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="P85" s="2">
-        <f>O85*1440-N85*1440</f>
+        <f t="shared" si="1"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -5387,10 +5604,10 @@
       <c r="H86" s="1">
         <v>22</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="20">
         <v>17.024000000000001</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="20">
         <v>18.379000000000001</v>
       </c>
       <c r="K86" s="1">
@@ -5409,7 +5626,7 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" ref="P86:P87" si="0">O86*1440-N86*1440</f>
+        <f t="shared" si="1"/>
         <v>89.999999999999943</v>
       </c>
     </row>
@@ -5438,10 +5655,10 @@
       <c r="H87" s="1">
         <v>23</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="20">
         <v>16.364999999999998</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="20">
         <v>17.821000000000002</v>
       </c>
       <c r="K87" s="1">
@@ -5460,7 +5677,7 @@
         <v>0.40069444444444446</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="Q87" s="16"/>
@@ -5492,10 +5709,10 @@
       <c r="H88" s="1">
         <v>21.5</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="20">
         <v>16.696000000000002</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="20">
         <v>17.818999999999999</v>
       </c>
       <c r="K88" s="1">
@@ -5514,7 +5731,7 @@
         <v>0.40208333333333335</v>
       </c>
       <c r="P88" s="2">
-        <f>O88*1440-N88*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5543,10 +5760,10 @@
       <c r="H89" s="1">
         <v>21.5</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="20">
         <v>16.236000000000001</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="20">
         <v>17.343</v>
       </c>
       <c r="K89" s="1">
@@ -5565,7 +5782,7 @@
         <v>0.40347222222222223</v>
       </c>
       <c r="P89" s="2">
-        <f>O89*1440-N89*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5594,10 +5811,10 @@
       <c r="H90" s="1">
         <v>22</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="20">
         <v>16.574999999999999</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="20">
         <v>17.800999999999998</v>
       </c>
       <c r="K90" s="1">
@@ -5616,7 +5833,7 @@
         <v>0.40486111111111112</v>
       </c>
       <c r="P90" s="2">
-        <f>O90*1440-N90*1440</f>
+        <f t="shared" si="1"/>
         <v>91.000000000000057</v>
       </c>
     </row>
@@ -5645,10 +5862,10 @@
       <c r="H91" s="1">
         <v>22</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="20">
         <v>16.663</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="20">
         <v>17.817</v>
       </c>
       <c r="K91" s="1">
@@ -5667,7 +5884,7 @@
         <v>0.4055555555555555</v>
       </c>
       <c r="P91" s="2">
-        <f>O91*1440-N91*1440</f>
+        <f t="shared" si="1"/>
         <v>89.999999999999943</v>
       </c>
     </row>
@@ -5696,10 +5913,10 @@
       <c r="H92" s="1">
         <v>22</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="20">
         <v>16.417999999999999</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="20">
         <v>17.611000000000001</v>
       </c>
       <c r="K92" s="1">
@@ -5718,7 +5935,7 @@
         <v>0.4069444444444445</v>
       </c>
       <c r="P92" s="2">
-        <f>O92*1440-N92*1440</f>
+        <f t="shared" si="1"/>
         <v>91.000000000000114</v>
       </c>
     </row>
@@ -5747,10 +5964,10 @@
       <c r="H93" s="1">
         <v>23</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="20">
         <v>16.585999999999999</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="20">
         <v>17.981000000000002</v>
       </c>
       <c r="K93" s="1">
@@ -5769,7 +5986,7 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="P93" s="2">
-        <f>O93*1440-N93*1440</f>
+        <f t="shared" si="1"/>
         <v>91.000000000000114</v>
       </c>
     </row>
@@ -5798,10 +6015,10 @@
       <c r="H94" s="1">
         <v>22.5</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="20">
         <v>16.664999999999999</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="20">
         <v>17.995999999999999</v>
       </c>
       <c r="K94" s="1">
@@ -5820,7 +6037,7 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="P94" s="2">
-        <f>O94*1440-N94*1440</f>
+        <f t="shared" si="1"/>
         <v>90.999999999999943</v>
       </c>
     </row>
@@ -5849,10 +6066,10 @@
       <c r="H95" s="1">
         <v>22</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="20">
         <v>16.623000000000001</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95" s="20">
         <v>17.704999999999998</v>
       </c>
       <c r="K95" s="1">
@@ -5871,7 +6088,7 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="P95" s="2">
-        <f>O95*1440-N95*1440</f>
+        <f t="shared" si="1"/>
         <v>90.000000000000057</v>
       </c>
     </row>
@@ -5900,10 +6117,10 @@
       <c r="H96" s="1">
         <v>22.5</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="20">
         <v>15.845000000000001</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="20">
         <v>17.032</v>
       </c>
       <c r="K96" s="1">
@@ -5922,7 +6139,7 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="P96" s="2">
-        <f>O96*1440-N96*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -5951,10 +6168,10 @@
       <c r="H97" s="1">
         <v>22.5</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="20">
         <v>16.600000000000001</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97" s="20">
         <v>17.87</v>
       </c>
       <c r="K97" s="1">
@@ -5973,7 +6190,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="P97" s="2">
-        <f>O97*1440-N97*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -6002,10 +6219,10 @@
       <c r="H98" s="1">
         <v>23</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="20">
         <v>16.61</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="20">
         <v>17.923999999999999</v>
       </c>
       <c r="K98" s="1">
@@ -6024,7 +6241,7 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="P98" s="2">
-        <f>O98*1440-N98*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -6053,10 +6270,10 @@
       <c r="H99" s="1">
         <v>24.5</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="20">
         <v>16.946999999999999</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99" s="20">
         <v>18.013999999999999</v>
       </c>
       <c r="K99" s="1">
@@ -6075,7 +6292,7 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="P99" s="2">
-        <f>O99*1440-N99*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -6104,10 +6321,10 @@
       <c r="H100" s="1">
         <v>22</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="20">
         <v>16.66</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="20">
         <v>18.006</v>
       </c>
       <c r="K100" s="1">
@@ -6126,7 +6343,7 @@
         <v>0.4465277777777778</v>
       </c>
       <c r="P100" s="2">
-        <f>O100*1440-N100*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -6155,10 +6372,10 @@
       <c r="H101" s="1">
         <v>27.5</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="20">
         <v>16.661999999999999</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="20">
         <v>17.974</v>
       </c>
       <c r="K101" s="1">
@@ -6177,7 +6394,7 @@
         <v>0.44722222222222219</v>
       </c>
       <c r="P101" s="2">
-        <f>O101*1440-N101*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -6206,10 +6423,10 @@
       <c r="H102" s="1">
         <v>26.5</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="20">
         <v>16.460999999999999</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102" s="20">
         <v>17.478999999999999</v>
       </c>
       <c r="K102" s="1">
@@ -6228,7 +6445,7 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="P102" s="2">
-        <f>O102*1440-N102*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -6257,10 +6474,10 @@
       <c r="H103" s="1">
         <v>22.5</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="20">
         <v>16.631</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="20">
         <v>18.015000000000001</v>
       </c>
       <c r="K103" s="1">
@@ -6279,7 +6496,7 @@
         <v>0.45</v>
       </c>
       <c r="P103" s="2">
-        <f>O103*1440-N103*1440</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -6308,10 +6525,10 @@
       <c r="H104" s="1">
         <v>26.5</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="20">
         <v>16.28</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="20">
         <v>17.788</v>
       </c>
       <c r="K104" s="1">
@@ -6330,7 +6547,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="P104" s="2">
-        <f>O104*1440-N104*1440</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -6359,10 +6576,10 @@
       <c r="H105" s="1">
         <v>23.5</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="20">
         <v>16.527000000000001</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="20">
         <v>17.559999999999999</v>
       </c>
       <c r="K105" s="1">
@@ -6381,7 +6598,7 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="P105" s="2">
-        <f>O105*1440-N105*1440</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -6410,10 +6627,10 @@
       <c r="H106" s="1">
         <v>23</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="20">
         <v>16.46</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106" s="20">
         <v>17.675000000000001</v>
       </c>
       <c r="K106" s="1">
@@ -6432,7 +6649,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="P106" s="2">
-        <f>O106*1440-N106*1440</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -6461,10 +6678,10 @@
       <c r="H107" s="1">
         <v>22</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="20">
         <v>17.024000000000001</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="20">
         <v>18.379000000000001</v>
       </c>
       <c r="K107" s="1">
@@ -6483,7 +6700,7 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="P107" s="2">
-        <f>O107*1440-N107*1440</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -6512,10 +6729,10 @@
       <c r="H108" s="1">
         <v>23</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="20">
         <v>16.364999999999998</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108" s="20">
         <v>17.821000000000002</v>
       </c>
       <c r="K108" s="1">
@@ -6534,7 +6751,7 @@
         <v>0.5395833333333333</v>
       </c>
       <c r="P108" s="2">
-        <f>O108*1440-N108*1440</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
@@ -6563,10 +6780,10 @@
       <c r="H109" s="1">
         <v>21.5</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="20">
         <v>16.696000000000002</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="20">
         <v>17.818999999999999</v>
       </c>
       <c r="K109" s="1">
@@ -6585,7 +6802,7 @@
         <v>0.54097222222222219</v>
       </c>
       <c r="P109" s="2">
-        <f>O109*1440-N109*1440</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
@@ -6614,10 +6831,10 @@
       <c r="H110" s="1">
         <v>21.5</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="20">
         <v>16.236000000000001</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="20">
         <v>17.343</v>
       </c>
       <c r="K110" s="1">
@@ -6636,7 +6853,7 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="P110" s="2">
-        <f>O110*1440-N110*1440</f>
+        <f t="shared" si="1"/>
         <v>81.000000000000114</v>
       </c>
     </row>
@@ -6665,10 +6882,10 @@
       <c r="H111" s="1">
         <v>22</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="20">
         <v>16.574999999999999</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111" s="20">
         <v>17.800999999999998</v>
       </c>
       <c r="K111" s="1">
@@ -6687,7 +6904,7 @@
         <v>0.54375000000000007</v>
       </c>
       <c r="P111" s="2">
-        <f>O111*1440-N111*1440</f>
+        <f t="shared" si="1"/>
         <v>82.000000000000114</v>
       </c>
     </row>
@@ -6716,10 +6933,10 @@
       <c r="H112" s="1">
         <v>22</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="20">
         <v>16.663</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112" s="20">
         <v>17.817</v>
       </c>
       <c r="K112" s="1">
@@ -6738,7 +6955,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="P112" s="2">
-        <f>O112*1440-N112*1440</f>
+        <f t="shared" si="1"/>
         <v>82.000000000000114</v>
       </c>
     </row>
@@ -6767,10 +6984,10 @@
       <c r="H113" s="1">
         <v>22</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="20">
         <v>16.417999999999999</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113" s="20">
         <v>17.611000000000001</v>
       </c>
       <c r="K113" s="1">
@@ -6789,7 +7006,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="P113" s="2">
-        <f>O113*1440-N113*1440</f>
+        <f t="shared" si="1"/>
         <v>81.999999999999886</v>
       </c>
     </row>
@@ -6818,10 +7035,10 @@
       <c r="H114" s="1">
         <v>23</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="20">
         <v>16.585999999999999</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="20">
         <v>17.981000000000002</v>
       </c>
       <c r="K114" s="1">
@@ -6840,7 +7057,7 @@
         <v>0.54652777777777783</v>
       </c>
       <c r="P114" s="2">
-        <f>O114*1440-N114*1440</f>
+        <f t="shared" si="1"/>
         <v>81.000000000000114</v>
       </c>
     </row>
@@ -6869,10 +7086,10 @@
       <c r="H115" s="1">
         <v>22.5</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="20">
         <v>16.664999999999999</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115" s="20">
         <v>17.995999999999999</v>
       </c>
       <c r="K115" s="1">
@@ -6891,7 +7108,7 @@
         <v>0.54791666666666672</v>
       </c>
       <c r="P115" s="2">
-        <f>O115*1440-N115*1440</f>
+        <f t="shared" si="1"/>
         <v>81.000000000000114</v>
       </c>
     </row>
@@ -6920,10 +7137,10 @@
       <c r="H116" s="1">
         <v>22</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="20">
         <v>16.623000000000001</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116" s="20">
         <v>17.704999999999998</v>
       </c>
       <c r="K116" s="1">
@@ -6942,7 +7159,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="P116" s="2">
-        <f>O116*1440-N116*1440</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
@@ -6971,10 +7188,10 @@
       <c r="H117" s="1">
         <v>22.5</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="20">
         <v>15.845000000000001</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="20">
         <v>17.032</v>
       </c>
       <c r="K117" s="1">
@@ -6993,7 +7210,7 @@
         <v>0.56041666666666667</v>
       </c>
       <c r="P117" s="2">
-        <f>O117*1440-N117*1440</f>
+        <f t="shared" si="1"/>
         <v>90.000000000000114</v>
       </c>
     </row>
@@ -7022,10 +7239,10 @@
       <c r="H118" s="1">
         <v>22.5</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="20">
         <v>16.600000000000001</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118" s="20">
         <v>17.87</v>
       </c>
       <c r="K118" s="1">
@@ -7044,7 +7261,7 @@
         <v>0.56180555555555556</v>
       </c>
       <c r="P118" s="2">
-        <f>O118*1440-N118*1440</f>
+        <f t="shared" si="1"/>
         <v>90.000000000000114</v>
       </c>
     </row>
@@ -7073,10 +7290,10 @@
       <c r="H119" s="1">
         <v>23</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="20">
         <v>16.61</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="20">
         <v>17.923999999999999</v>
       </c>
       <c r="K119" s="1">
@@ -7095,7 +7312,7 @@
         <v>0.56319444444444444</v>
       </c>
       <c r="P119" s="2">
-        <f>O119*1440-N119*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7124,10 +7341,10 @@
       <c r="H120" s="1">
         <v>24.5</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="20">
         <v>16.946999999999999</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120" s="20">
         <v>18.013999999999999</v>
       </c>
       <c r="K120" s="1">
@@ -7146,7 +7363,7 @@
         <v>0.56388888888888888</v>
       </c>
       <c r="P120" s="2">
-        <f>O120*1440-N120*1440</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -7175,10 +7392,10 @@
       <c r="H121" s="1">
         <v>22</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="20">
         <v>16.66</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121" s="20">
         <v>18.006</v>
       </c>
       <c r="K121" s="1">
@@ -7197,7 +7414,7 @@
         <v>0.56527777777777777</v>
       </c>
       <c r="P121" s="2">
-        <f>O121*1440-N121*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7226,10 +7443,10 @@
       <c r="H122" s="1">
         <v>27.5</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="20">
         <v>16.661999999999999</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122" s="20">
         <v>17.974</v>
       </c>
       <c r="K122" s="1">
@@ -7248,7 +7465,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="P122" s="2">
-        <f>O122*1440-N122*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7277,10 +7494,10 @@
       <c r="H123" s="1">
         <v>26.5</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="20">
         <v>16.460999999999999</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123" s="20">
         <v>17.478999999999999</v>
       </c>
       <c r="K123" s="1">
@@ -7299,7 +7516,7 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="P123" s="2">
-        <f>O123*1440-N123*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7328,10 +7545,10 @@
       <c r="H124" s="1">
         <v>22.5</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="20">
         <v>16.631</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J124" s="20">
         <v>18.015000000000001</v>
       </c>
       <c r="K124" s="1">
@@ -7350,7 +7567,7 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="P124" s="2">
-        <f>O124*1440-N124*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7379,10 +7596,10 @@
       <c r="H125" s="1">
         <v>26.5</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="20">
         <v>16.28</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J125" s="20">
         <v>17.788</v>
       </c>
       <c r="K125" s="1">
@@ -7401,7 +7618,7 @@
         <v>0.57013888888888886</v>
       </c>
       <c r="P125" s="2">
-        <f>O125*1440-N125*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7430,10 +7647,10 @@
       <c r="H126" s="1">
         <v>23.5</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="20">
         <v>16.527000000000001</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J126" s="20">
         <v>17.559999999999999</v>
       </c>
       <c r="K126" s="1">
@@ -7452,7 +7669,7 @@
         <v>0.57152777777777775</v>
       </c>
       <c r="P126" s="2">
-        <f>O126*1440-N126*1440</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7481,10 +7698,10 @@
       <c r="H127" s="1">
         <v>23</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="20">
         <v>16.46</v>
       </c>
-      <c r="J127" s="1">
+      <c r="J127" s="20">
         <v>17.675000000000001</v>
       </c>
       <c r="K127" s="1">
@@ -7503,8 +7720,4299 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="P127" s="2">
-        <f>O127*1440-N127*1440</f>
+        <f t="shared" si="1"/>
         <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="17" customFormat="1" ht="16" customHeight="1">
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="19"/>
+    </row>
+    <row r="129" spans="1:16" ht="16" customHeight="1">
+      <c r="A129" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H129" s="1">
+        <v>26</v>
+      </c>
+      <c r="I129" s="20">
+        <v>18.021999999999998</v>
+      </c>
+      <c r="J129" s="20">
+        <v>19.321000000000002</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1">
+        <v>22</v>
+      </c>
+      <c r="N129" s="8">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="O129" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="P129" s="2">
+        <f t="shared" ref="P128:P169" si="2">O129*1440-N129*1440</f>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="16" customHeight="1">
+      <c r="A130" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H130" s="1">
+        <v>26</v>
+      </c>
+      <c r="I130" s="20">
+        <v>17.382999999999999</v>
+      </c>
+      <c r="J130" s="20">
+        <v>18.808</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>22</v>
+      </c>
+      <c r="N130" s="8">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="O130" s="8">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="P130" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="16" customHeight="1">
+      <c r="A131" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" s="1">
+        <v>27</v>
+      </c>
+      <c r="I131" s="20">
+        <v>17.719000000000001</v>
+      </c>
+      <c r="J131" s="20">
+        <v>18.850999999999999</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>22</v>
+      </c>
+      <c r="N131" s="8">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="O131" s="8">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="P131" s="2">
+        <f t="shared" si="2"/>
+        <v>90.000000000000057</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="16" customHeight="1">
+      <c r="A132" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I132" s="20">
+        <v>17.242999999999999</v>
+      </c>
+      <c r="J132" s="20">
+        <v>18.684000000000001</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1">
+        <v>1</v>
+      </c>
+      <c r="M132" s="1">
+        <v>22</v>
+      </c>
+      <c r="N132" s="8">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="O132" s="8">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="P132" s="2">
+        <f t="shared" si="2"/>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="16" customHeight="1">
+      <c r="A133" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" s="1">
+        <v>30</v>
+      </c>
+      <c r="I133" s="20">
+        <v>17.584</v>
+      </c>
+      <c r="J133" s="20">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1">
+        <v>22</v>
+      </c>
+      <c r="N133" s="8">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="O133" s="8">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="P133" s="2">
+        <f t="shared" si="2"/>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="16" customHeight="1">
+      <c r="A134" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" s="1">
+        <v>28</v>
+      </c>
+      <c r="I134" s="20">
+        <v>17.672000000000001</v>
+      </c>
+      <c r="J134" s="20">
+        <v>18.777000000000001</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1">
+        <v>22</v>
+      </c>
+      <c r="N134" s="8">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="O134" s="8">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="P134" s="2">
+        <f t="shared" si="2"/>
+        <v>90.999999999999886</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="16" customHeight="1">
+      <c r="A135" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I135" s="20">
+        <v>17.452999999999999</v>
+      </c>
+      <c r="J135" s="20">
+        <v>18.716000000000001</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1">
+        <v>22</v>
+      </c>
+      <c r="N135" s="8">
+        <v>0.34375</v>
+      </c>
+      <c r="O135" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="P135" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="16" customHeight="1">
+      <c r="A136" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2</v>
+      </c>
+      <c r="D136" s="1">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" s="1">
+        <v>28</v>
+      </c>
+      <c r="I136" s="20">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="J136" s="20">
+        <v>18.702000000000002</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1">
+        <v>22</v>
+      </c>
+      <c r="N136" s="8">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="O136" s="8">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="P136" s="2">
+        <f t="shared" si="2"/>
+        <v>89.000000000000114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="16" customHeight="1">
+      <c r="A137" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <v>9</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" s="1">
+        <v>28</v>
+      </c>
+      <c r="I137" s="20">
+        <v>17.667000000000002</v>
+      </c>
+      <c r="J137" s="20">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>22</v>
+      </c>
+      <c r="N137" s="8">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="O137" s="8">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="P137" s="2">
+        <f t="shared" si="2"/>
+        <v>90.000000000000057</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="16" customHeight="1">
+      <c r="A138" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>10</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" s="1">
+        <v>26</v>
+      </c>
+      <c r="I138" s="20">
+        <v>17.641999999999999</v>
+      </c>
+      <c r="J138" s="20">
+        <v>19.143999999999998</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" s="1">
+        <v>1</v>
+      </c>
+      <c r="M138" s="1">
+        <v>22</v>
+      </c>
+      <c r="N138" s="8">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="O138" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="P138" s="2">
+        <f t="shared" si="2"/>
+        <v>90.000000000000057</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="16" customHeight="1">
+      <c r="A139" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>11</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" s="1">
+        <v>28</v>
+      </c>
+      <c r="I139" s="20">
+        <v>16.850999999999999</v>
+      </c>
+      <c r="J139" s="20">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1">
+        <v>22</v>
+      </c>
+      <c r="N139" s="8">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="O139" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="P139" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="16" customHeight="1">
+      <c r="A140" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <v>12</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I140" s="20">
+        <v>17.611999999999998</v>
+      </c>
+      <c r="J140" s="20">
+        <v>18.722000000000001</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>22</v>
+      </c>
+      <c r="N140" s="8">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O140" s="8">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="P140" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="16" customHeight="1">
+      <c r="A141" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>13</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I141" s="20">
+        <v>17.623999999999999</v>
+      </c>
+      <c r="J141" s="20">
+        <v>18.695</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141" s="1">
+        <v>1</v>
+      </c>
+      <c r="M141" s="1">
+        <v>22</v>
+      </c>
+      <c r="N141" s="8">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O141" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="P141" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="16" customHeight="1">
+      <c r="A142" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H142" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I142" s="20">
+        <v>17.928000000000001</v>
+      </c>
+      <c r="J142" s="20">
+        <v>19.032</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>22</v>
+      </c>
+      <c r="N142" s="8">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O142" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="P142" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="16" customHeight="1">
+      <c r="A143" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" s="1">
+        <v>27</v>
+      </c>
+      <c r="I143" s="20">
+        <v>17.661000000000001</v>
+      </c>
+      <c r="J143" s="20">
+        <v>19.04</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143" s="1">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1">
+        <v>22</v>
+      </c>
+      <c r="N143" s="8">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="O143" s="8">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="P143" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="16" customHeight="1">
+      <c r="A144" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <v>16</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H144" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I144" s="20">
+        <v>17.89</v>
+      </c>
+      <c r="J144" s="20">
+        <v>19.36</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>22</v>
+      </c>
+      <c r="N144" s="8">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="O144" s="8">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="P144" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="16" customHeight="1">
+      <c r="A145" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <v>17</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H145" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I145" s="20">
+        <v>17.472000000000001</v>
+      </c>
+      <c r="J145" s="20">
+        <v>18.913</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>22</v>
+      </c>
+      <c r="N145" s="8">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O145" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P145" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="16" customHeight="1">
+      <c r="A146" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>18</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H146" s="1">
+        <v>27</v>
+      </c>
+      <c r="I146" s="20">
+        <v>17.631</v>
+      </c>
+      <c r="J146" s="20">
+        <v>18.771999999999998</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1">
+        <v>22</v>
+      </c>
+      <c r="N146" s="8">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O146" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="P146" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="16" customHeight="1">
+      <c r="A147" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1">
+        <v>19</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H147" s="1">
+        <v>25</v>
+      </c>
+      <c r="I147" s="20">
+        <v>17.291</v>
+      </c>
+      <c r="J147" s="20">
+        <v>18.271000000000001</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147" s="1">
+        <v>1</v>
+      </c>
+      <c r="M147" s="1">
+        <v>22</v>
+      </c>
+      <c r="N147" s="8">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O147" s="8">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="P147" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="16" customHeight="1">
+      <c r="A148" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H148" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I148" s="20">
+        <v>17.542000000000002</v>
+      </c>
+      <c r="J148" s="20">
+        <v>18.785</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148" s="1">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1">
+        <v>22</v>
+      </c>
+      <c r="N148" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="O148" s="8">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="P148" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="16" customHeight="1">
+      <c r="A149" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
+        <v>21</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I149" s="20">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="J149" s="20">
+        <v>18.908999999999999</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149" s="1">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1">
+        <v>22</v>
+      </c>
+      <c r="N149" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O149" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="P149" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="16" customHeight="1">
+      <c r="A150" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H150" s="1">
+        <v>26</v>
+      </c>
+      <c r="I150" s="20">
+        <v>18.021999999999998</v>
+      </c>
+      <c r="J150" s="20">
+        <v>19.321000000000002</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" s="1">
+        <v>2</v>
+      </c>
+      <c r="M150" s="1">
+        <v>26</v>
+      </c>
+      <c r="N150" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="O150" s="8">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="P150" s="2">
+        <f t="shared" si="2"/>
+        <v>89.999999999999886</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="16" customHeight="1">
+      <c r="A151" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1">
+        <v>2</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H151" s="1">
+        <v>26</v>
+      </c>
+      <c r="I151" s="20">
+        <v>17.382999999999999</v>
+      </c>
+      <c r="J151" s="20">
+        <v>18.808</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" s="1">
+        <v>2</v>
+      </c>
+      <c r="M151" s="1">
+        <v>26</v>
+      </c>
+      <c r="N151" s="8">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="O151" s="8">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="P151" s="2">
+        <f t="shared" si="2"/>
+        <v>89.999999999999886</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="16" customHeight="1">
+      <c r="A152" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H152" s="1">
+        <v>27</v>
+      </c>
+      <c r="I152" s="20">
+        <v>17.719000000000001</v>
+      </c>
+      <c r="J152" s="20">
+        <v>18.850999999999999</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" s="1">
+        <v>2</v>
+      </c>
+      <c r="M152" s="1">
+        <v>26</v>
+      </c>
+      <c r="N152" s="8">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="O152" s="8">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="P152" s="2">
+        <f t="shared" si="2"/>
+        <v>89.000000000000114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="16" customHeight="1">
+      <c r="A153" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H153" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I153" s="20">
+        <v>17.242999999999999</v>
+      </c>
+      <c r="J153" s="20">
+        <v>18.684000000000001</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" s="1">
+        <v>2</v>
+      </c>
+      <c r="M153" s="1">
+        <v>26</v>
+      </c>
+      <c r="N153" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O153" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P153" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="16" customHeight="1">
+      <c r="A154" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H154" s="1">
+        <v>30</v>
+      </c>
+      <c r="I154" s="20">
+        <v>17.584</v>
+      </c>
+      <c r="J154" s="20">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" s="1">
+        <v>2</v>
+      </c>
+      <c r="M154" s="1">
+        <v>26</v>
+      </c>
+      <c r="N154" s="8">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="O154" s="8">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="P154" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="16" customHeight="1">
+      <c r="A155" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" s="1">
+        <v>28</v>
+      </c>
+      <c r="I155" s="20">
+        <v>17.672000000000001</v>
+      </c>
+      <c r="J155" s="20">
+        <v>18.777000000000001</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155" s="1">
+        <v>2</v>
+      </c>
+      <c r="M155" s="1">
+        <v>26</v>
+      </c>
+      <c r="N155" s="8">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="O155" s="8">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="P155" s="2">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="16" customHeight="1">
+      <c r="A156" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I156" s="20">
+        <v>17.452999999999999</v>
+      </c>
+      <c r="J156" s="20">
+        <v>18.716000000000001</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" s="1">
+        <v>2</v>
+      </c>
+      <c r="M156" s="1">
+        <v>26</v>
+      </c>
+      <c r="N156" s="8">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="O156" s="8">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="P156" s="2">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="16" customHeight="1">
+      <c r="A157" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
+        <v>8</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" s="1">
+        <v>28</v>
+      </c>
+      <c r="I157" s="20">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="J157" s="20">
+        <v>18.702000000000002</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1">
+        <v>2</v>
+      </c>
+      <c r="M157" s="1">
+        <v>26</v>
+      </c>
+      <c r="N157" s="8">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="O157" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P157" s="2">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="16" customHeight="1">
+      <c r="A158" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>9</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" s="1">
+        <v>28</v>
+      </c>
+      <c r="I158" s="20">
+        <v>17.667000000000002</v>
+      </c>
+      <c r="J158" s="20">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1">
+        <v>2</v>
+      </c>
+      <c r="M158" s="1">
+        <v>26</v>
+      </c>
+      <c r="N158" s="8">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="O158" s="8">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="P158" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="16" customHeight="1">
+      <c r="A159" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <v>10</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H159" s="1">
+        <v>26</v>
+      </c>
+      <c r="I159" s="20">
+        <v>17.641999999999999</v>
+      </c>
+      <c r="J159" s="20">
+        <v>19.143999999999998</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1">
+        <v>2</v>
+      </c>
+      <c r="M159" s="1">
+        <v>26</v>
+      </c>
+      <c r="N159" s="8">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="O159" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="P159" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="16" customHeight="1">
+      <c r="A160" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
+        <v>11</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" s="1">
+        <v>28</v>
+      </c>
+      <c r="I160" s="20">
+        <v>16.850999999999999</v>
+      </c>
+      <c r="J160" s="20">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160" s="1">
+        <v>2</v>
+      </c>
+      <c r="M160" s="1">
+        <v>28</v>
+      </c>
+      <c r="N160" s="8">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="O160" s="8">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="P160" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="16" customHeight="1">
+      <c r="A161" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
+        <v>12</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H161" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I161" s="20">
+        <v>17.611999999999998</v>
+      </c>
+      <c r="J161" s="20">
+        <v>18.722000000000001</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161" s="1">
+        <v>2</v>
+      </c>
+      <c r="M161" s="1">
+        <v>28</v>
+      </c>
+      <c r="N161" s="8">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="O161" s="8">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="P161" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="16" customHeight="1">
+      <c r="A162" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <v>13</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I162" s="20">
+        <v>17.623999999999999</v>
+      </c>
+      <c r="J162" s="20">
+        <v>18.695</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162" s="1">
+        <v>2</v>
+      </c>
+      <c r="M162" s="1">
+        <v>28</v>
+      </c>
+      <c r="N162" s="8">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="O162" s="8">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="P162" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="16" customHeight="1">
+      <c r="A163" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <v>14</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I163" s="20">
+        <v>17.928000000000001</v>
+      </c>
+      <c r="J163" s="20">
+        <v>19.032</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163" s="1">
+        <v>2</v>
+      </c>
+      <c r="M163" s="1">
+        <v>28</v>
+      </c>
+      <c r="N163" s="8">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="O163" s="8">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="P163" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="16" customHeight="1">
+      <c r="A164" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <v>15</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" s="1">
+        <v>27</v>
+      </c>
+      <c r="I164" s="20">
+        <v>17.661000000000001</v>
+      </c>
+      <c r="J164" s="20">
+        <v>19.04</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164" s="1">
+        <v>2</v>
+      </c>
+      <c r="M164" s="1">
+        <v>28</v>
+      </c>
+      <c r="N164" s="8">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="O164" s="8">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="P164" s="2">
+        <f>O165*1440-N164*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="16" customHeight="1">
+      <c r="A165" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>16</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H165" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I165" s="20">
+        <v>17.89</v>
+      </c>
+      <c r="J165" s="20">
+        <v>19.36</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165" s="1">
+        <v>2</v>
+      </c>
+      <c r="M165" s="1">
+        <v>28</v>
+      </c>
+      <c r="N165" s="8">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="O165" s="8">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="P165" s="2">
+        <f>O166*1440-N165*1440</f>
+        <v>92.000000000000114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="16" customHeight="1">
+      <c r="A166" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1">
+        <v>17</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H166" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I166" s="20">
+        <v>17.472000000000001</v>
+      </c>
+      <c r="J166" s="20">
+        <v>18.913</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166" s="1">
+        <v>2</v>
+      </c>
+      <c r="M166" s="1">
+        <v>28</v>
+      </c>
+      <c r="N166" s="8">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="O166" s="8">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="P166" s="2">
+        <f>O167*1440-N166*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="16" customHeight="1">
+      <c r="A167" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1">
+        <v>18</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H167" s="1">
+        <v>27</v>
+      </c>
+      <c r="I167" s="20">
+        <v>17.631</v>
+      </c>
+      <c r="J167" s="20">
+        <v>18.771999999999998</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167" s="1">
+        <v>2</v>
+      </c>
+      <c r="M167" s="1">
+        <v>28</v>
+      </c>
+      <c r="N167" s="8">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="O167" s="8">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="P167" s="2">
+        <f>O168*1440-N167*1440</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="16" customHeight="1">
+      <c r="A168" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>19</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H168" s="1">
+        <v>25</v>
+      </c>
+      <c r="I168" s="20">
+        <v>17.291</v>
+      </c>
+      <c r="J168" s="20">
+        <v>18.271000000000001</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168" s="1">
+        <v>2</v>
+      </c>
+      <c r="M168" s="1">
+        <v>28</v>
+      </c>
+      <c r="N168" s="8">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="O168" s="8">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="P168" s="2">
+        <f>O169*1440-N168*1440</f>
+        <v>93.000000000000114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="16" customHeight="1">
+      <c r="A169" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H169" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I169" s="20">
+        <v>17.542000000000002</v>
+      </c>
+      <c r="J169" s="20">
+        <v>18.785</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169" s="1">
+        <v>2</v>
+      </c>
+      <c r="M169" s="1">
+        <v>28</v>
+      </c>
+      <c r="N169" s="8">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="O169" s="8">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="P169" s="2">
+        <f>O170*1440-N169*1440</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="16" customHeight="1">
+      <c r="A170" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>21</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H170" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I170" s="20">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="J170" s="20">
+        <v>18.908999999999999</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170" s="1">
+        <v>2</v>
+      </c>
+      <c r="M170" s="1">
+        <v>28</v>
+      </c>
+      <c r="N170" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O170" s="8">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="P170" s="2">
+        <f>O170*1440-N170*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="16" customHeight="1">
+      <c r="A171" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H171" s="1">
+        <v>24</v>
+      </c>
+      <c r="I171" s="20">
+        <v>18.041</v>
+      </c>
+      <c r="J171" s="20">
+        <v>19.332999999999998</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171" s="1">
+        <v>1</v>
+      </c>
+      <c r="M171" s="1">
+        <v>28</v>
+      </c>
+      <c r="N171" s="8">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="O171" s="8">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="P171" s="2">
+        <f>O171*1440-N171*1440</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="16" customHeight="1">
+      <c r="A172" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H172" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I172" s="20">
+        <v>17.367000000000001</v>
+      </c>
+      <c r="J172" s="20">
+        <v>18.71</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" s="1">
+        <v>1</v>
+      </c>
+      <c r="M172" s="1">
+        <v>28</v>
+      </c>
+      <c r="N172" s="8">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="O172" s="8">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="P172" s="2">
+        <f t="shared" ref="P172:P212" si="3">O172*1440-N172*1440</f>
+        <v>90.999999999999943</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="16" customHeight="1">
+      <c r="A173" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H173" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I173" s="20">
+        <v>17.744</v>
+      </c>
+      <c r="J173" s="20">
+        <v>18.872</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" s="1">
+        <v>1</v>
+      </c>
+      <c r="M173" s="1">
+        <v>28</v>
+      </c>
+      <c r="N173" s="8">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="O173" s="8">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="P173" s="2">
+        <f t="shared" si="3"/>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="16" customHeight="1">
+      <c r="A174" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1">
+        <v>4</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H174" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I174" s="20">
+        <v>17.268000000000001</v>
+      </c>
+      <c r="J174" s="20">
+        <v>18.652000000000001</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" s="1">
+        <v>1</v>
+      </c>
+      <c r="M174" s="1">
+        <v>28</v>
+      </c>
+      <c r="N174" s="8">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="O174" s="8">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="P174" s="2">
+        <f t="shared" si="3"/>
+        <v>89.999999999999943</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="16" customHeight="1">
+      <c r="A175" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2</v>
+      </c>
+      <c r="D175" s="1">
+        <v>5</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" s="1">
+        <v>27</v>
+      </c>
+      <c r="I175" s="20">
+        <v>17.594000000000001</v>
+      </c>
+      <c r="J175" s="20">
+        <v>19.762</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" s="1">
+        <v>1</v>
+      </c>
+      <c r="M175" s="1">
+        <v>28</v>
+      </c>
+      <c r="N175" s="8">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="O175" s="8">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="P175" s="2">
+        <f t="shared" si="3"/>
+        <v>91.000000000000057</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="16" customHeight="1">
+      <c r="A176" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" s="1">
+        <v>27</v>
+      </c>
+      <c r="I176" s="20">
+        <v>17.673999999999999</v>
+      </c>
+      <c r="J176" s="20">
+        <v>18.751000000000001</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1">
+        <v>1</v>
+      </c>
+      <c r="M176" s="1">
+        <v>28</v>
+      </c>
+      <c r="N176" s="8">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="O176" s="8">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="P176" s="2">
+        <f t="shared" si="3"/>
+        <v>90.000000000000057</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="16" customHeight="1">
+      <c r="A177" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>7</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I177" s="20">
+        <v>17.492999999999999</v>
+      </c>
+      <c r="J177" s="20">
+        <v>18.707999999999998</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1">
+        <v>1</v>
+      </c>
+      <c r="M177" s="1">
+        <v>28</v>
+      </c>
+      <c r="N177" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="O177" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P177" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="16" customHeight="1">
+      <c r="A178" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H178" s="1">
+        <v>26</v>
+      </c>
+      <c r="I178" s="20">
+        <v>17.597999999999999</v>
+      </c>
+      <c r="J178" s="20">
+        <v>18.698</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" s="1">
+        <v>1</v>
+      </c>
+      <c r="M178" s="1">
+        <v>28</v>
+      </c>
+      <c r="N178" s="8">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="O178" s="8">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="P178" s="2">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="16" customHeight="1">
+      <c r="A179" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I179" s="20">
+        <v>17.693000000000001</v>
+      </c>
+      <c r="J179" s="20">
+        <v>18.928000000000001</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" s="1">
+        <v>1</v>
+      </c>
+      <c r="M179" s="1">
+        <v>28</v>
+      </c>
+      <c r="N179" s="8">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="O179" s="8">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="P179" s="2">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="16" customHeight="1">
+      <c r="A180" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>10</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180" s="1">
+        <v>25</v>
+      </c>
+      <c r="I180" s="20">
+        <v>17.635999999999999</v>
+      </c>
+      <c r="J180" s="20">
+        <v>19.103999999999999</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" s="1">
+        <v>1</v>
+      </c>
+      <c r="M180" s="1">
+        <v>28</v>
+      </c>
+      <c r="N180" s="8">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="O180" s="8">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="P180" s="2">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="16" customHeight="1">
+      <c r="A181" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
+        <v>11</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H181" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I181" s="20">
+        <v>17.314</v>
+      </c>
+      <c r="J181" s="20">
+        <v>18.731999999999999</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181" s="1">
+        <v>1</v>
+      </c>
+      <c r="M181" s="1">
+        <v>26</v>
+      </c>
+      <c r="N181" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O181" s="8">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="P181" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="16" customHeight="1">
+      <c r="A182" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1">
+        <v>12</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H182" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I182" s="20">
+        <v>17.628</v>
+      </c>
+      <c r="J182" s="20">
+        <v>18.7</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182" s="1">
+        <v>1</v>
+      </c>
+      <c r="M182" s="1">
+        <v>26</v>
+      </c>
+      <c r="N182" s="8">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="O182" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="P182" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="16" customHeight="1">
+      <c r="A183" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <v>13</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I183" s="20">
+        <v>17.638999999999999</v>
+      </c>
+      <c r="J183" s="20">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183" s="1">
+        <v>1</v>
+      </c>
+      <c r="M183" s="1">
+        <v>26</v>
+      </c>
+      <c r="N183" s="8">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="O183" s="8">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="P183" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="16" customHeight="1">
+      <c r="A184" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1">
+        <v>14</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H184" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I184" s="20">
+        <v>17.992000000000001</v>
+      </c>
+      <c r="J184" s="20">
+        <v>19.062999999999999</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184" s="1">
+        <v>1</v>
+      </c>
+      <c r="M184" s="1">
+        <v>26</v>
+      </c>
+      <c r="N184" s="8">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="O184" s="8">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="P184" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="16" customHeight="1">
+      <c r="A185" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1">
+        <v>15</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H185" s="1">
+        <v>25</v>
+      </c>
+      <c r="I185" s="20">
+        <v>17.727</v>
+      </c>
+      <c r="J185" s="20">
+        <v>19.023</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185" s="1">
+        <v>1</v>
+      </c>
+      <c r="M185" s="1">
+        <v>26</v>
+      </c>
+      <c r="N185" s="8">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="O185" s="8">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="P185" s="2">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="16" customHeight="1">
+      <c r="A186" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1">
+        <v>16</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I186" s="20">
+        <v>17.91</v>
+      </c>
+      <c r="J186" s="20">
+        <v>19.312999999999999</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186" s="1">
+        <v>1</v>
+      </c>
+      <c r="M186" s="1">
+        <v>26</v>
+      </c>
+      <c r="N186" s="8">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="O186" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P186" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="16" customHeight="1">
+      <c r="A187" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1">
+        <v>17</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H187" s="1">
+        <v>25</v>
+      </c>
+      <c r="I187" s="20">
+        <v>17.498999999999999</v>
+      </c>
+      <c r="J187" s="20">
+        <v>18.902999999999999</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187" s="1">
+        <v>1</v>
+      </c>
+      <c r="M187" s="1">
+        <v>26</v>
+      </c>
+      <c r="N187" s="8">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="O187" s="8">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="P187" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="16" customHeight="1">
+      <c r="A188" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>18</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H188" s="1">
+        <v>26</v>
+      </c>
+      <c r="I188" s="20">
+        <v>17.693999999999999</v>
+      </c>
+      <c r="J188" s="20">
+        <v>18.8</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188" s="1">
+        <v>1</v>
+      </c>
+      <c r="M188" s="1">
+        <v>26</v>
+      </c>
+      <c r="N188" s="8">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="O188" s="8">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="P188" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="16" customHeight="1">
+      <c r="A189" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1">
+        <v>19</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H189" s="1">
+        <v>25</v>
+      </c>
+      <c r="I189" s="20">
+        <v>17.318000000000001</v>
+      </c>
+      <c r="J189" s="20">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189" s="1">
+        <v>1</v>
+      </c>
+      <c r="M189" s="1">
+        <v>26</v>
+      </c>
+      <c r="N189" s="8">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="O189" s="8">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="P189" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="16" customHeight="1">
+      <c r="A190" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H190" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I190" s="20">
+        <v>17.552</v>
+      </c>
+      <c r="J190" s="20">
+        <v>18.768999999999998</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190" s="1">
+        <v>1</v>
+      </c>
+      <c r="M190" s="1">
+        <v>26</v>
+      </c>
+      <c r="N190" s="8">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="O190" s="8">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="P190" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="16" customHeight="1">
+      <c r="A191" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
+        <v>21</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H191" s="1">
+        <v>25</v>
+      </c>
+      <c r="I191" s="20">
+        <v>17.475000000000001</v>
+      </c>
+      <c r="J191" s="20">
+        <v>18.872</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191" s="1">
+        <v>1</v>
+      </c>
+      <c r="M191" s="1">
+        <v>26</v>
+      </c>
+      <c r="N191" s="8">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="O191" s="8">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="P191" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="16" customHeight="1">
+      <c r="A192" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H192" s="1">
+        <v>24</v>
+      </c>
+      <c r="I192" s="20">
+        <v>18.041</v>
+      </c>
+      <c r="J192" s="20">
+        <v>19.332999999999998</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192" s="1">
+        <v>2</v>
+      </c>
+      <c r="M192" s="1">
+        <v>24</v>
+      </c>
+      <c r="N192" s="8">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="O192" s="8">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="P192" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="16" customHeight="1">
+      <c r="A193" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H193" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I193" s="20">
+        <v>17.367000000000001</v>
+      </c>
+      <c r="J193" s="20">
+        <v>18.71</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193" s="1">
+        <v>2</v>
+      </c>
+      <c r="M193" s="1">
+        <v>24</v>
+      </c>
+      <c r="N193" s="8">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="O193" s="8">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="P193" s="2">
+        <f t="shared" si="3"/>
+        <v>91.000000000000114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="16" customHeight="1">
+      <c r="A194" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I194" s="20">
+        <v>17.744</v>
+      </c>
+      <c r="J194" s="20">
+        <v>18.872</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" s="1">
+        <v>2</v>
+      </c>
+      <c r="M194" s="1">
+        <v>24</v>
+      </c>
+      <c r="N194" s="8">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="O194" s="8">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="P194" s="2">
+        <f t="shared" si="3"/>
+        <v>90.000000000000114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="16" customHeight="1">
+      <c r="A195" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1">
+        <v>4</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H195" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I195" s="20">
+        <v>17.268000000000001</v>
+      </c>
+      <c r="J195" s="20">
+        <v>18.652000000000001</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195" s="1">
+        <v>2</v>
+      </c>
+      <c r="M195" s="1">
+        <v>24</v>
+      </c>
+      <c r="N195" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="O195" s="8">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="P195" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="16" customHeight="1">
+      <c r="A196" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1">
+        <v>5</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H196" s="1">
+        <v>27</v>
+      </c>
+      <c r="I196" s="20">
+        <v>17.594000000000001</v>
+      </c>
+      <c r="J196" s="20">
+        <v>19.762</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" s="1">
+        <v>2</v>
+      </c>
+      <c r="M196" s="1">
+        <v>24</v>
+      </c>
+      <c r="N196" s="8">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="O196" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="P196" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" ht="16" customHeight="1">
+      <c r="A197" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1">
+        <v>6</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H197" s="1">
+        <v>27</v>
+      </c>
+      <c r="I197" s="20">
+        <v>17.673999999999999</v>
+      </c>
+      <c r="J197" s="20">
+        <v>18.751000000000001</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197" s="1">
+        <v>2</v>
+      </c>
+      <c r="M197" s="1">
+        <v>24</v>
+      </c>
+      <c r="N197" s="8">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="O197" s="8">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="P197" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999886</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" ht="16" customHeight="1">
+      <c r="A198" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2</v>
+      </c>
+      <c r="D198" s="1">
+        <v>7</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H198" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I198" s="20">
+        <v>17.492999999999999</v>
+      </c>
+      <c r="J198" s="20">
+        <v>18.707999999999998</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198" s="1">
+        <v>2</v>
+      </c>
+      <c r="M198" s="1">
+        <v>24</v>
+      </c>
+      <c r="N198" s="8">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="O198" s="8">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="P198" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999886</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="16" customHeight="1">
+      <c r="A199" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
+        <v>8</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" s="1">
+        <v>26</v>
+      </c>
+      <c r="I199" s="20">
+        <v>17.597999999999999</v>
+      </c>
+      <c r="J199" s="20">
+        <v>18.698</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199" s="1">
+        <v>2</v>
+      </c>
+      <c r="M199" s="1">
+        <v>24</v>
+      </c>
+      <c r="N199" s="8">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="O199" s="8">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="P199" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="16" customHeight="1">
+      <c r="A200" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2</v>
+      </c>
+      <c r="D200" s="1">
+        <v>9</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I200" s="20">
+        <v>17.693000000000001</v>
+      </c>
+      <c r="J200" s="20">
+        <v>18.928000000000001</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200" s="1">
+        <v>2</v>
+      </c>
+      <c r="M200" s="1">
+        <v>24</v>
+      </c>
+      <c r="N200" s="8">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="O200" s="8">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="P200" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="16" customHeight="1">
+      <c r="A201" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2</v>
+      </c>
+      <c r="D201" s="1">
+        <v>10</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H201" s="1">
+        <v>25</v>
+      </c>
+      <c r="I201" s="20">
+        <v>17.635999999999999</v>
+      </c>
+      <c r="J201" s="20">
+        <v>19.103999999999999</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201" s="1">
+        <v>2</v>
+      </c>
+      <c r="M201" s="1">
+        <v>24</v>
+      </c>
+      <c r="N201" s="8">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="O201" s="8">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="P201" s="2">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="16" customHeight="1">
+      <c r="A202" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2</v>
+      </c>
+      <c r="D202" s="1">
+        <v>11</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H202" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I202" s="20">
+        <v>17.314</v>
+      </c>
+      <c r="J202" s="20">
+        <v>18.731999999999999</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202" s="1">
+        <v>2</v>
+      </c>
+      <c r="M202" s="1">
+        <v>30</v>
+      </c>
+      <c r="N202" s="8">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="O202" s="8">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="P202" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="16" customHeight="1">
+      <c r="A203" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1">
+        <v>12</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H203" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I203" s="20">
+        <v>17.628</v>
+      </c>
+      <c r="J203" s="20">
+        <v>18.7</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203" s="1">
+        <v>2</v>
+      </c>
+      <c r="M203" s="1">
+        <v>30</v>
+      </c>
+      <c r="N203" s="8">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="O203" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="P203" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="16" customHeight="1">
+      <c r="A204" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1">
+        <v>2</v>
+      </c>
+      <c r="D204" s="1">
+        <v>13</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H204" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I204" s="20">
+        <v>17.638999999999999</v>
+      </c>
+      <c r="J204" s="20">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204" s="1">
+        <v>2</v>
+      </c>
+      <c r="M204" s="1">
+        <v>30</v>
+      </c>
+      <c r="N204" s="8">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="O204" s="8">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="P204" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="16" customHeight="1">
+      <c r="A205" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2</v>
+      </c>
+      <c r="D205" s="1">
+        <v>14</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H205" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I205" s="20">
+        <v>17.992000000000001</v>
+      </c>
+      <c r="J205" s="20">
+        <v>19.062999999999999</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205" s="1">
+        <v>2</v>
+      </c>
+      <c r="M205" s="1">
+        <v>30</v>
+      </c>
+      <c r="N205" s="8">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="O205" s="8">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="P205" s="2">
+        <f t="shared" si="3"/>
+        <v>91.000000000000227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="16" customHeight="1">
+      <c r="A206" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2</v>
+      </c>
+      <c r="D206" s="1">
+        <v>15</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H206" s="1">
+        <v>25</v>
+      </c>
+      <c r="I206" s="20">
+        <v>17.727</v>
+      </c>
+      <c r="J206" s="20">
+        <v>19.023</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206" s="1">
+        <v>2</v>
+      </c>
+      <c r="M206" s="1">
+        <v>30</v>
+      </c>
+      <c r="N206" s="8">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="O206" s="8">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="P206" s="2">
+        <f t="shared" si="3"/>
+        <v>91.000000000000227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" ht="16" customHeight="1">
+      <c r="A207" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1">
+        <v>2</v>
+      </c>
+      <c r="D207" s="1">
+        <v>16</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H207" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I207" s="20">
+        <v>17.91</v>
+      </c>
+      <c r="J207" s="20">
+        <v>19.312999999999999</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207" s="1">
+        <v>2</v>
+      </c>
+      <c r="M207" s="1">
+        <v>30</v>
+      </c>
+      <c r="N207" s="8">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="O207" s="8">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="P207" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="16" customHeight="1">
+      <c r="A208" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1">
+        <v>2</v>
+      </c>
+      <c r="D208" s="1">
+        <v>17</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H208" s="1">
+        <v>25</v>
+      </c>
+      <c r="I208" s="20">
+        <v>17.498999999999999</v>
+      </c>
+      <c r="J208" s="20">
+        <v>18.902999999999999</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208" s="1">
+        <v>2</v>
+      </c>
+      <c r="M208" s="1">
+        <v>30</v>
+      </c>
+      <c r="N208" s="8">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="O208" s="8">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="P208" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" ht="16" customHeight="1">
+      <c r="A209" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2</v>
+      </c>
+      <c r="D209" s="1">
+        <v>18</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H209" s="1">
+        <v>26</v>
+      </c>
+      <c r="I209" s="20">
+        <v>17.693999999999999</v>
+      </c>
+      <c r="J209" s="20">
+        <v>18.8</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209" s="1">
+        <v>2</v>
+      </c>
+      <c r="M209" s="1">
+        <v>30</v>
+      </c>
+      <c r="N209" s="8">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="O209" s="8">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="P209" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="16" customHeight="1">
+      <c r="A210" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2</v>
+      </c>
+      <c r="D210" s="1">
+        <v>19</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210" s="1">
+        <v>25</v>
+      </c>
+      <c r="I210" s="20">
+        <v>17.318000000000001</v>
+      </c>
+      <c r="J210" s="20">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210" s="1">
+        <v>2</v>
+      </c>
+      <c r="M210" s="1">
+        <v>30</v>
+      </c>
+      <c r="N210" s="8">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="O210" s="8">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="P210" s="2">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="16" customHeight="1">
+      <c r="A211" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H211" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I211" s="20">
+        <v>17.552</v>
+      </c>
+      <c r="J211" s="20">
+        <v>18.768999999999998</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211" s="1">
+        <v>2</v>
+      </c>
+      <c r="M211" s="1">
+        <v>30</v>
+      </c>
+      <c r="N211" s="8">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="O211" s="8">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="P211" s="2">
+        <f t="shared" si="3"/>
+        <v>91.000000000000227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="16" customHeight="1">
+      <c r="A212" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1">
+        <v>2</v>
+      </c>
+      <c r="D212" s="1">
+        <v>21</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H212" s="1">
+        <v>25</v>
+      </c>
+      <c r="I212" s="20">
+        <v>17.475000000000001</v>
+      </c>
+      <c r="J212" s="20">
+        <v>18.872</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212" s="1">
+        <v>2</v>
+      </c>
+      <c r="M212" s="1">
+        <v>30</v>
+      </c>
+      <c r="N212" s="8">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="O212" s="8">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="P212" s="2">
+        <f t="shared" si="3"/>
+        <v>90.999999999999773</v>
       </c>
     </row>
   </sheetData>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="137">
   <si>
     <t>date</t>
   </si>
@@ -437,10 +437,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -527,11 +526,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -683,7 +696,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -714,14 +727,14 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="142">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -787,6 +800,13 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -849,6 +869,13 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1178,11 +1205,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB212"/>
+  <dimension ref="A1:AB254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P200" sqref="P200:P212"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N215" sqref="N215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -7778,7 +7805,7 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="P129" s="2">
-        <f t="shared" ref="P128:P169" si="2">O129*1440-N129*1440</f>
+        <f t="shared" ref="P129:P163" si="2">O129*1440-N129*1440</f>
         <v>89.999999999999943</v>
       </c>
     </row>
@@ -9563,7 +9590,7 @@
         <v>0.55763888888888891</v>
       </c>
       <c r="P164" s="2">
-        <f>O165*1440-N164*1440</f>
+        <f t="shared" ref="P164:P169" si="3">O165*1440-N164*1440</f>
         <v>92</v>
       </c>
     </row>
@@ -9614,7 +9641,7 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="P165" s="2">
-        <f>O166*1440-N165*1440</f>
+        <f t="shared" si="3"/>
         <v>92.000000000000114</v>
       </c>
     </row>
@@ -9665,7 +9692,7 @@
         <v>0.56041666666666667</v>
       </c>
       <c r="P166" s="2">
-        <f>O167*1440-N166*1440</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
     </row>
@@ -9716,7 +9743,7 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="P167" s="2">
-        <f>O168*1440-N167*1440</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
     </row>
@@ -9767,7 +9794,7 @@
         <v>0.56180555555555556</v>
       </c>
       <c r="P168" s="2">
-        <f>O169*1440-N168*1440</f>
+        <f t="shared" si="3"/>
         <v>93.000000000000114</v>
       </c>
     </row>
@@ -9818,7 +9845,7 @@
         <v>0.56388888888888888</v>
       </c>
       <c r="P169" s="2">
-        <f>O170*1440-N169*1440</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
     </row>
@@ -9971,7 +9998,7 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="P172" s="2">
-        <f t="shared" ref="P172:P212" si="3">O172*1440-N172*1440</f>
+        <f t="shared" ref="P172:P212" si="4">O172*1440-N172*1440</f>
         <v>90.999999999999943</v>
       </c>
     </row>
@@ -10022,7 +10049,7 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="P173" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.999999999999943</v>
       </c>
     </row>
@@ -10073,7 +10100,7 @@
         <v>0.41388888888888892</v>
       </c>
       <c r="P174" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.999999999999943</v>
       </c>
     </row>
@@ -10124,7 +10151,7 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="P175" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.000000000000057</v>
       </c>
     </row>
@@ -10175,7 +10202,7 @@
         <v>0.41597222222222219</v>
       </c>
       <c r="P176" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.000000000000057</v>
       </c>
     </row>
@@ -10226,7 +10253,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="P177" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10277,7 +10304,7 @@
         <v>0.41875000000000001</v>
       </c>
       <c r="P178" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -10328,7 +10355,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="P179" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -10379,7 +10406,7 @@
         <v>0.42152777777777778</v>
       </c>
       <c r="P180" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
@@ -10430,7 +10457,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="P181" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10481,7 +10508,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="P182" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10532,7 +10559,7 @@
         <v>0.45416666666666666</v>
       </c>
       <c r="P183" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10583,7 +10610,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="P184" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10634,7 +10661,7 @@
         <v>0.45624999999999999</v>
       </c>
       <c r="P185" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
     </row>
@@ -10685,7 +10712,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="P186" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -10736,7 +10763,7 @@
         <v>0.45902777777777781</v>
       </c>
       <c r="P187" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10787,7 +10814,7 @@
         <v>0.4604166666666667</v>
       </c>
       <c r="P188" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -10838,7 +10865,7 @@
         <v>0.46111111111111108</v>
       </c>
       <c r="P189" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10889,7 +10916,7 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="P190" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -10940,7 +10967,7 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="P191" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -10991,7 +11018,7 @@
         <v>0.52847222222222223</v>
       </c>
       <c r="P192" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -11042,7 +11069,7 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="P193" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.000000000000114</v>
       </c>
     </row>
@@ -11093,7 +11120,7 @@
         <v>0.53055555555555556</v>
       </c>
       <c r="P194" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.000000000000114</v>
       </c>
     </row>
@@ -11144,7 +11171,7 @@
         <v>0.53194444444444444</v>
       </c>
       <c r="P195" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -11195,7 +11222,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="P196" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -11246,7 +11273,7 @@
         <v>0.53402777777777777</v>
       </c>
       <c r="P197" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999886</v>
       </c>
     </row>
@@ -11297,7 +11324,7 @@
         <v>0.53541666666666665</v>
       </c>
       <c r="P198" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999886</v>
       </c>
     </row>
@@ -11348,7 +11375,7 @@
         <v>0.53611111111111109</v>
       </c>
       <c r="P199" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -11399,7 +11426,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="P200" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -11450,7 +11477,7 @@
         <v>0.53888888888888886</v>
       </c>
       <c r="P201" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -11501,7 +11528,7 @@
         <v>0.57152777777777775</v>
       </c>
       <c r="P202" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -11552,7 +11579,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="P203" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -11603,7 +11630,7 @@
         <v>0.57430555555555551</v>
       </c>
       <c r="P204" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -11654,7 +11681,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="P205" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.000000000000227</v>
       </c>
     </row>
@@ -11705,7 +11732,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="P206" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.000000000000227</v>
       </c>
     </row>
@@ -11756,7 +11783,7 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="P207" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -11807,7 +11834,7 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="P208" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -11858,7 +11885,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="P209" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999773</v>
       </c>
     </row>
@@ -11909,7 +11936,7 @@
         <v>0.58124999999999993</v>
       </c>
       <c r="P210" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -11960,7 +11987,7 @@
         <v>0.58194444444444449</v>
       </c>
       <c r="P211" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.000000000000227</v>
       </c>
     </row>
@@ -12011,8 +12038,1736 @@
         <v>0.58263888888888882</v>
       </c>
       <c r="P212" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="16" customHeight="1">
+      <c r="A213" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H213" s="1">
+        <v>24</v>
+      </c>
+      <c r="I213" s="20">
+        <v>18.042000000000002</v>
+      </c>
+      <c r="J213" s="20">
+        <v>19.326000000000001</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213" s="1">
+        <v>1</v>
+      </c>
+      <c r="M213" s="1">
+        <v>32</v>
+      </c>
+      <c r="N213" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="16" customHeight="1">
+      <c r="A214" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1">
+        <v>2</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H214" s="1">
+        <v>25</v>
+      </c>
+      <c r="I214" s="20">
+        <v>17.376999999999999</v>
+      </c>
+      <c r="J214" s="20">
+        <v>18.704000000000001</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214" s="1">
+        <v>1</v>
+      </c>
+      <c r="M214" s="1">
+        <v>32</v>
+      </c>
+      <c r="N214" s="8">
+        <v>0.35555555555555557</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="16" customHeight="1">
+      <c r="A215" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1">
+        <v>2</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H215" s="1">
+        <v>26</v>
+      </c>
+      <c r="I215" s="20">
+        <v>17.722999999999999</v>
+      </c>
+      <c r="J215" s="20">
+        <v>18.847000000000001</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215" s="1">
+        <v>1</v>
+      </c>
+      <c r="M215" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" ht="16" customHeight="1">
+      <c r="A216" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1">
+        <v>2</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H216" s="1">
+        <v>24</v>
+      </c>
+      <c r="I216" s="20">
+        <v>17.268000000000001</v>
+      </c>
+      <c r="J216" s="20">
+        <v>18.637</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1</v>
+      </c>
+      <c r="M216" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="16" customHeight="1">
+      <c r="A217" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1">
+        <v>5</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H217" s="1">
+        <v>27</v>
+      </c>
+      <c r="I217" s="20">
+        <v>17.606000000000002</v>
+      </c>
+      <c r="J217" s="20">
+        <v>18.800999999999998</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217" s="1">
+        <v>1</v>
+      </c>
+      <c r="M217" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="16" customHeight="1">
+      <c r="A218" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2</v>
+      </c>
+      <c r="D218" s="1">
+        <v>6</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H218" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I218" s="20">
+        <v>17.651</v>
+      </c>
+      <c r="J218" s="20">
+        <v>18.768000000000001</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218" s="1">
+        <v>1</v>
+      </c>
+      <c r="M218" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="16" customHeight="1">
+      <c r="A219" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1">
+        <v>7</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H219" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I219" s="20">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="J219" s="20">
+        <v>18.678000000000001</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219" s="1">
+        <v>1</v>
+      </c>
+      <c r="M219" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="16" customHeight="1">
+      <c r="A220" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>8</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" s="1">
+        <v>26</v>
+      </c>
+      <c r="I220" s="20">
+        <v>17.606000000000002</v>
+      </c>
+      <c r="J220" s="20">
+        <v>18.702999999999999</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220" s="1">
+        <v>1</v>
+      </c>
+      <c r="M220" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="16" customHeight="1">
+      <c r="A221" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1">
+        <v>2</v>
+      </c>
+      <c r="D221" s="1">
+        <v>9</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" s="1">
+        <v>25</v>
+      </c>
+      <c r="I221" s="20">
+        <v>17.673999999999999</v>
+      </c>
+      <c r="J221" s="20">
+        <v>18.905000000000001</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221" s="1">
+        <v>1</v>
+      </c>
+      <c r="M221" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="16" customHeight="1">
+      <c r="A222" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1">
+        <v>2</v>
+      </c>
+      <c r="D222" s="1">
+        <v>10</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H222" s="1">
+        <v>25</v>
+      </c>
+      <c r="I222" s="20">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="J222" s="20">
+        <v>19.099</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222" s="1">
+        <v>1</v>
+      </c>
+      <c r="M222" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="16" customHeight="1">
+      <c r="A223" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2</v>
+      </c>
+      <c r="D223" s="1">
+        <v>11</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" s="1">
+        <v>27</v>
+      </c>
+      <c r="I223" s="20">
+        <v>17.344000000000001</v>
+      </c>
+      <c r="J223" s="20">
+        <v>18.751999999999999</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223" s="1">
+        <v>1</v>
+      </c>
+      <c r="M223" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="16" customHeight="1">
+      <c r="A224" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2</v>
+      </c>
+      <c r="D224" s="1">
+        <v>12</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H224" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I224" s="20">
+        <v>17.614000000000001</v>
+      </c>
+      <c r="J224" s="20">
+        <v>18.695</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224" s="1">
+        <v>1</v>
+      </c>
+      <c r="M224" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="16" customHeight="1">
+      <c r="A225" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1">
+        <v>13</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H225" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I225" s="20">
+        <v>17.628</v>
+      </c>
+      <c r="J225" s="20">
+        <v>18.600999999999999</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225" s="1">
+        <v>1</v>
+      </c>
+      <c r="M225" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="16" customHeight="1">
+      <c r="A226" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2</v>
+      </c>
+      <c r="D226" s="1">
+        <v>14</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H226" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I226" s="20">
+        <v>17.934000000000001</v>
+      </c>
+      <c r="J226" s="20">
+        <v>19.036999999999999</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226" s="1">
+        <v>1</v>
+      </c>
+      <c r="M226" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="16" customHeight="1">
+      <c r="A227" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>15</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H227" s="1">
+        <v>25</v>
+      </c>
+      <c r="I227" s="20">
+        <v>17.792999999999999</v>
+      </c>
+      <c r="J227" s="20">
+        <v>19.093</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227" s="1">
+        <v>1</v>
+      </c>
+      <c r="M227" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="16" customHeight="1">
+      <c r="A228" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1">
+        <v>16</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H228" s="1">
+        <v>24</v>
+      </c>
+      <c r="I228" s="20">
+        <v>17.776</v>
+      </c>
+      <c r="J228" s="20">
+        <v>19.172000000000001</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228" s="1">
+        <v>1</v>
+      </c>
+      <c r="M228" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="16" customHeight="1">
+      <c r="A229" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2</v>
+      </c>
+      <c r="D229" s="1">
+        <v>17</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H229" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I229" s="20">
+        <v>17.463999999999999</v>
+      </c>
+      <c r="J229" s="20">
+        <v>18.841999999999999</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229" s="1">
+        <v>1</v>
+      </c>
+      <c r="M229" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="16" customHeight="1">
+      <c r="A230" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
+        <v>18</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H230" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I230" s="20">
+        <v>17.652000000000001</v>
+      </c>
+      <c r="J230" s="20">
+        <v>18.739000000000001</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230" s="1">
+        <v>1</v>
+      </c>
+      <c r="M230" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="16" customHeight="1">
+      <c r="A231" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1">
+        <v>19</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H231" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I231" s="20">
+        <v>17.291</v>
+      </c>
+      <c r="J231" s="20">
+        <v>18.18</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231" s="1">
+        <v>1</v>
+      </c>
+      <c r="M231" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="16" customHeight="1">
+      <c r="A232" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H232" s="1">
+        <v>26</v>
+      </c>
+      <c r="I232" s="20">
+        <v>17.533000000000001</v>
+      </c>
+      <c r="J232" s="20">
+        <v>18.739000000000001</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232" s="1">
+        <v>1</v>
+      </c>
+      <c r="M232" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="16" customHeight="1">
+      <c r="A233" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1">
+        <v>21</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H233" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I233" s="20">
+        <v>17.449000000000002</v>
+      </c>
+      <c r="J233" s="20">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233" s="1">
+        <v>1</v>
+      </c>
+      <c r="M233" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="16" customHeight="1">
+      <c r="A234" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H234" s="1">
+        <v>24</v>
+      </c>
+      <c r="I234" s="20">
+        <v>18.042000000000002</v>
+      </c>
+      <c r="J234" s="20">
+        <v>19.326000000000001</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234" s="1">
+        <v>2</v>
+      </c>
+      <c r="M234" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="16" customHeight="1">
+      <c r="A235" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H235" s="1">
+        <v>25</v>
+      </c>
+      <c r="I235" s="20">
+        <v>17.376999999999999</v>
+      </c>
+      <c r="J235" s="20">
+        <v>18.704000000000001</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235" s="1">
+        <v>2</v>
+      </c>
+      <c r="M235" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="16" customHeight="1">
+      <c r="A236" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H236" s="1">
+        <v>26</v>
+      </c>
+      <c r="I236" s="20">
+        <v>17.722999999999999</v>
+      </c>
+      <c r="J236" s="20">
+        <v>18.847000000000001</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236" s="1">
+        <v>2</v>
+      </c>
+      <c r="M236" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="16" customHeight="1">
+      <c r="A237" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H237" s="1">
+        <v>24</v>
+      </c>
+      <c r="I237" s="20">
+        <v>17.268000000000001</v>
+      </c>
+      <c r="J237" s="20">
+        <v>18.637</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237" s="1">
+        <v>2</v>
+      </c>
+      <c r="M237" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="16" customHeight="1">
+      <c r="A238" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2</v>
+      </c>
+      <c r="D238" s="1">
+        <v>5</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H238" s="1">
+        <v>27</v>
+      </c>
+      <c r="I238" s="20">
+        <v>17.606000000000002</v>
+      </c>
+      <c r="J238" s="20">
+        <v>18.800999999999998</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238" s="1">
+        <v>2</v>
+      </c>
+      <c r="M238" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="16" customHeight="1">
+      <c r="A239" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2</v>
+      </c>
+      <c r="D239" s="1">
+        <v>6</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H239" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I239" s="20">
+        <v>17.651</v>
+      </c>
+      <c r="J239" s="20">
+        <v>18.768000000000001</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239" s="1">
+        <v>2</v>
+      </c>
+      <c r="M239" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="16" customHeight="1">
+      <c r="A240" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2</v>
+      </c>
+      <c r="D240" s="1">
+        <v>7</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H240" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I240" s="20">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="J240" s="20">
+        <v>18.678000000000001</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240" s="1">
+        <v>2</v>
+      </c>
+      <c r="M240" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="16" customHeight="1">
+      <c r="A241" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2</v>
+      </c>
+      <c r="D241" s="1">
+        <v>8</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H241" s="1">
+        <v>26</v>
+      </c>
+      <c r="I241" s="20">
+        <v>17.606000000000002</v>
+      </c>
+      <c r="J241" s="20">
+        <v>18.702999999999999</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241" s="1">
+        <v>2</v>
+      </c>
+      <c r="M241" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="16" customHeight="1">
+      <c r="A242" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1">
+        <v>9</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H242" s="1">
+        <v>25</v>
+      </c>
+      <c r="I242" s="20">
+        <v>17.673999999999999</v>
+      </c>
+      <c r="J242" s="20">
+        <v>18.905000000000001</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242" s="1">
+        <v>2</v>
+      </c>
+      <c r="M242" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="16" customHeight="1">
+      <c r="A243" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1">
+        <v>2</v>
+      </c>
+      <c r="D243" s="1">
+        <v>10</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H243" s="1">
+        <v>25</v>
+      </c>
+      <c r="I243" s="20">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="J243" s="20">
+        <v>19.099</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243" s="1">
+        <v>2</v>
+      </c>
+      <c r="M243" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="16" customHeight="1">
+      <c r="A244" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1</v>
+      </c>
+      <c r="C244" s="1">
+        <v>2</v>
+      </c>
+      <c r="D244" s="1">
+        <v>11</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" s="1">
+        <v>27</v>
+      </c>
+      <c r="I244" s="20">
+        <v>17.344000000000001</v>
+      </c>
+      <c r="J244" s="20">
+        <v>18.751999999999999</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244" s="1">
+        <v>2</v>
+      </c>
+      <c r="M244" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="16" customHeight="1">
+      <c r="A245" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2</v>
+      </c>
+      <c r="D245" s="1">
+        <v>12</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H245" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I245" s="20">
+        <v>17.614000000000001</v>
+      </c>
+      <c r="J245" s="20">
+        <v>18.695</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+      <c r="L245" s="1">
+        <v>2</v>
+      </c>
+      <c r="M245" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="16" customHeight="1">
+      <c r="A246" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1">
+        <v>2</v>
+      </c>
+      <c r="D246" s="1">
+        <v>13</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H246" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I246" s="20">
+        <v>17.628</v>
+      </c>
+      <c r="J246" s="20">
+        <v>18.600999999999999</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246" s="1">
+        <v>2</v>
+      </c>
+      <c r="M246" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="16" customHeight="1">
+      <c r="A247" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B247" s="1">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2</v>
+      </c>
+      <c r="D247" s="1">
+        <v>14</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H247" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="I247" s="20">
+        <v>17.934000000000001</v>
+      </c>
+      <c r="J247" s="20">
+        <v>19.036999999999999</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247" s="1">
+        <v>2</v>
+      </c>
+      <c r="M247" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="16" customHeight="1">
+      <c r="A248" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2</v>
+      </c>
+      <c r="D248" s="1">
+        <v>15</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H248" s="1">
+        <v>25</v>
+      </c>
+      <c r="I248" s="20">
+        <v>17.792999999999999</v>
+      </c>
+      <c r="J248" s="20">
+        <v>19.093</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248" s="1">
+        <v>2</v>
+      </c>
+      <c r="M248" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="16" customHeight="1">
+      <c r="A249" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2</v>
+      </c>
+      <c r="D249" s="1">
+        <v>16</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H249" s="1">
+        <v>24</v>
+      </c>
+      <c r="I249" s="20">
+        <v>17.776</v>
+      </c>
+      <c r="J249" s="20">
+        <v>19.172000000000001</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249" s="1">
+        <v>2</v>
+      </c>
+      <c r="M249" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="16" customHeight="1">
+      <c r="A250" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1">
+        <v>2</v>
+      </c>
+      <c r="D250" s="1">
+        <v>17</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H250" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I250" s="20">
+        <v>17.463999999999999</v>
+      </c>
+      <c r="J250" s="20">
+        <v>18.841999999999999</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250" s="1">
+        <v>2</v>
+      </c>
+      <c r="M250" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="16" customHeight="1">
+      <c r="A251" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B251" s="1">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2</v>
+      </c>
+      <c r="D251" s="1">
+        <v>18</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H251" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I251" s="20">
+        <v>17.652000000000001</v>
+      </c>
+      <c r="J251" s="20">
+        <v>18.739000000000001</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251" s="1">
+        <v>2</v>
+      </c>
+      <c r="M251" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="16" customHeight="1">
+      <c r="A252" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1">
+        <v>2</v>
+      </c>
+      <c r="D252" s="1">
+        <v>19</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H252" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="I252" s="20">
+        <v>17.291</v>
+      </c>
+      <c r="J252" s="20">
+        <v>18.18</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252" s="1">
+        <v>2</v>
+      </c>
+      <c r="M252" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="16" customHeight="1">
+      <c r="A253" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B253" s="1">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1">
+        <v>2</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H253" s="1">
+        <v>26</v>
+      </c>
+      <c r="I253" s="20">
+        <v>17.533000000000001</v>
+      </c>
+      <c r="J253" s="20">
+        <v>18.739000000000001</v>
+      </c>
+      <c r="K253">
+        <v>2</v>
+      </c>
+      <c r="L253" s="1">
+        <v>2</v>
+      </c>
+      <c r="M253" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="16" customHeight="1">
+      <c r="A254" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>2</v>
+      </c>
+      <c r="D254" s="1">
+        <v>21</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H254" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="I254" s="20">
+        <v>17.449000000000002</v>
+      </c>
+      <c r="J254" s="20">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254" s="1">
+        <v>2</v>
+      </c>
+      <c r="M254" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -437,9 +437,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -670,7 +671,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,12 +692,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -721,9 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +723,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1208,8 +1206,8 @@
   <dimension ref="A1:AB254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N215" sqref="N215"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O257" sqref="O257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -1222,12 +1220,13 @@
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1261,10 +1260,10 @@
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1276,10 +1275,10 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1347,10 +1346,10 @@
       <c r="H2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <v>18.059000000000001</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="17">
         <v>19.408000000000001</v>
       </c>
       <c r="K2" s="1">
@@ -1362,10 +1361,10 @@
       <c r="M2" s="1">
         <v>22</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="19">
         <v>0.36527777777777781</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="19">
         <v>0.44166666666666665</v>
       </c>
       <c r="P2" s="2">
@@ -1398,10 +1397,10 @@
       <c r="H3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="17">
         <v>17.395</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="17">
         <v>18.853000000000002</v>
       </c>
       <c r="K3" s="1">
@@ -1413,10 +1412,10 @@
       <c r="M3" s="1">
         <v>22</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="19">
         <v>0.3666666666666667</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="19">
         <v>0.44236111111111115</v>
       </c>
       <c r="P3" s="2">
@@ -1449,10 +1448,10 @@
       <c r="H4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <v>17.725999999999999</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <v>18.972999999999999</v>
       </c>
       <c r="K4" s="1">
@@ -1464,10 +1463,10 @@
       <c r="M4" s="1">
         <v>22</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="19">
         <v>0.36805555555555558</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="19">
         <v>0.44305555555555554</v>
       </c>
       <c r="P4" s="2">
@@ -1500,10 +1499,10 @@
       <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <v>17.256</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>18.404</v>
       </c>
       <c r="K5" s="1">
@@ -1515,10 +1514,10 @@
       <c r="M5" s="1">
         <v>22</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="19">
         <v>0.36874999999999997</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="19">
         <v>0.44444444444444442</v>
       </c>
       <c r="P5" s="2">
@@ -1551,10 +1550,10 @@
       <c r="H6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <v>17.593</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="17">
         <v>18.861999999999998</v>
       </c>
       <c r="K6" s="1">
@@ -1566,10 +1565,10 @@
       <c r="M6" s="1">
         <v>22</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="19">
         <v>0.37013888888888885</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="19">
         <v>0.4458333333333333</v>
       </c>
       <c r="P6" s="2">
@@ -1602,10 +1601,10 @@
       <c r="H7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <v>17.199000000000002</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <v>18.835999999999999</v>
       </c>
       <c r="K7" s="1">
@@ -1617,10 +1616,10 @@
       <c r="M7" s="1">
         <v>22</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="19">
         <v>0.37152777777777773</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="19">
         <v>0.44722222222222219</v>
       </c>
       <c r="P7" s="2">
@@ -1653,10 +1652,10 @@
       <c r="H8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="17">
         <v>17.425999999999998</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <v>18.689</v>
       </c>
       <c r="K8" s="1">
@@ -1668,10 +1667,10 @@
       <c r="M8" s="1">
         <v>22</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="19">
         <v>0.37291666666666662</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="19">
         <v>0.44930555555555557</v>
       </c>
       <c r="P8" s="2">
@@ -1704,10 +1703,10 @@
       <c r="H9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="17">
         <v>17.422000000000001</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <v>19.123999999999999</v>
       </c>
       <c r="K9" s="1">
@@ -1719,10 +1718,10 @@
       <c r="M9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="19">
         <v>0.37361111111111112</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="19">
         <v>0.45069444444444445</v>
       </c>
       <c r="P9" s="2">
@@ -1755,10 +1754,10 @@
       <c r="H10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <v>17.696000000000002</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <v>19.064</v>
       </c>
       <c r="K10" s="1">
@@ -1770,10 +1769,10 @@
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="19">
         <v>0.375</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="19">
         <v>0.45208333333333334</v>
       </c>
       <c r="P10" s="2">
@@ -1806,10 +1805,10 @@
       <c r="H11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="17">
         <v>17.629000000000001</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <v>18.766999999999999</v>
       </c>
       <c r="K11" s="1">
@@ -1821,10 +1820,10 @@
       <c r="M11" s="1">
         <v>22</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="19">
         <v>0.37708333333333338</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="19">
         <v>0.45347222222222222</v>
       </c>
       <c r="P11" s="2">
@@ -1857,10 +1856,10 @@
       <c r="H12" s="1">
         <v>21</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>16.867999999999999</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <v>18.073</v>
       </c>
       <c r="K12" s="1">
@@ -1872,10 +1871,10 @@
       <c r="M12" s="1">
         <v>26</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="19">
         <v>0.42638888888888887</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="19">
         <v>0.48194444444444445</v>
       </c>
       <c r="P12" s="2">
@@ -1908,10 +1907,10 @@
       <c r="H13" s="1">
         <v>20.5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>17.61</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="17">
         <v>18.916</v>
       </c>
       <c r="K13" s="1">
@@ -1923,10 +1922,10 @@
       <c r="M13" s="1">
         <v>26</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="19">
         <v>0.42777777777777781</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="19">
         <v>0.48333333333333334</v>
       </c>
       <c r="P13" s="2">
@@ -1959,10 +1958,10 @@
       <c r="H14" s="1">
         <v>21.5</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <v>17.622</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="17">
         <v>18.984999999999999</v>
       </c>
       <c r="K14" s="1">
@@ -1974,10 +1973,10 @@
       <c r="M14" s="1">
         <v>26</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="19">
         <v>0.4291666666666667</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="19">
         <v>0.48472222222222222</v>
       </c>
       <c r="P14" s="2">
@@ -2010,10 +2009,10 @@
       <c r="H15" s="1">
         <v>20</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>17.824999999999999</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="17">
         <v>18.922000000000001</v>
       </c>
       <c r="K15" s="1">
@@ -2025,10 +2024,10 @@
       <c r="M15" s="1">
         <v>26</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="19">
         <v>0.43055555555555558</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="19">
         <v>0.4861111111111111</v>
       </c>
       <c r="P15" s="2">
@@ -2061,10 +2060,10 @@
       <c r="H16" s="1">
         <v>19.5</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>17.687999999999999</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="17">
         <v>19.093</v>
       </c>
       <c r="K16" s="1">
@@ -2076,10 +2075,10 @@
       <c r="M16" s="1">
         <v>26</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="19">
         <v>0.43124999999999997</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="19">
         <v>0.48749999999999999</v>
       </c>
       <c r="P16" s="2">
@@ -2112,10 +2111,10 @@
       <c r="H17" s="1">
         <v>20.5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>17.675000000000001</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="17">
         <v>19.024000000000001</v>
       </c>
       <c r="K17" s="1">
@@ -2127,10 +2126,10 @@
       <c r="M17" s="1">
         <v>26</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="19">
         <v>0.43333333333333335</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="19">
         <v>0.48888888888888887</v>
       </c>
       <c r="P17" s="2">
@@ -2163,10 +2162,10 @@
       <c r="H18" s="1">
         <v>20</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>17.486000000000001</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="17">
         <v>18.571999999999999</v>
       </c>
       <c r="K18" s="1">
@@ -2178,10 +2177,10 @@
       <c r="M18" s="1">
         <v>26</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="19">
         <v>0.43402777777777773</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="19">
         <v>0.49027777777777781</v>
       </c>
       <c r="P18" s="2">
@@ -2214,10 +2213,10 @@
       <c r="H19" s="1">
         <v>21</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="17">
         <v>17.651</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <v>19.12</v>
       </c>
       <c r="K19" s="1">
@@ -2229,10 +2228,10 @@
       <c r="M19" s="1">
         <v>26</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="19">
         <v>0.43541666666666662</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="19">
         <v>0.4916666666666667</v>
       </c>
       <c r="P19" s="2">
@@ -2265,10 +2264,10 @@
       <c r="H20" s="1">
         <v>20.5</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="17">
         <v>17.3</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="17">
         <v>18.838999999999999</v>
       </c>
       <c r="K20" s="1">
@@ -2280,10 +2279,10 @@
       <c r="M20" s="1">
         <v>26</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="19">
         <v>0.4368055555555555</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="19">
         <v>0.49305555555555558</v>
       </c>
       <c r="P20" s="2">
@@ -2316,10 +2315,10 @@
       <c r="H21" s="1">
         <v>19.5</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="17">
         <v>17.565999999999999</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="17">
         <v>18.672999999999998</v>
       </c>
       <c r="K21" s="1">
@@ -2331,10 +2330,10 @@
       <c r="M21" s="1">
         <v>26</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="19">
         <v>0.4381944444444445</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="19">
         <v>0.49444444444444446</v>
       </c>
       <c r="P21" s="2">
@@ -2367,10 +2366,10 @@
       <c r="H22" s="1">
         <v>21</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="17">
         <v>17.526</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="17">
         <v>18.815999999999999</v>
       </c>
       <c r="K22" s="1">
@@ -2382,10 +2381,10 @@
       <c r="M22" s="1">
         <v>26</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="19">
         <v>0.43888888888888888</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="19">
         <v>0.49583333333333335</v>
       </c>
       <c r="P22" s="2">
@@ -2418,10 +2417,10 @@
       <c r="H23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="17">
         <v>18.059000000000001</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="17">
         <v>19.408000000000001</v>
       </c>
       <c r="K23" s="1">
@@ -2433,10 +2432,10 @@
       <c r="M23" s="1">
         <v>28</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="19">
         <v>0.49583333333333335</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="19">
         <v>0.55833333333333335</v>
       </c>
       <c r="P23" s="2">
@@ -2469,10 +2468,10 @@
       <c r="H24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="17">
         <v>17.395</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="17">
         <v>18.853000000000002</v>
       </c>
       <c r="K24" s="1">
@@ -2484,10 +2483,10 @@
       <c r="M24" s="1">
         <v>28</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="19">
         <v>0.49722222222222223</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="19">
         <v>0.55972222222222223</v>
       </c>
       <c r="P24" s="2">
@@ -2520,10 +2519,10 @@
       <c r="H25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="17">
         <v>17.725999999999999</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="17">
         <v>18.972999999999999</v>
       </c>
       <c r="K25" s="1">
@@ -2535,10 +2534,10 @@
       <c r="M25" s="1">
         <v>28</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="19">
         <v>0.49861111111111112</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="19">
         <v>0.56111111111111112</v>
       </c>
       <c r="P25" s="2">
@@ -2571,10 +2570,10 @@
       <c r="H26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="17">
         <v>17.256</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="17">
         <v>18.404</v>
       </c>
       <c r="K26" s="1">
@@ -2586,10 +2585,10 @@
       <c r="M26" s="1">
         <v>28</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="19">
         <v>0.5</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="19">
         <v>0.5625</v>
       </c>
       <c r="P26" s="2">
@@ -2622,10 +2621,10 @@
       <c r="H27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="17">
         <v>17.593</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="17">
         <v>18.861999999999998</v>
       </c>
       <c r="K27" s="1">
@@ -2637,10 +2636,10 @@
       <c r="M27" s="1">
         <v>28</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="19">
         <v>0.50069444444444444</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="19">
         <v>0.56388888888888888</v>
       </c>
       <c r="P27" s="2">
@@ -2673,10 +2672,10 @@
       <c r="H28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>17.199000000000002</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="17">
         <v>18.835999999999999</v>
       </c>
       <c r="K28" s="1">
@@ -2688,10 +2687,10 @@
       <c r="M28" s="1">
         <v>28</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="19">
         <v>0.50208333333333333</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="19">
         <v>0.56527777777777777</v>
       </c>
       <c r="P28" s="2">
@@ -2724,10 +2723,10 @@
       <c r="H29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <v>17.425999999999998</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="17">
         <v>18.689</v>
       </c>
       <c r="K29" s="1">
@@ -2739,10 +2738,10 @@
       <c r="M29" s="1">
         <v>28</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="19">
         <v>0.50347222222222221</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="19">
         <v>0.56666666666666665</v>
       </c>
       <c r="P29" s="2">
@@ -2775,10 +2774,10 @@
       <c r="H30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="17">
         <v>17.422000000000001</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="17">
         <v>19.123999999999999</v>
       </c>
       <c r="K30" s="1">
@@ -2790,10 +2789,10 @@
       <c r="M30" s="1">
         <v>28</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="19">
         <v>0.50416666666666665</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="19">
         <v>0.56805555555555554</v>
       </c>
       <c r="P30" s="2">
@@ -2826,10 +2825,10 @@
       <c r="H31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="17">
         <v>17.696000000000002</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="17">
         <v>19.064</v>
       </c>
       <c r="K31" s="1">
@@ -2841,10 +2840,10 @@
       <c r="M31" s="1">
         <v>28</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="19">
         <v>0.50555555555555554</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="19">
         <v>0.56874999999999998</v>
       </c>
       <c r="P31" s="2">
@@ -2877,10 +2876,10 @@
       <c r="H32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="17">
         <v>17.629000000000001</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="17">
         <v>18.766999999999999</v>
       </c>
       <c r="K32" s="1">
@@ -2892,10 +2891,10 @@
       <c r="M32" s="1">
         <v>28</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="19">
         <v>0.50694444444444442</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="19">
         <v>0.56944444444444442</v>
       </c>
       <c r="P32" s="2">
@@ -2928,10 +2927,10 @@
       <c r="H33" s="1">
         <v>21</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="17">
         <v>16.867999999999999</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="17">
         <v>18.073</v>
       </c>
       <c r="K33" s="1">
@@ -2943,10 +2942,10 @@
       <c r="M33" s="1">
         <v>24</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="19">
         <v>0.52638888888888891</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="19">
         <v>0.58888888888888891</v>
       </c>
       <c r="P33" s="2">
@@ -2979,10 +2978,10 @@
       <c r="H34" s="1">
         <v>20.5</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="17">
         <v>17.61</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="17">
         <v>18.916</v>
       </c>
       <c r="K34" s="1">
@@ -2994,10 +2993,10 @@
       <c r="M34" s="1">
         <v>24</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="19">
         <v>0.52777777777777779</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="19">
         <v>0.59027777777777779</v>
       </c>
       <c r="P34" s="2">
@@ -3030,10 +3029,10 @@
       <c r="H35" s="1">
         <v>21.5</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="17">
         <v>17.622</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="17">
         <v>18.984999999999999</v>
       </c>
       <c r="K35" s="1">
@@ -3045,10 +3044,10 @@
       <c r="M35" s="1">
         <v>24</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="19">
         <v>0.52916666666666667</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="19">
         <v>0.59166666666666667</v>
       </c>
       <c r="P35" s="2">
@@ -3081,10 +3080,10 @@
       <c r="H36" s="1">
         <v>20</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="17">
         <v>17.824999999999999</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="17">
         <v>18.922000000000001</v>
       </c>
       <c r="K36" s="1">
@@ -3096,10 +3095,10 @@
       <c r="M36" s="1">
         <v>24</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="19">
         <v>0.53055555555555556</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="19">
         <v>0.59305555555555556</v>
       </c>
       <c r="P36" s="2">
@@ -3132,10 +3131,10 @@
       <c r="H37" s="1">
         <v>19.5</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="17">
         <v>17.687999999999999</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="17">
         <v>19.093</v>
       </c>
       <c r="K37" s="1">
@@ -3147,10 +3146,10 @@
       <c r="M37" s="1">
         <v>24</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="19">
         <v>0.53125</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="19">
         <v>0.59444444444444444</v>
       </c>
       <c r="P37" s="2">
@@ -3183,10 +3182,10 @@
       <c r="H38" s="1">
         <v>20.5</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="17">
         <v>17.675000000000001</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="17">
         <v>19.024000000000001</v>
       </c>
       <c r="K38" s="1">
@@ -3198,10 +3197,10 @@
       <c r="M38" s="1">
         <v>24</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="19">
         <v>0.53333333333333333</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="19">
         <v>0.59513888888888888</v>
       </c>
       <c r="P38" s="2">
@@ -3234,10 +3233,10 @@
       <c r="H39" s="1">
         <v>20</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="17">
         <v>17.486000000000001</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="17">
         <v>18.571999999999999</v>
       </c>
       <c r="K39" s="1">
@@ -3249,10 +3248,10 @@
       <c r="M39" s="1">
         <v>24</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="19">
         <v>0.53472222222222221</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="19">
         <v>0.59652777777777777</v>
       </c>
       <c r="P39" s="2">
@@ -3285,10 +3284,10 @@
       <c r="H40" s="1">
         <v>21</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="17">
         <v>17.651</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="17">
         <v>19.12</v>
       </c>
       <c r="K40" s="1">
@@ -3300,10 +3299,10 @@
       <c r="M40" s="1">
         <v>24</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="19">
         <v>0.53611111111111109</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="19">
         <v>0.59791666666666665</v>
       </c>
       <c r="P40" s="2">
@@ -3336,10 +3335,10 @@
       <c r="H41" s="1">
         <v>20.5</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="17">
         <v>17.3</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="17">
         <v>18.838999999999999</v>
       </c>
       <c r="K41" s="1">
@@ -3351,10 +3350,10 @@
       <c r="M41" s="1">
         <v>24</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="19">
         <v>0.53749999999999998</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="19">
         <v>0.59930555555555554</v>
       </c>
       <c r="P41" s="2">
@@ -3387,10 +3386,10 @@
       <c r="H42" s="1">
         <v>19.5</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="17">
         <v>17.565999999999999</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="17">
         <v>18.672999999999998</v>
       </c>
       <c r="K42" s="1">
@@ -3402,10 +3401,10 @@
       <c r="M42" s="1">
         <v>24</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="19">
         <v>0.53819444444444442</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="19">
         <v>0.60069444444444442</v>
       </c>
       <c r="P42" s="2">
@@ -3438,10 +3437,10 @@
       <c r="H43" s="1">
         <v>21</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="17">
         <v>17.526</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="17">
         <v>18.815999999999999</v>
       </c>
       <c r="K43" s="1">
@@ -3453,10 +3452,10 @@
       <c r="M43" s="1">
         <v>24</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="19">
         <v>0.53888888888888886</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="19">
         <v>0.60138888888888886</v>
       </c>
       <c r="P43" s="2">
@@ -3489,10 +3488,10 @@
       <c r="H44" s="1">
         <v>27</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="17">
         <v>17.027999999999999</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="17">
         <v>18.364000000000001</v>
       </c>
       <c r="K44" s="1">
@@ -3504,10 +3503,10 @@
       <c r="M44" s="1">
         <v>32</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="19">
         <v>0.37986111111111115</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="19">
         <v>0.44236111111111115</v>
       </c>
       <c r="P44" s="2">
@@ -3540,10 +3539,10 @@
       <c r="H45" s="1">
         <v>28</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="17">
         <v>16.364000000000001</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="17">
         <v>17.797000000000001</v>
       </c>
       <c r="K45" s="1">
@@ -3555,10 +3554,10 @@
       <c r="M45" s="1">
         <v>32</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="19">
         <v>0.38125000000000003</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="19">
         <v>0.44375000000000003</v>
       </c>
       <c r="P45" s="2">
@@ -3591,10 +3590,10 @@
       <c r="H46" s="1">
         <v>28.5</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="17">
         <v>16.692</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="17">
         <v>17.808</v>
       </c>
       <c r="K46" s="1">
@@ -3606,10 +3605,10 @@
       <c r="M46" s="1">
         <v>32</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="19">
         <v>0.38194444444444442</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="19">
         <v>0.44513888888888892</v>
       </c>
       <c r="P46" s="2">
@@ -3642,10 +3641,10 @@
       <c r="H47" s="1">
         <v>23.5</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="17">
         <v>16.228000000000002</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="17">
         <v>17.34</v>
       </c>
       <c r="K47" s="1">
@@ -3657,10 +3656,10 @@
       <c r="M47" s="1">
         <v>32</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="19">
         <v>0.3833333333333333</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="19">
         <v>0.4465277777777778</v>
       </c>
       <c r="P47" s="2">
@@ -3693,10 +3692,10 @@
       <c r="H48" s="1">
         <v>29</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="17">
         <v>16.574000000000002</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="17">
         <v>17.811</v>
       </c>
       <c r="K48" s="1">
@@ -3708,10 +3707,10 @@
       <c r="M48" s="1">
         <v>32</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="19">
         <v>0.38472222222222219</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="19">
         <v>0.44791666666666669</v>
       </c>
       <c r="P48" s="2">
@@ -3744,10 +3743,10 @@
       <c r="H49" s="1">
         <v>28</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="17">
         <v>16.603000000000002</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="17">
         <v>17.831</v>
       </c>
       <c r="K49" s="1">
@@ -3759,10 +3758,10 @@
       <c r="M49" s="1">
         <v>32</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="19">
         <v>0.38611111111111113</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="19">
         <v>0.44930555555555557</v>
       </c>
       <c r="P49" s="2">
@@ -3795,10 +3794,10 @@
       <c r="H50" s="1">
         <v>27</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="17">
         <v>16.408000000000001</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="17">
         <v>17.637</v>
       </c>
       <c r="K50" s="1">
@@ -3810,10 +3809,10 @@
       <c r="M50" s="1">
         <v>32</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="19">
         <v>0.38680555555555557</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="19">
         <v>0.45069444444444445</v>
       </c>
       <c r="P50" s="2">
@@ -3846,10 +3845,10 @@
       <c r="H51" s="1">
         <v>29</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="17">
         <v>16.608000000000001</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="17">
         <v>18.053999999999998</v>
       </c>
       <c r="K51" s="1">
@@ -3861,10 +3860,10 @@
       <c r="M51" s="1">
         <v>32</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="19">
         <v>0.38819444444444445</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O51" s="19">
         <v>0.4513888888888889</v>
       </c>
       <c r="P51" s="2">
@@ -3897,10 +3896,10 @@
       <c r="H52" s="1">
         <v>29.5</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="17">
         <v>16.664999999999999</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="17">
         <v>18.024999999999999</v>
       </c>
       <c r="K52" s="1">
@@ -3912,10 +3911,10 @@
       <c r="M52" s="1">
         <v>32</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="19">
         <v>0.38958333333333334</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="19">
         <v>0.45347222222222222</v>
       </c>
       <c r="P52" s="2">
@@ -3948,10 +3947,10 @@
       <c r="H53" s="1">
         <v>27</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="17">
         <v>16.62</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="17">
         <v>17.739000000000001</v>
       </c>
       <c r="K53" s="1">
@@ -3963,10 +3962,10 @@
       <c r="M53" s="1">
         <v>32</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="19">
         <v>0.39097222222222222</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="19">
         <v>0.4548611111111111</v>
       </c>
       <c r="P53" s="2">
@@ -3999,10 +3998,10 @@
       <c r="H54" s="1">
         <v>30.5</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="17">
         <v>15.856999999999999</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="17">
         <v>17.038</v>
       </c>
       <c r="K54" s="1">
@@ -4014,10 +4013,10 @@
       <c r="M54" s="1">
         <v>30</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="19">
         <v>0.42499999999999999</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="19">
         <v>0.48749999999999999</v>
       </c>
       <c r="P54" s="2">
@@ -4050,10 +4049,10 @@
       <c r="H55" s="1">
         <v>27.5</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="17">
         <v>16.600999999999999</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="17">
         <v>17.876000000000001</v>
       </c>
       <c r="K55" s="1">
@@ -4065,10 +4064,10 @@
       <c r="M55" s="1">
         <v>30</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="19">
         <v>0.42569444444444443</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="19">
         <v>0.48958333333333331</v>
       </c>
       <c r="P55" s="2">
@@ -4101,10 +4100,10 @@
       <c r="H56" s="1">
         <v>27.5</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="17">
         <v>16.603000000000002</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="17">
         <v>17.925999999999998</v>
       </c>
       <c r="K56" s="1">
@@ -4116,10 +4115,10 @@
       <c r="M56" s="1">
         <v>30</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="19">
         <v>0.42708333333333331</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="19">
         <v>0.4909722222222222</v>
       </c>
       <c r="P56" s="2">
@@ -4152,10 +4151,10 @@
       <c r="H57" s="1">
         <v>30</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="17">
         <v>16.809000000000001</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="17">
         <v>17.898</v>
       </c>
       <c r="K57" s="1">
@@ -4167,10 +4166,10 @@
       <c r="M57" s="1">
         <v>30</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="19">
         <v>0.4284722222222222</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="19">
         <v>0.49236111111111108</v>
       </c>
       <c r="P57" s="2">
@@ -4203,10 +4202,10 @@
       <c r="H58" s="1">
         <v>29</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="17">
         <v>16.666</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="17">
         <v>18.007999999999999</v>
       </c>
       <c r="K58" s="1">
@@ -4218,10 +4217,10 @@
       <c r="M58" s="1">
         <v>30</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="19">
         <v>0.42986111111111108</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="19">
         <v>0.49374999999999997</v>
       </c>
       <c r="P58" s="2">
@@ -4254,10 +4253,10 @@
       <c r="H59" s="1">
         <v>26</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="17">
         <v>16.666</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="17">
         <v>18.007999999999999</v>
       </c>
       <c r="K59" s="1">
@@ -4269,10 +4268,10 @@
       <c r="M59" s="1">
         <v>30</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="19">
         <v>0.43194444444444446</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O59" s="19">
         <v>0.49513888888888885</v>
       </c>
       <c r="P59" s="2">
@@ -4305,10 +4304,10 @@
       <c r="H60" s="1">
         <v>28.5</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="17">
         <v>16.471</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="17">
         <v>17.501000000000001</v>
       </c>
       <c r="K60" s="1">
@@ -4320,10 +4319,10 @@
       <c r="M60" s="1">
         <v>30</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="19">
         <v>0.43333333333333335</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="19">
         <v>0.49583333333333335</v>
       </c>
       <c r="P60" s="2">
@@ -4356,10 +4355,10 @@
       <c r="H61" s="1">
         <v>28.5</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="17">
         <v>16.632000000000001</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="17">
         <v>18.053999999999998</v>
       </c>
       <c r="K61" s="1">
@@ -4371,10 +4370,10 @@
       <c r="M61" s="1">
         <v>30</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="19">
         <v>0.43472222222222223</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O61" s="19">
         <v>0.49722222222222223</v>
       </c>
       <c r="P61" s="2">
@@ -4407,10 +4406,10 @@
       <c r="H62" s="1">
         <v>28</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="17">
         <v>16.408999999999999</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="17">
         <v>17.818999999999999</v>
       </c>
       <c r="K62" s="1">
@@ -4422,10 +4421,10 @@
       <c r="M62" s="1">
         <v>30</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="19">
         <v>0.43611111111111112</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="19">
         <v>0.49861111111111112</v>
       </c>
       <c r="P62" s="2">
@@ -4458,10 +4457,10 @@
       <c r="H63" s="1">
         <v>31</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="17">
         <v>16.768999999999998</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="17">
         <v>17.815000000000001</v>
       </c>
       <c r="K63" s="1">
@@ -4473,10 +4472,10 @@
       <c r="M63" s="1">
         <v>30</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="19">
         <v>0.4368055555555555</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="19">
         <v>0.5</v>
       </c>
       <c r="P63" s="2">
@@ -4509,10 +4508,10 @@
       <c r="H64" s="1">
         <v>28</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="17">
         <v>16.584</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="17">
         <v>17.817</v>
       </c>
       <c r="K64" s="1">
@@ -4524,10 +4523,10 @@
       <c r="M64" s="1">
         <v>30</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="19">
         <v>0.4375</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="19">
         <v>0.50138888888888888</v>
       </c>
       <c r="P64" s="2">
@@ -4560,10 +4559,10 @@
       <c r="H65" s="1">
         <v>27</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="17">
         <v>17.027999999999999</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="17">
         <v>18.364000000000001</v>
       </c>
       <c r="K65" s="1">
@@ -4575,10 +4574,10 @@
       <c r="M65" s="1">
         <v>24</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="19">
         <v>0.50208333333333333</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="19">
         <v>0.56458333333333333</v>
       </c>
       <c r="P65" s="2">
@@ -4611,10 +4610,10 @@
       <c r="H66" s="1">
         <v>28</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="17">
         <v>16.364000000000001</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="17">
         <v>17.797000000000001</v>
       </c>
       <c r="K66" s="1">
@@ -4626,10 +4625,10 @@
       <c r="M66" s="1">
         <v>24</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="19">
         <v>0.50347222222222221</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="19">
         <v>0.56597222222222221</v>
       </c>
       <c r="P66" s="2">
@@ -4662,10 +4661,10 @@
       <c r="H67" s="1">
         <v>28.5</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="17">
         <v>16.692</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="17">
         <v>17.808</v>
       </c>
       <c r="K67" s="1">
@@ -4677,10 +4676,10 @@
       <c r="M67" s="1">
         <v>24</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="19">
         <v>0.50486111111111109</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="19">
         <v>0.56736111111111109</v>
       </c>
       <c r="P67" s="2">
@@ -4713,10 +4712,10 @@
       <c r="H68" s="1">
         <v>23.5</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="17">
         <v>16.228000000000002</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="17">
         <v>17.34</v>
       </c>
       <c r="K68" s="1">
@@ -4728,10 +4727,10 @@
       <c r="M68" s="1">
         <v>24</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="19">
         <v>0.50624999999999998</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="19">
         <v>0.56874999999999998</v>
       </c>
       <c r="P68" s="2">
@@ -4764,10 +4763,10 @@
       <c r="H69" s="1">
         <v>29</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="17">
         <v>16.574000000000002</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="17">
         <v>17.811</v>
       </c>
       <c r="K69" s="1">
@@ -4779,10 +4778,10 @@
       <c r="M69" s="1">
         <v>24</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N69" s="19">
         <v>0.50763888888888886</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69" s="19">
         <v>0.57013888888888886</v>
       </c>
       <c r="P69" s="2">
@@ -4815,10 +4814,10 @@
       <c r="H70" s="1">
         <v>28</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="17">
         <v>16.603000000000002</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="17">
         <v>17.831</v>
       </c>
       <c r="K70" s="1">
@@ -4830,10 +4829,10 @@
       <c r="M70" s="1">
         <v>24</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70" s="19">
         <v>0.5083333333333333</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70" s="19">
         <v>0.57152777777777775</v>
       </c>
       <c r="P70" s="2">
@@ -4866,10 +4865,10 @@
       <c r="H71" s="1">
         <v>27</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="17">
         <v>16.408000000000001</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="17">
         <v>17.637</v>
       </c>
       <c r="K71" s="1">
@@ -4881,10 +4880,10 @@
       <c r="M71" s="1">
         <v>24</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N71" s="19">
         <v>0.50972222222222219</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O71" s="19">
         <v>0.57291666666666663</v>
       </c>
       <c r="P71" s="2">
@@ -4917,10 +4916,10 @@
       <c r="H72" s="1">
         <v>29</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="17">
         <v>16.608000000000001</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J72" s="17">
         <v>18.053999999999998</v>
       </c>
       <c r="K72" s="1">
@@ -4932,10 +4931,10 @@
       <c r="M72" s="1">
         <v>24</v>
       </c>
-      <c r="N72" s="8">
+      <c r="N72" s="19">
         <v>0.51111111111111118</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O72" s="19">
         <v>0.57430555555555551</v>
       </c>
       <c r="P72" s="2">
@@ -4968,10 +4967,10 @@
       <c r="H73" s="1">
         <v>29.5</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I73" s="17">
         <v>16.664999999999999</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J73" s="17">
         <v>18.024999999999999</v>
       </c>
       <c r="K73" s="1">
@@ -4983,10 +4982,10 @@
       <c r="M73" s="1">
         <v>24</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N73" s="19">
         <v>0.51250000000000007</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O73" s="19">
         <v>0.5756944444444444</v>
       </c>
       <c r="P73" s="2">
@@ -5019,10 +5018,10 @@
       <c r="H74" s="1">
         <v>27</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I74" s="17">
         <v>16.62</v>
       </c>
-      <c r="J74" s="20">
+      <c r="J74" s="17">
         <v>17.739000000000001</v>
       </c>
       <c r="K74" s="1">
@@ -5034,10 +5033,10 @@
       <c r="M74" s="1">
         <v>24</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74" s="19">
         <v>0.51388888888888895</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="19">
         <v>0.57708333333333328</v>
       </c>
       <c r="P74" s="2">
@@ -5070,10 +5069,10 @@
       <c r="H75" s="1">
         <v>30.5</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I75" s="17">
         <v>15.856999999999999</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="17">
         <v>17.038</v>
       </c>
       <c r="K75" s="1">
@@ -5085,10 +5084,10 @@
       <c r="M75" s="1">
         <v>28</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N75" s="19">
         <v>0.52916666666666667</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75" s="19">
         <v>0.59166666666666667</v>
       </c>
       <c r="P75" s="2">
@@ -5121,10 +5120,10 @@
       <c r="H76" s="1">
         <v>27.5</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I76" s="17">
         <v>16.600999999999999</v>
       </c>
-      <c r="J76" s="20">
+      <c r="J76" s="17">
         <v>17.876000000000001</v>
       </c>
       <c r="K76" s="1">
@@ -5136,10 +5135,10 @@
       <c r="M76" s="1">
         <v>28</v>
       </c>
-      <c r="N76" s="8">
+      <c r="N76" s="19">
         <v>0.53055555555555556</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76" s="19">
         <v>0.59305555555555556</v>
       </c>
       <c r="P76" s="2">
@@ -5172,10 +5171,10 @@
       <c r="H77" s="1">
         <v>27.5</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I77" s="17">
         <v>16.603000000000002</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="17">
         <v>17.925999999999998</v>
       </c>
       <c r="K77" s="1">
@@ -5187,10 +5186,10 @@
       <c r="M77" s="1">
         <v>28</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="19">
         <v>0.53194444444444444</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="19">
         <v>0.59444444444444444</v>
       </c>
       <c r="P77" s="2">
@@ -5223,10 +5222,10 @@
       <c r="H78" s="1">
         <v>30</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="17">
         <v>16.809000000000001</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="17">
         <v>17.898</v>
       </c>
       <c r="K78" s="1">
@@ -5238,10 +5237,10 @@
       <c r="M78" s="1">
         <v>28</v>
       </c>
-      <c r="N78" s="8">
+      <c r="N78" s="19">
         <v>0.53333333333333333</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="19">
         <v>0.59583333333333333</v>
       </c>
       <c r="P78" s="2">
@@ -5274,10 +5273,10 @@
       <c r="H79" s="1">
         <v>29</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I79" s="17">
         <v>16.666</v>
       </c>
-      <c r="J79" s="20">
+      <c r="J79" s="17">
         <v>18.007999999999999</v>
       </c>
       <c r="K79" s="1">
@@ -5289,10 +5288,10 @@
       <c r="M79" s="1">
         <v>28</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N79" s="19">
         <v>0.53472222222222221</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O79" s="19">
         <v>0.59722222222222221</v>
       </c>
       <c r="P79" s="2">
@@ -5325,10 +5324,10 @@
       <c r="H80" s="1">
         <v>26</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="17">
         <v>16.666</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="17">
         <v>18.007999999999999</v>
       </c>
       <c r="K80" s="1">
@@ -5340,10 +5339,10 @@
       <c r="M80" s="1">
         <v>28</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N80" s="19">
         <v>0.53611111111111109</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O80" s="19">
         <v>0.59861111111111109</v>
       </c>
       <c r="P80" s="2">
@@ -5376,10 +5375,10 @@
       <c r="H81" s="1">
         <v>28.5</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I81" s="17">
         <v>16.471</v>
       </c>
-      <c r="J81" s="20">
+      <c r="J81" s="17">
         <v>17.501000000000001</v>
       </c>
       <c r="K81" s="1">
@@ -5391,10 +5390,10 @@
       <c r="M81" s="1">
         <v>28</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N81" s="19">
         <v>0.53680555555555554</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O81" s="19">
         <v>0.59930555555555554</v>
       </c>
       <c r="P81" s="2">
@@ -5427,10 +5426,10 @@
       <c r="H82" s="1">
         <v>28.5</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I82" s="17">
         <v>16.632000000000001</v>
       </c>
-      <c r="J82" s="20">
+      <c r="J82" s="17">
         <v>18.053999999999998</v>
       </c>
       <c r="K82" s="1">
@@ -5442,10 +5441,10 @@
       <c r="M82" s="1">
         <v>28</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="19">
         <v>0.53819444444444442</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O82" s="19">
         <v>0.60069444444444442</v>
       </c>
       <c r="P82" s="2">
@@ -5478,10 +5477,10 @@
       <c r="H83" s="1">
         <v>28</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I83" s="17">
         <v>16.408999999999999</v>
       </c>
-      <c r="J83" s="20">
+      <c r="J83" s="17">
         <v>17.818999999999999</v>
       </c>
       <c r="K83" s="1">
@@ -5493,10 +5492,10 @@
       <c r="M83" s="1">
         <v>28</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N83" s="19">
         <v>0.5395833333333333</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O83" s="19">
         <v>0.60138888888888886</v>
       </c>
       <c r="P83" s="2">
@@ -5529,10 +5528,10 @@
       <c r="H84" s="1">
         <v>31</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I84" s="17">
         <v>16.768999999999998</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="17">
         <v>17.815000000000001</v>
       </c>
       <c r="K84" s="1">
@@ -5544,10 +5543,10 @@
       <c r="M84" s="1">
         <v>28</v>
       </c>
-      <c r="N84" s="8">
+      <c r="N84" s="19">
         <v>0.54097222222222219</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O84" s="19">
         <v>0.60277777777777775</v>
       </c>
       <c r="P84" s="2">
@@ -5580,10 +5579,10 @@
       <c r="H85" s="1">
         <v>28</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I85" s="17">
         <v>16.584</v>
       </c>
-      <c r="J85" s="20">
+      <c r="J85" s="17">
         <v>17.817</v>
       </c>
       <c r="K85" s="1">
@@ -5595,10 +5594,10 @@
       <c r="M85" s="1">
         <v>28</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="19">
         <v>0.54236111111111118</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O85" s="19">
         <v>0.60555555555555551</v>
       </c>
       <c r="P85" s="2">
@@ -5631,10 +5630,10 @@
       <c r="H86" s="1">
         <v>22</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I86" s="17">
         <v>17.024000000000001</v>
       </c>
-      <c r="J86" s="20">
+      <c r="J86" s="17">
         <v>18.379000000000001</v>
       </c>
       <c r="K86" s="1">
@@ -5646,10 +5645,10 @@
       <c r="M86" s="1">
         <v>26</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="19">
         <v>0.33680555555555558</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86" s="19">
         <v>0.39930555555555558</v>
       </c>
       <c r="P86" s="2">
@@ -5682,10 +5681,10 @@
       <c r="H87" s="1">
         <v>23</v>
       </c>
-      <c r="I87" s="20">
+      <c r="I87" s="17">
         <v>16.364999999999998</v>
       </c>
-      <c r="J87" s="20">
+      <c r="J87" s="17">
         <v>17.821000000000002</v>
       </c>
       <c r="K87" s="1">
@@ -5697,19 +5696,19 @@
       <c r="M87" s="1">
         <v>26</v>
       </c>
-      <c r="N87" s="8">
+      <c r="N87" s="19">
         <v>0.33819444444444446</v>
       </c>
-      <c r="O87" s="8">
+      <c r="O87" s="19">
         <v>0.40069444444444446</v>
       </c>
       <c r="P87" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="15"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="13"/>
     </row>
     <row r="88" spans="1:19" ht="16" customHeight="1">
       <c r="A88" s="3">
@@ -5736,10 +5735,10 @@
       <c r="H88" s="1">
         <v>21.5</v>
       </c>
-      <c r="I88" s="20">
+      <c r="I88" s="17">
         <v>16.696000000000002</v>
       </c>
-      <c r="J88" s="20">
+      <c r="J88" s="17">
         <v>17.818999999999999</v>
       </c>
       <c r="K88" s="1">
@@ -5751,10 +5750,10 @@
       <c r="M88" s="1">
         <v>26</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="19">
         <v>0.33958333333333335</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O88" s="19">
         <v>0.40208333333333335</v>
       </c>
       <c r="P88" s="2">
@@ -5787,10 +5786,10 @@
       <c r="H89" s="1">
         <v>21.5</v>
       </c>
-      <c r="I89" s="20">
+      <c r="I89" s="17">
         <v>16.236000000000001</v>
       </c>
-      <c r="J89" s="20">
+      <c r="J89" s="17">
         <v>17.343</v>
       </c>
       <c r="K89" s="1">
@@ -5802,10 +5801,10 @@
       <c r="M89" s="1">
         <v>26</v>
       </c>
-      <c r="N89" s="8">
+      <c r="N89" s="19">
         <v>0.34097222222222223</v>
       </c>
-      <c r="O89" s="8">
+      <c r="O89" s="19">
         <v>0.40347222222222223</v>
       </c>
       <c r="P89" s="2">
@@ -5838,10 +5837,10 @@
       <c r="H90" s="1">
         <v>22</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="17">
         <v>16.574999999999999</v>
       </c>
-      <c r="J90" s="20">
+      <c r="J90" s="17">
         <v>17.800999999999998</v>
       </c>
       <c r="K90" s="1">
@@ -5853,10 +5852,10 @@
       <c r="M90" s="1">
         <v>26</v>
       </c>
-      <c r="N90" s="8">
+      <c r="N90" s="19">
         <v>0.34166666666666662</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O90" s="19">
         <v>0.40486111111111112</v>
       </c>
       <c r="P90" s="2">
@@ -5889,10 +5888,10 @@
       <c r="H91" s="1">
         <v>22</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="17">
         <v>16.663</v>
       </c>
-      <c r="J91" s="20">
+      <c r="J91" s="17">
         <v>17.817</v>
       </c>
       <c r="K91" s="1">
@@ -5904,10 +5903,10 @@
       <c r="M91" s="1">
         <v>26</v>
       </c>
-      <c r="N91" s="8">
+      <c r="N91" s="19">
         <v>0.3430555555555555</v>
       </c>
-      <c r="O91" s="8">
+      <c r="O91" s="19">
         <v>0.4055555555555555</v>
       </c>
       <c r="P91" s="2">
@@ -5940,10 +5939,10 @@
       <c r="H92" s="1">
         <v>22</v>
       </c>
-      <c r="I92" s="20">
+      <c r="I92" s="17">
         <v>16.417999999999999</v>
       </c>
-      <c r="J92" s="20">
+      <c r="J92" s="17">
         <v>17.611000000000001</v>
       </c>
       <c r="K92" s="1">
@@ -5955,10 +5954,10 @@
       <c r="M92" s="1">
         <v>26</v>
       </c>
-      <c r="N92" s="8">
+      <c r="N92" s="19">
         <v>0.34375</v>
       </c>
-      <c r="O92" s="8">
+      <c r="O92" s="19">
         <v>0.4069444444444445</v>
       </c>
       <c r="P92" s="2">
@@ -5991,10 +5990,10 @@
       <c r="H93" s="1">
         <v>23</v>
       </c>
-      <c r="I93" s="20">
+      <c r="I93" s="17">
         <v>16.585999999999999</v>
       </c>
-      <c r="J93" s="20">
+      <c r="J93" s="17">
         <v>17.981000000000002</v>
       </c>
       <c r="K93" s="1">
@@ -6006,10 +6005,10 @@
       <c r="M93" s="1">
         <v>26</v>
       </c>
-      <c r="N93" s="8">
+      <c r="N93" s="19">
         <v>0.34513888888888888</v>
       </c>
-      <c r="O93" s="8">
+      <c r="O93" s="19">
         <v>0.40833333333333338</v>
       </c>
       <c r="P93" s="2">
@@ -6042,10 +6041,10 @@
       <c r="H94" s="1">
         <v>22.5</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="17">
         <v>16.664999999999999</v>
       </c>
-      <c r="J94" s="20">
+      <c r="J94" s="17">
         <v>17.995999999999999</v>
       </c>
       <c r="K94" s="1">
@@ -6057,10 +6056,10 @@
       <c r="M94" s="1">
         <v>26</v>
       </c>
-      <c r="N94" s="8">
+      <c r="N94" s="19">
         <v>0.34583333333333338</v>
       </c>
-      <c r="O94" s="8">
+      <c r="O94" s="19">
         <v>0.40902777777777777</v>
       </c>
       <c r="P94" s="2">
@@ -6093,10 +6092,10 @@
       <c r="H95" s="1">
         <v>22</v>
       </c>
-      <c r="I95" s="20">
+      <c r="I95" s="17">
         <v>16.623000000000001</v>
       </c>
-      <c r="J95" s="20">
+      <c r="J95" s="17">
         <v>17.704999999999998</v>
       </c>
       <c r="K95" s="1">
@@ -6108,10 +6107,10 @@
       <c r="M95" s="1">
         <v>26</v>
       </c>
-      <c r="N95" s="8">
+      <c r="N95" s="19">
         <v>0.34722222222222227</v>
       </c>
-      <c r="O95" s="8">
+      <c r="O95" s="19">
         <v>0.40972222222222227</v>
       </c>
       <c r="P95" s="2">
@@ -6144,10 +6143,10 @@
       <c r="H96" s="1">
         <v>22.5</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="17">
         <v>15.845000000000001</v>
       </c>
-      <c r="J96" s="20">
+      <c r="J96" s="17">
         <v>17.032</v>
       </c>
       <c r="K96" s="1">
@@ -6159,10 +6158,10 @@
       <c r="M96" s="1">
         <v>32</v>
       </c>
-      <c r="N96" s="8">
+      <c r="N96" s="19">
         <v>0.37847222222222227</v>
       </c>
-      <c r="O96" s="8">
+      <c r="O96" s="19">
         <v>0.44097222222222227</v>
       </c>
       <c r="P96" s="2">
@@ -6195,10 +6194,10 @@
       <c r="H97" s="1">
         <v>22.5</v>
       </c>
-      <c r="I97" s="20">
+      <c r="I97" s="17">
         <v>16.600000000000001</v>
       </c>
-      <c r="J97" s="20">
+      <c r="J97" s="17">
         <v>17.87</v>
       </c>
       <c r="K97" s="1">
@@ -6210,10 +6209,10 @@
       <c r="M97" s="1">
         <v>32</v>
       </c>
-      <c r="N97" s="8">
+      <c r="N97" s="19">
         <v>0.37986111111111115</v>
       </c>
-      <c r="O97" s="8">
+      <c r="O97" s="19">
         <v>0.44236111111111115</v>
       </c>
       <c r="P97" s="2">
@@ -6246,10 +6245,10 @@
       <c r="H98" s="1">
         <v>23</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="17">
         <v>16.61</v>
       </c>
-      <c r="J98" s="20">
+      <c r="J98" s="17">
         <v>17.923999999999999</v>
       </c>
       <c r="K98" s="1">
@@ -6261,10 +6260,10 @@
       <c r="M98" s="1">
         <v>32</v>
       </c>
-      <c r="N98" s="8">
+      <c r="N98" s="19">
         <v>0.38055555555555554</v>
       </c>
-      <c r="O98" s="8">
+      <c r="O98" s="19">
         <v>0.44375000000000003</v>
       </c>
       <c r="P98" s="2">
@@ -6297,10 +6296,10 @@
       <c r="H99" s="1">
         <v>24.5</v>
       </c>
-      <c r="I99" s="20">
+      <c r="I99" s="17">
         <v>16.946999999999999</v>
       </c>
-      <c r="J99" s="20">
+      <c r="J99" s="17">
         <v>18.013999999999999</v>
       </c>
       <c r="K99" s="1">
@@ -6312,10 +6311,10 @@
       <c r="M99" s="1">
         <v>32</v>
       </c>
-      <c r="N99" s="8">
+      <c r="N99" s="19">
         <v>0.38194444444444442</v>
       </c>
-      <c r="O99" s="8">
+      <c r="O99" s="19">
         <v>0.44513888888888892</v>
       </c>
       <c r="P99" s="2">
@@ -6348,10 +6347,10 @@
       <c r="H100" s="1">
         <v>22</v>
       </c>
-      <c r="I100" s="20">
+      <c r="I100" s="17">
         <v>16.66</v>
       </c>
-      <c r="J100" s="20">
+      <c r="J100" s="17">
         <v>18.006</v>
       </c>
       <c r="K100" s="1">
@@ -6363,10 +6362,10 @@
       <c r="M100" s="1">
         <v>32</v>
       </c>
-      <c r="N100" s="8">
+      <c r="N100" s="19">
         <v>0.3833333333333333</v>
       </c>
-      <c r="O100" s="8">
+      <c r="O100" s="19">
         <v>0.4465277777777778</v>
       </c>
       <c r="P100" s="2">
@@ -6399,10 +6398,10 @@
       <c r="H101" s="1">
         <v>27.5</v>
       </c>
-      <c r="I101" s="20">
+      <c r="I101" s="17">
         <v>16.661999999999999</v>
       </c>
-      <c r="J101" s="20">
+      <c r="J101" s="17">
         <v>17.974</v>
       </c>
       <c r="K101" s="1">
@@ -6414,10 +6413,10 @@
       <c r="M101" s="1">
         <v>32</v>
       </c>
-      <c r="N101" s="8">
+      <c r="N101" s="19">
         <v>0.3840277777777778</v>
       </c>
-      <c r="O101" s="8">
+      <c r="O101" s="19">
         <v>0.44722222222222219</v>
       </c>
       <c r="P101" s="2">
@@ -6450,10 +6449,10 @@
       <c r="H102" s="1">
         <v>26.5</v>
       </c>
-      <c r="I102" s="20">
+      <c r="I102" s="17">
         <v>16.460999999999999</v>
       </c>
-      <c r="J102" s="20">
+      <c r="J102" s="17">
         <v>17.478999999999999</v>
       </c>
       <c r="K102" s="1">
@@ -6465,10 +6464,10 @@
       <c r="M102" s="1">
         <v>32</v>
       </c>
-      <c r="N102" s="8">
+      <c r="N102" s="19">
         <v>0.38541666666666669</v>
       </c>
-      <c r="O102" s="8">
+      <c r="O102" s="19">
         <v>0.44861111111111113</v>
       </c>
       <c r="P102" s="2">
@@ -6501,10 +6500,10 @@
       <c r="H103" s="1">
         <v>22.5</v>
       </c>
-      <c r="I103" s="20">
+      <c r="I103" s="17">
         <v>16.631</v>
       </c>
-      <c r="J103" s="20">
+      <c r="J103" s="17">
         <v>18.015000000000001</v>
       </c>
       <c r="K103" s="1">
@@ -6516,10 +6515,10 @@
       <c r="M103" s="1">
         <v>32</v>
       </c>
-      <c r="N103" s="8">
+      <c r="N103" s="19">
         <v>0.38611111111111113</v>
       </c>
-      <c r="O103" s="8">
+      <c r="O103" s="19">
         <v>0.45</v>
       </c>
       <c r="P103" s="2">
@@ -6552,10 +6551,10 @@
       <c r="H104" s="1">
         <v>26.5</v>
       </c>
-      <c r="I104" s="20">
+      <c r="I104" s="17">
         <v>16.28</v>
       </c>
-      <c r="J104" s="20">
+      <c r="J104" s="17">
         <v>17.788</v>
       </c>
       <c r="K104" s="1">
@@ -6567,10 +6566,10 @@
       <c r="M104" s="1">
         <v>32</v>
       </c>
-      <c r="N104" s="8">
+      <c r="N104" s="19">
         <v>0.38750000000000001</v>
       </c>
-      <c r="O104" s="8">
+      <c r="O104" s="19">
         <v>0.4513888888888889</v>
       </c>
       <c r="P104" s="2">
@@ -6603,10 +6602,10 @@
       <c r="H105" s="1">
         <v>23.5</v>
       </c>
-      <c r="I105" s="20">
+      <c r="I105" s="17">
         <v>16.527000000000001</v>
       </c>
-      <c r="J105" s="20">
+      <c r="J105" s="17">
         <v>17.559999999999999</v>
       </c>
       <c r="K105" s="1">
@@ -6618,10 +6617,10 @@
       <c r="M105" s="1">
         <v>32</v>
       </c>
-      <c r="N105" s="8">
+      <c r="N105" s="19">
         <v>0.38819444444444445</v>
       </c>
-      <c r="O105" s="8">
+      <c r="O105" s="19">
         <v>0.45277777777777778</v>
       </c>
       <c r="P105" s="2">
@@ -6654,10 +6653,10 @@
       <c r="H106" s="1">
         <v>23</v>
       </c>
-      <c r="I106" s="20">
+      <c r="I106" s="17">
         <v>16.46</v>
       </c>
-      <c r="J106" s="20">
+      <c r="J106" s="17">
         <v>17.675000000000001</v>
       </c>
       <c r="K106" s="1">
@@ -6669,10 +6668,10 @@
       <c r="M106" s="1">
         <v>32</v>
       </c>
-      <c r="N106" s="8">
+      <c r="N106" s="19">
         <v>0.38958333333333334</v>
       </c>
-      <c r="O106" s="8">
+      <c r="O106" s="19">
         <v>0.45347222222222222</v>
       </c>
       <c r="P106" s="2">
@@ -6705,10 +6704,10 @@
       <c r="H107" s="1">
         <v>22</v>
       </c>
-      <c r="I107" s="20">
+      <c r="I107" s="17">
         <v>17.024000000000001</v>
       </c>
-      <c r="J107" s="20">
+      <c r="J107" s="17">
         <v>18.379000000000001</v>
       </c>
       <c r="K107" s="1">
@@ -6720,10 +6719,10 @@
       <c r="M107" s="1">
         <v>30</v>
       </c>
-      <c r="N107" s="8">
+      <c r="N107" s="19">
         <v>0.4826388888888889</v>
       </c>
-      <c r="O107" s="8">
+      <c r="O107" s="19">
         <v>0.53819444444444442</v>
       </c>
       <c r="P107" s="2">
@@ -6756,10 +6755,10 @@
       <c r="H108" s="1">
         <v>23</v>
       </c>
-      <c r="I108" s="20">
+      <c r="I108" s="17">
         <v>16.364999999999998</v>
       </c>
-      <c r="J108" s="20">
+      <c r="J108" s="17">
         <v>17.821000000000002</v>
       </c>
       <c r="K108" s="1">
@@ -6771,10 +6770,10 @@
       <c r="M108" s="1">
         <v>30</v>
       </c>
-      <c r="N108" s="8">
+      <c r="N108" s="19">
         <v>0.48333333333333334</v>
       </c>
-      <c r="O108" s="8">
+      <c r="O108" s="19">
         <v>0.5395833333333333</v>
       </c>
       <c r="P108" s="2">
@@ -6807,10 +6806,10 @@
       <c r="H109" s="1">
         <v>21.5</v>
       </c>
-      <c r="I109" s="20">
+      <c r="I109" s="17">
         <v>16.696000000000002</v>
       </c>
-      <c r="J109" s="20">
+      <c r="J109" s="17">
         <v>17.818999999999999</v>
       </c>
       <c r="K109" s="1">
@@ -6822,10 +6821,10 @@
       <c r="M109" s="1">
         <v>30</v>
       </c>
-      <c r="N109" s="8">
+      <c r="N109" s="19">
         <v>0.48472222222222222</v>
       </c>
-      <c r="O109" s="8">
+      <c r="O109" s="19">
         <v>0.54097222222222219</v>
       </c>
       <c r="P109" s="2">
@@ -6858,10 +6857,10 @@
       <c r="H110" s="1">
         <v>21.5</v>
       </c>
-      <c r="I110" s="20">
+      <c r="I110" s="17">
         <v>16.236000000000001</v>
       </c>
-      <c r="J110" s="20">
+      <c r="J110" s="17">
         <v>17.343</v>
       </c>
       <c r="K110" s="1">
@@ -6873,10 +6872,10 @@
       <c r="M110" s="1">
         <v>30</v>
       </c>
-      <c r="N110" s="8">
+      <c r="N110" s="19">
         <v>0.4861111111111111</v>
       </c>
-      <c r="O110" s="8">
+      <c r="O110" s="19">
         <v>0.54236111111111118</v>
       </c>
       <c r="P110" s="2">
@@ -6909,10 +6908,10 @@
       <c r="H111" s="1">
         <v>22</v>
       </c>
-      <c r="I111" s="20">
+      <c r="I111" s="17">
         <v>16.574999999999999</v>
       </c>
-      <c r="J111" s="20">
+      <c r="J111" s="17">
         <v>17.800999999999998</v>
       </c>
       <c r="K111" s="1">
@@ -6924,10 +6923,10 @@
       <c r="M111" s="1">
         <v>30</v>
       </c>
-      <c r="N111" s="8">
+      <c r="N111" s="19">
         <v>0.48680555555555555</v>
       </c>
-      <c r="O111" s="8">
+      <c r="O111" s="19">
         <v>0.54375000000000007</v>
       </c>
       <c r="P111" s="2">
@@ -6960,10 +6959,10 @@
       <c r="H112" s="1">
         <v>22</v>
       </c>
-      <c r="I112" s="20">
+      <c r="I112" s="17">
         <v>16.663</v>
       </c>
-      <c r="J112" s="20">
+      <c r="J112" s="17">
         <v>17.817</v>
       </c>
       <c r="K112" s="1">
@@ -6975,10 +6974,10 @@
       <c r="M112" s="1">
         <v>30</v>
       </c>
-      <c r="N112" s="8">
+      <c r="N112" s="19">
         <v>0.48819444444444443</v>
       </c>
-      <c r="O112" s="8">
+      <c r="O112" s="19">
         <v>0.54513888888888895</v>
       </c>
       <c r="P112" s="2">
@@ -7011,10 +7010,10 @@
       <c r="H113" s="1">
         <v>22</v>
       </c>
-      <c r="I113" s="20">
+      <c r="I113" s="17">
         <v>16.417999999999999</v>
       </c>
-      <c r="J113" s="20">
+      <c r="J113" s="17">
         <v>17.611000000000001</v>
       </c>
       <c r="K113" s="1">
@@ -7026,10 +7025,10 @@
       <c r="M113" s="1">
         <v>30</v>
       </c>
-      <c r="N113" s="8">
+      <c r="N113" s="19">
         <v>0.48888888888888887</v>
       </c>
-      <c r="O113" s="8">
+      <c r="O113" s="19">
         <v>0.54583333333333328</v>
       </c>
       <c r="P113" s="2">
@@ -7062,10 +7061,10 @@
       <c r="H114" s="1">
         <v>23</v>
       </c>
-      <c r="I114" s="20">
+      <c r="I114" s="17">
         <v>16.585999999999999</v>
       </c>
-      <c r="J114" s="20">
+      <c r="J114" s="17">
         <v>17.981000000000002</v>
       </c>
       <c r="K114" s="1">
@@ -7077,10 +7076,10 @@
       <c r="M114" s="1">
         <v>30</v>
       </c>
-      <c r="N114" s="8">
+      <c r="N114" s="19">
         <v>0.49027777777777781</v>
       </c>
-      <c r="O114" s="8">
+      <c r="O114" s="19">
         <v>0.54652777777777783</v>
       </c>
       <c r="P114" s="2">
@@ -7113,10 +7112,10 @@
       <c r="H115" s="1">
         <v>22.5</v>
       </c>
-      <c r="I115" s="20">
+      <c r="I115" s="17">
         <v>16.664999999999999</v>
       </c>
-      <c r="J115" s="20">
+      <c r="J115" s="17">
         <v>17.995999999999999</v>
       </c>
       <c r="K115" s="1">
@@ -7128,10 +7127,10 @@
       <c r="M115" s="1">
         <v>30</v>
       </c>
-      <c r="N115" s="8">
+      <c r="N115" s="19">
         <v>0.4916666666666667</v>
       </c>
-      <c r="O115" s="8">
+      <c r="O115" s="19">
         <v>0.54791666666666672</v>
       </c>
       <c r="P115" s="2">
@@ -7164,10 +7163,10 @@
       <c r="H116" s="1">
         <v>22</v>
       </c>
-      <c r="I116" s="20">
+      <c r="I116" s="17">
         <v>16.623000000000001</v>
       </c>
-      <c r="J116" s="20">
+      <c r="J116" s="17">
         <v>17.704999999999998</v>
       </c>
       <c r="K116" s="1">
@@ -7179,10 +7178,10 @@
       <c r="M116" s="1">
         <v>30</v>
       </c>
-      <c r="N116" s="8">
+      <c r="N116" s="19">
         <v>0.49236111111111108</v>
       </c>
-      <c r="O116" s="8">
+      <c r="O116" s="19">
         <v>0.55208333333333337</v>
       </c>
       <c r="P116" s="2">
@@ -7215,10 +7214,10 @@
       <c r="H117" s="1">
         <v>22.5</v>
       </c>
-      <c r="I117" s="20">
+      <c r="I117" s="17">
         <v>15.845000000000001</v>
       </c>
-      <c r="J117" s="20">
+      <c r="J117" s="17">
         <v>17.032</v>
       </c>
       <c r="K117" s="1">
@@ -7230,10 +7229,10 @@
       <c r="M117" s="1">
         <v>22</v>
       </c>
-      <c r="N117" s="8">
+      <c r="N117" s="19">
         <v>0.49791666666666662</v>
       </c>
-      <c r="O117" s="8">
+      <c r="O117" s="19">
         <v>0.56041666666666667</v>
       </c>
       <c r="P117" s="2">
@@ -7266,10 +7265,10 @@
       <c r="H118" s="1">
         <v>22.5</v>
       </c>
-      <c r="I118" s="20">
+      <c r="I118" s="17">
         <v>16.600000000000001</v>
       </c>
-      <c r="J118" s="20">
+      <c r="J118" s="17">
         <v>17.87</v>
       </c>
       <c r="K118" s="1">
@@ -7281,10 +7280,10 @@
       <c r="M118" s="1">
         <v>22</v>
       </c>
-      <c r="N118" s="8">
+      <c r="N118" s="19">
         <v>0.4993055555555555</v>
       </c>
-      <c r="O118" s="8">
+      <c r="O118" s="19">
         <v>0.56180555555555556</v>
       </c>
       <c r="P118" s="2">
@@ -7317,10 +7316,10 @@
       <c r="H119" s="1">
         <v>23</v>
       </c>
-      <c r="I119" s="20">
+      <c r="I119" s="17">
         <v>16.61</v>
       </c>
-      <c r="J119" s="20">
+      <c r="J119" s="17">
         <v>17.923999999999999</v>
       </c>
       <c r="K119" s="1">
@@ -7332,10 +7331,10 @@
       <c r="M119" s="1">
         <v>22</v>
       </c>
-      <c r="N119" s="8">
+      <c r="N119" s="19">
         <v>0.5</v>
       </c>
-      <c r="O119" s="8">
+      <c r="O119" s="19">
         <v>0.56319444444444444</v>
       </c>
       <c r="P119" s="2">
@@ -7368,10 +7367,10 @@
       <c r="H120" s="1">
         <v>24.5</v>
       </c>
-      <c r="I120" s="20">
+      <c r="I120" s="17">
         <v>16.946999999999999</v>
       </c>
-      <c r="J120" s="20">
+      <c r="J120" s="17">
         <v>18.013999999999999</v>
       </c>
       <c r="K120" s="1">
@@ -7383,10 +7382,10 @@
       <c r="M120" s="1">
         <v>22</v>
       </c>
-      <c r="N120" s="8">
+      <c r="N120" s="19">
         <v>0.50138888888888888</v>
       </c>
-      <c r="O120" s="8">
+      <c r="O120" s="19">
         <v>0.56388888888888888</v>
       </c>
       <c r="P120" s="2">
@@ -7419,10 +7418,10 @@
       <c r="H121" s="1">
         <v>22</v>
       </c>
-      <c r="I121" s="20">
+      <c r="I121" s="17">
         <v>16.66</v>
       </c>
-      <c r="J121" s="20">
+      <c r="J121" s="17">
         <v>18.006</v>
       </c>
       <c r="K121" s="1">
@@ -7434,10 +7433,10 @@
       <c r="M121" s="1">
         <v>22</v>
       </c>
-      <c r="N121" s="8">
+      <c r="N121" s="19">
         <v>0.50208333333333333</v>
       </c>
-      <c r="O121" s="8">
+      <c r="O121" s="19">
         <v>0.56527777777777777</v>
       </c>
       <c r="P121" s="2">
@@ -7470,10 +7469,10 @@
       <c r="H122" s="1">
         <v>27.5</v>
       </c>
-      <c r="I122" s="20">
+      <c r="I122" s="17">
         <v>16.661999999999999</v>
       </c>
-      <c r="J122" s="20">
+      <c r="J122" s="17">
         <v>17.974</v>
       </c>
       <c r="K122" s="1">
@@ -7485,10 +7484,10 @@
       <c r="M122" s="1">
         <v>22</v>
       </c>
-      <c r="N122" s="8">
+      <c r="N122" s="19">
         <v>0.50347222222222221</v>
       </c>
-      <c r="O122" s="8">
+      <c r="O122" s="19">
         <v>0.56666666666666665</v>
       </c>
       <c r="P122" s="2">
@@ -7521,10 +7520,10 @@
       <c r="H123" s="1">
         <v>26.5</v>
       </c>
-      <c r="I123" s="20">
+      <c r="I123" s="17">
         <v>16.460999999999999</v>
       </c>
-      <c r="J123" s="20">
+      <c r="J123" s="17">
         <v>17.478999999999999</v>
       </c>
       <c r="K123" s="1">
@@ -7536,10 +7535,10 @@
       <c r="M123" s="1">
         <v>22</v>
       </c>
-      <c r="N123" s="8">
+      <c r="N123" s="19">
         <v>0.50486111111111109</v>
       </c>
-      <c r="O123" s="8">
+      <c r="O123" s="19">
         <v>0.56805555555555554</v>
       </c>
       <c r="P123" s="2">
@@ -7572,10 +7571,10 @@
       <c r="H124" s="1">
         <v>22.5</v>
       </c>
-      <c r="I124" s="20">
+      <c r="I124" s="17">
         <v>16.631</v>
       </c>
-      <c r="J124" s="20">
+      <c r="J124" s="17">
         <v>18.015000000000001</v>
       </c>
       <c r="K124" s="1">
@@ -7587,10 +7586,10 @@
       <c r="M124" s="1">
         <v>22</v>
       </c>
-      <c r="N124" s="8">
+      <c r="N124" s="19">
         <v>0.50555555555555554</v>
       </c>
-      <c r="O124" s="8">
+      <c r="O124" s="19">
         <v>0.56874999999999998</v>
       </c>
       <c r="P124" s="2">
@@ -7623,10 +7622,10 @@
       <c r="H125" s="1">
         <v>26.5</v>
       </c>
-      <c r="I125" s="20">
+      <c r="I125" s="17">
         <v>16.28</v>
       </c>
-      <c r="J125" s="20">
+      <c r="J125" s="17">
         <v>17.788</v>
       </c>
       <c r="K125" s="1">
@@ -7638,10 +7637,10 @@
       <c r="M125" s="1">
         <v>22</v>
       </c>
-      <c r="N125" s="8">
+      <c r="N125" s="19">
         <v>0.50694444444444442</v>
       </c>
-      <c r="O125" s="8">
+      <c r="O125" s="19">
         <v>0.57013888888888886</v>
       </c>
       <c r="P125" s="2">
@@ -7674,10 +7673,10 @@
       <c r="H126" s="1">
         <v>23.5</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I126" s="17">
         <v>16.527000000000001</v>
       </c>
-      <c r="J126" s="20">
+      <c r="J126" s="17">
         <v>17.559999999999999</v>
       </c>
       <c r="K126" s="1">
@@ -7689,10 +7688,10 @@
       <c r="M126" s="1">
         <v>22</v>
       </c>
-      <c r="N126" s="8">
+      <c r="N126" s="19">
         <v>0.5083333333333333</v>
       </c>
-      <c r="O126" s="8">
+      <c r="O126" s="19">
         <v>0.57152777777777775</v>
       </c>
       <c r="P126" s="2">
@@ -7725,10 +7724,10 @@
       <c r="H127" s="1">
         <v>23</v>
       </c>
-      <c r="I127" s="20">
+      <c r="I127" s="17">
         <v>16.46</v>
       </c>
-      <c r="J127" s="20">
+      <c r="J127" s="17">
         <v>17.675000000000001</v>
       </c>
       <c r="K127" s="1">
@@ -7740,10 +7739,10 @@
       <c r="M127" s="1">
         <v>22</v>
       </c>
-      <c r="N127" s="8">
+      <c r="N127" s="19">
         <v>0.50902777777777775</v>
       </c>
-      <c r="O127" s="8">
+      <c r="O127" s="19">
         <v>0.57291666666666663</v>
       </c>
       <c r="P127" s="2">
@@ -7751,12 +7750,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="19"/>
+    <row r="128" spans="1:16" s="15" customFormat="1" ht="16" customHeight="1">
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="N128" s="20"/>
+      <c r="O128" s="20"/>
+      <c r="P128" s="16"/>
     </row>
     <row r="129" spans="1:16" ht="16" customHeight="1">
       <c r="A129" s="3">
@@ -7783,10 +7782,10 @@
       <c r="H129" s="1">
         <v>26</v>
       </c>
-      <c r="I129" s="20">
+      <c r="I129" s="17">
         <v>18.021999999999998</v>
       </c>
-      <c r="J129" s="20">
+      <c r="J129" s="17">
         <v>19.321000000000002</v>
       </c>
       <c r="K129">
@@ -7798,10 +7797,10 @@
       <c r="M129" s="1">
         <v>22</v>
       </c>
-      <c r="N129" s="8">
+      <c r="N129" s="19">
         <v>0.33680555555555558</v>
       </c>
-      <c r="O129" s="8">
+      <c r="O129" s="19">
         <v>0.39930555555555558</v>
       </c>
       <c r="P129" s="2">
@@ -7834,10 +7833,10 @@
       <c r="H130" s="1">
         <v>26</v>
       </c>
-      <c r="I130" s="20">
+      <c r="I130" s="17">
         <v>17.382999999999999</v>
       </c>
-      <c r="J130" s="20">
+      <c r="J130" s="17">
         <v>18.808</v>
       </c>
       <c r="K130">
@@ -7849,10 +7848,10 @@
       <c r="M130" s="1">
         <v>22</v>
       </c>
-      <c r="N130" s="8">
+      <c r="N130" s="19">
         <v>0.33819444444444446</v>
       </c>
-      <c r="O130" s="8">
+      <c r="O130" s="19">
         <v>0.40069444444444446</v>
       </c>
       <c r="P130" s="2">
@@ -7885,10 +7884,10 @@
       <c r="H131" s="1">
         <v>27</v>
       </c>
-      <c r="I131" s="20">
+      <c r="I131" s="17">
         <v>17.719000000000001</v>
       </c>
-      <c r="J131" s="20">
+      <c r="J131" s="17">
         <v>18.850999999999999</v>
       </c>
       <c r="K131">
@@ -7900,10 +7899,10 @@
       <c r="M131" s="1">
         <v>22</v>
       </c>
-      <c r="N131" s="8">
+      <c r="N131" s="19">
         <v>0.33888888888888885</v>
       </c>
-      <c r="O131" s="8">
+      <c r="O131" s="19">
         <v>0.40138888888888885</v>
       </c>
       <c r="P131" s="2">
@@ -7936,10 +7935,10 @@
       <c r="H132" s="1">
         <v>25.5</v>
       </c>
-      <c r="I132" s="20">
+      <c r="I132" s="17">
         <v>17.242999999999999</v>
       </c>
-      <c r="J132" s="20">
+      <c r="J132" s="17">
         <v>18.684000000000001</v>
       </c>
       <c r="K132">
@@ -7951,10 +7950,10 @@
       <c r="M132" s="1">
         <v>22</v>
       </c>
-      <c r="N132" s="8">
+      <c r="N132" s="19">
         <v>0.34027777777777773</v>
       </c>
-      <c r="O132" s="8">
+      <c r="O132" s="19">
         <v>0.40277777777777773</v>
       </c>
       <c r="P132" s="2">
@@ -7987,10 +7986,10 @@
       <c r="H133" s="1">
         <v>30</v>
       </c>
-      <c r="I133" s="20">
+      <c r="I133" s="17">
         <v>17.584</v>
       </c>
-      <c r="J133" s="20">
+      <c r="J133" s="17">
         <v>18.809999999999999</v>
       </c>
       <c r="K133">
@@ -8002,10 +8001,10 @@
       <c r="M133" s="1">
         <v>22</v>
       </c>
-      <c r="N133" s="8">
+      <c r="N133" s="19">
         <v>0.34166666666666662</v>
       </c>
-      <c r="O133" s="8">
+      <c r="O133" s="19">
         <v>0.40416666666666662</v>
       </c>
       <c r="P133" s="2">
@@ -8038,10 +8037,10 @@
       <c r="H134" s="1">
         <v>28</v>
       </c>
-      <c r="I134" s="20">
+      <c r="I134" s="17">
         <v>17.672000000000001</v>
       </c>
-      <c r="J134" s="20">
+      <c r="J134" s="17">
         <v>18.777000000000001</v>
       </c>
       <c r="K134">
@@ -8053,10 +8052,10 @@
       <c r="M134" s="1">
         <v>22</v>
       </c>
-      <c r="N134" s="8">
+      <c r="N134" s="19">
         <v>0.34236111111111112</v>
       </c>
-      <c r="O134" s="8">
+      <c r="O134" s="19">
         <v>0.4055555555555555</v>
       </c>
       <c r="P134" s="2">
@@ -8089,10 +8088,10 @@
       <c r="H135" s="1">
         <v>25.5</v>
       </c>
-      <c r="I135" s="20">
+      <c r="I135" s="17">
         <v>17.452999999999999</v>
       </c>
-      <c r="J135" s="20">
+      <c r="J135" s="17">
         <v>18.716000000000001</v>
       </c>
       <c r="K135">
@@ -8104,10 +8103,10 @@
       <c r="M135" s="1">
         <v>22</v>
       </c>
-      <c r="N135" s="8">
+      <c r="N135" s="19">
         <v>0.34375</v>
       </c>
-      <c r="O135" s="8">
+      <c r="O135" s="19">
         <v>0.40625</v>
       </c>
       <c r="P135" s="2">
@@ -8140,10 +8139,10 @@
       <c r="H136" s="1">
         <v>28</v>
       </c>
-      <c r="I136" s="20">
+      <c r="I136" s="17">
         <v>17.579999999999998</v>
       </c>
-      <c r="J136" s="20">
+      <c r="J136" s="17">
         <v>18.702000000000002</v>
       </c>
       <c r="K136">
@@ -8155,10 +8154,10 @@
       <c r="M136" s="1">
         <v>22</v>
       </c>
-      <c r="N136" s="8">
+      <c r="N136" s="19">
         <v>0.34513888888888888</v>
       </c>
-      <c r="O136" s="8">
+      <c r="O136" s="19">
         <v>0.4069444444444445</v>
       </c>
       <c r="P136" s="2">
@@ -8191,10 +8190,10 @@
       <c r="H137" s="1">
         <v>28</v>
       </c>
-      <c r="I137" s="20">
+      <c r="I137" s="17">
         <v>17.667000000000002</v>
       </c>
-      <c r="J137" s="20">
+      <c r="J137" s="17">
         <v>18.920000000000002</v>
       </c>
       <c r="K137">
@@ -8206,10 +8205,10 @@
       <c r="M137" s="1">
         <v>22</v>
       </c>
-      <c r="N137" s="8">
+      <c r="N137" s="19">
         <v>0.34583333333333338</v>
       </c>
-      <c r="O137" s="8">
+      <c r="O137" s="19">
         <v>0.40833333333333338</v>
       </c>
       <c r="P137" s="2">
@@ -8242,10 +8241,10 @@
       <c r="H138" s="1">
         <v>26</v>
       </c>
-      <c r="I138" s="20">
+      <c r="I138" s="17">
         <v>17.641999999999999</v>
       </c>
-      <c r="J138" s="20">
+      <c r="J138" s="17">
         <v>19.143999999999998</v>
       </c>
       <c r="K138">
@@ -8257,10 +8256,10 @@
       <c r="M138" s="1">
         <v>22</v>
       </c>
-      <c r="N138" s="8">
+      <c r="N138" s="19">
         <v>0.34722222222222227</v>
       </c>
-      <c r="O138" s="8">
+      <c r="O138" s="19">
         <v>0.40972222222222227</v>
       </c>
       <c r="P138" s="2">
@@ -8293,10 +8292,10 @@
       <c r="H139" s="1">
         <v>28</v>
       </c>
-      <c r="I139" s="20">
+      <c r="I139" s="17">
         <v>16.850999999999999</v>
       </c>
-      <c r="J139" s="20">
+      <c r="J139" s="17">
         <v>18.353999999999999</v>
       </c>
       <c r="K139">
@@ -8308,10 +8307,10 @@
       <c r="M139" s="1">
         <v>22</v>
       </c>
-      <c r="N139" s="8">
+      <c r="N139" s="19">
         <v>0.37847222222222227</v>
       </c>
-      <c r="O139" s="8">
+      <c r="O139" s="19">
         <v>0.44097222222222227</v>
       </c>
       <c r="P139" s="2">
@@ -8344,10 +8343,10 @@
       <c r="H140" s="1">
         <v>27.5</v>
       </c>
-      <c r="I140" s="20">
+      <c r="I140" s="17">
         <v>17.611999999999998</v>
       </c>
-      <c r="J140" s="20">
+      <c r="J140" s="17">
         <v>18.722000000000001</v>
       </c>
       <c r="K140">
@@ -8359,10 +8358,10 @@
       <c r="M140" s="1">
         <v>22</v>
       </c>
-      <c r="N140" s="8">
+      <c r="N140" s="19">
         <v>0.37986111111111115</v>
       </c>
-      <c r="O140" s="8">
+      <c r="O140" s="19">
         <v>0.44236111111111115</v>
       </c>
       <c r="P140" s="2">
@@ -8395,10 +8394,10 @@
       <c r="H141" s="1">
         <v>25.5</v>
       </c>
-      <c r="I141" s="20">
+      <c r="I141" s="17">
         <v>17.623999999999999</v>
       </c>
-      <c r="J141" s="20">
+      <c r="J141" s="17">
         <v>18.695</v>
       </c>
       <c r="K141">
@@ -8410,10 +8409,10 @@
       <c r="M141" s="1">
         <v>22</v>
       </c>
-      <c r="N141" s="8">
+      <c r="N141" s="19">
         <v>0.38055555555555554</v>
       </c>
-      <c r="O141" s="8">
+      <c r="O141" s="19">
         <v>0.44375000000000003</v>
       </c>
       <c r="P141" s="2">
@@ -8446,10 +8445,10 @@
       <c r="H142" s="1">
         <v>27.5</v>
       </c>
-      <c r="I142" s="20">
+      <c r="I142" s="17">
         <v>17.928000000000001</v>
       </c>
-      <c r="J142" s="20">
+      <c r="J142" s="17">
         <v>19.032</v>
       </c>
       <c r="K142">
@@ -8461,10 +8460,10 @@
       <c r="M142" s="1">
         <v>22</v>
       </c>
-      <c r="N142" s="8">
+      <c r="N142" s="19">
         <v>0.38194444444444442</v>
       </c>
-      <c r="O142" s="8">
+      <c r="O142" s="19">
         <v>0.44513888888888892</v>
       </c>
       <c r="P142" s="2">
@@ -8497,10 +8496,10 @@
       <c r="H143" s="1">
         <v>27</v>
       </c>
-      <c r="I143" s="20">
+      <c r="I143" s="17">
         <v>17.661000000000001</v>
       </c>
-      <c r="J143" s="20">
+      <c r="J143" s="17">
         <v>19.04</v>
       </c>
       <c r="K143">
@@ -8512,10 +8511,10 @@
       <c r="M143" s="1">
         <v>22</v>
       </c>
-      <c r="N143" s="8">
+      <c r="N143" s="19">
         <v>0.38263888888888892</v>
       </c>
-      <c r="O143" s="8">
+      <c r="O143" s="19">
         <v>0.4458333333333333</v>
       </c>
       <c r="P143" s="2">
@@ -8548,10 +8547,10 @@
       <c r="H144" s="1">
         <v>27.5</v>
       </c>
-      <c r="I144" s="20">
+      <c r="I144" s="17">
         <v>17.89</v>
       </c>
-      <c r="J144" s="20">
+      <c r="J144" s="17">
         <v>19.36</v>
       </c>
       <c r="K144">
@@ -8563,10 +8562,10 @@
       <c r="M144" s="1">
         <v>22</v>
       </c>
-      <c r="N144" s="8">
+      <c r="N144" s="19">
         <v>0.3840277777777778</v>
       </c>
-      <c r="O144" s="8">
+      <c r="O144" s="19">
         <v>0.44722222222222219</v>
       </c>
       <c r="P144" s="2">
@@ -8599,10 +8598,10 @@
       <c r="H145" s="1">
         <v>27.5</v>
       </c>
-      <c r="I145" s="20">
+      <c r="I145" s="17">
         <v>17.472000000000001</v>
       </c>
-      <c r="J145" s="20">
+      <c r="J145" s="17">
         <v>18.913</v>
       </c>
       <c r="K145">
@@ -8614,10 +8613,10 @@
       <c r="M145" s="1">
         <v>22</v>
       </c>
-      <c r="N145" s="8">
+      <c r="N145" s="19">
         <v>0.38541666666666669</v>
       </c>
-      <c r="O145" s="8">
+      <c r="O145" s="19">
         <v>0.44791666666666669</v>
       </c>
       <c r="P145" s="2">
@@ -8650,10 +8649,10 @@
       <c r="H146" s="1">
         <v>27</v>
       </c>
-      <c r="I146" s="20">
+      <c r="I146" s="17">
         <v>17.631</v>
       </c>
-      <c r="J146" s="20">
+      <c r="J146" s="17">
         <v>18.771999999999998</v>
       </c>
       <c r="K146">
@@ -8665,10 +8664,10 @@
       <c r="M146" s="1">
         <v>22</v>
       </c>
-      <c r="N146" s="8">
+      <c r="N146" s="19">
         <v>0.38680555555555557</v>
       </c>
-      <c r="O146" s="8">
+      <c r="O146" s="19">
         <v>0.45</v>
       </c>
       <c r="P146" s="2">
@@ -8701,10 +8700,10 @@
       <c r="H147" s="1">
         <v>25</v>
       </c>
-      <c r="I147" s="20">
+      <c r="I147" s="17">
         <v>17.291</v>
       </c>
-      <c r="J147" s="20">
+      <c r="J147" s="17">
         <v>18.271000000000001</v>
       </c>
       <c r="K147">
@@ -8716,10 +8715,10 @@
       <c r="M147" s="1">
         <v>22</v>
       </c>
-      <c r="N147" s="8">
+      <c r="N147" s="19">
         <v>0.38750000000000001</v>
       </c>
-      <c r="O147" s="8">
+      <c r="O147" s="19">
         <v>0.45069444444444445</v>
       </c>
       <c r="P147" s="2">
@@ -8752,10 +8751,10 @@
       <c r="H148" s="1">
         <v>28.5</v>
       </c>
-      <c r="I148" s="20">
+      <c r="I148" s="17">
         <v>17.542000000000002</v>
       </c>
-      <c r="J148" s="20">
+      <c r="J148" s="17">
         <v>18.785</v>
       </c>
       <c r="K148">
@@ -8767,10 +8766,10 @@
       <c r="M148" s="1">
         <v>22</v>
       </c>
-      <c r="N148" s="8">
+      <c r="N148" s="19">
         <v>0.3888888888888889</v>
       </c>
-      <c r="O148" s="8">
+      <c r="O148" s="19">
         <v>0.45208333333333334</v>
       </c>
       <c r="P148" s="2">
@@ -8803,10 +8802,10 @@
       <c r="H149" s="1">
         <v>26.5</v>
       </c>
-      <c r="I149" s="20">
+      <c r="I149" s="17">
         <v>17.489999999999998</v>
       </c>
-      <c r="J149" s="20">
+      <c r="J149" s="17">
         <v>18.908999999999999</v>
       </c>
       <c r="K149">
@@ -8818,10 +8817,10 @@
       <c r="M149" s="1">
         <v>22</v>
       </c>
-      <c r="N149" s="8">
+      <c r="N149" s="19">
         <v>0.38958333333333334</v>
       </c>
-      <c r="O149" s="8">
+      <c r="O149" s="19">
         <v>0.45347222222222222</v>
       </c>
       <c r="P149" s="2">
@@ -8854,10 +8853,10 @@
       <c r="H150" s="1">
         <v>26</v>
       </c>
-      <c r="I150" s="20">
+      <c r="I150" s="17">
         <v>18.021999999999998</v>
       </c>
-      <c r="J150" s="20">
+      <c r="J150" s="17">
         <v>19.321000000000002</v>
       </c>
       <c r="K150">
@@ -8869,10 +8868,10 @@
       <c r="M150" s="1">
         <v>26</v>
       </c>
-      <c r="N150" s="8">
+      <c r="N150" s="19">
         <v>0.4548611111111111</v>
       </c>
-      <c r="O150" s="8">
+      <c r="O150" s="19">
         <v>0.51736111111111105</v>
       </c>
       <c r="P150" s="2">
@@ -8905,10 +8904,10 @@
       <c r="H151" s="1">
         <v>26</v>
       </c>
-      <c r="I151" s="20">
+      <c r="I151" s="17">
         <v>17.382999999999999</v>
       </c>
-      <c r="J151" s="20">
+      <c r="J151" s="17">
         <v>18.808</v>
       </c>
       <c r="K151">
@@ -8920,10 +8919,10 @@
       <c r="M151" s="1">
         <v>26</v>
       </c>
-      <c r="N151" s="8">
+      <c r="N151" s="19">
         <v>0.45624999999999999</v>
       </c>
-      <c r="O151" s="8">
+      <c r="O151" s="19">
         <v>0.51874999999999993</v>
       </c>
       <c r="P151" s="2">
@@ -8956,10 +8955,10 @@
       <c r="H152" s="1">
         <v>27</v>
       </c>
-      <c r="I152" s="20">
+      <c r="I152" s="17">
         <v>17.719000000000001</v>
       </c>
-      <c r="J152" s="20">
+      <c r="J152" s="17">
         <v>18.850999999999999</v>
       </c>
       <c r="K152">
@@ -8971,10 +8970,10 @@
       <c r="M152" s="1">
         <v>26</v>
       </c>
-      <c r="N152" s="8">
+      <c r="N152" s="19">
         <v>0.45763888888888887</v>
       </c>
-      <c r="O152" s="8">
+      <c r="O152" s="19">
         <v>0.51944444444444449</v>
       </c>
       <c r="P152" s="2">
@@ -9007,10 +9006,10 @@
       <c r="H153" s="1">
         <v>25.5</v>
       </c>
-      <c r="I153" s="20">
+      <c r="I153" s="17">
         <v>17.242999999999999</v>
       </c>
-      <c r="J153" s="20">
+      <c r="J153" s="17">
         <v>18.684000000000001</v>
       </c>
       <c r="K153">
@@ -9022,10 +9021,10 @@
       <c r="M153" s="1">
         <v>26</v>
       </c>
-      <c r="N153" s="8">
+      <c r="N153" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="O153" s="8">
+      <c r="O153" s="19">
         <v>0.52083333333333337</v>
       </c>
       <c r="P153" s="2">
@@ -9058,10 +9057,10 @@
       <c r="H154" s="1">
         <v>30</v>
       </c>
-      <c r="I154" s="20">
+      <c r="I154" s="17">
         <v>17.584</v>
       </c>
-      <c r="J154" s="20">
+      <c r="J154" s="17">
         <v>18.809999999999999</v>
       </c>
       <c r="K154">
@@ -9073,10 +9072,10 @@
       <c r="M154" s="1">
         <v>26</v>
       </c>
-      <c r="N154" s="8">
+      <c r="N154" s="19">
         <v>0.4597222222222222</v>
       </c>
-      <c r="O154" s="8">
+      <c r="O154" s="19">
         <v>0.52222222222222225</v>
       </c>
       <c r="P154" s="2">
@@ -9109,10 +9108,10 @@
       <c r="H155" s="1">
         <v>28</v>
       </c>
-      <c r="I155" s="20">
+      <c r="I155" s="17">
         <v>17.672000000000001</v>
       </c>
-      <c r="J155" s="20">
+      <c r="J155" s="17">
         <v>18.777000000000001</v>
       </c>
       <c r="K155">
@@ -9124,10 +9123,10 @@
       <c r="M155" s="1">
         <v>26</v>
       </c>
-      <c r="N155" s="8">
+      <c r="N155" s="19">
         <v>0.46180555555555558</v>
       </c>
-      <c r="O155" s="8">
+      <c r="O155" s="19">
         <v>0.5229166666666667</v>
       </c>
       <c r="P155" s="2">
@@ -9160,10 +9159,10 @@
       <c r="H156" s="1">
         <v>25.5</v>
       </c>
-      <c r="I156" s="20">
+      <c r="I156" s="17">
         <v>17.452999999999999</v>
       </c>
-      <c r="J156" s="20">
+      <c r="J156" s="17">
         <v>18.716000000000001</v>
       </c>
       <c r="K156">
@@ -9175,10 +9174,10 @@
       <c r="M156" s="1">
         <v>26</v>
       </c>
-      <c r="N156" s="8">
+      <c r="N156" s="19">
         <v>0.46249999999999997</v>
       </c>
-      <c r="O156" s="8">
+      <c r="O156" s="19">
         <v>0.52430555555555558</v>
       </c>
       <c r="P156" s="2">
@@ -9211,10 +9210,10 @@
       <c r="H157" s="1">
         <v>28</v>
       </c>
-      <c r="I157" s="20">
+      <c r="I157" s="17">
         <v>17.579999999999998</v>
       </c>
-      <c r="J157" s="20">
+      <c r="J157" s="17">
         <v>18.702000000000002</v>
       </c>
       <c r="K157">
@@ -9226,10 +9225,10 @@
       <c r="M157" s="1">
         <v>26</v>
       </c>
-      <c r="N157" s="8">
+      <c r="N157" s="19">
         <v>0.46319444444444446</v>
       </c>
-      <c r="O157" s="8">
+      <c r="O157" s="19">
         <v>0.52500000000000002</v>
       </c>
       <c r="P157" s="2">
@@ -9262,10 +9261,10 @@
       <c r="H158" s="1">
         <v>28</v>
       </c>
-      <c r="I158" s="20">
+      <c r="I158" s="17">
         <v>17.667000000000002</v>
       </c>
-      <c r="J158" s="20">
+      <c r="J158" s="17">
         <v>18.920000000000002</v>
       </c>
       <c r="K158">
@@ -9277,10 +9276,10 @@
       <c r="M158" s="1">
         <v>26</v>
       </c>
-      <c r="N158" s="8">
+      <c r="N158" s="19">
         <v>0.46388888888888885</v>
       </c>
-      <c r="O158" s="8">
+      <c r="O158" s="19">
         <v>0.52638888888888891</v>
       </c>
       <c r="P158" s="2">
@@ -9313,10 +9312,10 @@
       <c r="H159" s="1">
         <v>26</v>
       </c>
-      <c r="I159" s="20">
+      <c r="I159" s="17">
         <v>17.641999999999999</v>
       </c>
-      <c r="J159" s="20">
+      <c r="J159" s="17">
         <v>19.143999999999998</v>
       </c>
       <c r="K159">
@@ -9328,10 +9327,10 @@
       <c r="M159" s="1">
         <v>26</v>
       </c>
-      <c r="N159" s="8">
+      <c r="N159" s="19">
         <v>0.46458333333333335</v>
       </c>
-      <c r="O159" s="8">
+      <c r="O159" s="19">
         <v>0.52777777777777779</v>
       </c>
       <c r="P159" s="2">
@@ -9364,10 +9363,10 @@
       <c r="H160" s="1">
         <v>28</v>
       </c>
-      <c r="I160" s="20">
+      <c r="I160" s="17">
         <v>16.850999999999999</v>
       </c>
-      <c r="J160" s="20">
+      <c r="J160" s="17">
         <v>18.353999999999999</v>
       </c>
       <c r="K160">
@@ -9379,10 +9378,10 @@
       <c r="M160" s="1">
         <v>28</v>
       </c>
-      <c r="N160" s="8">
+      <c r="N160" s="19">
         <v>0.4909722222222222</v>
       </c>
-      <c r="O160" s="8">
+      <c r="O160" s="19">
         <v>0.55347222222222225</v>
       </c>
       <c r="P160" s="2">
@@ -9415,10 +9414,10 @@
       <c r="H161" s="1">
         <v>27.5</v>
       </c>
-      <c r="I161" s="20">
+      <c r="I161" s="17">
         <v>17.611999999999998</v>
       </c>
-      <c r="J161" s="20">
+      <c r="J161" s="17">
         <v>18.722000000000001</v>
       </c>
       <c r="K161">
@@ -9430,10 +9429,10 @@
       <c r="M161" s="1">
         <v>28</v>
       </c>
-      <c r="N161" s="8">
+      <c r="N161" s="19">
         <v>0.4916666666666667</v>
       </c>
-      <c r="O161" s="8">
+      <c r="O161" s="19">
         <v>0.55486111111111114</v>
       </c>
       <c r="P161" s="2">
@@ -9466,10 +9465,10 @@
       <c r="H162" s="1">
         <v>25.5</v>
       </c>
-      <c r="I162" s="20">
+      <c r="I162" s="17">
         <v>17.623999999999999</v>
       </c>
-      <c r="J162" s="20">
+      <c r="J162" s="17">
         <v>18.695</v>
       </c>
       <c r="K162">
@@ -9481,10 +9480,10 @@
       <c r="M162" s="1">
         <v>28</v>
       </c>
-      <c r="N162" s="8">
+      <c r="N162" s="19">
         <v>0.49305555555555558</v>
       </c>
-      <c r="O162" s="8">
+      <c r="O162" s="19">
         <v>0.55625000000000002</v>
       </c>
       <c r="P162" s="2">
@@ -9517,10 +9516,10 @@
       <c r="H163" s="1">
         <v>27.5</v>
       </c>
-      <c r="I163" s="20">
+      <c r="I163" s="17">
         <v>17.928000000000001</v>
       </c>
-      <c r="J163" s="20">
+      <c r="J163" s="17">
         <v>19.032</v>
       </c>
       <c r="K163">
@@ -9532,10 +9531,10 @@
       <c r="M163" s="1">
         <v>28</v>
       </c>
-      <c r="N163" s="8">
+      <c r="N163" s="19">
         <v>0.49444444444444446</v>
       </c>
-      <c r="O163" s="8">
+      <c r="O163" s="19">
         <v>0.55694444444444446</v>
       </c>
       <c r="P163" s="2">
@@ -9568,10 +9567,10 @@
       <c r="H164" s="1">
         <v>27</v>
       </c>
-      <c r="I164" s="20">
+      <c r="I164" s="17">
         <v>17.661000000000001</v>
       </c>
-      <c r="J164" s="20">
+      <c r="J164" s="17">
         <v>19.04</v>
       </c>
       <c r="K164">
@@ -9583,10 +9582,10 @@
       <c r="M164" s="1">
         <v>28</v>
       </c>
-      <c r="N164" s="8">
+      <c r="N164" s="19">
         <v>0.49513888888888885</v>
       </c>
-      <c r="O164" s="8">
+      <c r="O164" s="19">
         <v>0.55763888888888891</v>
       </c>
       <c r="P164" s="2">
@@ -9619,10 +9618,10 @@
       <c r="H165" s="1">
         <v>27.5</v>
       </c>
-      <c r="I165" s="20">
+      <c r="I165" s="17">
         <v>17.89</v>
       </c>
-      <c r="J165" s="20">
+      <c r="J165" s="17">
         <v>19.36</v>
       </c>
       <c r="K165">
@@ -9634,10 +9633,10 @@
       <c r="M165" s="1">
         <v>28</v>
       </c>
-      <c r="N165" s="8">
+      <c r="N165" s="19">
         <v>0.49652777777777773</v>
       </c>
-      <c r="O165" s="8">
+      <c r="O165" s="19">
         <v>0.55902777777777779</v>
       </c>
       <c r="P165" s="2">
@@ -9670,10 +9669,10 @@
       <c r="H166" s="1">
         <v>27.5</v>
       </c>
-      <c r="I166" s="20">
+      <c r="I166" s="17">
         <v>17.472000000000001</v>
       </c>
-      <c r="J166" s="20">
+      <c r="J166" s="17">
         <v>18.913</v>
       </c>
       <c r="K166">
@@ -9685,10 +9684,10 @@
       <c r="M166" s="1">
         <v>28</v>
       </c>
-      <c r="N166" s="8">
+      <c r="N166" s="19">
         <v>0.49722222222222223</v>
       </c>
-      <c r="O166" s="8">
+      <c r="O166" s="19">
         <v>0.56041666666666667</v>
       </c>
       <c r="P166" s="2">
@@ -9721,10 +9720,10 @@
       <c r="H167" s="1">
         <v>27</v>
       </c>
-      <c r="I167" s="20">
+      <c r="I167" s="17">
         <v>17.631</v>
       </c>
-      <c r="J167" s="20">
+      <c r="J167" s="17">
         <v>18.771999999999998</v>
       </c>
       <c r="K167">
@@ -9736,10 +9735,10 @@
       <c r="M167" s="1">
         <v>28</v>
       </c>
-      <c r="N167" s="8">
+      <c r="N167" s="19">
         <v>0.49861111111111112</v>
       </c>
-      <c r="O167" s="8">
+      <c r="O167" s="19">
         <v>0.56111111111111112</v>
       </c>
       <c r="P167" s="2">
@@ -9772,10 +9771,10 @@
       <c r="H168" s="1">
         <v>25</v>
       </c>
-      <c r="I168" s="20">
+      <c r="I168" s="17">
         <v>17.291</v>
       </c>
-      <c r="J168" s="20">
+      <c r="J168" s="17">
         <v>18.271000000000001</v>
       </c>
       <c r="K168">
@@ -9787,10 +9786,10 @@
       <c r="M168" s="1">
         <v>28</v>
       </c>
-      <c r="N168" s="8">
+      <c r="N168" s="19">
         <v>0.4993055555555555</v>
       </c>
-      <c r="O168" s="8">
+      <c r="O168" s="19">
         <v>0.56180555555555556</v>
       </c>
       <c r="P168" s="2">
@@ -9823,10 +9822,10 @@
       <c r="H169" s="1">
         <v>28.5</v>
       </c>
-      <c r="I169" s="20">
+      <c r="I169" s="17">
         <v>17.542000000000002</v>
       </c>
-      <c r="J169" s="20">
+      <c r="J169" s="17">
         <v>18.785</v>
       </c>
       <c r="K169">
@@ -9838,10 +9837,10 @@
       <c r="M169" s="1">
         <v>28</v>
       </c>
-      <c r="N169" s="8">
+      <c r="N169" s="19">
         <v>0.50069444444444444</v>
       </c>
-      <c r="O169" s="8">
+      <c r="O169" s="19">
         <v>0.56388888888888888</v>
       </c>
       <c r="P169" s="2">
@@ -9874,10 +9873,10 @@
       <c r="H170" s="1">
         <v>26.5</v>
       </c>
-      <c r="I170" s="20">
+      <c r="I170" s="17">
         <v>17.489999999999998</v>
       </c>
-      <c r="J170" s="20">
+      <c r="J170" s="17">
         <v>18.908999999999999</v>
       </c>
       <c r="K170">
@@ -9889,10 +9888,10 @@
       <c r="M170" s="1">
         <v>28</v>
       </c>
-      <c r="N170" s="8">
+      <c r="N170" s="19">
         <v>0.50208333333333333</v>
       </c>
-      <c r="O170" s="8">
+      <c r="O170" s="19">
         <v>0.56458333333333333</v>
       </c>
       <c r="P170" s="2">
@@ -9925,10 +9924,10 @@
       <c r="H171" s="1">
         <v>24</v>
       </c>
-      <c r="I171" s="20">
+      <c r="I171" s="17">
         <v>18.041</v>
       </c>
-      <c r="J171" s="20">
+      <c r="J171" s="17">
         <v>19.332999999999998</v>
       </c>
       <c r="K171">
@@ -9940,10 +9939,10 @@
       <c r="M171" s="1">
         <v>28</v>
       </c>
-      <c r="N171" s="8">
+      <c r="N171" s="19">
         <v>0.34791666666666665</v>
       </c>
-      <c r="O171" s="8">
+      <c r="O171" s="19">
         <v>0.41041666666666665</v>
       </c>
       <c r="P171" s="2">
@@ -9976,10 +9975,10 @@
       <c r="H172" s="1">
         <v>24.5</v>
       </c>
-      <c r="I172" s="20">
+      <c r="I172" s="17">
         <v>17.367000000000001</v>
       </c>
-      <c r="J172" s="20">
+      <c r="J172" s="17">
         <v>18.71</v>
       </c>
       <c r="K172">
@@ -9991,14 +9990,14 @@
       <c r="M172" s="1">
         <v>28</v>
       </c>
-      <c r="N172" s="8">
+      <c r="N172" s="19">
         <v>0.34861111111111115</v>
       </c>
-      <c r="O172" s="8">
+      <c r="O172" s="19">
         <v>0.41180555555555554</v>
       </c>
       <c r="P172" s="2">
-        <f t="shared" ref="P172:P212" si="4">O172*1440-N172*1440</f>
+        <f t="shared" ref="P172:P254" si="4">O172*1440-N172*1440</f>
         <v>90.999999999999943</v>
       </c>
     </row>
@@ -10027,10 +10026,10 @@
       <c r="H173" s="1">
         <v>25.5</v>
       </c>
-      <c r="I173" s="20">
+      <c r="I173" s="17">
         <v>17.744</v>
       </c>
-      <c r="J173" s="20">
+      <c r="J173" s="17">
         <v>18.872</v>
       </c>
       <c r="K173">
@@ -10042,10 +10041,10 @@
       <c r="M173" s="1">
         <v>28</v>
       </c>
-      <c r="N173" s="8">
+      <c r="N173" s="19">
         <v>0.35000000000000003</v>
       </c>
-      <c r="O173" s="8">
+      <c r="O173" s="19">
         <v>0.41250000000000003</v>
       </c>
       <c r="P173" s="2">
@@ -10078,10 +10077,10 @@
       <c r="H174" s="1">
         <v>24.5</v>
       </c>
-      <c r="I174" s="20">
+      <c r="I174" s="17">
         <v>17.268000000000001</v>
       </c>
-      <c r="J174" s="20">
+      <c r="J174" s="17">
         <v>18.652000000000001</v>
       </c>
       <c r="K174">
@@ -10093,10 +10092,10 @@
       <c r="M174" s="1">
         <v>28</v>
       </c>
-      <c r="N174" s="8">
+      <c r="N174" s="19">
         <v>0.35138888888888892</v>
       </c>
-      <c r="O174" s="8">
+      <c r="O174" s="19">
         <v>0.41388888888888892</v>
       </c>
       <c r="P174" s="2">
@@ -10129,10 +10128,10 @@
       <c r="H175" s="1">
         <v>27</v>
       </c>
-      <c r="I175" s="20">
+      <c r="I175" s="17">
         <v>17.594000000000001</v>
       </c>
-      <c r="J175" s="20">
+      <c r="J175" s="17">
         <v>19.762</v>
       </c>
       <c r="K175">
@@ -10144,10 +10143,10 @@
       <c r="M175" s="1">
         <v>28</v>
       </c>
-      <c r="N175" s="8">
+      <c r="N175" s="19">
         <v>0.3520833333333333</v>
       </c>
-      <c r="O175" s="8">
+      <c r="O175" s="19">
         <v>0.4152777777777778</v>
       </c>
       <c r="P175" s="2">
@@ -10180,10 +10179,10 @@
       <c r="H176" s="1">
         <v>27</v>
       </c>
-      <c r="I176" s="20">
+      <c r="I176" s="17">
         <v>17.673999999999999</v>
       </c>
-      <c r="J176" s="20">
+      <c r="J176" s="17">
         <v>18.751000000000001</v>
       </c>
       <c r="K176">
@@ -10195,10 +10194,10 @@
       <c r="M176" s="1">
         <v>28</v>
       </c>
-      <c r="N176" s="8">
+      <c r="N176" s="19">
         <v>0.35347222222222219</v>
       </c>
-      <c r="O176" s="8">
+      <c r="O176" s="19">
         <v>0.41597222222222219</v>
       </c>
       <c r="P176" s="2">
@@ -10231,10 +10230,10 @@
       <c r="H177" s="1">
         <v>24.5</v>
       </c>
-      <c r="I177" s="20">
+      <c r="I177" s="17">
         <v>17.492999999999999</v>
       </c>
-      <c r="J177" s="20">
+      <c r="J177" s="17">
         <v>18.707999999999998</v>
       </c>
       <c r="K177">
@@ -10246,10 +10245,10 @@
       <c r="M177" s="1">
         <v>28</v>
       </c>
-      <c r="N177" s="8">
+      <c r="N177" s="19">
         <v>0.35416666666666669</v>
       </c>
-      <c r="O177" s="8">
+      <c r="O177" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="P177" s="2">
@@ -10282,10 +10281,10 @@
       <c r="H178" s="1">
         <v>26</v>
       </c>
-      <c r="I178" s="20">
+      <c r="I178" s="17">
         <v>17.597999999999999</v>
       </c>
-      <c r="J178" s="20">
+      <c r="J178" s="17">
         <v>18.698</v>
       </c>
       <c r="K178">
@@ -10297,10 +10296,10 @@
       <c r="M178" s="1">
         <v>28</v>
       </c>
-      <c r="N178" s="8">
+      <c r="N178" s="19">
         <v>0.35486111111111113</v>
       </c>
-      <c r="O178" s="8">
+      <c r="O178" s="19">
         <v>0.41875000000000001</v>
       </c>
       <c r="P178" s="2">
@@ -10333,10 +10332,10 @@
       <c r="H179" s="1">
         <v>25.5</v>
       </c>
-      <c r="I179" s="20">
+      <c r="I179" s="17">
         <v>17.693000000000001</v>
       </c>
-      <c r="J179" s="20">
+      <c r="J179" s="17">
         <v>18.928000000000001</v>
       </c>
       <c r="K179">
@@ -10348,10 +10347,10 @@
       <c r="M179" s="1">
         <v>28</v>
       </c>
-      <c r="N179" s="8">
+      <c r="N179" s="19">
         <v>0.35625000000000001</v>
       </c>
-      <c r="O179" s="8">
+      <c r="O179" s="19">
         <v>0.4201388888888889</v>
       </c>
       <c r="P179" s="2">
@@ -10384,10 +10383,10 @@
       <c r="H180" s="1">
         <v>25</v>
       </c>
-      <c r="I180" s="20">
+      <c r="I180" s="17">
         <v>17.635999999999999</v>
       </c>
-      <c r="J180" s="20">
+      <c r="J180" s="17">
         <v>19.103999999999999</v>
       </c>
       <c r="K180">
@@ -10399,10 +10398,10 @@
       <c r="M180" s="1">
         <v>28</v>
       </c>
-      <c r="N180" s="8">
+      <c r="N180" s="19">
         <v>0.35694444444444445</v>
       </c>
-      <c r="O180" s="8">
+      <c r="O180" s="19">
         <v>0.42152777777777778</v>
       </c>
       <c r="P180" s="2">
@@ -10435,10 +10434,10 @@
       <c r="H181" s="1">
         <v>25.5</v>
       </c>
-      <c r="I181" s="20">
+      <c r="I181" s="17">
         <v>17.314</v>
       </c>
-      <c r="J181" s="20">
+      <c r="J181" s="17">
         <v>18.731999999999999</v>
       </c>
       <c r="K181">
@@ -10450,10 +10449,10 @@
       <c r="M181" s="1">
         <v>26</v>
       </c>
-      <c r="N181" s="8">
+      <c r="N181" s="19">
         <v>0.38958333333333334</v>
       </c>
-      <c r="O181" s="8">
+      <c r="O181" s="19">
         <v>0.45208333333333334</v>
       </c>
       <c r="P181" s="2">
@@ -10486,10 +10485,10 @@
       <c r="H182" s="1">
         <v>25.5</v>
       </c>
-      <c r="I182" s="20">
+      <c r="I182" s="17">
         <v>17.628</v>
       </c>
-      <c r="J182" s="20">
+      <c r="J182" s="17">
         <v>18.7</v>
       </c>
       <c r="K182">
@@ -10501,10 +10500,10 @@
       <c r="M182" s="1">
         <v>26</v>
       </c>
-      <c r="N182" s="8">
+      <c r="N182" s="19">
         <v>0.39097222222222222</v>
       </c>
-      <c r="O182" s="8">
+      <c r="O182" s="19">
         <v>0.45347222222222222</v>
       </c>
       <c r="P182" s="2">
@@ -10537,10 +10536,10 @@
       <c r="H183" s="1">
         <v>24.5</v>
       </c>
-      <c r="I183" s="20">
+      <c r="I183" s="17">
         <v>17.638999999999999</v>
       </c>
-      <c r="J183" s="20">
+      <c r="J183" s="17">
         <v>18.652999999999999</v>
       </c>
       <c r="K183">
@@ -10552,10 +10551,10 @@
       <c r="M183" s="1">
         <v>26</v>
       </c>
-      <c r="N183" s="8">
+      <c r="N183" s="19">
         <v>0.39166666666666666</v>
       </c>
-      <c r="O183" s="8">
+      <c r="O183" s="19">
         <v>0.45416666666666666</v>
       </c>
       <c r="P183" s="2">
@@ -10588,10 +10587,10 @@
       <c r="H184" s="1">
         <v>26.5</v>
       </c>
-      <c r="I184" s="20">
+      <c r="I184" s="17">
         <v>17.992000000000001</v>
       </c>
-      <c r="J184" s="20">
+      <c r="J184" s="17">
         <v>19.062999999999999</v>
       </c>
       <c r="K184">
@@ -10603,10 +10602,10 @@
       <c r="M184" s="1">
         <v>26</v>
       </c>
-      <c r="N184" s="8">
+      <c r="N184" s="19">
         <v>0.39305555555555555</v>
       </c>
-      <c r="O184" s="8">
+      <c r="O184" s="19">
         <v>0.45555555555555555</v>
       </c>
       <c r="P184" s="2">
@@ -10639,10 +10638,10 @@
       <c r="H185" s="1">
         <v>25</v>
       </c>
-      <c r="I185" s="20">
+      <c r="I185" s="17">
         <v>17.727</v>
       </c>
-      <c r="J185" s="20">
+      <c r="J185" s="17">
         <v>19.023</v>
       </c>
       <c r="K185">
@@ -10654,10 +10653,10 @@
       <c r="M185" s="1">
         <v>26</v>
       </c>
-      <c r="N185" s="8">
+      <c r="N185" s="19">
         <v>0.39444444444444443</v>
       </c>
-      <c r="O185" s="8">
+      <c r="O185" s="19">
         <v>0.45624999999999999</v>
       </c>
       <c r="P185" s="2">
@@ -10690,10 +10689,10 @@
       <c r="H186" s="1">
         <v>24.5</v>
       </c>
-      <c r="I186" s="20">
+      <c r="I186" s="17">
         <v>17.91</v>
       </c>
-      <c r="J186" s="20">
+      <c r="J186" s="17">
         <v>19.312999999999999</v>
       </c>
       <c r="K186">
@@ -10705,10 +10704,10 @@
       <c r="M186" s="1">
         <v>26</v>
       </c>
-      <c r="N186" s="8">
+      <c r="N186" s="19">
         <v>0.39513888888888887</v>
       </c>
-      <c r="O186" s="8">
+      <c r="O186" s="19">
         <v>0.45833333333333331</v>
       </c>
       <c r="P186" s="2">
@@ -10741,10 +10740,10 @@
       <c r="H187" s="1">
         <v>25</v>
       </c>
-      <c r="I187" s="20">
+      <c r="I187" s="17">
         <v>17.498999999999999</v>
       </c>
-      <c r="J187" s="20">
+      <c r="J187" s="17">
         <v>18.902999999999999</v>
       </c>
       <c r="K187">
@@ -10756,10 +10755,10 @@
       <c r="M187" s="1">
         <v>26</v>
       </c>
-      <c r="N187" s="8">
+      <c r="N187" s="19">
         <v>0.39652777777777781</v>
       </c>
-      <c r="O187" s="8">
+      <c r="O187" s="19">
         <v>0.45902777777777781</v>
       </c>
       <c r="P187" s="2">
@@ -10792,10 +10791,10 @@
       <c r="H188" s="1">
         <v>26</v>
       </c>
-      <c r="I188" s="20">
+      <c r="I188" s="17">
         <v>17.693999999999999</v>
       </c>
-      <c r="J188" s="20">
+      <c r="J188" s="17">
         <v>18.8</v>
       </c>
       <c r="K188">
@@ -10807,10 +10806,10 @@
       <c r="M188" s="1">
         <v>26</v>
       </c>
-      <c r="N188" s="8">
+      <c r="N188" s="19">
         <v>0.3972222222222222</v>
       </c>
-      <c r="O188" s="8">
+      <c r="O188" s="19">
         <v>0.4604166666666667</v>
       </c>
       <c r="P188" s="2">
@@ -10843,10 +10842,10 @@
       <c r="H189" s="1">
         <v>25</v>
       </c>
-      <c r="I189" s="20">
+      <c r="I189" s="17">
         <v>17.318000000000001</v>
       </c>
-      <c r="J189" s="20">
+      <c r="J189" s="17">
         <v>18.228999999999999</v>
       </c>
       <c r="K189">
@@ -10858,10 +10857,10 @@
       <c r="M189" s="1">
         <v>26</v>
       </c>
-      <c r="N189" s="8">
+      <c r="N189" s="19">
         <v>0.39861111111111108</v>
       </c>
-      <c r="O189" s="8">
+      <c r="O189" s="19">
         <v>0.46111111111111108</v>
       </c>
       <c r="P189" s="2">
@@ -10894,10 +10893,10 @@
       <c r="H190" s="1">
         <v>26.5</v>
       </c>
-      <c r="I190" s="20">
+      <c r="I190" s="17">
         <v>17.552</v>
       </c>
-      <c r="J190" s="20">
+      <c r="J190" s="17">
         <v>18.768999999999998</v>
       </c>
       <c r="K190">
@@ -10909,10 +10908,10 @@
       <c r="M190" s="1">
         <v>26</v>
       </c>
-      <c r="N190" s="8">
+      <c r="N190" s="19">
         <v>0.39999999999999997</v>
       </c>
-      <c r="O190" s="8">
+      <c r="O190" s="19">
         <v>0.46249999999999997</v>
       </c>
       <c r="P190" s="2">
@@ -10945,10 +10944,10 @@
       <c r="H191" s="1">
         <v>25</v>
       </c>
-      <c r="I191" s="20">
+      <c r="I191" s="17">
         <v>17.475000000000001</v>
       </c>
-      <c r="J191" s="20">
+      <c r="J191" s="17">
         <v>18.872</v>
       </c>
       <c r="K191">
@@ -10960,10 +10959,10 @@
       <c r="M191" s="1">
         <v>26</v>
       </c>
-      <c r="N191" s="8">
+      <c r="N191" s="19">
         <v>0.40069444444444446</v>
       </c>
-      <c r="O191" s="8">
+      <c r="O191" s="19">
         <v>0.46388888888888885</v>
       </c>
       <c r="P191" s="2">
@@ -10996,10 +10995,10 @@
       <c r="H192" s="1">
         <v>24</v>
       </c>
-      <c r="I192" s="20">
+      <c r="I192" s="17">
         <v>18.041</v>
       </c>
-      <c r="J192" s="20">
+      <c r="J192" s="17">
         <v>19.332999999999998</v>
       </c>
       <c r="K192">
@@ -11011,10 +11010,10 @@
       <c r="M192" s="1">
         <v>24</v>
       </c>
-      <c r="N192" s="8">
+      <c r="N192" s="19">
         <v>0.46597222222222223</v>
       </c>
-      <c r="O192" s="8">
+      <c r="O192" s="19">
         <v>0.52847222222222223</v>
       </c>
       <c r="P192" s="2">
@@ -11047,10 +11046,10 @@
       <c r="H193" s="1">
         <v>24.5</v>
       </c>
-      <c r="I193" s="20">
+      <c r="I193" s="17">
         <v>17.367000000000001</v>
       </c>
-      <c r="J193" s="20">
+      <c r="J193" s="17">
         <v>18.71</v>
       </c>
       <c r="K193">
@@ -11062,10 +11061,10 @@
       <c r="M193" s="1">
         <v>24</v>
       </c>
-      <c r="N193" s="8">
+      <c r="N193" s="19">
         <v>0.46666666666666662</v>
       </c>
-      <c r="O193" s="8">
+      <c r="O193" s="19">
         <v>0.52986111111111112</v>
       </c>
       <c r="P193" s="2">
@@ -11098,10 +11097,10 @@
       <c r="H194" s="1">
         <v>25.5</v>
       </c>
-      <c r="I194" s="20">
+      <c r="I194" s="17">
         <v>17.744</v>
       </c>
-      <c r="J194" s="20">
+      <c r="J194" s="17">
         <v>18.872</v>
       </c>
       <c r="K194">
@@ -11113,10 +11112,10 @@
       <c r="M194" s="1">
         <v>24</v>
       </c>
-      <c r="N194" s="8">
+      <c r="N194" s="19">
         <v>0.4680555555555555</v>
       </c>
-      <c r="O194" s="8">
+      <c r="O194" s="19">
         <v>0.53055555555555556</v>
       </c>
       <c r="P194" s="2">
@@ -11149,10 +11148,10 @@
       <c r="H195" s="1">
         <v>24.5</v>
       </c>
-      <c r="I195" s="20">
+      <c r="I195" s="17">
         <v>17.268000000000001</v>
       </c>
-      <c r="J195" s="20">
+      <c r="J195" s="17">
         <v>18.652000000000001</v>
       </c>
       <c r="K195">
@@ -11164,10 +11163,10 @@
       <c r="M195" s="1">
         <v>24</v>
       </c>
-      <c r="N195" s="8">
+      <c r="N195" s="19">
         <v>0.46875</v>
       </c>
-      <c r="O195" s="8">
+      <c r="O195" s="19">
         <v>0.53194444444444444</v>
       </c>
       <c r="P195" s="2">
@@ -11200,10 +11199,10 @@
       <c r="H196" s="1">
         <v>27</v>
       </c>
-      <c r="I196" s="20">
+      <c r="I196" s="17">
         <v>17.594000000000001</v>
       </c>
-      <c r="J196" s="20">
+      <c r="J196" s="17">
         <v>19.762</v>
       </c>
       <c r="K196">
@@ -11215,10 +11214,10 @@
       <c r="M196" s="1">
         <v>24</v>
       </c>
-      <c r="N196" s="8">
+      <c r="N196" s="19">
         <v>0.47013888888888888</v>
       </c>
-      <c r="O196" s="8">
+      <c r="O196" s="19">
         <v>0.53333333333333333</v>
       </c>
       <c r="P196" s="2">
@@ -11251,10 +11250,10 @@
       <c r="H197" s="1">
         <v>27</v>
       </c>
-      <c r="I197" s="20">
+      <c r="I197" s="17">
         <v>17.673999999999999</v>
       </c>
-      <c r="J197" s="20">
+      <c r="J197" s="17">
         <v>18.751000000000001</v>
       </c>
       <c r="K197">
@@ -11266,10 +11265,10 @@
       <c r="M197" s="1">
         <v>24</v>
       </c>
-      <c r="N197" s="8">
+      <c r="N197" s="19">
         <v>0.47083333333333338</v>
       </c>
-      <c r="O197" s="8">
+      <c r="O197" s="19">
         <v>0.53402777777777777</v>
       </c>
       <c r="P197" s="2">
@@ -11302,10 +11301,10 @@
       <c r="H198" s="1">
         <v>24.5</v>
       </c>
-      <c r="I198" s="20">
+      <c r="I198" s="17">
         <v>17.492999999999999</v>
       </c>
-      <c r="J198" s="20">
+      <c r="J198" s="17">
         <v>18.707999999999998</v>
       </c>
       <c r="K198">
@@ -11317,10 +11316,10 @@
       <c r="M198" s="1">
         <v>24</v>
       </c>
-      <c r="N198" s="8">
+      <c r="N198" s="19">
         <v>0.47222222222222227</v>
       </c>
-      <c r="O198" s="8">
+      <c r="O198" s="19">
         <v>0.53541666666666665</v>
       </c>
       <c r="P198" s="2">
@@ -11353,10 +11352,10 @@
       <c r="H199" s="1">
         <v>26</v>
       </c>
-      <c r="I199" s="20">
+      <c r="I199" s="17">
         <v>17.597999999999999</v>
       </c>
-      <c r="J199" s="20">
+      <c r="J199" s="17">
         <v>18.698</v>
       </c>
       <c r="K199">
@@ -11368,10 +11367,10 @@
       <c r="M199" s="1">
         <v>24</v>
       </c>
-      <c r="N199" s="8">
+      <c r="N199" s="19">
         <v>0.47291666666666665</v>
       </c>
-      <c r="O199" s="8">
+      <c r="O199" s="19">
         <v>0.53611111111111109</v>
       </c>
       <c r="P199" s="2">
@@ -11404,10 +11403,10 @@
       <c r="H200" s="1">
         <v>25.5</v>
       </c>
-      <c r="I200" s="20">
+      <c r="I200" s="17">
         <v>17.693000000000001</v>
       </c>
-      <c r="J200" s="20">
+      <c r="J200" s="17">
         <v>18.928000000000001</v>
       </c>
       <c r="K200">
@@ -11419,10 +11418,10 @@
       <c r="M200" s="1">
         <v>24</v>
       </c>
-      <c r="N200" s="8">
+      <c r="N200" s="19">
         <v>0.47430555555555554</v>
       </c>
-      <c r="O200" s="8">
+      <c r="O200" s="19">
         <v>0.53749999999999998</v>
       </c>
       <c r="P200" s="2">
@@ -11455,10 +11454,10 @@
       <c r="H201" s="1">
         <v>25</v>
       </c>
-      <c r="I201" s="20">
+      <c r="I201" s="17">
         <v>17.635999999999999</v>
       </c>
-      <c r="J201" s="20">
+      <c r="J201" s="17">
         <v>19.103999999999999</v>
       </c>
       <c r="K201">
@@ -11470,10 +11469,10 @@
       <c r="M201" s="1">
         <v>24</v>
       </c>
-      <c r="N201" s="8">
+      <c r="N201" s="19">
         <v>0.47500000000000003</v>
       </c>
-      <c r="O201" s="8">
+      <c r="O201" s="19">
         <v>0.53888888888888886</v>
       </c>
       <c r="P201" s="2">
@@ -11506,10 +11505,10 @@
       <c r="H202" s="1">
         <v>25.5</v>
       </c>
-      <c r="I202" s="20">
+      <c r="I202" s="17">
         <v>17.314</v>
       </c>
-      <c r="J202" s="20">
+      <c r="J202" s="17">
         <v>18.731999999999999</v>
       </c>
       <c r="K202">
@@ -11521,10 +11520,10 @@
       <c r="M202" s="1">
         <v>30</v>
       </c>
-      <c r="N202" s="8">
+      <c r="N202" s="19">
         <v>0.50902777777777775</v>
       </c>
-      <c r="O202" s="8">
+      <c r="O202" s="19">
         <v>0.57152777777777775</v>
       </c>
       <c r="P202" s="2">
@@ -11557,10 +11556,10 @@
       <c r="H203" s="1">
         <v>25.5</v>
       </c>
-      <c r="I203" s="20">
+      <c r="I203" s="17">
         <v>17.628</v>
       </c>
-      <c r="J203" s="20">
+      <c r="J203" s="17">
         <v>18.7</v>
       </c>
       <c r="K203">
@@ -11572,10 +11571,10 @@
       <c r="M203" s="1">
         <v>30</v>
       </c>
-      <c r="N203" s="8">
+      <c r="N203" s="19">
         <v>0.50972222222222219</v>
       </c>
-      <c r="O203" s="8">
+      <c r="O203" s="19">
         <v>0.57291666666666663</v>
       </c>
       <c r="P203" s="2">
@@ -11608,10 +11607,10 @@
       <c r="H204" s="1">
         <v>24.5</v>
       </c>
-      <c r="I204" s="20">
+      <c r="I204" s="17">
         <v>17.638999999999999</v>
       </c>
-      <c r="J204" s="20">
+      <c r="J204" s="17">
         <v>18.652999999999999</v>
       </c>
       <c r="K204">
@@ -11623,10 +11622,10 @@
       <c r="M204" s="1">
         <v>30</v>
       </c>
-      <c r="N204" s="8">
+      <c r="N204" s="19">
         <v>0.51111111111111118</v>
       </c>
-      <c r="O204" s="8">
+      <c r="O204" s="19">
         <v>0.57430555555555551</v>
       </c>
       <c r="P204" s="2">
@@ -11659,10 +11658,10 @@
       <c r="H205" s="1">
         <v>26.5</v>
       </c>
-      <c r="I205" s="20">
+      <c r="I205" s="17">
         <v>17.992000000000001</v>
       </c>
-      <c r="J205" s="20">
+      <c r="J205" s="17">
         <v>19.062999999999999</v>
       </c>
       <c r="K205">
@@ -11674,10 +11673,10 @@
       <c r="M205" s="1">
         <v>30</v>
       </c>
-      <c r="N205" s="8">
+      <c r="N205" s="19">
         <v>0.51180555555555551</v>
       </c>
-      <c r="O205" s="8">
+      <c r="O205" s="19">
         <v>0.57500000000000007</v>
       </c>
       <c r="P205" s="2">
@@ -11710,10 +11709,10 @@
       <c r="H206" s="1">
         <v>25</v>
       </c>
-      <c r="I206" s="20">
+      <c r="I206" s="17">
         <v>17.727</v>
       </c>
-      <c r="J206" s="20">
+      <c r="J206" s="17">
         <v>19.023</v>
       </c>
       <c r="K206">
@@ -11725,10 +11724,10 @@
       <c r="M206" s="1">
         <v>30</v>
       </c>
-      <c r="N206" s="8">
+      <c r="N206" s="19">
         <v>0.5131944444444444</v>
       </c>
-      <c r="O206" s="8">
+      <c r="O206" s="19">
         <v>0.57638888888888895</v>
       </c>
       <c r="P206" s="2">
@@ -11761,10 +11760,10 @@
       <c r="H207" s="1">
         <v>24.5</v>
       </c>
-      <c r="I207" s="20">
+      <c r="I207" s="17">
         <v>17.91</v>
       </c>
-      <c r="J207" s="20">
+      <c r="J207" s="17">
         <v>19.312999999999999</v>
       </c>
       <c r="K207">
@@ -11776,10 +11775,10 @@
       <c r="M207" s="1">
         <v>30</v>
       </c>
-      <c r="N207" s="8">
+      <c r="N207" s="19">
         <v>0.51388888888888895</v>
       </c>
-      <c r="O207" s="8">
+      <c r="O207" s="19">
         <v>0.57708333333333328</v>
       </c>
       <c r="P207" s="2">
@@ -11812,10 +11811,10 @@
       <c r="H208" s="1">
         <v>25</v>
       </c>
-      <c r="I208" s="20">
+      <c r="I208" s="17">
         <v>17.498999999999999</v>
       </c>
-      <c r="J208" s="20">
+      <c r="J208" s="17">
         <v>18.902999999999999</v>
       </c>
       <c r="K208">
@@ -11827,10 +11826,10 @@
       <c r="M208" s="1">
         <v>30</v>
       </c>
-      <c r="N208" s="8">
+      <c r="N208" s="19">
         <v>0.51527777777777783</v>
       </c>
-      <c r="O208" s="8">
+      <c r="O208" s="19">
         <v>0.57847222222222217</v>
       </c>
       <c r="P208" s="2">
@@ -11863,10 +11862,10 @@
       <c r="H209" s="1">
         <v>26</v>
       </c>
-      <c r="I209" s="20">
+      <c r="I209" s="17">
         <v>17.693999999999999</v>
       </c>
-      <c r="J209" s="20">
+      <c r="J209" s="17">
         <v>18.8</v>
       </c>
       <c r="K209">
@@ -11878,10 +11877,10 @@
       <c r="M209" s="1">
         <v>30</v>
       </c>
-      <c r="N209" s="8">
+      <c r="N209" s="19">
         <v>0.51666666666666672</v>
       </c>
-      <c r="O209" s="8">
+      <c r="O209" s="19">
         <v>0.57986111111111105</v>
       </c>
       <c r="P209" s="2">
@@ -11914,10 +11913,10 @@
       <c r="H210" s="1">
         <v>25</v>
       </c>
-      <c r="I210" s="20">
+      <c r="I210" s="17">
         <v>17.318000000000001</v>
       </c>
-      <c r="J210" s="20">
+      <c r="J210" s="17">
         <v>18.228999999999999</v>
       </c>
       <c r="K210">
@@ -11929,10 +11928,10 @@
       <c r="M210" s="1">
         <v>30</v>
       </c>
-      <c r="N210" s="8">
+      <c r="N210" s="19">
         <v>0.51736111111111105</v>
       </c>
-      <c r="O210" s="8">
+      <c r="O210" s="19">
         <v>0.58124999999999993</v>
       </c>
       <c r="P210" s="2">
@@ -11965,10 +11964,10 @@
       <c r="H211" s="1">
         <v>26.5</v>
       </c>
-      <c r="I211" s="20">
+      <c r="I211" s="17">
         <v>17.552</v>
       </c>
-      <c r="J211" s="20">
+      <c r="J211" s="17">
         <v>18.768999999999998</v>
       </c>
       <c r="K211">
@@ -11980,10 +11979,10 @@
       <c r="M211" s="1">
         <v>30</v>
       </c>
-      <c r="N211" s="8">
+      <c r="N211" s="19">
         <v>0.51874999999999993</v>
       </c>
-      <c r="O211" s="8">
+      <c r="O211" s="19">
         <v>0.58194444444444449</v>
       </c>
       <c r="P211" s="2">
@@ -12016,10 +12015,10 @@
       <c r="H212" s="1">
         <v>25</v>
       </c>
-      <c r="I212" s="20">
+      <c r="I212" s="17">
         <v>17.475000000000001</v>
       </c>
-      <c r="J212" s="20">
+      <c r="J212" s="17">
         <v>18.872</v>
       </c>
       <c r="K212">
@@ -12031,10 +12030,10 @@
       <c r="M212" s="1">
         <v>30</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="19">
         <v>0.51944444444444449</v>
       </c>
-      <c r="O212" s="8">
+      <c r="O212" s="19">
         <v>0.58263888888888882</v>
       </c>
       <c r="P212" s="2">
@@ -12067,10 +12066,10 @@
       <c r="H213" s="1">
         <v>24</v>
       </c>
-      <c r="I213" s="20">
+      <c r="I213" s="17">
         <v>18.042000000000002</v>
       </c>
-      <c r="J213" s="20">
+      <c r="J213" s="17">
         <v>19.326000000000001</v>
       </c>
       <c r="K213">
@@ -12082,8 +12081,15 @@
       <c r="M213" s="1">
         <v>32</v>
       </c>
-      <c r="N213" s="8">
+      <c r="N213" s="19">
         <v>0.35416666666666669</v>
+      </c>
+      <c r="O213" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P213" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="16" customHeight="1">
@@ -12111,10 +12117,10 @@
       <c r="H214" s="1">
         <v>25</v>
       </c>
-      <c r="I214" s="20">
+      <c r="I214" s="17">
         <v>17.376999999999999</v>
       </c>
-      <c r="J214" s="20">
+      <c r="J214" s="17">
         <v>18.704000000000001</v>
       </c>
       <c r="K214">
@@ -12126,8 +12132,15 @@
       <c r="M214" s="1">
         <v>32</v>
       </c>
-      <c r="N214" s="8">
+      <c r="N214" s="19">
         <v>0.35555555555555557</v>
+      </c>
+      <c r="O214" s="19">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="P214" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="16" customHeight="1">
@@ -12155,10 +12168,10 @@
       <c r="H215" s="1">
         <v>26</v>
       </c>
-      <c r="I215" s="20">
+      <c r="I215" s="17">
         <v>17.722999999999999</v>
       </c>
-      <c r="J215" s="20">
+      <c r="J215" s="17">
         <v>18.847000000000001</v>
       </c>
       <c r="K215">
@@ -12169,6 +12182,16 @@
       </c>
       <c r="M215" s="1">
         <v>32</v>
+      </c>
+      <c r="N215" s="19">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="O215" s="19">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="P215" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="16" customHeight="1">
@@ -12196,10 +12219,10 @@
       <c r="H216" s="1">
         <v>24</v>
       </c>
-      <c r="I216" s="20">
+      <c r="I216" s="17">
         <v>17.268000000000001</v>
       </c>
-      <c r="J216" s="20">
+      <c r="J216" s="17">
         <v>18.637</v>
       </c>
       <c r="K216">
@@ -12210,6 +12233,16 @@
       </c>
       <c r="M216" s="1">
         <v>32</v>
+      </c>
+      <c r="N216" s="19">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="O216" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="P216" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="16" customHeight="1">
@@ -12237,10 +12270,10 @@
       <c r="H217" s="1">
         <v>27</v>
       </c>
-      <c r="I217" s="20">
+      <c r="I217" s="17">
         <v>17.606000000000002</v>
       </c>
-      <c r="J217" s="20">
+      <c r="J217" s="17">
         <v>18.800999999999998</v>
       </c>
       <c r="K217">
@@ -12251,6 +12284,16 @@
       </c>
       <c r="M217" s="1">
         <v>32</v>
+      </c>
+      <c r="N217" s="19">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="O217" s="19">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="P217" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="16" customHeight="1">
@@ -12278,10 +12321,10 @@
       <c r="H218" s="1">
         <v>25.5</v>
       </c>
-      <c r="I218" s="20">
+      <c r="I218" s="17">
         <v>17.651</v>
       </c>
-      <c r="J218" s="20">
+      <c r="J218" s="17">
         <v>18.768000000000001</v>
       </c>
       <c r="K218">
@@ -12292,6 +12335,16 @@
       </c>
       <c r="M218" s="1">
         <v>32</v>
+      </c>
+      <c r="N218" s="19">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="O218" s="19">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="P218" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="16" customHeight="1">
@@ -12319,10 +12372,10 @@
       <c r="H219" s="1">
         <v>24.5</v>
       </c>
-      <c r="I219" s="20">
+      <c r="I219" s="17">
         <v>17.440000000000001</v>
       </c>
-      <c r="J219" s="20">
+      <c r="J219" s="17">
         <v>18.678000000000001</v>
       </c>
       <c r="K219">
@@ -12333,6 +12386,16 @@
       </c>
       <c r="M219" s="1">
         <v>32</v>
+      </c>
+      <c r="N219" s="19">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="O219" s="19">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="P219" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="16" customHeight="1">
@@ -12360,10 +12423,10 @@
       <c r="H220" s="1">
         <v>26</v>
       </c>
-      <c r="I220" s="20">
+      <c r="I220" s="17">
         <v>17.606000000000002</v>
       </c>
-      <c r="J220" s="20">
+      <c r="J220" s="17">
         <v>18.702999999999999</v>
       </c>
       <c r="K220">
@@ -12374,6 +12437,16 @@
       </c>
       <c r="M220" s="1">
         <v>32</v>
+      </c>
+      <c r="N220" s="19">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="O220" s="19">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="P220" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="16" customHeight="1">
@@ -12401,10 +12474,10 @@
       <c r="H221" s="1">
         <v>25</v>
       </c>
-      <c r="I221" s="20">
+      <c r="I221" s="17">
         <v>17.673999999999999</v>
       </c>
-      <c r="J221" s="20">
+      <c r="J221" s="17">
         <v>18.905000000000001</v>
       </c>
       <c r="K221">
@@ -12415,6 +12488,16 @@
       </c>
       <c r="M221" s="1">
         <v>32</v>
+      </c>
+      <c r="N221" s="19">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="O221" s="19">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="P221" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="16" customHeight="1">
@@ -12442,10 +12525,10 @@
       <c r="H222" s="1">
         <v>25</v>
       </c>
-      <c r="I222" s="20">
+      <c r="I222" s="17">
         <v>17.649999999999999</v>
       </c>
-      <c r="J222" s="20">
+      <c r="J222" s="17">
         <v>19.099</v>
       </c>
       <c r="K222">
@@ -12456,6 +12539,16 @@
       </c>
       <c r="M222" s="1">
         <v>32</v>
+      </c>
+      <c r="N222" s="19">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="O222" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="P222" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="16" customHeight="1">
@@ -12483,10 +12576,10 @@
       <c r="H223" s="1">
         <v>27</v>
       </c>
-      <c r="I223" s="20">
+      <c r="I223" s="17">
         <v>17.344000000000001</v>
       </c>
-      <c r="J223" s="20">
+      <c r="J223" s="17">
         <v>18.751999999999999</v>
       </c>
       <c r="K223">
@@ -12497,6 +12590,16 @@
       </c>
       <c r="M223" s="1">
         <v>24</v>
+      </c>
+      <c r="N223" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="O223" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P223" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="16" customHeight="1">
@@ -12524,10 +12627,10 @@
       <c r="H224" s="1">
         <v>24.5</v>
       </c>
-      <c r="I224" s="20">
+      <c r="I224" s="17">
         <v>17.614000000000001</v>
       </c>
-      <c r="J224" s="20">
+      <c r="J224" s="17">
         <v>18.695</v>
       </c>
       <c r="K224">
@@ -12539,8 +12642,18 @@
       <c r="M224" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="16" customHeight="1">
+      <c r="N224" s="19">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="O224" s="19">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="P224" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" ht="16" customHeight="1">
       <c r="A225" s="3">
         <v>42705</v>
       </c>
@@ -12565,10 +12678,10 @@
       <c r="H225" s="1">
         <v>23.5</v>
       </c>
-      <c r="I225" s="20">
+      <c r="I225" s="17">
         <v>17.628</v>
       </c>
-      <c r="J225" s="20">
+      <c r="J225" s="17">
         <v>18.600999999999999</v>
       </c>
       <c r="K225">
@@ -12580,8 +12693,18 @@
       <c r="M225" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" ht="16" customHeight="1">
+      <c r="N225" s="19">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="O225" s="19">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="P225" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" ht="16" customHeight="1">
       <c r="A226" s="3">
         <v>42705</v>
       </c>
@@ -12606,10 +12729,10 @@
       <c r="H226" s="1">
         <v>26.5</v>
       </c>
-      <c r="I226" s="20">
+      <c r="I226" s="17">
         <v>17.934000000000001</v>
       </c>
-      <c r="J226" s="20">
+      <c r="J226" s="17">
         <v>19.036999999999999</v>
       </c>
       <c r="K226">
@@ -12621,8 +12744,18 @@
       <c r="M226" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" ht="16" customHeight="1">
+      <c r="N226" s="19">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="O226" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="P226" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" ht="16" customHeight="1">
       <c r="A227" s="3">
         <v>42705</v>
       </c>
@@ -12647,10 +12780,10 @@
       <c r="H227" s="1">
         <v>25</v>
       </c>
-      <c r="I227" s="20">
+      <c r="I227" s="17">
         <v>17.792999999999999</v>
       </c>
-      <c r="J227" s="20">
+      <c r="J227" s="17">
         <v>19.093</v>
       </c>
       <c r="K227">
@@ -12662,8 +12795,18 @@
       <c r="M227" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" ht="16" customHeight="1">
+      <c r="N227" s="19">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="O227" s="19">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="P227" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" ht="16" customHeight="1">
       <c r="A228" s="3">
         <v>42705</v>
       </c>
@@ -12688,10 +12831,10 @@
       <c r="H228" s="1">
         <v>24</v>
       </c>
-      <c r="I228" s="20">
+      <c r="I228" s="17">
         <v>17.776</v>
       </c>
-      <c r="J228" s="20">
+      <c r="J228" s="17">
         <v>19.172000000000001</v>
       </c>
       <c r="K228">
@@ -12703,8 +12846,18 @@
       <c r="M228" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" ht="16" customHeight="1">
+      <c r="N228" s="19">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="O228" s="19">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="P228" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" ht="16" customHeight="1">
       <c r="A229" s="3">
         <v>42705</v>
       </c>
@@ -12729,10 +12882,10 @@
       <c r="H229" s="1">
         <v>25.5</v>
       </c>
-      <c r="I229" s="20">
+      <c r="I229" s="17">
         <v>17.463999999999999</v>
       </c>
-      <c r="J229" s="20">
+      <c r="J229" s="17">
         <v>18.841999999999999</v>
       </c>
       <c r="K229">
@@ -12744,8 +12897,18 @@
       <c r="M229" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" ht="16" customHeight="1">
+      <c r="N229" s="19">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="O229" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="P229" s="2">
+        <f t="shared" si="4"/>
+        <v>88.999999999999886</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" ht="16" customHeight="1">
       <c r="A230" s="3">
         <v>42705</v>
       </c>
@@ -12770,10 +12933,10 @@
       <c r="H230" s="1">
         <v>25.5</v>
       </c>
-      <c r="I230" s="20">
+      <c r="I230" s="17">
         <v>17.652000000000001</v>
       </c>
-      <c r="J230" s="20">
+      <c r="J230" s="17">
         <v>18.739000000000001</v>
       </c>
       <c r="K230">
@@ -12785,8 +12948,18 @@
       <c r="M230" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" ht="16" customHeight="1">
+      <c r="N230" s="19">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="O230" s="19">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="P230" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" ht="16" customHeight="1">
       <c r="A231" s="3">
         <v>42705</v>
       </c>
@@ -12811,10 +12984,10 @@
       <c r="H231" s="1">
         <v>24.5</v>
       </c>
-      <c r="I231" s="20">
+      <c r="I231" s="17">
         <v>17.291</v>
       </c>
-      <c r="J231" s="20">
+      <c r="J231" s="17">
         <v>18.18</v>
       </c>
       <c r="K231">
@@ -12826,8 +12999,18 @@
       <c r="M231" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" ht="16" customHeight="1">
+      <c r="N231" s="19">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="O231" s="19">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="P231" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" ht="16" customHeight="1">
       <c r="A232" s="3">
         <v>42705</v>
       </c>
@@ -12852,10 +13035,10 @@
       <c r="H232" s="1">
         <v>26</v>
       </c>
-      <c r="I232" s="20">
+      <c r="I232" s="17">
         <v>17.533000000000001</v>
       </c>
-      <c r="J232" s="20">
+      <c r="J232" s="17">
         <v>18.739000000000001</v>
       </c>
       <c r="K232">
@@ -12867,8 +13050,18 @@
       <c r="M232" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" ht="16" customHeight="1">
+      <c r="N232" s="19">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="O232" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="P232" s="2">
+        <f t="shared" si="4"/>
+        <v>91.000000000000114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" ht="16" customHeight="1">
       <c r="A233" s="3">
         <v>42705</v>
       </c>
@@ -12893,10 +13086,10 @@
       <c r="H233" s="1">
         <v>25.5</v>
       </c>
-      <c r="I233" s="20">
+      <c r="I233" s="17">
         <v>17.449000000000002</v>
       </c>
-      <c r="J233" s="20">
+      <c r="J233" s="17">
         <v>18.835999999999999</v>
       </c>
       <c r="K233">
@@ -12908,8 +13101,18 @@
       <c r="M233" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" ht="16" customHeight="1">
+      <c r="N233" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="O233" s="19">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="P233" s="2">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" ht="16" customHeight="1">
       <c r="A234" s="3">
         <v>42705</v>
       </c>
@@ -12934,10 +13137,10 @@
       <c r="H234" s="1">
         <v>24</v>
       </c>
-      <c r="I234" s="20">
+      <c r="I234" s="17">
         <v>18.042000000000002</v>
       </c>
-      <c r="J234" s="20">
+      <c r="J234" s="17">
         <v>19.326000000000001</v>
       </c>
       <c r="K234">
@@ -12949,8 +13152,18 @@
       <c r="M234" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" ht="16" customHeight="1">
+      <c r="N234" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="O234" s="19">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="P234" s="2">
+        <f t="shared" si="4"/>
+        <v>89.999999999999886</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" ht="16" customHeight="1">
       <c r="A235" s="3">
         <v>42705</v>
       </c>
@@ -12975,10 +13188,10 @@
       <c r="H235" s="1">
         <v>25</v>
       </c>
-      <c r="I235" s="20">
+      <c r="I235" s="17">
         <v>17.376999999999999</v>
       </c>
-      <c r="J235" s="20">
+      <c r="J235" s="17">
         <v>18.704000000000001</v>
       </c>
       <c r="K235">
@@ -12990,8 +13203,18 @@
       <c r="M235" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" ht="16" customHeight="1">
+      <c r="N235" s="19">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="O235" s="19">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="P235" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="16" customHeight="1">
       <c r="A236" s="3">
         <v>42705</v>
       </c>
@@ -13016,10 +13239,10 @@
       <c r="H236" s="1">
         <v>26</v>
       </c>
-      <c r="I236" s="20">
+      <c r="I236" s="17">
         <v>17.722999999999999</v>
       </c>
-      <c r="J236" s="20">
+      <c r="J236" s="17">
         <v>18.847000000000001</v>
       </c>
       <c r="K236">
@@ -13031,8 +13254,18 @@
       <c r="M236" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" ht="16" customHeight="1">
+      <c r="N236" s="19">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="O236" s="19">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="P236" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" ht="16" customHeight="1">
       <c r="A237" s="3">
         <v>42705</v>
       </c>
@@ -13057,10 +13290,10 @@
       <c r="H237" s="1">
         <v>24</v>
       </c>
-      <c r="I237" s="20">
+      <c r="I237" s="17">
         <v>17.268000000000001</v>
       </c>
-      <c r="J237" s="20">
+      <c r="J237" s="17">
         <v>18.637</v>
       </c>
       <c r="K237">
@@ -13072,8 +13305,18 @@
       <c r="M237" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" ht="16" customHeight="1">
+      <c r="N237" s="19">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="O237" s="19">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="P237" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" ht="16" customHeight="1">
       <c r="A238" s="3">
         <v>42705</v>
       </c>
@@ -13098,10 +13341,10 @@
       <c r="H238" s="1">
         <v>27</v>
       </c>
-      <c r="I238" s="20">
+      <c r="I238" s="17">
         <v>17.606000000000002</v>
       </c>
-      <c r="J238" s="20">
+      <c r="J238" s="17">
         <v>18.800999999999998</v>
       </c>
       <c r="K238">
@@ -13113,8 +13356,18 @@
       <c r="M238" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" ht="16" customHeight="1">
+      <c r="N238" s="19">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="O238" s="19">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="P238" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" ht="16" customHeight="1">
       <c r="A239" s="3">
         <v>42705</v>
       </c>
@@ -13139,10 +13392,10 @@
       <c r="H239" s="1">
         <v>25.5</v>
       </c>
-      <c r="I239" s="20">
+      <c r="I239" s="17">
         <v>17.651</v>
       </c>
-      <c r="J239" s="20">
+      <c r="J239" s="17">
         <v>18.768000000000001</v>
       </c>
       <c r="K239">
@@ -13154,8 +13407,18 @@
       <c r="M239" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" ht="16" customHeight="1">
+      <c r="N239" s="19">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="O239" s="19">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="P239" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" ht="16" customHeight="1">
       <c r="A240" s="3">
         <v>42705</v>
       </c>
@@ -13180,10 +13443,10 @@
       <c r="H240" s="1">
         <v>24.5</v>
       </c>
-      <c r="I240" s="20">
+      <c r="I240" s="17">
         <v>17.440000000000001</v>
       </c>
-      <c r="J240" s="20">
+      <c r="J240" s="17">
         <v>18.678000000000001</v>
       </c>
       <c r="K240">
@@ -13195,8 +13458,18 @@
       <c r="M240" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" ht="16" customHeight="1">
+      <c r="N240" s="19">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="O240" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P240" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" ht="16" customHeight="1">
       <c r="A241" s="3">
         <v>42705</v>
       </c>
@@ -13221,10 +13494,10 @@
       <c r="H241" s="1">
         <v>26</v>
       </c>
-      <c r="I241" s="20">
+      <c r="I241" s="17">
         <v>17.606000000000002</v>
       </c>
-      <c r="J241" s="20">
+      <c r="J241" s="17">
         <v>18.702999999999999</v>
       </c>
       <c r="K241">
@@ -13236,8 +13509,18 @@
       <c r="M241" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" ht="16" customHeight="1">
+      <c r="N241" s="19">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="O241" s="19">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="P241" s="2">
+        <f t="shared" si="4"/>
+        <v>90.999999999999886</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" ht="16" customHeight="1">
       <c r="A242" s="3">
         <v>42705</v>
       </c>
@@ -13262,10 +13545,10 @@
       <c r="H242" s="1">
         <v>25</v>
       </c>
-      <c r="I242" s="20">
+      <c r="I242" s="17">
         <v>17.673999999999999</v>
       </c>
-      <c r="J242" s="20">
+      <c r="J242" s="17">
         <v>18.905000000000001</v>
       </c>
       <c r="K242">
@@ -13277,8 +13560,18 @@
       <c r="M242" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" ht="16" customHeight="1">
+      <c r="N242" s="19">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="O242" s="19">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="P242" s="2">
+        <f t="shared" si="4"/>
+        <v>91.000000000000114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" ht="16" customHeight="1">
       <c r="A243" s="3">
         <v>42705</v>
       </c>
@@ -13303,10 +13596,10 @@
       <c r="H243" s="1">
         <v>25</v>
       </c>
-      <c r="I243" s="20">
+      <c r="I243" s="17">
         <v>17.649999999999999</v>
       </c>
-      <c r="J243" s="20">
+      <c r="J243" s="17">
         <v>19.099</v>
       </c>
       <c r="K243">
@@ -13318,8 +13611,18 @@
       <c r="M243" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" ht="16" customHeight="1">
+      <c r="N243" s="19">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="O243" s="19">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="P243" s="2">
+        <f t="shared" si="4"/>
+        <v>92.000000000000114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" ht="16" customHeight="1">
       <c r="A244" s="3">
         <v>42705</v>
       </c>
@@ -13344,10 +13647,10 @@
       <c r="H244" s="1">
         <v>27</v>
       </c>
-      <c r="I244" s="20">
+      <c r="I244" s="17">
         <v>17.344000000000001</v>
       </c>
-      <c r="J244" s="20">
+      <c r="J244" s="17">
         <v>18.751999999999999</v>
       </c>
       <c r="K244">
@@ -13359,8 +13662,18 @@
       <c r="M244" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" ht="16" customHeight="1">
+      <c r="N244" s="19">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="O244" s="19">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="P244" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" ht="16" customHeight="1">
       <c r="A245" s="3">
         <v>42705</v>
       </c>
@@ -13385,10 +13698,10 @@
       <c r="H245" s="1">
         <v>24.5</v>
       </c>
-      <c r="I245" s="20">
+      <c r="I245" s="17">
         <v>17.614000000000001</v>
       </c>
-      <c r="J245" s="20">
+      <c r="J245" s="17">
         <v>18.695</v>
       </c>
       <c r="K245">
@@ -13400,8 +13713,18 @@
       <c r="M245" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" ht="16" customHeight="1">
+      <c r="N245" s="19">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="O245" s="19">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="P245" s="2">
+        <f t="shared" si="4"/>
+        <v>91.000000000000227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="16" customHeight="1">
       <c r="A246" s="3">
         <v>42705</v>
       </c>
@@ -13426,10 +13749,10 @@
       <c r="H246" s="1">
         <v>23.5</v>
       </c>
-      <c r="I246" s="20">
+      <c r="I246" s="17">
         <v>17.628</v>
       </c>
-      <c r="J246" s="20">
+      <c r="J246" s="17">
         <v>18.600999999999999</v>
       </c>
       <c r="K246">
@@ -13441,8 +13764,18 @@
       <c r="M246" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="16" customHeight="1">
+      <c r="N246" s="19">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="O246" s="19">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="P246" s="2">
+        <f t="shared" si="4"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" ht="16" customHeight="1">
       <c r="A247" s="3">
         <v>42705</v>
       </c>
@@ -13467,10 +13800,10 @@
       <c r="H247" s="1">
         <v>26.5</v>
       </c>
-      <c r="I247" s="20">
+      <c r="I247" s="17">
         <v>17.934000000000001</v>
       </c>
-      <c r="J247" s="20">
+      <c r="J247" s="17">
         <v>19.036999999999999</v>
       </c>
       <c r="K247">
@@ -13482,8 +13815,18 @@
       <c r="M247" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" ht="16" customHeight="1">
+      <c r="N247" s="19">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="O247" s="19">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="P247" s="2">
+        <f t="shared" si="4"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" ht="16" customHeight="1">
       <c r="A248" s="3">
         <v>42705</v>
       </c>
@@ -13508,10 +13851,10 @@
       <c r="H248" s="1">
         <v>25</v>
       </c>
-      <c r="I248" s="20">
+      <c r="I248" s="17">
         <v>17.792999999999999</v>
       </c>
-      <c r="J248" s="20">
+      <c r="J248" s="17">
         <v>19.093</v>
       </c>
       <c r="K248">
@@ -13523,8 +13866,18 @@
       <c r="M248" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" ht="16" customHeight="1">
+      <c r="N248" s="19">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="O248" s="19">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="P248" s="2">
+        <f t="shared" si="4"/>
+        <v>90.999999999999773</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" ht="16" customHeight="1">
       <c r="A249" s="3">
         <v>42705</v>
       </c>
@@ -13549,10 +13902,10 @@
       <c r="H249" s="1">
         <v>24</v>
       </c>
-      <c r="I249" s="20">
+      <c r="I249" s="17">
         <v>17.776</v>
       </c>
-      <c r="J249" s="20">
+      <c r="J249" s="17">
         <v>19.172000000000001</v>
       </c>
       <c r="K249">
@@ -13564,8 +13917,18 @@
       <c r="M249" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" ht="16" customHeight="1">
+      <c r="N249" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O249" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P249" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" ht="16" customHeight="1">
       <c r="A250" s="3">
         <v>42705</v>
       </c>
@@ -13590,10 +13953,10 @@
       <c r="H250" s="1">
         <v>25.5</v>
       </c>
-      <c r="I250" s="20">
+      <c r="I250" s="17">
         <v>17.463999999999999</v>
       </c>
-      <c r="J250" s="20">
+      <c r="J250" s="17">
         <v>18.841999999999999</v>
       </c>
       <c r="K250">
@@ -13605,8 +13968,18 @@
       <c r="M250" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="16" customHeight="1">
+      <c r="N250" s="19">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="O250" s="19">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="P250" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" ht="16" customHeight="1">
       <c r="A251" s="3">
         <v>42705</v>
       </c>
@@ -13631,10 +14004,10 @@
       <c r="H251" s="1">
         <v>25.5</v>
       </c>
-      <c r="I251" s="20">
+      <c r="I251" s="17">
         <v>17.652000000000001</v>
       </c>
-      <c r="J251" s="20">
+      <c r="J251" s="17">
         <v>18.739000000000001</v>
       </c>
       <c r="K251">
@@ -13646,8 +14019,18 @@
       <c r="M251" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" ht="16" customHeight="1">
+      <c r="N251" s="19">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="O251" s="19">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="P251" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" ht="16" customHeight="1">
       <c r="A252" s="3">
         <v>42705</v>
       </c>
@@ -13672,10 +14055,10 @@
       <c r="H252" s="1">
         <v>24.5</v>
       </c>
-      <c r="I252" s="20">
+      <c r="I252" s="17">
         <v>17.291</v>
       </c>
-      <c r="J252" s="20">
+      <c r="J252" s="17">
         <v>18.18</v>
       </c>
       <c r="K252">
@@ -13687,8 +14070,18 @@
       <c r="M252" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" ht="16" customHeight="1">
+      <c r="N252" s="19">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="O252" s="19">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="P252" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" ht="16" customHeight="1">
       <c r="A253" s="3">
         <v>42705</v>
       </c>
@@ -13713,10 +14106,10 @@
       <c r="H253" s="1">
         <v>26</v>
       </c>
-      <c r="I253" s="20">
+      <c r="I253" s="17">
         <v>17.533000000000001</v>
       </c>
-      <c r="J253" s="20">
+      <c r="J253" s="17">
         <v>18.739000000000001</v>
       </c>
       <c r="K253">
@@ -13728,8 +14121,18 @@
       <c r="M253" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" ht="16" customHeight="1">
+      <c r="N253" s="19">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O253" s="19">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="P253" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" ht="16" customHeight="1">
       <c r="A254" s="3">
         <v>42705</v>
       </c>
@@ -13754,10 +14157,10 @@
       <c r="H254" s="1">
         <v>25.5</v>
       </c>
-      <c r="I254" s="20">
+      <c r="I254" s="17">
         <v>17.449000000000002</v>
       </c>
-      <c r="J254" s="20">
+      <c r="J254" s="17">
         <v>18.835999999999999</v>
       </c>
       <c r="K254">
@@ -13768,6 +14171,16 @@
       </c>
       <c r="M254" s="1">
         <v>32</v>
+      </c>
+      <c r="N254" s="19">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="O254" s="19">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="P254" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -13795,11 +14208,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -13807,67 +14220,67 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -13875,7 +14288,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -13883,47 +14296,47 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="25020" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="8640" yWindow="3440" windowWidth="16040" windowHeight="11140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5396" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="170">
   <si>
     <t>date</t>
   </si>
@@ -507,6 +507,30 @@
   <si>
     <t>ch_vol</t>
   </si>
+  <si>
+    <t>warthog_notes</t>
+  </si>
+  <si>
+    <t>pretty big and hard to integrate peak O2 control</t>
+  </si>
+  <si>
+    <t>messy double peaks for O2</t>
+  </si>
+  <si>
+    <t>BadO2BL</t>
+  </si>
+  <si>
+    <t>MultiPO2</t>
+  </si>
+  <si>
+    <t>BadO2S1</t>
+  </si>
+  <si>
+    <t>MultiPO2S2</t>
+  </si>
+  <si>
+    <t>MultiPO2BL</t>
+  </si>
 </sst>
 </file>
 
@@ -602,11 +626,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="516">
+  <cellStyleXfs count="538">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1205,7 +1251,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="516">
+  <cellStyles count="538">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -1465,6 +1511,17 @@
     <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -1721,6 +1778,17 @@
     <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2050,11 +2118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1779"/>
+  <dimension ref="A1:AD1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -2077,18 +2145,19 @@
     <col min="17" max="17" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="1"/>
-    <col min="24" max="24" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="11.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="10" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" customHeight="1">
+    <row r="1" spans="1:30" ht="16" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,10 +2243,13 @@
         <v>93</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16" customHeight="1">
+    <row r="2" spans="1:30" ht="16" customHeight="1">
       <c r="A2" s="3">
         <v>42730</v>
       </c>
@@ -2231,13 +2303,13 @@
         <v>87</v>
       </c>
       <c r="S2" s="1">
-        <v>9.0150000000000004E-3</v>
+        <v>8.9344999999999997E-3</v>
       </c>
       <c r="T2" s="1">
-        <v>9.4655999999999994E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="16" customHeight="1">
+        <v>9.3065999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16" customHeight="1">
       <c r="A3" s="3">
         <v>42730</v>
       </c>
@@ -2287,9 +2359,20 @@
       <c r="Q3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="28"/>
-    </row>
-    <row r="4" spans="1:29" ht="16" customHeight="1">
+      <c r="R3" s="28">
+        <v>2.9920000000000001E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>9.0264999999999998E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>8.8009000000000004E-3</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16" customHeight="1">
       <c r="A4" s="3">
         <v>42730</v>
       </c>
@@ -2339,8 +2422,17 @@
       <c r="Q4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="16" customHeight="1">
+      <c r="R4" s="28">
+        <v>8.4860000000000003E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>8.5105000000000007E-3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>8.4881999999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16" customHeight="1">
       <c r="A5" s="3">
         <v>42730</v>
       </c>
@@ -2390,8 +2482,17 @@
       <c r="Q5" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="16" customHeight="1">
+      <c r="R5" s="28">
+        <v>5.243E-4</v>
+      </c>
+      <c r="S5" s="28">
+        <v>4.9040000000000004E-3</v>
+      </c>
+      <c r="T5" s="28">
+        <v>4.4590000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16" customHeight="1">
       <c r="A6" s="3">
         <v>42730</v>
       </c>
@@ -2441,8 +2542,17 @@
       <c r="Q6" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="16" customHeight="1">
+      <c r="R6" s="28">
+        <v>7.0770000000000002E-4</v>
+      </c>
+      <c r="S6" s="28">
+        <v>3.7659999999999998E-3</v>
+      </c>
+      <c r="T6" s="28">
+        <v>4.1710000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16" customHeight="1">
       <c r="A7" s="3">
         <v>42730</v>
       </c>
@@ -2492,8 +2602,17 @@
       <c r="Q7" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" ht="16" customHeight="1">
+      <c r="R7" s="28">
+        <v>5.3160000000000002E-4</v>
+      </c>
+      <c r="S7" s="28">
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="T7" s="28">
+        <v>5.9480000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16" customHeight="1">
       <c r="A8" s="3">
         <v>42730</v>
       </c>
@@ -2543,8 +2662,20 @@
       <c r="Q8" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="16" customHeight="1">
+      <c r="R8" s="28">
+        <v>4.2309999999999998E-4</v>
+      </c>
+      <c r="S8" s="28">
+        <v>6.2529999999999999E-3</v>
+      </c>
+      <c r="T8" s="28">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+    </row>
+    <row r="9" spans="1:30" ht="16" customHeight="1">
       <c r="A9" s="3">
         <v>42730</v>
       </c>
@@ -2594,8 +2725,20 @@
       <c r="Q9" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="16" customHeight="1">
+      <c r="R9" s="28">
+        <v>5.44E-4</v>
+      </c>
+      <c r="S9" s="28">
+        <v>4.117E-3</v>
+      </c>
+      <c r="T9" s="28">
+        <v>4.8659999999999997E-3</v>
+      </c>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+    </row>
+    <row r="10" spans="1:30" ht="16" customHeight="1">
       <c r="A10" s="3">
         <v>42730</v>
       </c>
@@ -2645,8 +2788,17 @@
       <c r="Q10" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" ht="16" customHeight="1">
+      <c r="R10" s="28">
+        <v>5.2840000000000005E-4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>7.9153999999999995E-3</v>
+      </c>
+      <c r="T10" s="28">
+        <v>2.6450000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="16" customHeight="1">
       <c r="A11" s="3">
         <v>42730</v>
       </c>
@@ -2696,8 +2848,17 @@
       <c r="Q11" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" ht="16" customHeight="1">
+      <c r="R11" s="28">
+        <v>2.342E-4</v>
+      </c>
+      <c r="S11" s="28">
+        <v>4.6889999999999996E-3</v>
+      </c>
+      <c r="T11" s="28">
+        <v>4.6670000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="16" customHeight="1">
       <c r="A12" s="3">
         <v>42730</v>
       </c>
@@ -2747,8 +2908,17 @@
       <c r="Q12" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" ht="16" customHeight="1">
+      <c r="R12" s="28">
+        <v>3.1849999999999999E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.30968E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.19568E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="16" customHeight="1">
       <c r="A13" s="3">
         <v>42730</v>
       </c>
@@ -2798,8 +2968,17 @@
       <c r="Q13" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" ht="16" customHeight="1">
+      <c r="R13" s="28">
+        <v>3.927E-4</v>
+      </c>
+      <c r="S13" s="28">
+        <v>4.3709999999999999E-3</v>
+      </c>
+      <c r="T13" s="28">
+        <v>3.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="16" customHeight="1">
       <c r="A14" s="3">
         <v>42730</v>
       </c>
@@ -2849,8 +3028,17 @@
       <c r="Q14" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="16" customHeight="1">
+      <c r="R14" s="28">
+        <v>6.715E-4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.0268599999999999E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.0611799999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="16" customHeight="1">
       <c r="A15" s="3">
         <v>42730</v>
       </c>
@@ -2900,8 +3088,17 @@
       <c r="Q15" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" ht="16" customHeight="1">
+      <c r="R15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="28">
+        <v>2.7030000000000001E-3</v>
+      </c>
+      <c r="T15" s="28">
+        <v>2.9369999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16" customHeight="1">
       <c r="A16" s="3">
         <v>42730</v>
       </c>
@@ -2951,8 +3148,17 @@
       <c r="Q16" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="16" customHeight="1">
+      <c r="R16" s="28">
+        <v>2.833E-4</v>
+      </c>
+      <c r="S16" s="28">
+        <v>4.9940000000000002E-3</v>
+      </c>
+      <c r="T16" s="28">
+        <v>5.4419999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="16" customHeight="1">
       <c r="A17" s="3">
         <v>42730</v>
       </c>
@@ -3002,8 +3208,20 @@
       <c r="Q17" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="16" customHeight="1">
+      <c r="R17" s="28">
+        <v>1.3619999999999999E-3</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.3754499999999999E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.32561E-2</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="16" customHeight="1">
       <c r="A18" s="3">
         <v>42730</v>
       </c>
@@ -3053,8 +3271,20 @@
       <c r="Q18" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="16" customHeight="1">
+      <c r="R18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="28">
+        <v>4.9670000000000001E-3</v>
+      </c>
+      <c r="T18" s="28">
+        <v>4.555E-3</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16" customHeight="1">
       <c r="A19" s="3">
         <v>42730</v>
       </c>
@@ -3104,8 +3334,20 @@
       <c r="Q19" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="16" customHeight="1">
+      <c r="R19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S19" s="28">
+        <v>2.8370000000000001E-3</v>
+      </c>
+      <c r="T19" s="28">
+        <v>3.4870000000000001E-3</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="16" customHeight="1">
       <c r="A20" s="3">
         <v>42730</v>
       </c>
@@ -3155,8 +3397,20 @@
       <c r="Q20" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="16" customHeight="1">
+      <c r="R20" s="28">
+        <v>4.4069999999999998E-4</v>
+      </c>
+      <c r="S20" s="28">
+        <v>6.2259999999999998E-3</v>
+      </c>
+      <c r="T20" s="28">
+        <v>6.4219999999999998E-3</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="16" customHeight="1">
       <c r="A21" s="3">
         <v>42730</v>
       </c>
@@ -3206,8 +3460,20 @@
       <c r="Q21" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="16" customHeight="1">
+      <c r="R21" s="28">
+        <v>5.3609999999999997E-4</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.22814E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.20731E-2</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="16" customHeight="1">
       <c r="A22" s="3">
         <v>42730</v>
       </c>
@@ -3257,8 +3523,20 @@
       <c r="Q22" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="16" customHeight="1">
+      <c r="R22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.25825E-2</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.1702199999999999E-2</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="16" customHeight="1">
       <c r="A23" s="3">
         <v>42730</v>
       </c>
@@ -3308,8 +3586,20 @@
       <c r="Q23" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16" customHeight="1">
+      <c r="R23" s="28">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="S23" s="28">
+        <v>9.7312000000000006E-3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1.0937000000000001E-2</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="16" customHeight="1">
       <c r="A24" s="3">
         <v>42730</v>
       </c>
@@ -3359,8 +3649,17 @@
       <c r="Q24" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" customHeight="1">
+      <c r="R24" s="28">
+        <v>1.3760000000000001E-3</v>
+      </c>
+      <c r="S24" s="1">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1.0019500000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="16" customHeight="1">
       <c r="A25" s="3">
         <v>42730</v>
       </c>
@@ -3410,8 +3709,20 @@
       <c r="Q25" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="16" customHeight="1">
+      <c r="R25" s="28">
+        <v>3.833E-3</v>
+      </c>
+      <c r="S25" s="28">
+        <v>7.3930000000000003E-3</v>
+      </c>
+      <c r="T25" s="1">
+        <v>8.5854E-3</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="16" customHeight="1">
       <c r="A26" s="3">
         <v>42730</v>
       </c>
@@ -3461,8 +3772,17 @@
       <c r="Q26" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" customHeight="1">
+      <c r="R26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" s="28">
+        <v>7.3049999999999999E-3</v>
+      </c>
+      <c r="T26" s="1">
+        <v>7.9628000000000008E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="16" customHeight="1">
       <c r="A27" s="3">
         <v>42730</v>
       </c>
@@ -3512,8 +3832,17 @@
       <c r="Q27" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="16" customHeight="1">
+      <c r="R27" s="28">
+        <v>5.2249999999999996E-4</v>
+      </c>
+      <c r="S27" s="28">
+        <v>5.9040000000000004E-3</v>
+      </c>
+      <c r="T27" s="28">
+        <v>7.6090000000000003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="16" customHeight="1">
       <c r="A28" s="3">
         <v>42730</v>
       </c>
@@ -3563,8 +3892,20 @@
       <c r="Q28" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="16" customHeight="1">
+      <c r="R28" s="28">
+        <v>5.553E-4</v>
+      </c>
+      <c r="S28" s="28">
+        <v>7.0540000000000004E-3</v>
+      </c>
+      <c r="T28" s="28">
+        <v>6.5459999999999997E-3</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="16" customHeight="1">
       <c r="A29" s="3">
         <v>42730</v>
       </c>
@@ -3614,8 +3955,20 @@
       <c r="Q29" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" customHeight="1">
+      <c r="R29" s="28">
+        <v>1.1130000000000001E-3</v>
+      </c>
+      <c r="S29" s="28">
+        <v>7.0429999999999998E-3</v>
+      </c>
+      <c r="T29" s="28">
+        <v>7.0819999999999998E-3</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="16" customHeight="1">
       <c r="A30" s="3">
         <v>42730</v>
       </c>
@@ -3665,8 +4018,17 @@
       <c r="Q30" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="16" customHeight="1">
+      <c r="R30" s="28">
+        <v>4.6490000000000002E-4</v>
+      </c>
+      <c r="S30" s="28">
+        <v>6.1630000000000001E-3</v>
+      </c>
+      <c r="T30" s="28">
+        <v>7.7419999999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="16" customHeight="1">
       <c r="A31" s="3">
         <v>42730</v>
       </c>
@@ -3716,8 +4078,17 @@
       <c r="Q31" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" customHeight="1">
+      <c r="R31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S31" s="28">
+        <v>3.6740000000000002E-3</v>
+      </c>
+      <c r="T31" s="28">
+        <v>4.5380000000000004E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="16" customHeight="1">
       <c r="A32" s="3">
         <v>42730</v>
       </c>
@@ -3767,8 +4138,17 @@
       <c r="Q32" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="16" customHeight="1">
+      <c r="R32" s="28">
+        <v>9.4070000000000004E-4</v>
+      </c>
+      <c r="S32" s="28">
+        <v>5.326E-3</v>
+      </c>
+      <c r="T32" s="28">
+        <v>6.2440000000000004E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="16" customHeight="1">
       <c r="A33" s="3">
         <v>42730</v>
       </c>
@@ -3818,8 +4198,20 @@
       <c r="Q33" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="16" customHeight="1">
+      <c r="R33" s="28">
+        <v>2.715E-3</v>
+      </c>
+      <c r="S33" s="28">
+        <v>5.3619999999999996E-3</v>
+      </c>
+      <c r="T33" s="28">
+        <v>6.2170000000000003E-3</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="16" customHeight="1">
       <c r="A34" s="3">
         <v>42730</v>
       </c>
@@ -3869,8 +4261,17 @@
       <c r="Q34" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="16" customHeight="1">
+      <c r="R34" s="28">
+        <v>3.4069999999999999E-4</v>
+      </c>
+      <c r="S34" s="28">
+        <v>4.045E-3</v>
+      </c>
+      <c r="T34" s="28">
+        <v>4.2770000000000004E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="16" customHeight="1">
       <c r="A35" s="3">
         <v>42730</v>
       </c>
@@ -3920,8 +4321,17 @@
       <c r="Q35" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="16" customHeight="1">
+      <c r="R35" s="28">
+        <v>8.3969999999999997E-4</v>
+      </c>
+      <c r="S35" s="28">
+        <v>3.2460000000000002E-3</v>
+      </c>
+      <c r="T35" s="28">
+        <v>4.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="16" customHeight="1">
       <c r="A36" s="3">
         <v>42730</v>
       </c>
@@ -3971,8 +4381,17 @@
       <c r="Q36" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="16" customHeight="1">
+      <c r="R36" s="28">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="S36" s="28">
+        <v>1.949E-3</v>
+      </c>
+      <c r="T36" s="28">
+        <v>2.7590000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="16" customHeight="1">
       <c r="A37" s="3">
         <v>42730</v>
       </c>
@@ -4022,8 +4441,17 @@
       <c r="Q37" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="16" customHeight="1">
+      <c r="R37" s="28">
+        <v>3.4160000000000001E-4</v>
+      </c>
+      <c r="S37" s="28">
+        <v>4.457E-3</v>
+      </c>
+      <c r="T37" s="28">
+        <v>6.6730000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="16" customHeight="1">
       <c r="A38" s="3">
         <v>42730</v>
       </c>
@@ -4073,8 +4501,17 @@
       <c r="Q38" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="16" customHeight="1">
+      <c r="R38" s="28">
+        <v>7.6239999999999999E-4</v>
+      </c>
+      <c r="S38" s="1">
+        <v>9.4906999999999995E-3</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1.01815E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="16" customHeight="1">
       <c r="A39" s="3">
         <v>42730</v>
       </c>
@@ -4124,8 +4561,17 @@
       <c r="Q39" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="16" customHeight="1">
+      <c r="R39" s="28">
+        <v>6.1039999999999998E-5</v>
+      </c>
+      <c r="S39" s="28">
+        <v>4.8390000000000004E-3</v>
+      </c>
+      <c r="T39" s="28">
+        <v>4.7340000000000004E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="16" customHeight="1">
       <c r="A40" s="3">
         <v>42730</v>
       </c>
@@ -4175,8 +4621,20 @@
       <c r="Q40" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="16" customHeight="1">
+      <c r="R40" s="28">
+        <v>7.3839999999999995E-4</v>
+      </c>
+      <c r="S40" s="28">
+        <v>4.542E-3</v>
+      </c>
+      <c r="T40" s="28">
+        <v>4.2950000000000002E-3</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="16" customHeight="1">
       <c r="A41" s="3">
         <v>42730</v>
       </c>
@@ -4226,8 +4684,17 @@
       <c r="Q41" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" customHeight="1">
+      <c r="R41" s="28">
+        <v>1.317E-3</v>
+      </c>
+      <c r="S41" s="28">
+        <v>5.195E-3</v>
+      </c>
+      <c r="T41" s="28">
+        <v>4.7800000000000004E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="16" customHeight="1">
       <c r="A42" s="3">
         <v>42730</v>
       </c>
@@ -4277,8 +4744,20 @@
       <c r="Q42" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="16" customHeight="1">
+      <c r="R42" s="28">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1.06164E-2</v>
+      </c>
+      <c r="T42" s="1">
+        <v>8.0018999999999993E-3</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="16" customHeight="1">
       <c r="A43" s="3">
         <v>42730</v>
       </c>
@@ -4328,8 +4807,17 @@
       <c r="Q43" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="16" customHeight="1">
+      <c r="R43" s="28">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="S43" s="28">
+        <v>7.3439999999999998E-3</v>
+      </c>
+      <c r="T43" s="28">
+        <v>7.3920000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="16" customHeight="1">
       <c r="A44" s="3">
         <v>42731</v>
       </c>
@@ -4380,7 +4868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="16" customHeight="1">
+    <row r="45" spans="1:29" ht="16" customHeight="1">
       <c r="A45" s="3">
         <v>42731</v>
       </c>
@@ -4431,7 +4919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="16" customHeight="1">
+    <row r="46" spans="1:29" ht="16" customHeight="1">
       <c r="A46" s="3">
         <v>42731</v>
       </c>
@@ -4482,7 +4970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="16" customHeight="1">
+    <row r="47" spans="1:29" ht="16" customHeight="1">
       <c r="A47" s="3">
         <v>42731</v>
       </c>
@@ -4533,7 +5021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="16" customHeight="1">
+    <row r="48" spans="1:29" ht="16" customHeight="1">
       <c r="A48" s="3">
         <v>42731</v>
       </c>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3440" windowWidth="16040" windowHeight="11140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5432" uniqueCount="171">
   <si>
     <t>date</t>
   </si>
@@ -531,6 +531,9 @@
   <si>
     <t>MultiPO2BL</t>
   </si>
+  <si>
+    <t>DoublePO2BL</t>
+  </si>
 </sst>
 </file>
 
@@ -626,11 +629,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="538">
+  <cellStyleXfs count="574">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1251,7 +1290,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="538">
+  <cellStyles count="574">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -1522,6 +1561,24 @@
     <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -1789,6 +1846,24 @@
     <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2118,11 +2193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1779"/>
+  <dimension ref="A1:AG1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1314" sqref="G1314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -4867,6 +4942,15 @@
       <c r="Q44" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="R44" s="28">
+        <v>2.101E-3</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1.2664699999999999E-2</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1.34059E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:29" ht="16" customHeight="1">
       <c r="A45" s="3">
@@ -4918,6 +5002,15 @@
       <c r="Q45" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="R45" s="28">
+        <v>1.191E-3</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1.05781E-2</v>
+      </c>
+      <c r="T45" s="1">
+        <v>8.7690000000000008E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:29" ht="16" customHeight="1">
       <c r="A46" s="3">
@@ -4969,6 +5062,15 @@
       <c r="Q46" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="R46" s="28">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="S46" s="1">
+        <v>7.9112999999999996E-3</v>
+      </c>
+      <c r="T46" s="28">
+        <v>7.1289999999999999E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:29" ht="16" customHeight="1">
       <c r="A47" s="3">
@@ -5020,6 +5122,15 @@
       <c r="Q47" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="R47" s="28">
+        <v>3.9970000000000001E-4</v>
+      </c>
+      <c r="S47" s="1">
+        <v>8.9168000000000008E-3</v>
+      </c>
+      <c r="T47" s="28">
+        <v>7.6889999999999997E-3</v>
+      </c>
     </row>
     <row r="48" spans="1:29" ht="16" customHeight="1">
       <c r="A48" s="3">
@@ -5071,8 +5182,17 @@
       <c r="Q48" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="16" customHeight="1">
+      <c r="R48" s="28">
+        <v>1.224E-3</v>
+      </c>
+      <c r="S48" s="1">
+        <v>8.8973000000000003E-3</v>
+      </c>
+      <c r="T48" s="1">
+        <v>8.7150999999999999E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="16" customHeight="1">
       <c r="A49" s="3">
         <v>42731</v>
       </c>
@@ -5122,8 +5242,17 @@
       <c r="Q49" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="16" customHeight="1">
+      <c r="R49" s="28">
+        <v>1.547E-3</v>
+      </c>
+      <c r="S49" s="1">
+        <v>1.00786E-2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>9.6693000000000005E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="16" customHeight="1">
       <c r="A50" s="3">
         <v>42731</v>
       </c>
@@ -5173,8 +5302,17 @@
       <c r="Q50" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="16" customHeight="1">
+      <c r="R50" s="28">
+        <v>7.9060000000000003E-4</v>
+      </c>
+      <c r="S50" s="1">
+        <v>8.1457999999999999E-3</v>
+      </c>
+      <c r="T50" s="1">
+        <v>9.5759999999999994E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="16" customHeight="1">
       <c r="A51" s="3">
         <v>42731</v>
       </c>
@@ -5224,8 +5362,20 @@
       <c r="Q51" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="16" customHeight="1">
+      <c r="R51" s="28">
+        <v>1.1130000000000001E-3</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1.60006E-2</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1.5185499999999999E-2</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="16" customHeight="1">
       <c r="A52" s="3">
         <v>42731</v>
       </c>
@@ -5275,8 +5425,17 @@
       <c r="Q52" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="16" customHeight="1">
+      <c r="R52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S52" s="28">
+        <v>5.5620000000000001E-3</v>
+      </c>
+      <c r="T52" s="28">
+        <v>3.2469999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="16" customHeight="1">
       <c r="A53" s="3">
         <v>42731</v>
       </c>
@@ -5326,8 +5485,18 @@
       <c r="Q53" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="16" customHeight="1">
+      <c r="R53" s="28">
+        <v>4.1950000000000001E-4</v>
+      </c>
+      <c r="S53" s="1">
+        <v>9.2853999999999992E-3</v>
+      </c>
+      <c r="T53" s="1">
+        <v>8.3931000000000006E-3</v>
+      </c>
+      <c r="AA53" s="28"/>
+    </row>
+    <row r="54" spans="1:29" ht="16" customHeight="1">
       <c r="A54" s="3">
         <v>42731</v>
       </c>
@@ -5377,8 +5546,20 @@
       <c r="Q54" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="16" customHeight="1">
+      <c r="R54" s="28">
+        <v>5.4120000000000004E-4</v>
+      </c>
+      <c r="S54" s="28">
+        <v>4.6039999999999996E-3</v>
+      </c>
+      <c r="T54" s="28">
+        <v>6.8279999999999999E-3</v>
+      </c>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+    </row>
+    <row r="55" spans="1:29" ht="16" customHeight="1">
       <c r="A55" s="3">
         <v>42731</v>
       </c>
@@ -5428,8 +5609,17 @@
       <c r="Q55" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="16" customHeight="1">
+      <c r="R55" s="28">
+        <v>3.4880000000000002E-4</v>
+      </c>
+      <c r="S55" s="28">
+        <v>4.6389999999999999E-3</v>
+      </c>
+      <c r="T55" s="28">
+        <v>5.9579999999999998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="16" customHeight="1">
       <c r="A56" s="3">
         <v>42731</v>
       </c>
@@ -5479,8 +5669,17 @@
       <c r="Q56" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="16" customHeight="1">
+      <c r="R56" s="28">
+        <v>6.2929999999999995E-4</v>
+      </c>
+      <c r="S56" s="28">
+        <v>6.4200000000000004E-3</v>
+      </c>
+      <c r="T56" s="28">
+        <v>7.561E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="16" customHeight="1">
       <c r="A57" s="3">
         <v>42731</v>
       </c>
@@ -5530,8 +5729,17 @@
       <c r="Q57" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="16" customHeight="1">
+      <c r="R57" s="28">
+        <v>3.5560000000000002E-4</v>
+      </c>
+      <c r="S57" s="28">
+        <v>4.1180000000000001E-3</v>
+      </c>
+      <c r="T57" s="28">
+        <v>4.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="16" customHeight="1">
       <c r="A58" s="3">
         <v>42731</v>
       </c>
@@ -5581,8 +5789,17 @@
       <c r="Q58" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="16" customHeight="1">
+      <c r="R58" s="28">
+        <v>3.3639999999999999E-4</v>
+      </c>
+      <c r="S58" s="28">
+        <v>5.5859999999999998E-3</v>
+      </c>
+      <c r="T58" s="28">
+        <v>5.5259999999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="16" customHeight="1">
       <c r="A59" s="3">
         <v>42731</v>
       </c>
@@ -5632,8 +5849,17 @@
       <c r="Q59" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="16" customHeight="1">
+      <c r="R59" s="28">
+        <v>1.379E-3</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1.2882599999999999E-2</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1.12832E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="16" customHeight="1">
       <c r="A60" s="3">
         <v>42731</v>
       </c>
@@ -5683,8 +5909,17 @@
       <c r="Q60" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="16" customHeight="1">
+      <c r="R60" s="28">
+        <v>3.3819999999999998E-4</v>
+      </c>
+      <c r="S60" s="28">
+        <v>4.7479999999999996E-3</v>
+      </c>
+      <c r="T60" s="28">
+        <v>6.1050000000000002E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="16" customHeight="1">
       <c r="A61" s="3">
         <v>42731</v>
       </c>
@@ -5734,8 +5969,17 @@
       <c r="Q61" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="16" customHeight="1">
+      <c r="R61" s="28">
+        <v>9.2639999999999997E-4</v>
+      </c>
+      <c r="S61" s="28">
+        <v>6.4400000000000004E-3</v>
+      </c>
+      <c r="T61" s="28">
+        <v>9.4839999999999996E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="16" customHeight="1">
       <c r="A62" s="3">
         <v>42731</v>
       </c>
@@ -5785,8 +6029,20 @@
       <c r="Q62" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="16" customHeight="1">
+      <c r="R62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S62" s="1">
+        <v>8.5682999999999992E-3</v>
+      </c>
+      <c r="T62" s="28">
+        <v>4.6430000000000004E-3</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="16" customHeight="1">
       <c r="A63" s="3">
         <v>42731</v>
       </c>
@@ -5836,8 +6092,17 @@
       <c r="Q63" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="16" customHeight="1">
+      <c r="R63" s="28">
+        <v>2.349E-3</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1.1680299999999999E-2</v>
+      </c>
+      <c r="T63" s="28">
+        <v>5.2480000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="16" customHeight="1">
       <c r="A64" s="3">
         <v>42731</v>
       </c>
@@ -5887,8 +6152,17 @@
       <c r="Q64" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="16" customHeight="1">
+      <c r="R64" s="28">
+        <v>7.672E-4</v>
+      </c>
+      <c r="S64" s="1">
+        <v>8.2289000000000008E-3</v>
+      </c>
+      <c r="T64" s="28">
+        <v>6.339E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" ht="16" customHeight="1">
       <c r="A65" s="3">
         <v>42731</v>
       </c>
@@ -5938,8 +6212,20 @@
       <c r="Q65" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="16" customHeight="1">
+      <c r="R65" s="28">
+        <v>1.6130000000000001E-3</v>
+      </c>
+      <c r="S65" s="28">
+        <v>6.1700000000000001E-3</v>
+      </c>
+      <c r="T65" s="28">
+        <v>5.5950000000000001E-3</v>
+      </c>
+      <c r="AE65" s="28"/>
+      <c r="AF65" s="28"/>
+      <c r="AG65" s="28"/>
+    </row>
+    <row r="66" spans="1:33" ht="16" customHeight="1">
       <c r="A66" s="3">
         <v>42731</v>
       </c>
@@ -5989,8 +6275,20 @@
       <c r="Q66" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="16" customHeight="1">
+      <c r="R66" s="28">
+        <v>9.3479999999999995E-4</v>
+      </c>
+      <c r="S66" s="28">
+        <v>7.6740000000000003E-3</v>
+      </c>
+      <c r="T66" s="28">
+        <v>7.2550000000000002E-3</v>
+      </c>
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="28"/>
+      <c r="AG66" s="28"/>
+    </row>
+    <row r="67" spans="1:33" ht="16" customHeight="1">
       <c r="A67" s="3">
         <v>42731</v>
       </c>
@@ -6040,8 +6338,20 @@
       <c r="Q67" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="16" customHeight="1">
+      <c r="R67" s="28">
+        <v>7.8810000000000002E-4</v>
+      </c>
+      <c r="S67" s="28">
+        <v>3.369E-3</v>
+      </c>
+      <c r="T67" s="28">
+        <v>3.0100000000000001E-3</v>
+      </c>
+      <c r="AE67" s="28"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="28"/>
+    </row>
+    <row r="68" spans="1:33" ht="16" customHeight="1">
       <c r="A68" s="3">
         <v>42731</v>
       </c>
@@ -6091,8 +6401,20 @@
       <c r="Q68" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="16" customHeight="1">
+      <c r="R68" s="28">
+        <v>4.8970000000000003E-4</v>
+      </c>
+      <c r="S68" s="28">
+        <v>3.6949999999999999E-3</v>
+      </c>
+      <c r="T68" s="28">
+        <v>3.6059999999999998E-3</v>
+      </c>
+      <c r="AE68" s="28"/>
+      <c r="AF68" s="28"/>
+      <c r="AG68" s="28"/>
+    </row>
+    <row r="69" spans="1:33" ht="16" customHeight="1">
       <c r="A69" s="3">
         <v>42731</v>
       </c>
@@ -6142,8 +6464,20 @@
       <c r="Q69" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="16" customHeight="1">
+      <c r="R69" s="28">
+        <v>9.6389999999999996E-4</v>
+      </c>
+      <c r="S69" s="28">
+        <v>4.0359999999999997E-3</v>
+      </c>
+      <c r="T69" s="28">
+        <v>2.4910000000000002E-3</v>
+      </c>
+      <c r="AE69" s="28"/>
+      <c r="AF69" s="28"/>
+      <c r="AG69" s="28"/>
+    </row>
+    <row r="70" spans="1:33" ht="16" customHeight="1">
       <c r="A70" s="3">
         <v>42731</v>
       </c>
@@ -6193,8 +6527,20 @@
       <c r="Q70" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="16" customHeight="1">
+      <c r="R70" s="28">
+        <v>9.4839999999999996E-4</v>
+      </c>
+      <c r="S70" s="28">
+        <v>4.339E-3</v>
+      </c>
+      <c r="T70" s="28">
+        <v>4.3819999999999996E-3</v>
+      </c>
+      <c r="AE70" s="28"/>
+      <c r="AF70" s="28"/>
+      <c r="AG70" s="28"/>
+    </row>
+    <row r="71" spans="1:33" ht="16" customHeight="1">
       <c r="A71" s="3">
         <v>42731</v>
       </c>
@@ -6244,8 +6590,20 @@
       <c r="Q71" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="16" customHeight="1">
+      <c r="R71" s="28">
+        <v>6.7770000000000005E-4</v>
+      </c>
+      <c r="S71" s="28">
+        <v>3.761E-3</v>
+      </c>
+      <c r="T71" s="28">
+        <v>3.529E-3</v>
+      </c>
+      <c r="AE71" s="28"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="28"/>
+    </row>
+    <row r="72" spans="1:33" ht="16" customHeight="1">
       <c r="A72" s="3">
         <v>42731</v>
       </c>
@@ -6295,8 +6653,18 @@
       <c r="Q72" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="16" customHeight="1">
+      <c r="R72" s="28">
+        <v>4.8529999999999998E-4</v>
+      </c>
+      <c r="S72" s="1">
+        <v>1.2591700000000001E-2</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1.29084E-2</v>
+      </c>
+      <c r="AE72" s="28"/>
+    </row>
+    <row r="73" spans="1:33" ht="16" customHeight="1">
       <c r="A73" s="3">
         <v>42731</v>
       </c>
@@ -6346,8 +6714,23 @@
       <c r="Q73" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="16" customHeight="1">
+      <c r="R73" s="28">
+        <v>1.6119999999999999E-3</v>
+      </c>
+      <c r="S73" s="28">
+        <v>2.4710000000000001E-3</v>
+      </c>
+      <c r="T73" s="28">
+        <v>2.0860000000000002E-3</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+    </row>
+    <row r="74" spans="1:33" ht="16" customHeight="1">
       <c r="A74" s="3">
         <v>42731</v>
       </c>
@@ -6397,8 +6780,20 @@
       <c r="Q74" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="16" customHeight="1">
+      <c r="R74" s="28">
+        <v>5.2979999999999998E-4</v>
+      </c>
+      <c r="S74" s="28">
+        <v>4.0759999999999998E-3</v>
+      </c>
+      <c r="T74" s="28">
+        <v>3.8660000000000001E-3</v>
+      </c>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="28"/>
+    </row>
+    <row r="75" spans="1:33" ht="16" customHeight="1">
       <c r="A75" s="3">
         <v>42731</v>
       </c>
@@ -6448,8 +6843,20 @@
       <c r="Q75" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="16" customHeight="1">
+      <c r="R75" s="28">
+        <v>1.067E-3</v>
+      </c>
+      <c r="S75" s="28">
+        <v>7.077E-3</v>
+      </c>
+      <c r="T75" s="28">
+        <v>6.4050000000000001E-3</v>
+      </c>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="28"/>
+    </row>
+    <row r="76" spans="1:33" ht="16" customHeight="1">
       <c r="A76" s="3">
         <v>42731</v>
       </c>
@@ -6499,8 +6906,20 @@
       <c r="Q76" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="16" customHeight="1">
+      <c r="R76" s="28">
+        <v>1.1739999999999999E-3</v>
+      </c>
+      <c r="S76" s="28">
+        <v>5.8580000000000004E-3</v>
+      </c>
+      <c r="T76" s="28">
+        <v>6.3010000000000002E-3</v>
+      </c>
+      <c r="AE76" s="28"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="28"/>
+    </row>
+    <row r="77" spans="1:33" ht="16" customHeight="1">
       <c r="A77" s="3">
         <v>42731</v>
       </c>
@@ -6550,8 +6969,23 @@
       <c r="Q77" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="16" customHeight="1">
+      <c r="R77" s="28">
+        <v>5.0109999999999998E-4</v>
+      </c>
+      <c r="S77" s="28">
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="T77" s="28">
+        <v>3.4550000000000002E-3</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE77" s="28"/>
+      <c r="AF77" s="28"/>
+      <c r="AG77" s="28"/>
+    </row>
+    <row r="78" spans="1:33" ht="16" customHeight="1">
       <c r="A78" s="3">
         <v>42731</v>
       </c>
@@ -6601,8 +7035,20 @@
       <c r="Q78" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="16" customHeight="1">
+      <c r="R78" s="28">
+        <v>7.6460000000000005E-4</v>
+      </c>
+      <c r="S78" s="28">
+        <v>2.928E-3</v>
+      </c>
+      <c r="T78" s="28">
+        <v>3.2569999999999999E-3</v>
+      </c>
+      <c r="AE78" s="28"/>
+      <c r="AF78" s="28"/>
+      <c r="AG78" s="28"/>
+    </row>
+    <row r="79" spans="1:33" ht="16" customHeight="1">
       <c r="A79" s="3">
         <v>42731</v>
       </c>
@@ -6652,8 +7098,20 @@
       <c r="Q79" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="16" customHeight="1">
+      <c r="R79" s="28">
+        <v>1.2870000000000001E-4</v>
+      </c>
+      <c r="S79" s="28">
+        <v>5.0169999999999998E-3</v>
+      </c>
+      <c r="T79" s="28">
+        <v>5.032E-3</v>
+      </c>
+      <c r="AE79" s="28"/>
+      <c r="AF79" s="28"/>
+      <c r="AG79" s="28"/>
+    </row>
+    <row r="80" spans="1:33" ht="16" customHeight="1">
       <c r="A80" s="3">
         <v>42731</v>
       </c>
@@ -6703,8 +7161,20 @@
       <c r="Q80" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="16" customHeight="1">
+      <c r="R80" s="28">
+        <v>1.2819999999999999E-3</v>
+      </c>
+      <c r="S80" s="28">
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="T80" s="28">
+        <v>7.0889999999999998E-3</v>
+      </c>
+      <c r="AE80" s="28"/>
+      <c r="AF80" s="28"/>
+      <c r="AG80" s="28"/>
+    </row>
+    <row r="81" spans="1:33" ht="16" customHeight="1">
       <c r="A81" s="3">
         <v>42731</v>
       </c>
@@ -6754,8 +7224,22 @@
       <c r="Q81" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="16" customHeight="1">
+      <c r="R81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S81" s="28">
+        <v>3.7720000000000002E-3</v>
+      </c>
+      <c r="T81" s="28">
+        <v>3.2239999999999999E-3</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF81" s="28"/>
+      <c r="AG81" s="28"/>
+    </row>
+    <row r="82" spans="1:33" ht="16" customHeight="1">
       <c r="A82" s="3">
         <v>42731</v>
       </c>
@@ -6805,8 +7289,23 @@
       <c r="Q82" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="16" customHeight="1">
+      <c r="R82" s="28">
+        <v>1.0939999999999999E-3</v>
+      </c>
+      <c r="S82" s="28">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="T82" s="28">
+        <v>6.6680000000000003E-3</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="28"/>
+      <c r="AG82" s="28"/>
+    </row>
+    <row r="83" spans="1:33" ht="16" customHeight="1">
       <c r="A83" s="3">
         <v>42731</v>
       </c>
@@ -6856,8 +7355,20 @@
       <c r="Q83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="16" customHeight="1">
+      <c r="R83" s="28">
+        <v>5.0350000000000004E-4</v>
+      </c>
+      <c r="S83" s="28">
+        <v>4.7010000000000003E-3</v>
+      </c>
+      <c r="T83" s="28">
+        <v>5.8929999999999998E-3</v>
+      </c>
+      <c r="AE83" s="28"/>
+      <c r="AF83" s="28"/>
+      <c r="AG83" s="28"/>
+    </row>
+    <row r="84" spans="1:33" ht="16" customHeight="1">
       <c r="A84" s="3">
         <v>42731</v>
       </c>
@@ -6907,8 +7418,20 @@
       <c r="Q84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="16" customHeight="1">
+      <c r="R84" s="28">
+        <v>5.9029999999999998E-4</v>
+      </c>
+      <c r="S84" s="28">
+        <v>1.0690000000000001E-3</v>
+      </c>
+      <c r="T84" s="28">
+        <v>4.7569999999999999E-3</v>
+      </c>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+    </row>
+    <row r="85" spans="1:33" ht="16" customHeight="1">
       <c r="A85" s="3">
         <v>42731</v>
       </c>
@@ -6958,8 +7481,23 @@
       <c r="Q85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="16" customHeight="1">
+      <c r="R85" s="28">
+        <v>7.7890000000000001E-4</v>
+      </c>
+      <c r="S85" s="28">
+        <v>5.4180000000000001E-3</v>
+      </c>
+      <c r="T85" s="28">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE85" s="28"/>
+      <c r="AF85" s="28"/>
+      <c r="AG85" s="28"/>
+    </row>
+    <row r="86" spans="1:33" ht="16" customHeight="1">
       <c r="A86" s="3">
         <v>42732</v>
       </c>
@@ -7009,8 +7547,17 @@
       <c r="Q86" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="16" customHeight="1">
+      <c r="R86" s="28">
+        <v>1.0139999999999999E-3</v>
+      </c>
+      <c r="S86" s="28">
+        <v>5.4489999999999999E-3</v>
+      </c>
+      <c r="T86" s="28">
+        <v>5.8279999999999998E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" ht="16" customHeight="1">
       <c r="A87" s="3">
         <v>42732</v>
       </c>
@@ -7060,11 +7607,20 @@
       <c r="Q87" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="R87" s="28">
+        <v>5.1730000000000005E-4</v>
+      </c>
+      <c r="S87" s="28">
+        <v>3.2989999999999998E-3</v>
+      </c>
+      <c r="T87" s="28">
+        <v>4.6860000000000001E-3</v>
+      </c>
       <c r="U87" s="20"/>
       <c r="V87" s="20"/>
       <c r="W87" s="13"/>
     </row>
-    <row r="88" spans="1:23" ht="16" customHeight="1">
+    <row r="88" spans="1:33" ht="16" customHeight="1">
       <c r="A88" s="3">
         <v>42732</v>
       </c>
@@ -7114,8 +7670,17 @@
       <c r="Q88" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="16" customHeight="1">
+      <c r="R88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S88" s="28">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="T88" s="28">
+        <v>2.6259999999999999E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" ht="16" customHeight="1">
       <c r="A89" s="3">
         <v>42732</v>
       </c>
@@ -7165,8 +7730,17 @@
       <c r="Q89" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="16" customHeight="1">
+      <c r="R89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S89" s="28">
+        <v>2.5119999999999999E-3</v>
+      </c>
+      <c r="T89" s="28">
+        <v>2.6389999999999999E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" ht="16" customHeight="1">
       <c r="A90" s="3">
         <v>42732</v>
       </c>
@@ -7216,8 +7790,17 @@
       <c r="Q90" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="16" customHeight="1">
+      <c r="R90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S90" s="28">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="T90" s="28">
+        <v>2.3939999999999999E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" ht="16" customHeight="1">
       <c r="A91" s="3">
         <v>42732</v>
       </c>
@@ -7267,8 +7850,17 @@
       <c r="Q91" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="16" customHeight="1">
+      <c r="R91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T91" s="28">
+        <v>2.4220000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" ht="16" customHeight="1">
       <c r="A92" s="3">
         <v>42732</v>
       </c>
@@ -7319,7 +7911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="16" customHeight="1">
+    <row r="93" spans="1:33" ht="16" customHeight="1">
       <c r="A93" s="3">
         <v>42732</v>
       </c>
@@ -7370,7 +7962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="16" customHeight="1">
+    <row r="94" spans="1:33" ht="16" customHeight="1">
       <c r="A94" s="3">
         <v>42732</v>
       </c>
@@ -7421,7 +8013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="16" customHeight="1">
+    <row r="95" spans="1:33" ht="16" customHeight="1">
       <c r="A95" s="3">
         <v>42732</v>
       </c>
@@ -7472,7 +8064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="16" customHeight="1">
+    <row r="96" spans="1:33" ht="16" customHeight="1">
       <c r="A96" s="3">
         <v>42732</v>
       </c>
@@ -67044,11 +67636,23 @@
       <c r="F1272" t="s">
         <v>56</v>
       </c>
+      <c r="G1272" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1272" s="16">
+        <v>18.529</v>
+      </c>
+      <c r="I1272" s="16">
+        <v>19.53</v>
+      </c>
       <c r="J1272">
         <v>1</v>
       </c>
       <c r="K1272" s="1">
         <v>1</v>
+      </c>
+      <c r="L1272" s="1">
+        <v>24</v>
       </c>
       <c r="Q1272" s="7" t="s">
         <v>66</v>
@@ -67073,11 +67677,23 @@
       <c r="F1273" t="s">
         <v>58</v>
       </c>
+      <c r="G1273" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1273" s="16">
+        <v>17.837</v>
+      </c>
+      <c r="I1273" s="16">
+        <v>18.207999999999998</v>
+      </c>
       <c r="J1273">
         <v>1</v>
       </c>
       <c r="K1273" s="1">
         <v>1</v>
+      </c>
+      <c r="L1273" s="1">
+        <v>24</v>
       </c>
       <c r="Q1273" s="7" t="s">
         <v>67</v>
@@ -67102,11 +67718,23 @@
       <c r="F1274" t="s">
         <v>28</v>
       </c>
+      <c r="G1274" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1274" s="16">
+        <v>17.681999999999999</v>
+      </c>
+      <c r="I1274" s="16">
+        <v>18.844999999999999</v>
+      </c>
       <c r="J1274">
         <v>1</v>
       </c>
       <c r="K1274" s="1">
         <v>1</v>
+      </c>
+      <c r="L1274" s="1">
+        <v>24</v>
       </c>
       <c r="Q1274" s="7" t="s">
         <v>68</v>
@@ -67131,11 +67759,23 @@
       <c r="F1275" t="s">
         <v>30</v>
       </c>
+      <c r="G1275" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1275" s="16">
+        <v>17.847000000000001</v>
+      </c>
+      <c r="I1275" s="16">
+        <v>18.998999999999999</v>
+      </c>
       <c r="J1275">
         <v>1</v>
       </c>
       <c r="K1275" s="1">
         <v>1</v>
+      </c>
+      <c r="L1275" s="1">
+        <v>24</v>
       </c>
       <c r="Q1275" s="7" t="s">
         <v>69</v>
@@ -67160,11 +67800,23 @@
       <c r="F1276" t="s">
         <v>46</v>
       </c>
+      <c r="G1276" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1276" s="16">
+        <v>18.119</v>
+      </c>
+      <c r="I1276" s="16">
+        <v>19.367999999999999</v>
+      </c>
       <c r="J1276">
         <v>1</v>
       </c>
       <c r="K1276" s="1">
         <v>1</v>
+      </c>
+      <c r="L1276" s="1">
+        <v>24</v>
       </c>
       <c r="Q1276" s="7" t="s">
         <v>70</v>
@@ -67189,11 +67841,23 @@
       <c r="F1277" t="s">
         <v>54</v>
       </c>
+      <c r="G1277" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1277" s="16">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="I1277" s="16">
+        <v>19.408000000000001</v>
+      </c>
       <c r="J1277">
         <v>1</v>
       </c>
       <c r="K1277" s="1">
         <v>1</v>
+      </c>
+      <c r="L1277" s="1">
+        <v>24</v>
       </c>
       <c r="Q1277" s="7" t="s">
         <v>71</v>
@@ -67218,11 +67882,23 @@
       <c r="F1278" t="s">
         <v>36</v>
       </c>
+      <c r="G1278" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1278" s="16">
+        <v>17.841000000000001</v>
+      </c>
+      <c r="I1278" s="16">
+        <v>19.058</v>
+      </c>
       <c r="J1278">
         <v>1</v>
       </c>
       <c r="K1278" s="1">
         <v>1</v>
+      </c>
+      <c r="L1278" s="1">
+        <v>24</v>
       </c>
       <c r="Q1278" s="7" t="s">
         <v>72</v>
@@ -67247,11 +67923,23 @@
       <c r="F1279" t="s">
         <v>52</v>
       </c>
+      <c r="G1279" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="H1279" s="16">
+        <v>18.123000000000001</v>
+      </c>
+      <c r="I1279" s="16">
+        <v>19.391999999999999</v>
+      </c>
       <c r="J1279">
         <v>1</v>
       </c>
       <c r="K1279" s="1">
         <v>1</v>
+      </c>
+      <c r="L1279" s="1">
+        <v>24</v>
       </c>
       <c r="Q1279" s="7" t="s">
         <v>73</v>
@@ -67276,11 +67964,23 @@
       <c r="F1280" t="s">
         <v>40</v>
       </c>
+      <c r="G1280" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1280" s="16">
+        <v>18.323</v>
+      </c>
+      <c r="I1280" s="16">
+        <v>19.7</v>
+      </c>
       <c r="J1280">
         <v>1</v>
       </c>
       <c r="K1280" s="1">
         <v>1</v>
+      </c>
+      <c r="L1280" s="1">
+        <v>24</v>
       </c>
       <c r="Q1280" s="7" t="s">
         <v>74</v>
@@ -67305,11 +68005,23 @@
       <c r="F1281" t="s">
         <v>26</v>
       </c>
+      <c r="G1281" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1281" s="16">
+        <v>18.102</v>
+      </c>
+      <c r="I1281" s="16">
+        <v>19.463000000000001</v>
+      </c>
       <c r="J1281">
         <v>1</v>
       </c>
       <c r="K1281" s="1">
         <v>1</v>
+      </c>
+      <c r="L1281" s="1">
+        <v>24</v>
       </c>
       <c r="Q1281" s="7" t="s">
         <v>75</v>
@@ -67334,11 +68046,23 @@
       <c r="F1282" t="s">
         <v>24</v>
       </c>
+      <c r="G1282" s="1">
+        <v>28</v>
+      </c>
+      <c r="H1282" s="16">
+        <v>17.713999999999999</v>
+      </c>
+      <c r="I1282" s="16">
+        <v>18.983000000000001</v>
+      </c>
       <c r="J1282">
         <v>2</v>
       </c>
       <c r="K1282" s="1">
         <v>1</v>
+      </c>
+      <c r="L1282" s="1">
+        <v>32</v>
       </c>
       <c r="Q1282" s="7" t="s">
         <v>76</v>
@@ -67363,11 +68087,23 @@
       <c r="F1283" t="s">
         <v>62</v>
       </c>
+      <c r="G1283" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1283" s="16">
+        <v>17.984000000000002</v>
+      </c>
+      <c r="I1283" s="16">
+        <v>19.100999999999999</v>
+      </c>
       <c r="J1283">
         <v>2</v>
       </c>
       <c r="K1283" s="1">
         <v>1</v>
+      </c>
+      <c r="L1283" s="1">
+        <v>32</v>
       </c>
       <c r="Q1283" s="7" t="s">
         <v>77</v>
@@ -67392,11 +68128,23 @@
       <c r="F1284" t="s">
         <v>44</v>
       </c>
+      <c r="G1284" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1284" s="16">
+        <v>18.201000000000001</v>
+      </c>
+      <c r="I1284" s="16">
+        <v>19.332999999999998</v>
+      </c>
       <c r="J1284">
         <v>2</v>
       </c>
       <c r="K1284" s="1">
         <v>1</v>
+      </c>
+      <c r="L1284" s="1">
+        <v>32</v>
       </c>
       <c r="Q1284" s="7" t="s">
         <v>78</v>
@@ -67421,11 +68169,23 @@
       <c r="F1285" t="s">
         <v>42</v>
       </c>
+      <c r="G1285" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1285" s="16">
+        <v>18.315999999999999</v>
+      </c>
+      <c r="I1285" s="16">
+        <v>19.442</v>
+      </c>
       <c r="J1285">
         <v>2</v>
       </c>
       <c r="K1285" s="1">
         <v>1</v>
+      </c>
+      <c r="L1285" s="1">
+        <v>32</v>
       </c>
       <c r="Q1285" s="7" t="s">
         <v>79</v>
@@ -67450,11 +68210,23 @@
       <c r="F1286" t="s">
         <v>50</v>
       </c>
+      <c r="G1286" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1286" s="16">
+        <v>18.103000000000002</v>
+      </c>
+      <c r="I1286" s="16">
+        <v>19.228999999999999</v>
+      </c>
       <c r="J1286">
         <v>2</v>
       </c>
       <c r="K1286" s="1">
         <v>1</v>
+      </c>
+      <c r="L1286" s="1">
+        <v>32</v>
       </c>
       <c r="Q1286" s="7" t="s">
         <v>80</v>
@@ -67479,11 +68251,23 @@
       <c r="F1287" t="s">
         <v>32</v>
       </c>
+      <c r="G1287" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1287" s="16">
+        <v>18.178999999999998</v>
+      </c>
+      <c r="I1287" s="16">
+        <v>19.408999999999999</v>
+      </c>
       <c r="J1287">
         <v>2</v>
       </c>
       <c r="K1287" s="1">
         <v>1</v>
+      </c>
+      <c r="L1287" s="1">
+        <v>32</v>
       </c>
       <c r="Q1287" s="7" t="s">
         <v>81</v>
@@ -67508,11 +68292,23 @@
       <c r="F1288" t="s">
         <v>48</v>
       </c>
+      <c r="G1288" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1288" s="16">
+        <v>18.042000000000002</v>
+      </c>
+      <c r="I1288" s="16">
+        <v>19.355</v>
+      </c>
       <c r="J1288">
         <v>2</v>
       </c>
       <c r="K1288" s="1">
         <v>1</v>
+      </c>
+      <c r="L1288" s="1">
+        <v>32</v>
       </c>
       <c r="Q1288" s="7" t="s">
         <v>86</v>
@@ -67537,11 +68333,23 @@
       <c r="F1289" t="s">
         <v>60</v>
       </c>
+      <c r="G1289" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1289" s="16">
+        <v>18.077000000000002</v>
+      </c>
+      <c r="I1289" s="16">
+        <v>19.439</v>
+      </c>
       <c r="J1289">
         <v>2</v>
       </c>
       <c r="K1289" s="1">
         <v>1</v>
+      </c>
+      <c r="L1289" s="1">
+        <v>32</v>
       </c>
       <c r="Q1289" s="7" t="s">
         <v>85</v>
@@ -67566,11 +68374,23 @@
       <c r="F1290" t="s">
         <v>64</v>
       </c>
+      <c r="G1290" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1290" s="16">
+        <v>17.972999999999999</v>
+      </c>
+      <c r="I1290" s="16">
+        <v>19.155999999999999</v>
+      </c>
       <c r="J1290">
         <v>2</v>
       </c>
       <c r="K1290" s="1">
         <v>1</v>
+      </c>
+      <c r="L1290" s="1">
+        <v>32</v>
       </c>
       <c r="Q1290" s="7" t="s">
         <v>82</v>
@@ -67595,11 +68415,23 @@
       <c r="F1291" t="s">
         <v>34</v>
       </c>
+      <c r="G1291" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1291" s="16">
+        <v>18.192</v>
+      </c>
+      <c r="I1291" s="16">
+        <v>19.327999999999999</v>
+      </c>
       <c r="J1291">
         <v>2</v>
       </c>
       <c r="K1291" s="1">
         <v>1</v>
+      </c>
+      <c r="L1291" s="1">
+        <v>32</v>
       </c>
       <c r="Q1291" s="7" t="s">
         <v>83</v>
@@ -67624,11 +68456,23 @@
       <c r="F1292" t="s">
         <v>38</v>
       </c>
+      <c r="G1292" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1292" s="16">
+        <v>18.134</v>
+      </c>
+      <c r="I1292" s="16">
+        <v>19.478000000000002</v>
+      </c>
       <c r="J1292">
         <v>2</v>
       </c>
       <c r="K1292" s="1">
         <v>1</v>
+      </c>
+      <c r="L1292" s="1">
+        <v>32</v>
       </c>
       <c r="Q1292" s="7" t="s">
         <v>84</v>
@@ -67653,11 +68497,23 @@
       <c r="F1293" t="s">
         <v>56</v>
       </c>
+      <c r="G1293" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1293" s="16">
+        <v>18.529</v>
+      </c>
+      <c r="I1293" s="16">
+        <v>19.53</v>
+      </c>
       <c r="J1293">
         <v>1</v>
       </c>
       <c r="K1293" s="1">
         <v>2</v>
+      </c>
+      <c r="L1293" s="1">
+        <v>26</v>
       </c>
       <c r="Q1293" s="7" t="s">
         <v>66</v>
@@ -67682,11 +68538,23 @@
       <c r="F1294" t="s">
         <v>58</v>
       </c>
+      <c r="G1294" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1294" s="16">
+        <v>17.837</v>
+      </c>
+      <c r="I1294" s="16">
+        <v>18.207999999999998</v>
+      </c>
       <c r="J1294">
         <v>1</v>
       </c>
       <c r="K1294" s="1">
         <v>2</v>
+      </c>
+      <c r="L1294" s="1">
+        <v>26</v>
       </c>
       <c r="Q1294" s="7" t="s">
         <v>67</v>
@@ -67711,11 +68579,23 @@
       <c r="F1295" t="s">
         <v>28</v>
       </c>
+      <c r="G1295" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1295" s="16">
+        <v>17.681999999999999</v>
+      </c>
+      <c r="I1295" s="16">
+        <v>18.844999999999999</v>
+      </c>
       <c r="J1295">
         <v>1</v>
       </c>
       <c r="K1295" s="1">
         <v>2</v>
+      </c>
+      <c r="L1295" s="1">
+        <v>26</v>
       </c>
       <c r="Q1295" s="7" t="s">
         <v>68</v>
@@ -67740,11 +68620,23 @@
       <c r="F1296" t="s">
         <v>30</v>
       </c>
+      <c r="G1296" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1296" s="16">
+        <v>17.847000000000001</v>
+      </c>
+      <c r="I1296" s="16">
+        <v>18.998999999999999</v>
+      </c>
       <c r="J1296">
         <v>1</v>
       </c>
       <c r="K1296" s="1">
         <v>2</v>
+      </c>
+      <c r="L1296" s="1">
+        <v>26</v>
       </c>
       <c r="Q1296" s="7" t="s">
         <v>69</v>
@@ -67769,11 +68661,23 @@
       <c r="F1297" t="s">
         <v>46</v>
       </c>
+      <c r="G1297" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1297" s="16">
+        <v>18.119</v>
+      </c>
+      <c r="I1297" s="16">
+        <v>19.367999999999999</v>
+      </c>
       <c r="J1297">
         <v>1</v>
       </c>
       <c r="K1297" s="1">
         <v>2</v>
+      </c>
+      <c r="L1297" s="1">
+        <v>26</v>
       </c>
       <c r="Q1297" s="7" t="s">
         <v>70</v>
@@ -67798,11 +68702,23 @@
       <c r="F1298" t="s">
         <v>54</v>
       </c>
+      <c r="G1298" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1298" s="16">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="I1298" s="16">
+        <v>19.408000000000001</v>
+      </c>
       <c r="J1298">
         <v>1</v>
       </c>
       <c r="K1298" s="1">
         <v>2</v>
+      </c>
+      <c r="L1298" s="1">
+        <v>26</v>
       </c>
       <c r="Q1298" s="7" t="s">
         <v>71</v>
@@ -67827,11 +68743,23 @@
       <c r="F1299" t="s">
         <v>36</v>
       </c>
+      <c r="G1299" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1299" s="16">
+        <v>17.841000000000001</v>
+      </c>
+      <c r="I1299" s="16">
+        <v>19.058</v>
+      </c>
       <c r="J1299">
         <v>1</v>
       </c>
       <c r="K1299" s="1">
         <v>2</v>
+      </c>
+      <c r="L1299" s="1">
+        <v>26</v>
       </c>
       <c r="Q1299" s="7" t="s">
         <v>72</v>
@@ -67856,11 +68784,23 @@
       <c r="F1300" t="s">
         <v>52</v>
       </c>
+      <c r="G1300" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="H1300" s="16">
+        <v>18.123000000000001</v>
+      </c>
+      <c r="I1300" s="16">
+        <v>19.391999999999999</v>
+      </c>
       <c r="J1300">
         <v>1</v>
       </c>
       <c r="K1300" s="1">
         <v>2</v>
+      </c>
+      <c r="L1300" s="1">
+        <v>26</v>
       </c>
       <c r="Q1300" s="7" t="s">
         <v>73</v>
@@ -67885,11 +68825,23 @@
       <c r="F1301" t="s">
         <v>40</v>
       </c>
+      <c r="G1301" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1301" s="16">
+        <v>18.323</v>
+      </c>
+      <c r="I1301" s="16">
+        <v>19.7</v>
+      </c>
       <c r="J1301">
         <v>1</v>
       </c>
       <c r="K1301" s="1">
         <v>2</v>
+      </c>
+      <c r="L1301" s="1">
+        <v>26</v>
       </c>
       <c r="Q1301" s="7" t="s">
         <v>74</v>
@@ -67914,11 +68866,23 @@
       <c r="F1302" t="s">
         <v>26</v>
       </c>
+      <c r="G1302" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1302" s="16">
+        <v>18.102</v>
+      </c>
+      <c r="I1302" s="16">
+        <v>19.463000000000001</v>
+      </c>
       <c r="J1302">
         <v>1</v>
       </c>
       <c r="K1302" s="1">
         <v>2</v>
+      </c>
+      <c r="L1302" s="1">
+        <v>26</v>
       </c>
       <c r="Q1302" s="7" t="s">
         <v>75</v>
@@ -67943,11 +68907,23 @@
       <c r="F1303" t="s">
         <v>24</v>
       </c>
+      <c r="G1303" s="1">
+        <v>28</v>
+      </c>
+      <c r="H1303" s="16">
+        <v>17.713999999999999</v>
+      </c>
+      <c r="I1303" s="16">
+        <v>18.983000000000001</v>
+      </c>
       <c r="J1303">
         <v>2</v>
       </c>
       <c r="K1303" s="1">
         <v>2</v>
+      </c>
+      <c r="L1303" s="1">
+        <v>30</v>
       </c>
       <c r="Q1303" s="7" t="s">
         <v>76</v>
@@ -67972,11 +68948,23 @@
       <c r="F1304" t="s">
         <v>62</v>
       </c>
+      <c r="G1304" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1304" s="16">
+        <v>17.984000000000002</v>
+      </c>
+      <c r="I1304" s="16">
+        <v>19.100999999999999</v>
+      </c>
       <c r="J1304">
         <v>2</v>
       </c>
       <c r="K1304" s="1">
         <v>2</v>
+      </c>
+      <c r="L1304" s="1">
+        <v>30</v>
       </c>
       <c r="Q1304" s="7" t="s">
         <v>77</v>
@@ -68001,11 +68989,23 @@
       <c r="F1305" t="s">
         <v>44</v>
       </c>
+      <c r="G1305" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1305" s="16">
+        <v>18.201000000000001</v>
+      </c>
+      <c r="I1305" s="16">
+        <v>19.332999999999998</v>
+      </c>
       <c r="J1305">
         <v>2</v>
       </c>
       <c r="K1305" s="1">
         <v>2</v>
+      </c>
+      <c r="L1305" s="1">
+        <v>30</v>
       </c>
       <c r="Q1305" s="7" t="s">
         <v>78</v>
@@ -68030,11 +69030,23 @@
       <c r="F1306" t="s">
         <v>42</v>
       </c>
+      <c r="G1306" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1306" s="16">
+        <v>18.315999999999999</v>
+      </c>
+      <c r="I1306" s="16">
+        <v>19.442</v>
+      </c>
       <c r="J1306">
         <v>2</v>
       </c>
       <c r="K1306" s="1">
         <v>2</v>
+      </c>
+      <c r="L1306" s="1">
+        <v>30</v>
       </c>
       <c r="Q1306" s="7" t="s">
         <v>79</v>
@@ -68059,11 +69071,23 @@
       <c r="F1307" t="s">
         <v>50</v>
       </c>
+      <c r="G1307" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1307" s="16">
+        <v>18.103000000000002</v>
+      </c>
+      <c r="I1307" s="16">
+        <v>19.228999999999999</v>
+      </c>
       <c r="J1307">
         <v>2</v>
       </c>
       <c r="K1307" s="1">
         <v>2</v>
+      </c>
+      <c r="L1307" s="1">
+        <v>30</v>
       </c>
       <c r="Q1307" s="7" t="s">
         <v>80</v>
@@ -68088,11 +69112,23 @@
       <c r="F1308" t="s">
         <v>32</v>
       </c>
+      <c r="G1308" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1308" s="16">
+        <v>18.178999999999998</v>
+      </c>
+      <c r="I1308" s="16">
+        <v>19.408999999999999</v>
+      </c>
       <c r="J1308">
         <v>2</v>
       </c>
       <c r="K1308" s="1">
         <v>2</v>
+      </c>
+      <c r="L1308" s="1">
+        <v>30</v>
       </c>
       <c r="Q1308" s="7" t="s">
         <v>81</v>
@@ -68117,11 +69153,23 @@
       <c r="F1309" t="s">
         <v>48</v>
       </c>
+      <c r="G1309" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1309" s="16">
+        <v>18.042000000000002</v>
+      </c>
+      <c r="I1309" s="16">
+        <v>19.355</v>
+      </c>
       <c r="J1309">
         <v>2</v>
       </c>
       <c r="K1309" s="1">
         <v>2</v>
+      </c>
+      <c r="L1309" s="1">
+        <v>30</v>
       </c>
       <c r="Q1309" s="7" t="s">
         <v>86</v>
@@ -68146,11 +69194,23 @@
       <c r="F1310" t="s">
         <v>60</v>
       </c>
+      <c r="G1310" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1310" s="16">
+        <v>18.077000000000002</v>
+      </c>
+      <c r="I1310" s="16">
+        <v>19.439</v>
+      </c>
       <c r="J1310">
         <v>2</v>
       </c>
       <c r="K1310" s="1">
         <v>2</v>
+      </c>
+      <c r="L1310" s="1">
+        <v>30</v>
       </c>
       <c r="Q1310" s="7" t="s">
         <v>85</v>
@@ -68175,11 +69235,23 @@
       <c r="F1311" t="s">
         <v>64</v>
       </c>
+      <c r="G1311" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1311" s="16">
+        <v>17.972999999999999</v>
+      </c>
+      <c r="I1311" s="16">
+        <v>19.155999999999999</v>
+      </c>
       <c r="J1311">
         <v>2</v>
       </c>
       <c r="K1311" s="1">
         <v>2</v>
+      </c>
+      <c r="L1311" s="1">
+        <v>30</v>
       </c>
       <c r="Q1311" s="7" t="s">
         <v>82</v>
@@ -68204,11 +69276,23 @@
       <c r="F1312" t="s">
         <v>34</v>
       </c>
+      <c r="G1312" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1312" s="16">
+        <v>18.192</v>
+      </c>
+      <c r="I1312" s="16">
+        <v>19.327999999999999</v>
+      </c>
       <c r="J1312">
         <v>2</v>
       </c>
       <c r="K1312" s="1">
         <v>2</v>
+      </c>
+      <c r="L1312" s="1">
+        <v>30</v>
       </c>
       <c r="Q1312" s="7" t="s">
         <v>83</v>
@@ -68233,11 +69317,23 @@
       <c r="F1313" t="s">
         <v>38</v>
       </c>
+      <c r="G1313" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1313" s="16">
+        <v>18.134</v>
+      </c>
+      <c r="I1313" s="16">
+        <v>19.478000000000002</v>
+      </c>
       <c r="J1313">
         <v>2</v>
       </c>
       <c r="K1313" s="1">
         <v>2</v>
+      </c>
+      <c r="L1313" s="1">
+        <v>30</v>
       </c>
       <c r="Q1313" s="7" t="s">
         <v>84</v>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="7680" windowWidth="25280" windowHeight="9540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5432" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5475" uniqueCount="174">
   <si>
     <t>date</t>
   </si>
@@ -534,6 +534,15 @@
   <si>
     <t>DoublePO2BL</t>
   </si>
+  <si>
+    <t>NegCO2BL</t>
+  </si>
+  <si>
+    <t>NegCO2BL, NoPCO2T2</t>
+  </si>
+  <si>
+    <t>MultiPCO2BL</t>
+  </si>
 </sst>
 </file>
 
@@ -629,11 +638,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="574">
+  <cellStyleXfs count="584">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1290,7 +1309,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="574">
+  <cellStyles count="584">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -1579,6 +1598,11 @@
     <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -1864,6 +1888,11 @@
     <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2195,9 +2224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1314" sqref="G1314"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1313" sqref="T1313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -67303,7 +67332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1265" spans="1:17" ht="16" customHeight="1">
+    <row r="1265" spans="1:28" ht="16" customHeight="1">
       <c r="A1265" s="3">
         <v>42753</v>
       </c>
@@ -67354,7 +67383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1266" spans="1:17" ht="16" customHeight="1">
+    <row r="1266" spans="1:28" ht="16" customHeight="1">
       <c r="A1266" s="3">
         <v>42753</v>
       </c>
@@ -67405,7 +67434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1267" spans="1:17" ht="16" customHeight="1">
+    <row r="1267" spans="1:28" ht="16" customHeight="1">
       <c r="A1267" s="3">
         <v>42753</v>
       </c>
@@ -67456,7 +67485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1268" spans="1:17" ht="16" customHeight="1">
+    <row r="1268" spans="1:28" ht="16" customHeight="1">
       <c r="A1268" s="3">
         <v>42753</v>
       </c>
@@ -67507,7 +67536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="1269" spans="1:17" ht="16" customHeight="1">
+    <row r="1269" spans="1:28" ht="16" customHeight="1">
       <c r="A1269" s="3">
         <v>42753</v>
       </c>
@@ -67558,7 +67587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1270" spans="1:17" ht="16" customHeight="1">
+    <row r="1270" spans="1:28" ht="16" customHeight="1">
       <c r="A1270" s="3">
         <v>42753</v>
       </c>
@@ -67609,7 +67638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1271" spans="1:17" s="14" customFormat="1" ht="16" customHeight="1">
+    <row r="1271" spans="1:28" s="14" customFormat="1" ht="16" customHeight="1">
       <c r="H1271" s="17"/>
       <c r="I1271" s="17"/>
       <c r="M1271" s="19"/>
@@ -67617,7 +67646,7 @@
       <c r="O1271" s="15"/>
       <c r="P1271" s="15"/>
     </row>
-    <row r="1272" spans="1:17" ht="16" customHeight="1">
+    <row r="1272" spans="1:28" ht="16" customHeight="1">
       <c r="A1272" s="3">
         <v>42760</v>
       </c>
@@ -67657,8 +67686,17 @@
       <c r="Q1272" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1273" spans="1:17" ht="16" customHeight="1">
+      <c r="R1272" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1272" s="28">
+        <v>1.0480000000000001E-3</v>
+      </c>
+      <c r="T1272" s="28">
+        <v>1.4909999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:28" ht="16" customHeight="1">
       <c r="A1273" s="3">
         <v>42760</v>
       </c>
@@ -67698,8 +67736,17 @@
       <c r="Q1273" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1274" spans="1:17" ht="16" customHeight="1">
+      <c r="R1273" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1273" s="28">
+        <v>1.139E-3</v>
+      </c>
+      <c r="T1273" s="28">
+        <v>1.524E-3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:28" ht="16" customHeight="1">
       <c r="A1274" s="3">
         <v>42760</v>
       </c>
@@ -67739,8 +67786,17 @@
       <c r="Q1274" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1275" spans="1:17" ht="16" customHeight="1">
+      <c r="R1274" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1274" s="28">
+        <v>1.395E-3</v>
+      </c>
+      <c r="T1274" s="28">
+        <v>1.42E-3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:28" ht="16" customHeight="1">
       <c r="A1275" s="3">
         <v>42760</v>
       </c>
@@ -67780,8 +67836,20 @@
       <c r="Q1275" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1276" spans="1:17" ht="16" customHeight="1">
+      <c r="R1275" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1275" s="28">
+        <v>1.3079999999999999E-3</v>
+      </c>
+      <c r="T1275" s="28">
+        <v>2.042E-3</v>
+      </c>
+      <c r="AB1275" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:28" ht="16" customHeight="1">
       <c r="A1276" s="3">
         <v>42760</v>
       </c>
@@ -67821,8 +67889,20 @@
       <c r="Q1276" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="1277" spans="1:17" ht="16" customHeight="1">
+      <c r="R1276" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1276" s="28">
+        <v>1.6449999999999999E-4</v>
+      </c>
+      <c r="T1276" s="28">
+        <v>1.1709999999999999E-3</v>
+      </c>
+      <c r="AB1276" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:28" ht="16" customHeight="1">
       <c r="A1277" s="3">
         <v>42760</v>
       </c>
@@ -67862,8 +67942,20 @@
       <c r="Q1277" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1278" spans="1:17" ht="16" customHeight="1">
+      <c r="R1277" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1277" s="28">
+        <v>1.4109999999999999E-3</v>
+      </c>
+      <c r="T1277" s="28">
+        <v>1.531E-3</v>
+      </c>
+      <c r="AB1277" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:28" ht="16" customHeight="1">
       <c r="A1278" s="3">
         <v>42760</v>
       </c>
@@ -67903,8 +67995,20 @@
       <c r="Q1278" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1279" spans="1:17" ht="16" customHeight="1">
+      <c r="R1278" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1278" s="28">
+        <v>1.6019999999999999E-3</v>
+      </c>
+      <c r="T1278" s="28">
+        <v>1.4270000000000001E-3</v>
+      </c>
+      <c r="AB1278" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:28" ht="16" customHeight="1">
       <c r="A1279" s="3">
         <v>42760</v>
       </c>
@@ -67944,8 +68048,20 @@
       <c r="Q1279" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1280" spans="1:17" ht="16" customHeight="1">
+      <c r="R1279" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1279" s="28">
+        <v>9.8079999999999999E-4</v>
+      </c>
+      <c r="T1279" s="28">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="AB1279" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:28" ht="16" customHeight="1">
       <c r="A1280" s="3">
         <v>42760</v>
       </c>
@@ -67985,8 +68101,20 @@
       <c r="Q1280" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1281" spans="1:17" ht="16" customHeight="1">
+      <c r="R1280" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1280" s="28">
+        <v>1.3090000000000001E-3</v>
+      </c>
+      <c r="T1280" s="28">
+        <v>7.2300000000000001E-4</v>
+      </c>
+      <c r="AB1280" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:28" ht="16" customHeight="1">
       <c r="A1281" s="3">
         <v>42760</v>
       </c>
@@ -68026,8 +68154,20 @@
       <c r="Q1281" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1282" spans="1:17" ht="16" customHeight="1">
+      <c r="R1281" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1281" s="28">
+        <v>1.101E-3</v>
+      </c>
+      <c r="T1281" s="28">
+        <v>2.836E-3</v>
+      </c>
+      <c r="AB1281" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:28" ht="16" customHeight="1">
       <c r="A1282" s="3">
         <v>42760</v>
       </c>
@@ -68067,8 +68207,17 @@
       <c r="Q1282" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="1283" spans="1:17" ht="16" customHeight="1">
+      <c r="R1282" s="28">
+        <v>2.6509999999999999E-4</v>
+      </c>
+      <c r="S1282" s="1">
+        <v>1.33218E-2</v>
+      </c>
+      <c r="T1282" s="28">
+        <v>2.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:28" ht="16" customHeight="1">
       <c r="A1283" s="3">
         <v>42760</v>
       </c>
@@ -68108,8 +68257,17 @@
       <c r="Q1283" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1284" spans="1:17" ht="16" customHeight="1">
+      <c r="R1283" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1283" s="28">
+        <v>6.2919999999999998E-3</v>
+      </c>
+      <c r="T1283" s="28">
+        <v>6.4260000000000003E-3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:28" ht="16" customHeight="1">
       <c r="A1284" s="3">
         <v>42760</v>
       </c>
@@ -68149,8 +68307,17 @@
       <c r="Q1284" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1285" spans="1:17" ht="16" customHeight="1">
+      <c r="R1284" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1284" s="28">
+        <v>2.9819999999999998E-3</v>
+      </c>
+      <c r="T1284" s="28">
+        <v>3.6180000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:28" ht="16" customHeight="1">
       <c r="A1285" s="3">
         <v>42760</v>
       </c>
@@ -68190,8 +68357,17 @@
       <c r="Q1285" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1286" spans="1:17" ht="16" customHeight="1">
+      <c r="R1285" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1285" s="28">
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="T1285" s="28">
+        <v>5.3489999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:28" ht="16" customHeight="1">
       <c r="A1286" s="3">
         <v>42760</v>
       </c>
@@ -68231,8 +68407,17 @@
       <c r="Q1286" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1287" spans="1:17" ht="16" customHeight="1">
+      <c r="R1286" s="28">
+        <v>6.7549999999999999E-4</v>
+      </c>
+      <c r="S1286" s="1">
+        <v>1.3783399999999999E-2</v>
+      </c>
+      <c r="T1286" s="1">
+        <v>1.2678699999999999E-2</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:28" ht="16" customHeight="1">
       <c r="A1287" s="3">
         <v>42760</v>
       </c>
@@ -68272,8 +68457,17 @@
       <c r="Q1287" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="1288" spans="1:17" ht="16" customHeight="1">
+      <c r="R1287" s="28">
+        <v>3.2539999999999999E-4</v>
+      </c>
+      <c r="S1287" s="28">
+        <v>4.3480000000000003E-3</v>
+      </c>
+      <c r="T1287" s="28">
+        <v>3.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:28" ht="16" customHeight="1">
       <c r="A1288" s="3">
         <v>42760</v>
       </c>
@@ -68313,8 +68507,17 @@
       <c r="Q1288" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1289" spans="1:17" ht="16" customHeight="1">
+      <c r="R1288" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1288" s="28">
+        <v>4.8219999999999999E-3</v>
+      </c>
+      <c r="T1288" s="28">
+        <v>3.2759999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:28" ht="16" customHeight="1">
       <c r="A1289" s="3">
         <v>42760</v>
       </c>
@@ -68354,8 +68557,17 @@
       <c r="Q1289" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="1290" spans="1:17" ht="16" customHeight="1">
+      <c r="R1289" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1289" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1289" s="28">
+        <v>4.9849999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:28" ht="16" customHeight="1">
       <c r="A1290" s="3">
         <v>42760</v>
       </c>
@@ -68395,8 +68607,17 @@
       <c r="Q1290" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="1291" spans="1:17" ht="16" customHeight="1">
+      <c r="R1290" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1290" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1290" s="28">
+        <v>6.3280000000000003E-3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:28" ht="16" customHeight="1">
       <c r="A1291" s="3">
         <v>42760</v>
       </c>
@@ -68436,8 +68657,17 @@
       <c r="Q1291" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="1292" spans="1:17" ht="16" customHeight="1">
+      <c r="R1291" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1291" s="28">
+        <v>4.6410000000000002E-3</v>
+      </c>
+      <c r="T1291" s="28">
+        <v>4.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:28" ht="16" customHeight="1">
       <c r="A1292" s="3">
         <v>42760</v>
       </c>
@@ -68477,8 +68707,20 @@
       <c r="Q1292" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1293" spans="1:17" ht="16" customHeight="1">
+      <c r="R1292" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1292" s="28">
+        <v>5.365E-3</v>
+      </c>
+      <c r="T1292" s="28">
+        <v>3.8289999999999999E-3</v>
+      </c>
+      <c r="AB1292" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:28" ht="16" customHeight="1">
       <c r="A1293" s="3">
         <v>42760</v>
       </c>
@@ -68518,8 +68760,17 @@
       <c r="Q1293" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1294" spans="1:17" ht="16" customHeight="1">
+      <c r="R1293" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1293" s="28">
+        <v>1.3879999999999999E-3</v>
+      </c>
+      <c r="T1293" s="28">
+        <v>2.0730000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:28" ht="16" customHeight="1">
       <c r="A1294" s="3">
         <v>42760</v>
       </c>
@@ -68559,8 +68810,17 @@
       <c r="Q1294" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1295" spans="1:17" ht="16" customHeight="1">
+      <c r="R1294" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1294" s="28">
+        <v>4.5629999999999998E-4</v>
+      </c>
+      <c r="T1294" s="28">
+        <v>1.2459999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:28" ht="16" customHeight="1">
       <c r="A1295" s="3">
         <v>42760</v>
       </c>
@@ -68600,8 +68860,17 @@
       <c r="Q1295" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1296" spans="1:17" ht="16" customHeight="1">
+      <c r="R1295" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1295" s="28">
+        <v>2.055E-3</v>
+      </c>
+      <c r="T1295" s="28">
+        <v>1.9170000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:28" ht="16" customHeight="1">
       <c r="A1296" s="3">
         <v>42760</v>
       </c>
@@ -68641,8 +68910,17 @@
       <c r="Q1296" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1297" spans="1:17" ht="16" customHeight="1">
+      <c r="R1296" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1296" s="28">
+        <v>2.1879999999999998E-3</v>
+      </c>
+      <c r="T1296" s="28">
+        <v>2.5430000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:28" ht="16" customHeight="1">
       <c r="A1297" s="3">
         <v>42760</v>
       </c>
@@ -68682,8 +68960,17 @@
       <c r="Q1297" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="1298" spans="1:17" ht="16" customHeight="1">
+      <c r="R1297" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1297" s="28">
+        <v>2.4949999999999998E-3</v>
+      </c>
+      <c r="T1297" s="28">
+        <v>9.2170000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:28" ht="16" customHeight="1">
       <c r="A1298" s="3">
         <v>42760</v>
       </c>
@@ -68723,8 +69010,17 @@
       <c r="Q1298" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1299" spans="1:17" ht="16" customHeight="1">
+      <c r="R1298" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1298" s="28">
+        <v>5.2339999999999999E-3</v>
+      </c>
+      <c r="T1298" s="28">
+        <v>5.2090000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:28" ht="16" customHeight="1">
       <c r="A1299" s="3">
         <v>42760</v>
       </c>
@@ -68764,8 +69060,17 @@
       <c r="Q1299" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1300" spans="1:17" ht="16" customHeight="1">
+      <c r="R1299" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1299" s="28">
+        <v>2.184E-4</v>
+      </c>
+      <c r="T1299" s="28">
+        <v>1.931E-3</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:28" ht="16" customHeight="1">
       <c r="A1300" s="3">
         <v>42760</v>
       </c>
@@ -68805,8 +69110,17 @@
       <c r="Q1300" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1301" spans="1:17" ht="16" customHeight="1">
+      <c r="R1300" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1300" s="28">
+        <v>2.055E-3</v>
+      </c>
+      <c r="T1300" s="28">
+        <v>2.4160000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:28" ht="16" customHeight="1">
       <c r="A1301" s="3">
         <v>42760</v>
       </c>
@@ -68846,8 +69160,17 @@
       <c r="Q1301" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1302" spans="1:17" ht="16" customHeight="1">
+      <c r="R1301" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1301" s="28">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="T1301" s="28">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:28" ht="16" customHeight="1">
       <c r="A1302" s="3">
         <v>42760</v>
       </c>
@@ -68887,8 +69210,17 @@
       <c r="Q1302" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1303" spans="1:17" ht="16" customHeight="1">
+      <c r="R1302" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1302" s="1">
+        <v>8.3671000000000006E-3</v>
+      </c>
+      <c r="T1302" s="28">
+        <v>7.4409999999999997E-3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:28" ht="16" customHeight="1">
       <c r="A1303" s="3">
         <v>42760</v>
       </c>
@@ -68928,8 +69260,17 @@
       <c r="Q1303" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="1304" spans="1:17" ht="16" customHeight="1">
+      <c r="R1303" s="28">
+        <v>3.7839999999999998E-4</v>
+      </c>
+      <c r="S1303" s="28">
+        <v>7.7070000000000003E-3</v>
+      </c>
+      <c r="T1303" s="1">
+        <v>8.0794999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:28" ht="16" customHeight="1">
       <c r="A1304" s="3">
         <v>42760</v>
       </c>
@@ -68969,8 +69310,17 @@
       <c r="Q1304" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1305" spans="1:17" ht="16" customHeight="1">
+      <c r="R1304" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1304" s="28">
+        <v>6.2620000000000002E-3</v>
+      </c>
+      <c r="T1304" s="28">
+        <v>6.2839999999999997E-3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:28" ht="16" customHeight="1">
       <c r="A1305" s="3">
         <v>42760</v>
       </c>
@@ -69010,8 +69360,17 @@
       <c r="Q1305" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1306" spans="1:17" ht="16" customHeight="1">
+      <c r="R1305" s="28">
+        <v>1.8220000000000001E-4</v>
+      </c>
+      <c r="S1305" s="28">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="T1305" s="28">
+        <v>4.431E-3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:28" ht="16" customHeight="1">
       <c r="A1306" s="3">
         <v>42760</v>
       </c>
@@ -69051,8 +69410,17 @@
       <c r="Q1306" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1307" spans="1:17" ht="16" customHeight="1">
+      <c r="R1306" s="28">
+        <v>5.1170000000000002E-4</v>
+      </c>
+      <c r="S1306" s="28">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="T1306" s="28">
+        <v>5.9659999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:28" ht="16" customHeight="1">
       <c r="A1307" s="3">
         <v>42760</v>
       </c>
@@ -69092,8 +69460,17 @@
       <c r="Q1307" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1308" spans="1:17" ht="16" customHeight="1">
+      <c r="R1307" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1307" s="1">
+        <v>1.39116E-2</v>
+      </c>
+      <c r="T1307" s="28">
+        <v>4.3350000000000003E-3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:28" ht="16" customHeight="1">
       <c r="A1308" s="3">
         <v>42760</v>
       </c>
@@ -69133,8 +69510,20 @@
       <c r="Q1308" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="1309" spans="1:17" ht="16" customHeight="1">
+      <c r="R1308" s="28">
+        <v>1.1349999999999999E-3</v>
+      </c>
+      <c r="S1308" s="28">
+        <v>6.221E-4</v>
+      </c>
+      <c r="T1308" s="28">
+        <v>4.9820000000000003E-3</v>
+      </c>
+      <c r="AB1308" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:28" ht="16" customHeight="1">
       <c r="A1309" s="3">
         <v>42760</v>
       </c>
@@ -69174,8 +69563,17 @@
       <c r="Q1309" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1310" spans="1:17" ht="16" customHeight="1">
+      <c r="R1309" s="28">
+        <v>2.397E-4</v>
+      </c>
+      <c r="S1309" s="1">
+        <v>8.0672000000000001E-3</v>
+      </c>
+      <c r="T1309" s="1">
+        <v>8.6555999999999994E-3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:28" ht="16" customHeight="1">
       <c r="A1310" s="3">
         <v>42760</v>
       </c>
@@ -69215,8 +69613,17 @@
       <c r="Q1310" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="1311" spans="1:17" ht="16" customHeight="1">
+      <c r="R1310" s="28">
+        <v>6.0780000000000003E-4</v>
+      </c>
+      <c r="S1310" s="28">
+        <v>5.2230000000000002E-3</v>
+      </c>
+      <c r="T1310" s="28">
+        <v>5.7219999999999997E-3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:28" ht="16" customHeight="1">
       <c r="A1311" s="3">
         <v>42760</v>
       </c>
@@ -69256,8 +69663,17 @@
       <c r="Q1311" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="1312" spans="1:17" ht="16" customHeight="1">
+      <c r="R1311" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1311" s="28">
+        <v>6.0419999999999996E-3</v>
+      </c>
+      <c r="T1311" s="28">
+        <v>4.731E-3</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:28" ht="16" customHeight="1">
       <c r="A1312" s="3">
         <v>42760</v>
       </c>
@@ -69297,8 +69713,17 @@
       <c r="Q1312" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="1313" spans="1:17" ht="16" customHeight="1">
+      <c r="R1312" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1312" s="28">
+        <v>4.47E-3</v>
+      </c>
+      <c r="T1312" s="28">
+        <v>4.9069999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:20" ht="16" customHeight="1">
       <c r="A1313" s="3">
         <v>42760</v>
       </c>
@@ -69338,8 +69763,17 @@
       <c r="Q1313" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1314" spans="1:17" ht="16" customHeight="1">
+      <c r="R1313" s="28">
+        <v>3.3940000000000001E-4</v>
+      </c>
+      <c r="S1313" s="28">
+        <v>3.885E-3</v>
+      </c>
+      <c r="T1313" s="28">
+        <v>4.2110000000000003E-3</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:20" ht="16" customHeight="1">
       <c r="A1314" s="3">
         <v>42761</v>
       </c>
@@ -69368,7 +69802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1315" spans="1:17" ht="16" customHeight="1">
+    <row r="1315" spans="1:20" ht="16" customHeight="1">
       <c r="A1315" s="3">
         <v>42761</v>
       </c>
@@ -69397,7 +69831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1316" spans="1:17" ht="16" customHeight="1">
+    <row r="1316" spans="1:20" ht="16" customHeight="1">
       <c r="A1316" s="3">
         <v>42761</v>
       </c>
@@ -69426,7 +69860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1317" spans="1:17" ht="16" customHeight="1">
+    <row r="1317" spans="1:20" ht="16" customHeight="1">
       <c r="A1317" s="3">
         <v>42761</v>
       </c>
@@ -69455,7 +69889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1318" spans="1:17" ht="16" customHeight="1">
+    <row r="1318" spans="1:20" ht="16" customHeight="1">
       <c r="A1318" s="3">
         <v>42761</v>
       </c>
@@ -69484,7 +69918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1319" spans="1:17" ht="16" customHeight="1">
+    <row r="1319" spans="1:20" ht="16" customHeight="1">
       <c r="A1319" s="3">
         <v>42761</v>
       </c>
@@ -69513,7 +69947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1320" spans="1:17" ht="16" customHeight="1">
+    <row r="1320" spans="1:20" ht="16" customHeight="1">
       <c r="A1320" s="3">
         <v>42761</v>
       </c>
@@ -69542,7 +69976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1321" spans="1:17" ht="16" customHeight="1">
+    <row r="1321" spans="1:20" ht="16" customHeight="1">
       <c r="A1321" s="3">
         <v>42761</v>
       </c>
@@ -69571,7 +70005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1322" spans="1:17" ht="16" customHeight="1">
+    <row r="1322" spans="1:20" ht="16" customHeight="1">
       <c r="A1322" s="3">
         <v>42761</v>
       </c>
@@ -69600,7 +70034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1323" spans="1:17" ht="16" customHeight="1">
+    <row r="1323" spans="1:20" ht="16" customHeight="1">
       <c r="A1323" s="3">
         <v>42761</v>
       </c>
@@ -69629,7 +70063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="1324" spans="1:17" ht="16" customHeight="1">
+    <row r="1324" spans="1:20" ht="16" customHeight="1">
       <c r="A1324" s="3">
         <v>42761</v>
       </c>
@@ -69658,7 +70092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1325" spans="1:17" ht="16" customHeight="1">
+    <row r="1325" spans="1:20" ht="16" customHeight="1">
       <c r="A1325" s="3">
         <v>42761</v>
       </c>
@@ -69687,7 +70121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1326" spans="1:17" ht="16" customHeight="1">
+    <row r="1326" spans="1:20" ht="16" customHeight="1">
       <c r="A1326" s="3">
         <v>42761</v>
       </c>
@@ -69716,7 +70150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1327" spans="1:17" ht="16" customHeight="1">
+    <row r="1327" spans="1:20" ht="16" customHeight="1">
       <c r="A1327" s="3">
         <v>42761</v>
       </c>
@@ -69745,7 +70179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1328" spans="1:17" ht="16" customHeight="1">
+    <row r="1328" spans="1:20" ht="16" customHeight="1">
       <c r="A1328" s="3">
         <v>42761</v>
       </c>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7680" windowWidth="25280" windowHeight="9540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -638,11 +638,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="584">
+  <cellStyleXfs count="606">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1309,7 +1331,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="584">
+  <cellStyles count="606">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -1603,6 +1625,17 @@
     <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -1893,6 +1926,17 @@
     <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2224,9 +2268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1313" sqref="T1313"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1345" sqref="N1345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -64673,7 +64717,7 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="O1212" s="2">
-        <f t="shared" ref="O1212:O1270" si="21">N1212*1440-M1212*1440</f>
+        <f t="shared" ref="O1212:O1272" si="21">N1212*1440-M1212*1440</f>
         <v>90</v>
       </c>
       <c r="Q1212" s="7" t="s">
@@ -67683,6 +67727,16 @@
       <c r="L1272" s="1">
         <v>24</v>
       </c>
+      <c r="M1272" s="18">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="N1272" s="18">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O1272" s="2">
+        <f>N1272*1440-M1272*1440</f>
+        <v>90</v>
+      </c>
       <c r="Q1272" s="7" t="s">
         <v>66</v>
       </c>
@@ -67733,6 +67787,16 @@
       <c r="L1273" s="1">
         <v>24</v>
       </c>
+      <c r="M1273" s="18">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="N1273" s="18">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="O1273" s="2">
+        <f t="shared" ref="O1273:O1354" si="22">N1273*1440-M1273*1440</f>
+        <v>89.999999999999943</v>
+      </c>
       <c r="Q1273" s="7" t="s">
         <v>67</v>
       </c>
@@ -67783,6 +67847,16 @@
       <c r="L1274" s="1">
         <v>24</v>
       </c>
+      <c r="M1274" s="18">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="N1274" s="18">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="O1274" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999943</v>
+      </c>
       <c r="Q1274" s="7" t="s">
         <v>68</v>
       </c>
@@ -67833,6 +67907,16 @@
       <c r="L1275" s="1">
         <v>24</v>
       </c>
+      <c r="M1275" s="18">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="N1275" s="18">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="O1275" s="2">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
       <c r="Q1275" s="7" t="s">
         <v>69</v>
       </c>
@@ -67886,6 +67970,16 @@
       <c r="L1276" s="1">
         <v>24</v>
       </c>
+      <c r="M1276" s="18">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="N1276" s="18">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="O1276" s="2">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
       <c r="Q1276" s="7" t="s">
         <v>70</v>
       </c>
@@ -67939,6 +68033,16 @@
       <c r="L1277" s="1">
         <v>24</v>
       </c>
+      <c r="M1277" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="N1277" s="18">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O1277" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1277" s="7" t="s">
         <v>71</v>
       </c>
@@ -67992,6 +68096,16 @@
       <c r="L1278" s="1">
         <v>24</v>
       </c>
+      <c r="M1278" s="18">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="N1278" s="18">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O1278" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1278" s="7" t="s">
         <v>72</v>
       </c>
@@ -68045,6 +68159,16 @@
       <c r="L1279" s="1">
         <v>24</v>
       </c>
+      <c r="M1279" s="18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="N1279" s="18">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O1279" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1279" s="7" t="s">
         <v>73</v>
       </c>
@@ -68098,6 +68222,16 @@
       <c r="L1280" s="1">
         <v>24</v>
       </c>
+      <c r="M1280" s="18">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="N1280" s="18">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="O1280" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1280" s="7" t="s">
         <v>74</v>
       </c>
@@ -68151,6 +68285,16 @@
       <c r="L1281" s="1">
         <v>24</v>
       </c>
+      <c r="M1281" s="18">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="N1281" s="18">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O1281" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1281" s="7" t="s">
         <v>75</v>
       </c>
@@ -68204,6 +68348,16 @@
       <c r="L1282" s="1">
         <v>32</v>
       </c>
+      <c r="M1282" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="N1282" s="18">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="O1282" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1282" s="7" t="s">
         <v>76</v>
       </c>
@@ -68254,6 +68408,16 @@
       <c r="L1283" s="1">
         <v>32</v>
       </c>
+      <c r="M1283" s="18">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="N1283" s="18">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="O1283" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1283" s="7" t="s">
         <v>77</v>
       </c>
@@ -68304,6 +68468,16 @@
       <c r="L1284" s="1">
         <v>32</v>
       </c>
+      <c r="M1284" s="18">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="N1284" s="18">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="O1284" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1284" s="7" t="s">
         <v>78</v>
       </c>
@@ -68354,6 +68528,16 @@
       <c r="L1285" s="1">
         <v>32</v>
       </c>
+      <c r="M1285" s="18">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="N1285" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O1285" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1285" s="7" t="s">
         <v>79</v>
       </c>
@@ -68404,6 +68588,16 @@
       <c r="L1286" s="1">
         <v>32</v>
       </c>
+      <c r="M1286" s="18">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="N1286" s="18">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="O1286" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1286" s="7" t="s">
         <v>80</v>
       </c>
@@ -68454,6 +68648,16 @@
       <c r="L1287" s="1">
         <v>32</v>
       </c>
+      <c r="M1287" s="18">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="N1287" s="18">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O1287" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1287" s="7" t="s">
         <v>81</v>
       </c>
@@ -68504,6 +68708,16 @@
       <c r="L1288" s="1">
         <v>32</v>
       </c>
+      <c r="M1288" s="18">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="N1288" s="18">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="O1288" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1288" s="7" t="s">
         <v>86</v>
       </c>
@@ -68554,6 +68768,16 @@
       <c r="L1289" s="1">
         <v>32</v>
       </c>
+      <c r="M1289" s="18">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="N1289" s="18">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="O1289" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1289" s="7" t="s">
         <v>85</v>
       </c>
@@ -68604,6 +68828,16 @@
       <c r="L1290" s="1">
         <v>32</v>
       </c>
+      <c r="M1290" s="18">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="N1290" s="18">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="O1290" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1290" s="7" t="s">
         <v>82</v>
       </c>
@@ -68654,6 +68888,16 @@
       <c r="L1291" s="1">
         <v>32</v>
       </c>
+      <c r="M1291" s="18">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="N1291" s="18">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="O1291" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1291" s="7" t="s">
         <v>83</v>
       </c>
@@ -68704,6 +68948,16 @@
       <c r="L1292" s="1">
         <v>32</v>
       </c>
+      <c r="M1292" s="18">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="N1292" s="18">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="O1292" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1292" s="7" t="s">
         <v>84</v>
       </c>
@@ -68757,6 +69011,16 @@
       <c r="L1293" s="1">
         <v>26</v>
       </c>
+      <c r="M1293" s="18">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="N1293" s="18">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="O1293" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1293" s="7" t="s">
         <v>66</v>
       </c>
@@ -68807,6 +69071,16 @@
       <c r="L1294" s="1">
         <v>26</v>
       </c>
+      <c r="M1294" s="18">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="N1294" s="18">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="O1294" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1294" s="7" t="s">
         <v>67</v>
       </c>
@@ -68857,6 +69131,16 @@
       <c r="L1295" s="1">
         <v>26</v>
       </c>
+      <c r="M1295" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="N1295" s="18">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="O1295" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1295" s="7" t="s">
         <v>68</v>
       </c>
@@ -68907,6 +69191,16 @@
       <c r="L1296" s="1">
         <v>26</v>
       </c>
+      <c r="M1296" s="18">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="N1296" s="18">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="O1296" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1296" s="7" t="s">
         <v>69</v>
       </c>
@@ -68957,6 +69251,16 @@
       <c r="L1297" s="1">
         <v>26</v>
       </c>
+      <c r="M1297" s="18">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="N1297" s="18">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="O1297" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999886</v>
+      </c>
       <c r="Q1297" s="7" t="s">
         <v>70</v>
       </c>
@@ -69007,6 +69311,16 @@
       <c r="L1298" s="1">
         <v>26</v>
       </c>
+      <c r="M1298" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="N1298" s="18">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O1298" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999886</v>
+      </c>
       <c r="Q1298" s="7" t="s">
         <v>71</v>
       </c>
@@ -69057,6 +69371,16 @@
       <c r="L1299" s="1">
         <v>26</v>
       </c>
+      <c r="M1299" s="18">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="N1299" s="18">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="O1299" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1299" s="7" t="s">
         <v>72</v>
       </c>
@@ -69107,6 +69431,16 @@
       <c r="L1300" s="1">
         <v>26</v>
       </c>
+      <c r="M1300" s="18">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="N1300" s="18">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="O1300" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1300" s="7" t="s">
         <v>73</v>
       </c>
@@ -69157,6 +69491,16 @@
       <c r="L1301" s="1">
         <v>26</v>
       </c>
+      <c r="M1301" s="18">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="N1301" s="18">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="O1301" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1301" s="7" t="s">
         <v>74</v>
       </c>
@@ -69207,6 +69551,16 @@
       <c r="L1302" s="1">
         <v>26</v>
       </c>
+      <c r="M1302" s="18">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N1302" s="18">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="O1302" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q1302" s="7" t="s">
         <v>75</v>
       </c>
@@ -69257,6 +69611,16 @@
       <c r="L1303" s="1">
         <v>30</v>
       </c>
+      <c r="M1303" s="18">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N1303" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O1303" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q1303" s="7" t="s">
         <v>76</v>
       </c>
@@ -69307,6 +69671,16 @@
       <c r="L1304" s="1">
         <v>30</v>
       </c>
+      <c r="M1304" s="18">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="N1304" s="18">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="O1304" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999886</v>
+      </c>
       <c r="Q1304" s="7" t="s">
         <v>77</v>
       </c>
@@ -69357,6 +69731,16 @@
       <c r="L1305" s="1">
         <v>30</v>
       </c>
+      <c r="M1305" s="18">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="N1305" s="18">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="O1305" s="2">
+        <f t="shared" si="22"/>
+        <v>91.000000000000114</v>
+      </c>
       <c r="Q1305" s="7" t="s">
         <v>78</v>
       </c>
@@ -69407,6 +69791,16 @@
       <c r="L1306" s="1">
         <v>30</v>
       </c>
+      <c r="M1306" s="18">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="N1306" s="18">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="O1306" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999886</v>
+      </c>
       <c r="Q1306" s="7" t="s">
         <v>79</v>
       </c>
@@ -69457,6 +69851,16 @@
       <c r="L1307" s="1">
         <v>30</v>
       </c>
+      <c r="M1307" s="18">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="N1307" s="18">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="O1307" s="2">
+        <f t="shared" si="22"/>
+        <v>90.000000000000114</v>
+      </c>
       <c r="Q1307" s="7" t="s">
         <v>80</v>
       </c>
@@ -69507,6 +69911,16 @@
       <c r="L1308" s="1">
         <v>30</v>
       </c>
+      <c r="M1308" s="18">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="N1308" s="18">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="O1308" s="2">
+        <f t="shared" si="22"/>
+        <v>90.000000000000114</v>
+      </c>
       <c r="Q1308" s="7" t="s">
         <v>81</v>
       </c>
@@ -69560,6 +69974,16 @@
       <c r="L1309" s="1">
         <v>30</v>
       </c>
+      <c r="M1309" s="18">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="N1309" s="18">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="O1309" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999886</v>
+      </c>
       <c r="Q1309" s="7" t="s">
         <v>86</v>
       </c>
@@ -69610,6 +70034,16 @@
       <c r="L1310" s="1">
         <v>30</v>
       </c>
+      <c r="M1310" s="18">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="N1310" s="18">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="O1310" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999886</v>
+      </c>
       <c r="Q1310" s="7" t="s">
         <v>85</v>
       </c>
@@ -69660,6 +70094,16 @@
       <c r="L1311" s="1">
         <v>30</v>
       </c>
+      <c r="M1311" s="18">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="N1311" s="18">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="O1311" s="2">
+        <f t="shared" si="22"/>
+        <v>90.000000000000114</v>
+      </c>
       <c r="Q1311" s="7" t="s">
         <v>82</v>
       </c>
@@ -69710,6 +70154,16 @@
       <c r="L1312" s="1">
         <v>30</v>
       </c>
+      <c r="M1312" s="18">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="N1312" s="18">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="O1312" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999886</v>
+      </c>
       <c r="Q1312" s="7" t="s">
         <v>83</v>
       </c>
@@ -69760,6 +70214,16 @@
       <c r="L1313" s="1">
         <v>30</v>
       </c>
+      <c r="M1313" s="18">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="N1313" s="18">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="O1313" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999886</v>
+      </c>
       <c r="Q1313" s="7" t="s">
         <v>84</v>
       </c>
@@ -69792,11 +70256,33 @@
       <c r="F1314" t="s">
         <v>56</v>
       </c>
+      <c r="G1314" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1314" s="16">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="I1314" s="16">
+        <v>19.512</v>
+      </c>
       <c r="J1314">
         <v>1</v>
       </c>
       <c r="K1314" s="1">
         <v>1</v>
+      </c>
+      <c r="L1314" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1314" s="18">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="N1314" s="18">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="O1314" s="2">
+        <f t="shared" si="22"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1314" s="7" t="s">
         <v>66</v>
@@ -69821,11 +70307,33 @@
       <c r="F1315" t="s">
         <v>58</v>
       </c>
+      <c r="G1315" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1315" s="16">
+        <v>17.863</v>
+      </c>
+      <c r="I1315" s="16">
+        <v>19.22</v>
+      </c>
       <c r="J1315">
         <v>1</v>
       </c>
       <c r="K1315" s="1">
         <v>1</v>
+      </c>
+      <c r="L1315" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1315" s="18">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="N1315" s="18">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="O1315" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1315" s="7" t="s">
         <v>67</v>
@@ -69850,11 +70358,33 @@
       <c r="F1316" t="s">
         <v>28</v>
       </c>
+      <c r="G1316" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1316" s="16">
+        <v>17.734000000000002</v>
+      </c>
+      <c r="I1316" s="16">
+        <v>18.846</v>
+      </c>
       <c r="J1316">
         <v>1</v>
       </c>
       <c r="K1316" s="1">
         <v>1</v>
+      </c>
+      <c r="L1316" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1316" s="18">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="N1316" s="18">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="O1316" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1316" s="7" t="s">
         <v>68</v>
@@ -69879,11 +70409,33 @@
       <c r="F1317" t="s">
         <v>30</v>
       </c>
+      <c r="G1317" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1317" s="16">
+        <v>17.702999999999999</v>
+      </c>
+      <c r="I1317" s="16">
+        <v>18.997</v>
+      </c>
       <c r="J1317">
         <v>1</v>
       </c>
       <c r="K1317" s="1">
         <v>1</v>
+      </c>
+      <c r="L1317" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1317" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="N1317" s="18">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="O1317" s="2">
+        <f t="shared" si="22"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1317" s="7" t="s">
         <v>69</v>
@@ -69908,11 +70460,33 @@
       <c r="F1318" t="s">
         <v>46</v>
       </c>
+      <c r="G1318" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1318" s="16">
+        <v>18.146000000000001</v>
+      </c>
+      <c r="I1318" s="16">
+        <v>19.376000000000001</v>
+      </c>
       <c r="J1318">
         <v>1</v>
       </c>
       <c r="K1318" s="1">
         <v>1</v>
+      </c>
+      <c r="L1318" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1318" s="18">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="N1318" s="18">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O1318" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1318" s="7" t="s">
         <v>70</v>
@@ -69937,11 +70511,33 @@
       <c r="F1319" t="s">
         <v>54</v>
       </c>
+      <c r="G1319" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1319" s="16">
+        <v>18.34</v>
+      </c>
+      <c r="I1319" s="16">
+        <v>19.562000000000001</v>
+      </c>
       <c r="J1319">
         <v>1</v>
       </c>
       <c r="K1319" s="1">
         <v>1</v>
+      </c>
+      <c r="L1319" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1319" s="18">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="N1319" s="18">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O1319" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1319" s="7" t="s">
         <v>71</v>
@@ -69966,11 +70562,33 @@
       <c r="F1320" t="s">
         <v>36</v>
       </c>
+      <c r="G1320" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1320" s="16">
+        <v>17.957999999999998</v>
+      </c>
+      <c r="I1320" s="16">
+        <v>19.158999999999999</v>
+      </c>
       <c r="J1320">
         <v>1</v>
       </c>
       <c r="K1320" s="1">
         <v>1</v>
+      </c>
+      <c r="L1320" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1320" s="18">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="N1320" s="18">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O1320" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1320" s="7" t="s">
         <v>72</v>
@@ -69995,11 +70613,33 @@
       <c r="F1321" t="s">
         <v>52</v>
       </c>
+      <c r="G1321" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="H1321" s="16">
+        <v>18.151</v>
+      </c>
+      <c r="I1321" s="16">
+        <v>19.38</v>
+      </c>
       <c r="J1321">
         <v>1</v>
       </c>
       <c r="K1321" s="1">
         <v>1</v>
+      </c>
+      <c r="L1321" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1321" s="18">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="N1321" s="18">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="O1321" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1321" s="7" t="s">
         <v>73</v>
@@ -70024,11 +70664,33 @@
       <c r="F1322" t="s">
         <v>40</v>
       </c>
+      <c r="G1322" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1322" s="16">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="I1322" s="16">
+        <v>19.734000000000002</v>
+      </c>
       <c r="J1322">
         <v>1</v>
       </c>
       <c r="K1322" s="1">
         <v>1</v>
+      </c>
+      <c r="L1322" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1322" s="18">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="N1322" s="18">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="O1322" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1322" s="7" t="s">
         <v>74</v>
@@ -70053,11 +70715,33 @@
       <c r="F1323" t="s">
         <v>26</v>
       </c>
+      <c r="G1323" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1323" s="16">
+        <v>18.157</v>
+      </c>
+      <c r="I1323" s="16">
+        <v>19.510000000000002</v>
+      </c>
       <c r="J1323">
         <v>1</v>
       </c>
       <c r="K1323" s="1">
         <v>1</v>
+      </c>
+      <c r="L1323" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1323" s="18">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="N1323" s="18">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="O1323" s="2">
+        <f t="shared" si="22"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1323" s="7" t="s">
         <v>75</v>
@@ -70082,11 +70766,33 @@
       <c r="F1324" t="s">
         <v>24</v>
       </c>
+      <c r="G1324" s="1">
+        <v>27</v>
+      </c>
+      <c r="H1324" s="16">
+        <v>17.713000000000001</v>
+      </c>
+      <c r="I1324" s="16">
+        <v>18.977</v>
+      </c>
       <c r="J1324">
         <v>2</v>
       </c>
       <c r="K1324" s="1">
         <v>1</v>
+      </c>
+      <c r="L1324" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1324" s="18">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="N1324" s="18">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="O1324" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1324" s="7" t="s">
         <v>76</v>
@@ -70111,11 +70817,33 @@
       <c r="F1325" t="s">
         <v>62</v>
       </c>
+      <c r="G1325" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1325" s="16">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="I1325" s="16">
+        <v>19.151</v>
+      </c>
       <c r="J1325">
         <v>2</v>
       </c>
       <c r="K1325" s="1">
         <v>1</v>
+      </c>
+      <c r="L1325" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1325" s="18">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="N1325" s="18">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="O1325" s="2">
+        <f t="shared" si="22"/>
+        <v>89</v>
       </c>
       <c r="Q1325" s="7" t="s">
         <v>77</v>
@@ -70140,11 +70868,33 @@
       <c r="F1326" t="s">
         <v>44</v>
       </c>
+      <c r="G1326" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1326" s="16">
+        <v>18.225000000000001</v>
+      </c>
+      <c r="I1326" s="16">
+        <v>19.344000000000001</v>
+      </c>
       <c r="J1326">
         <v>2</v>
       </c>
       <c r="K1326" s="1">
         <v>1</v>
+      </c>
+      <c r="L1326" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1326" s="18">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="N1326" s="18">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="O1326" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1326" s="7" t="s">
         <v>78</v>
@@ -70169,11 +70919,33 @@
       <c r="F1327" t="s">
         <v>42</v>
       </c>
+      <c r="G1327" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1327" s="16">
+        <v>18.390999999999998</v>
+      </c>
+      <c r="I1327" s="16">
+        <v>19.497</v>
+      </c>
       <c r="J1327">
         <v>2</v>
       </c>
       <c r="K1327" s="1">
         <v>1</v>
+      </c>
+      <c r="L1327" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1327" s="18">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="N1327" s="18">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="O1327" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1327" s="7" t="s">
         <v>79</v>
@@ -70198,11 +70970,33 @@
       <c r="F1328" t="s">
         <v>50</v>
       </c>
+      <c r="G1328" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1328" s="16">
+        <v>18.102</v>
+      </c>
+      <c r="I1328" s="16">
+        <v>19.190999999999999</v>
+      </c>
       <c r="J1328">
         <v>2</v>
       </c>
       <c r="K1328" s="1">
         <v>1</v>
+      </c>
+      <c r="L1328" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1328" s="18">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="N1328" s="18">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="O1328" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1328" s="7" t="s">
         <v>80</v>
@@ -70227,11 +71021,33 @@
       <c r="F1329" t="s">
         <v>32</v>
       </c>
+      <c r="G1329" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1329" s="16">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="I1329" s="16">
+        <v>19.356999999999999</v>
+      </c>
       <c r="J1329">
         <v>2</v>
       </c>
       <c r="K1329" s="1">
         <v>1</v>
+      </c>
+      <c r="L1329" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1329" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="N1329" s="18">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="O1329" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1329" s="7" t="s">
         <v>81</v>
@@ -70256,11 +71072,33 @@
       <c r="F1330" t="s">
         <v>48</v>
       </c>
+      <c r="G1330" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1330" s="16">
+        <v>18.074000000000002</v>
+      </c>
+      <c r="I1330" s="16">
+        <v>19.346</v>
+      </c>
       <c r="J1330">
         <v>2</v>
       </c>
       <c r="K1330" s="1">
         <v>1</v>
+      </c>
+      <c r="L1330" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1330" s="18">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="N1330" s="18">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="O1330" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1330" s="7" t="s">
         <v>86</v>
@@ -70285,11 +71123,33 @@
       <c r="F1331" t="s">
         <v>60</v>
       </c>
+      <c r="G1331" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1331" s="16">
+        <v>18.126000000000001</v>
+      </c>
+      <c r="I1331" s="16">
+        <v>19.456</v>
+      </c>
       <c r="J1331">
         <v>2</v>
       </c>
       <c r="K1331" s="1">
         <v>1</v>
+      </c>
+      <c r="L1331" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1331" s="18">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="N1331" s="18">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="O1331" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1331" s="7" t="s">
         <v>85</v>
@@ -70314,11 +71174,33 @@
       <c r="F1332" t="s">
         <v>64</v>
       </c>
+      <c r="G1332" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1332" s="16">
+        <v>17.969000000000001</v>
+      </c>
+      <c r="I1332" s="16">
+        <v>19.148</v>
+      </c>
       <c r="J1332">
         <v>2</v>
       </c>
       <c r="K1332" s="1">
         <v>1</v>
+      </c>
+      <c r="L1332" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1332" s="18">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="N1332" s="18">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="O1332" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
       </c>
       <c r="Q1332" s="7" t="s">
         <v>82</v>
@@ -70343,11 +71225,33 @@
       <c r="F1333" t="s">
         <v>34</v>
       </c>
+      <c r="G1333" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1333" s="16">
+        <v>18.215</v>
+      </c>
+      <c r="I1333" s="16">
+        <v>19.332999999999998</v>
+      </c>
       <c r="J1333">
         <v>2</v>
       </c>
       <c r="K1333" s="1">
         <v>1</v>
+      </c>
+      <c r="L1333" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1333" s="18">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="N1333" s="18">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="O1333" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1333" s="7" t="s">
         <v>83</v>
@@ -70372,11 +71276,33 @@
       <c r="F1334" t="s">
         <v>38</v>
       </c>
+      <c r="G1334" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1334" s="16">
+        <v>18.245000000000001</v>
+      </c>
+      <c r="I1334" s="16">
+        <v>19.527000000000001</v>
+      </c>
       <c r="J1334">
         <v>2</v>
       </c>
       <c r="K1334" s="1">
         <v>1</v>
+      </c>
+      <c r="L1334" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1334" s="18">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="N1334" s="18">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="O1334" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
       </c>
       <c r="Q1334" s="7" t="s">
         <v>84</v>
@@ -70401,11 +71327,33 @@
       <c r="F1335" t="s">
         <v>56</v>
       </c>
+      <c r="G1335" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1335" s="16">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="I1335" s="16">
+        <v>19.512</v>
+      </c>
       <c r="J1335">
         <v>1</v>
       </c>
       <c r="K1335" s="1">
         <v>2</v>
+      </c>
+      <c r="L1335" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1335" s="18">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="N1335" s="18">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="O1335" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1335" s="7" t="s">
         <v>66</v>
@@ -70430,11 +71378,33 @@
       <c r="F1336" t="s">
         <v>58</v>
       </c>
+      <c r="G1336" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1336" s="16">
+        <v>17.863</v>
+      </c>
+      <c r="I1336" s="16">
+        <v>19.22</v>
+      </c>
       <c r="J1336">
         <v>1</v>
       </c>
       <c r="K1336" s="1">
         <v>2</v>
+      </c>
+      <c r="L1336" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1336" s="18">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="N1336" s="18">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="O1336" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1336" s="7" t="s">
         <v>67</v>
@@ -70459,11 +71429,33 @@
       <c r="F1337" t="s">
         <v>28</v>
       </c>
+      <c r="G1337" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1337" s="16">
+        <v>17.734000000000002</v>
+      </c>
+      <c r="I1337" s="16">
+        <v>18.846</v>
+      </c>
       <c r="J1337">
         <v>1</v>
       </c>
       <c r="K1337" s="1">
         <v>2</v>
+      </c>
+      <c r="L1337" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1337" s="18">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="N1337" s="18">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="O1337" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
       </c>
       <c r="Q1337" s="7" t="s">
         <v>68</v>
@@ -70488,11 +71480,33 @@
       <c r="F1338" t="s">
         <v>30</v>
       </c>
+      <c r="G1338" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1338" s="16">
+        <v>17.702999999999999</v>
+      </c>
+      <c r="I1338" s="16">
+        <v>18.997</v>
+      </c>
       <c r="J1338">
         <v>1</v>
       </c>
       <c r="K1338" s="1">
         <v>2</v>
+      </c>
+      <c r="L1338" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1338" s="18">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="N1338" s="18">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="O1338" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1338" s="7" t="s">
         <v>69</v>
@@ -70517,11 +71531,33 @@
       <c r="F1339" t="s">
         <v>46</v>
       </c>
+      <c r="G1339" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1339" s="16">
+        <v>18.146000000000001</v>
+      </c>
+      <c r="I1339" s="16">
+        <v>19.376000000000001</v>
+      </c>
       <c r="J1339">
         <v>1</v>
       </c>
       <c r="K1339" s="1">
         <v>2</v>
+      </c>
+      <c r="L1339" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1339" s="18">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="N1339" s="18">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="O1339" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1339" s="7" t="s">
         <v>70</v>
@@ -70546,11 +71582,33 @@
       <c r="F1340" t="s">
         <v>54</v>
       </c>
+      <c r="G1340" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1340" s="16">
+        <v>18.34</v>
+      </c>
+      <c r="I1340" s="16">
+        <v>19.562000000000001</v>
+      </c>
       <c r="J1340">
         <v>1</v>
       </c>
       <c r="K1340" s="1">
         <v>2</v>
+      </c>
+      <c r="L1340" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1340" s="18">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="N1340" s="18">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="O1340" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1340" s="7" t="s">
         <v>71</v>
@@ -70575,11 +71633,33 @@
       <c r="F1341" t="s">
         <v>36</v>
       </c>
+      <c r="G1341" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1341" s="16">
+        <v>17.957999999999998</v>
+      </c>
+      <c r="I1341" s="16">
+        <v>19.158999999999999</v>
+      </c>
       <c r="J1341">
         <v>1</v>
       </c>
       <c r="K1341" s="1">
         <v>2</v>
+      </c>
+      <c r="L1341" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1341" s="18">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="N1341" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="O1341" s="2">
+        <f t="shared" si="22"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1341" s="7" t="s">
         <v>72</v>
@@ -70604,11 +71684,33 @@
       <c r="F1342" t="s">
         <v>52</v>
       </c>
+      <c r="G1342" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="H1342" s="16">
+        <v>18.151</v>
+      </c>
+      <c r="I1342" s="16">
+        <v>19.38</v>
+      </c>
       <c r="J1342">
         <v>1</v>
       </c>
       <c r="K1342" s="1">
         <v>2</v>
+      </c>
+      <c r="L1342" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1342" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="N1342" s="18">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="O1342" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
       </c>
       <c r="Q1342" s="7" t="s">
         <v>73</v>
@@ -70633,11 +71735,33 @@
       <c r="F1343" t="s">
         <v>40</v>
       </c>
+      <c r="G1343" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1343" s="16">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="I1343" s="16">
+        <v>19.734000000000002</v>
+      </c>
       <c r="J1343">
         <v>1</v>
       </c>
       <c r="K1343" s="1">
         <v>2</v>
+      </c>
+      <c r="L1343" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1343" s="18">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="N1343" s="18">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O1343" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
       </c>
       <c r="Q1343" s="7" t="s">
         <v>74</v>
@@ -70662,11 +71786,33 @@
       <c r="F1344" t="s">
         <v>26</v>
       </c>
+      <c r="G1344" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1344" s="16">
+        <v>18.157</v>
+      </c>
+      <c r="I1344" s="16">
+        <v>19.510000000000002</v>
+      </c>
       <c r="J1344">
         <v>1</v>
       </c>
       <c r="K1344" s="1">
         <v>2</v>
+      </c>
+      <c r="L1344" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1344" s="18">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="N1344" s="18">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="O1344" s="2">
+        <f t="shared" si="22"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1344" s="7" t="s">
         <v>75</v>
@@ -70691,11 +71837,33 @@
       <c r="F1345" t="s">
         <v>24</v>
       </c>
+      <c r="G1345" s="1">
+        <v>27</v>
+      </c>
+      <c r="H1345" s="16">
+        <v>17.713000000000001</v>
+      </c>
+      <c r="I1345" s="16">
+        <v>18.977</v>
+      </c>
       <c r="J1345">
         <v>2</v>
       </c>
       <c r="K1345" s="1">
         <v>2</v>
+      </c>
+      <c r="L1345" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1345" s="18">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="N1345" s="18">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="O1345" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1345" s="7" t="s">
         <v>76</v>
@@ -70720,11 +71888,33 @@
       <c r="F1346" t="s">
         <v>62</v>
       </c>
+      <c r="G1346" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1346" s="16">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="I1346" s="16">
+        <v>19.151</v>
+      </c>
       <c r="J1346">
         <v>2</v>
       </c>
       <c r="K1346" s="1">
         <v>2</v>
+      </c>
+      <c r="L1346" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1346" s="18">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="N1346" s="18">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="O1346" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1346" s="7" t="s">
         <v>77</v>
@@ -70749,11 +71939,33 @@
       <c r="F1347" t="s">
         <v>44</v>
       </c>
+      <c r="G1347" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1347" s="16">
+        <v>18.225000000000001</v>
+      </c>
+      <c r="I1347" s="16">
+        <v>19.344000000000001</v>
+      </c>
       <c r="J1347">
         <v>2</v>
       </c>
       <c r="K1347" s="1">
         <v>2</v>
+      </c>
+      <c r="L1347" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1347" s="18">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="N1347" s="18">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="O1347" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1347" s="7" t="s">
         <v>78</v>
@@ -70778,11 +71990,33 @@
       <c r="F1348" t="s">
         <v>42</v>
       </c>
+      <c r="G1348" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1348" s="16">
+        <v>18.390999999999998</v>
+      </c>
+      <c r="I1348" s="16">
+        <v>19.497</v>
+      </c>
       <c r="J1348">
         <v>2</v>
       </c>
       <c r="K1348" s="1">
         <v>2</v>
+      </c>
+      <c r="L1348" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1348" s="18">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="N1348" s="18">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="O1348" s="2">
+        <f t="shared" si="22"/>
+        <v>90</v>
       </c>
       <c r="Q1348" s="7" t="s">
         <v>79</v>
@@ -70807,11 +72041,33 @@
       <c r="F1349" t="s">
         <v>50</v>
       </c>
+      <c r="G1349" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1349" s="16">
+        <v>18.102</v>
+      </c>
+      <c r="I1349" s="16">
+        <v>19.190999999999999</v>
+      </c>
       <c r="J1349">
         <v>2</v>
       </c>
       <c r="K1349" s="1">
         <v>2</v>
+      </c>
+      <c r="L1349" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1349" s="18">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="N1349" s="18">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="O1349" s="2">
+        <f>N1350*1440-M1349*1440</f>
+        <v>91</v>
       </c>
       <c r="Q1349" s="7" t="s">
         <v>80</v>
@@ -70836,11 +72092,33 @@
       <c r="F1350" t="s">
         <v>32</v>
       </c>
+      <c r="G1350" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1350" s="16">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="I1350" s="16">
+        <v>19.356999999999999</v>
+      </c>
       <c r="J1350">
         <v>2</v>
       </c>
       <c r="K1350" s="1">
         <v>2</v>
+      </c>
+      <c r="L1350" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1350" s="18">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N1350" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O1350" s="2">
+        <f>N1351*1440-M1350*1440</f>
+        <v>91.999999999999886</v>
       </c>
       <c r="Q1350" s="7" t="s">
         <v>81</v>
@@ -70865,11 +72143,33 @@
       <c r="F1351" t="s">
         <v>48</v>
       </c>
+      <c r="G1351" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1351" s="16">
+        <v>18.074000000000002</v>
+      </c>
+      <c r="I1351" s="16">
+        <v>19.346</v>
+      </c>
       <c r="J1351">
         <v>2</v>
       </c>
       <c r="K1351" s="1">
         <v>2</v>
+      </c>
+      <c r="L1351" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1351" s="18">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="N1351" s="18">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="O1351" s="2">
+        <f>N1352*1440-M1351*1440</f>
+        <v>92.000000000000114</v>
       </c>
       <c r="Q1351" s="7" t="s">
         <v>86</v>
@@ -70894,11 +72194,33 @@
       <c r="F1352" t="s">
         <v>60</v>
       </c>
+      <c r="G1352" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1352" s="16">
+        <v>18.126000000000001</v>
+      </c>
+      <c r="I1352" s="16">
+        <v>19.456</v>
+      </c>
       <c r="J1352">
         <v>2</v>
       </c>
       <c r="K1352" s="1">
         <v>2</v>
+      </c>
+      <c r="L1352" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1352" s="18">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="N1352" s="18">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="O1352" s="2">
+        <f>N1353*1440-M1352*1440</f>
+        <v>92.000000000000114</v>
       </c>
       <c r="Q1352" s="7" t="s">
         <v>85</v>
@@ -70923,11 +72245,33 @@
       <c r="F1353" t="s">
         <v>64</v>
       </c>
+      <c r="G1353" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1353" s="16">
+        <v>17.969000000000001</v>
+      </c>
+      <c r="I1353" s="16">
+        <v>19.148</v>
+      </c>
       <c r="J1353">
         <v>2</v>
       </c>
       <c r="K1353" s="1">
         <v>2</v>
+      </c>
+      <c r="L1353" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1353" s="18">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="N1353" s="18">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="O1353" s="2">
+        <f>N1354*1440-M1353*1440</f>
+        <v>91.999999999999886</v>
       </c>
       <c r="Q1353" s="7" t="s">
         <v>82</v>
@@ -70952,11 +72296,33 @@
       <c r="F1354" t="s">
         <v>34</v>
       </c>
+      <c r="G1354" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1354" s="16">
+        <v>18.215</v>
+      </c>
+      <c r="I1354" s="16">
+        <v>19.332999999999998</v>
+      </c>
       <c r="J1354">
         <v>2</v>
       </c>
       <c r="K1354" s="1">
         <v>2</v>
+      </c>
+      <c r="L1354" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1354" s="18">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="N1354" s="18">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="O1354" s="2">
+        <f>N1355*1440-M1354*1440</f>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1354" s="7" t="s">
         <v>83</v>
@@ -70981,11 +72347,33 @@
       <c r="F1355" t="s">
         <v>38</v>
       </c>
+      <c r="G1355" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1355" s="16">
+        <v>18.245000000000001</v>
+      </c>
+      <c r="I1355" s="16">
+        <v>19.527000000000001</v>
+      </c>
       <c r="J1355">
         <v>2</v>
       </c>
       <c r="K1355" s="1">
         <v>2</v>
+      </c>
+      <c r="L1355" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1355" s="18">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="N1355" s="18">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="O1355" s="2">
+        <f>N1355*1440-M1355*1440</f>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1355" s="7" t="s">
         <v>84</v>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5475" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="175">
   <si>
     <t>date</t>
   </si>
@@ -543,6 +543,9 @@
   <si>
     <t>MultiPCO2BL</t>
   </si>
+  <si>
+    <t>BadBLCO2</t>
+  </si>
 </sst>
 </file>
 
@@ -638,11 +641,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="606">
+  <cellStyleXfs count="626">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1331,7 +1354,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="606">
+  <cellStyles count="626">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -1636,6 +1659,16 @@
     <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -1937,6 +1970,16 @@
     <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2268,9 +2311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1345" sqref="N1345"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1483" sqref="N1483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -64717,7 +64760,7 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="O1212" s="2">
-        <f t="shared" ref="O1212:O1272" si="21">N1212*1440-M1212*1440</f>
+        <f t="shared" ref="O1212:O1270" si="21">N1212*1440-M1212*1440</f>
         <v>90</v>
       </c>
       <c r="Q1212" s="7" t="s">
@@ -67794,7 +67837,7 @@
         <v>0.38125000000000003</v>
       </c>
       <c r="O1273" s="2">
-        <f t="shared" ref="O1273:O1354" si="22">N1273*1440-M1273*1440</f>
+        <f t="shared" ref="O1273:O1348" si="22">N1273*1440-M1273*1440</f>
         <v>89.999999999999943</v>
       </c>
       <c r="Q1273" s="7" t="s">
@@ -70177,7 +70220,7 @@
         <v>4.9069999999999999E-3</v>
       </c>
     </row>
-    <row r="1313" spans="1:20" ht="16" customHeight="1">
+    <row r="1313" spans="1:28" ht="16" customHeight="1">
       <c r="A1313" s="3">
         <v>42760</v>
       </c>
@@ -70237,7 +70280,7 @@
         <v>4.2110000000000003E-3</v>
       </c>
     </row>
-    <row r="1314" spans="1:20" ht="16" customHeight="1">
+    <row r="1314" spans="1:28" ht="16" customHeight="1">
       <c r="A1314" s="3">
         <v>42761</v>
       </c>
@@ -70287,8 +70330,17 @@
       <c r="Q1314" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1315" spans="1:20" ht="16" customHeight="1">
+      <c r="R1314" s="28">
+        <v>1.906E-4</v>
+      </c>
+      <c r="S1314" s="28">
+        <v>1.0369999999999999E-3</v>
+      </c>
+      <c r="T1314" s="28">
+        <v>1.758E-3</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:28" ht="16" customHeight="1">
       <c r="A1315" s="3">
         <v>42761</v>
       </c>
@@ -70338,8 +70390,17 @@
       <c r="Q1315" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1316" spans="1:20" ht="16" customHeight="1">
+      <c r="R1315" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1315" s="28">
+        <v>1.413E-3</v>
+      </c>
+      <c r="T1315" s="28">
+        <v>1.3569999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:28" ht="16" customHeight="1">
       <c r="A1316" s="3">
         <v>42761</v>
       </c>
@@ -70389,8 +70450,17 @@
       <c r="Q1316" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1317" spans="1:20" ht="16" customHeight="1">
+      <c r="R1316" s="28">
+        <v>3.0640000000000002E-4</v>
+      </c>
+      <c r="S1316" s="28">
+        <v>1.2639999999999999E-3</v>
+      </c>
+      <c r="T1316" s="28">
+        <v>8.7679999999999995E-4</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:28" ht="16" customHeight="1">
       <c r="A1317" s="3">
         <v>42761</v>
       </c>
@@ -70440,8 +70510,20 @@
       <c r="Q1317" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1318" spans="1:20" ht="16" customHeight="1">
+      <c r="R1317" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1317" s="28">
+        <v>1.407E-3</v>
+      </c>
+      <c r="T1317" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1317" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:28" ht="16" customHeight="1">
       <c r="A1318" s="3">
         <v>42761</v>
       </c>
@@ -70491,8 +70573,17 @@
       <c r="Q1318" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="1319" spans="1:20" ht="16" customHeight="1">
+      <c r="R1318" s="28">
+        <v>1.2970000000000001E-4</v>
+      </c>
+      <c r="S1318" s="28">
+        <v>1.81E-3</v>
+      </c>
+      <c r="T1318" s="28">
+        <v>1.382E-3</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:28" ht="16" customHeight="1">
       <c r="A1319" s="3">
         <v>42761</v>
       </c>
@@ -70542,8 +70633,17 @@
       <c r="Q1319" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1320" spans="1:20" ht="16" customHeight="1">
+      <c r="R1319" s="28">
+        <v>3.7960000000000001E-4</v>
+      </c>
+      <c r="S1319" s="28">
+        <v>1.4610000000000001E-3</v>
+      </c>
+      <c r="T1319" s="28">
+        <v>1.6379999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:28" ht="16" customHeight="1">
       <c r="A1320" s="3">
         <v>42761</v>
       </c>
@@ -70593,8 +70693,17 @@
       <c r="Q1320" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1321" spans="1:20" ht="16" customHeight="1">
+      <c r="R1320" s="28">
+        <v>5.62E-4</v>
+      </c>
+      <c r="S1320" s="28">
+        <v>1.5629999999999999E-3</v>
+      </c>
+      <c r="T1320" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:28" ht="16" customHeight="1">
       <c r="A1321" s="3">
         <v>42761</v>
       </c>
@@ -70644,8 +70753,17 @@
       <c r="Q1321" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1322" spans="1:20" ht="16" customHeight="1">
+      <c r="R1321" s="28">
+        <v>2.2039999999999999E-4</v>
+      </c>
+      <c r="S1321" s="28">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="T1321" s="28">
+        <v>1.372E-3</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:28" ht="16" customHeight="1">
       <c r="A1322" s="3">
         <v>42761</v>
       </c>
@@ -70695,8 +70813,17 @@
       <c r="Q1322" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1323" spans="1:20" ht="16" customHeight="1">
+      <c r="R1322" s="28">
+        <v>5.6879999999999995E-4</v>
+      </c>
+      <c r="S1322" s="28">
+        <v>1.302E-3</v>
+      </c>
+      <c r="T1322" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:28" ht="16" customHeight="1">
       <c r="A1323" s="3">
         <v>42761</v>
       </c>
@@ -70746,8 +70873,17 @@
       <c r="Q1323" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1324" spans="1:20" ht="16" customHeight="1">
+      <c r="R1323" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1323" s="28">
+        <v>7.3200000000000001E-4</v>
+      </c>
+      <c r="T1323" s="28">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:28" ht="16" customHeight="1">
       <c r="A1324" s="3">
         <v>42761</v>
       </c>
@@ -70797,8 +70933,17 @@
       <c r="Q1324" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="1325" spans="1:20" ht="16" customHeight="1">
+      <c r="R1324" s="28">
+        <v>3.7179999999999998E-4</v>
+      </c>
+      <c r="S1324" s="28">
+        <v>2.1589999999999999E-3</v>
+      </c>
+      <c r="T1324" s="28">
+        <v>2.5669999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:28" ht="16" customHeight="1">
       <c r="A1325" s="3">
         <v>42761</v>
       </c>
@@ -70848,8 +70993,17 @@
       <c r="Q1325" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1326" spans="1:20" ht="16" customHeight="1">
+      <c r="R1325" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1325" s="28">
+        <v>1.5219999999999999E-3</v>
+      </c>
+      <c r="T1325" s="28">
+        <v>1.464E-3</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:28" ht="16" customHeight="1">
       <c r="A1326" s="3">
         <v>42761</v>
       </c>
@@ -70899,8 +71053,14 @@
       <c r="Q1326" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1327" spans="1:20" ht="16" customHeight="1">
+      <c r="S1326" s="28">
+        <v>1.0319999999999999E-3</v>
+      </c>
+      <c r="T1326" s="28">
+        <v>1.4369999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:28" ht="16" customHeight="1">
       <c r="A1327" s="3">
         <v>42761</v>
       </c>
@@ -70950,8 +71110,17 @@
       <c r="Q1327" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1328" spans="1:20" ht="16" customHeight="1">
+      <c r="R1327" s="28">
+        <v>5.4719999999999997E-4</v>
+      </c>
+      <c r="S1327" s="28">
+        <v>2.114E-3</v>
+      </c>
+      <c r="T1327" s="28">
+        <v>1.7240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:28" ht="16" customHeight="1">
       <c r="A1328" s="3">
         <v>42761</v>
       </c>
@@ -71001,8 +71170,17 @@
       <c r="Q1328" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1329" spans="1:17" ht="16" customHeight="1">
+      <c r="R1328" s="28">
+        <v>2.7609999999999999E-4</v>
+      </c>
+      <c r="S1328" s="28">
+        <v>1.4E-3</v>
+      </c>
+      <c r="T1328" s="28">
+        <v>1.41E-3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:20" ht="16" customHeight="1">
       <c r="A1329" s="3">
         <v>42761</v>
       </c>
@@ -71052,8 +71230,17 @@
       <c r="Q1329" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="1330" spans="1:17" ht="16" customHeight="1">
+      <c r="R1329" s="28">
+        <v>4.0789999999999999E-4</v>
+      </c>
+      <c r="S1329" s="28">
+        <v>1.707E-3</v>
+      </c>
+      <c r="T1329" s="28">
+        <v>1.9980000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:20" ht="16" customHeight="1">
       <c r="A1330" s="3">
         <v>42761</v>
       </c>
@@ -71103,8 +71290,17 @@
       <c r="Q1330" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1331" spans="1:17" ht="16" customHeight="1">
+      <c r="R1330" s="28">
+        <v>1.0859999999999999E-3</v>
+      </c>
+      <c r="S1330" s="28">
+        <v>2.7680000000000001E-3</v>
+      </c>
+      <c r="T1330" s="28">
+        <v>1.078E-3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:20" ht="16" customHeight="1">
       <c r="A1331" s="3">
         <v>42761</v>
       </c>
@@ -71154,8 +71350,17 @@
       <c r="Q1331" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="1332" spans="1:17" ht="16" customHeight="1">
+      <c r="R1331" s="28">
+        <v>1.232E-3</v>
+      </c>
+      <c r="S1331" s="28">
+        <v>1.6590000000000001E-3</v>
+      </c>
+      <c r="T1331" s="28">
+        <v>1.7329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:20" ht="16" customHeight="1">
       <c r="A1332" s="3">
         <v>42761</v>
       </c>
@@ -71205,8 +71410,17 @@
       <c r="Q1332" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="1333" spans="1:17" ht="16" customHeight="1">
+      <c r="R1332" s="28">
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="S1332" s="28">
+        <v>2.5720000000000001E-3</v>
+      </c>
+      <c r="T1332" s="28">
+        <v>1.678E-3</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:20" ht="16" customHeight="1">
       <c r="A1333" s="3">
         <v>42761</v>
       </c>
@@ -71256,8 +71470,17 @@
       <c r="Q1333" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="1334" spans="1:17" ht="16" customHeight="1">
+      <c r="R1333" s="28">
+        <v>3.8919999999999997E-4</v>
+      </c>
+      <c r="S1333" s="28">
+        <v>1.591E-3</v>
+      </c>
+      <c r="T1333" s="28">
+        <v>2.4090000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:20" ht="16" customHeight="1">
       <c r="A1334" s="3">
         <v>42761</v>
       </c>
@@ -71307,8 +71530,17 @@
       <c r="Q1334" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1335" spans="1:17" ht="16" customHeight="1">
+      <c r="R1334" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1334" s="28">
+        <v>2.1059999999999998E-3</v>
+      </c>
+      <c r="T1334" s="28">
+        <v>1.805E-3</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:20" ht="16" customHeight="1">
       <c r="A1335" s="3">
         <v>42761</v>
       </c>
@@ -71359,7 +71591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1336" spans="1:17" ht="16" customHeight="1">
+    <row r="1336" spans="1:20" ht="16" customHeight="1">
       <c r="A1336" s="3">
         <v>42761</v>
       </c>
@@ -71410,7 +71642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1337" spans="1:17" ht="16" customHeight="1">
+    <row r="1337" spans="1:20" ht="16" customHeight="1">
       <c r="A1337" s="3">
         <v>42761</v>
       </c>
@@ -71461,7 +71693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1338" spans="1:17" ht="16" customHeight="1">
+    <row r="1338" spans="1:20" ht="16" customHeight="1">
       <c r="A1338" s="3">
         <v>42761</v>
       </c>
@@ -71512,7 +71744,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1339" spans="1:17" ht="16" customHeight="1">
+    <row r="1339" spans="1:20" ht="16" customHeight="1">
       <c r="A1339" s="3">
         <v>42761</v>
       </c>
@@ -71563,7 +71795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1340" spans="1:17" ht="16" customHeight="1">
+    <row r="1340" spans="1:20" ht="16" customHeight="1">
       <c r="A1340" s="3">
         <v>42761</v>
       </c>
@@ -71614,7 +71846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1341" spans="1:17" ht="16" customHeight="1">
+    <row r="1341" spans="1:20" ht="16" customHeight="1">
       <c r="A1341" s="3">
         <v>42761</v>
       </c>
@@ -71665,7 +71897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1342" spans="1:17" ht="16" customHeight="1">
+    <row r="1342" spans="1:20" ht="16" customHeight="1">
       <c r="A1342" s="3">
         <v>42761</v>
       </c>
@@ -71716,7 +71948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1343" spans="1:17" ht="16" customHeight="1">
+    <row r="1343" spans="1:20" ht="16" customHeight="1">
       <c r="A1343" s="3">
         <v>42761</v>
       </c>
@@ -71767,7 +71999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1344" spans="1:17" ht="16" customHeight="1">
+    <row r="1344" spans="1:20" ht="16" customHeight="1">
       <c r="A1344" s="3">
         <v>42761</v>
       </c>
@@ -72066,7 +72298,7 @@
         <v>0.54097222222222219</v>
       </c>
       <c r="O1349" s="2">
-        <f>N1350*1440-M1349*1440</f>
+        <f t="shared" ref="O1349:O1354" si="23">N1350*1440-M1349*1440</f>
         <v>91</v>
       </c>
       <c r="Q1349" s="7" t="s">
@@ -72117,7 +72349,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="O1350" s="2">
-        <f>N1351*1440-M1350*1440</f>
+        <f t="shared" si="23"/>
         <v>91.999999999999886</v>
       </c>
       <c r="Q1350" s="7" t="s">
@@ -72168,7 +72400,7 @@
         <v>0.54305555555555551</v>
       </c>
       <c r="O1351" s="2">
-        <f>N1352*1440-M1351*1440</f>
+        <f t="shared" si="23"/>
         <v>92.000000000000114</v>
       </c>
       <c r="Q1351" s="7" t="s">
@@ -72219,7 +72451,7 @@
         <v>0.54375000000000007</v>
       </c>
       <c r="O1352" s="2">
-        <f>N1353*1440-M1352*1440</f>
+        <f t="shared" si="23"/>
         <v>92.000000000000114</v>
       </c>
       <c r="Q1352" s="7" t="s">
@@ -72270,7 +72502,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="O1353" s="2">
-        <f>N1354*1440-M1353*1440</f>
+        <f t="shared" si="23"/>
         <v>91.999999999999886</v>
       </c>
       <c r="Q1353" s="7" t="s">
@@ -72321,7 +72553,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="O1354" s="2">
-        <f>N1355*1440-M1354*1440</f>
+        <f t="shared" si="23"/>
         <v>91.000000000000114</v>
       </c>
       <c r="Q1354" s="7" t="s">
@@ -72398,11 +72630,33 @@
       <c r="F1356" t="s">
         <v>56</v>
       </c>
+      <c r="G1356" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1356" s="16">
+        <v>18.524000000000001</v>
+      </c>
+      <c r="I1356" s="16">
+        <v>19.507999999999999</v>
+      </c>
       <c r="J1356">
         <v>1</v>
       </c>
       <c r="K1356" s="1">
         <v>1</v>
+      </c>
+      <c r="L1356" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1356" s="18">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="N1356" s="18">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="O1356" s="2">
+        <f>N1356*1440-M1356*1440</f>
+        <v>90</v>
       </c>
       <c r="Q1356" s="7" t="s">
         <v>66</v>
@@ -72427,11 +72681,33 @@
       <c r="F1357" t="s">
         <v>58</v>
       </c>
+      <c r="G1357" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1357" s="16">
+        <v>17.863</v>
+      </c>
+      <c r="I1357" s="16">
+        <v>19.21</v>
+      </c>
       <c r="J1357">
         <v>1</v>
       </c>
       <c r="K1357" s="1">
         <v>1</v>
+      </c>
+      <c r="L1357" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1357" s="18">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="N1357" s="18">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O1357" s="2">
+        <f>N1357*1440-M1357*1440</f>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1357" s="7" t="s">
         <v>67</v>
@@ -72456,11 +72732,33 @@
       <c r="F1358" t="s">
         <v>28</v>
       </c>
+      <c r="G1358" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1358" s="16">
+        <v>17.704999999999998</v>
+      </c>
+      <c r="I1358" s="16">
+        <v>18.837</v>
+      </c>
       <c r="J1358">
         <v>1</v>
       </c>
       <c r="K1358" s="1">
         <v>1</v>
+      </c>
+      <c r="L1358" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1358" s="18">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="N1358" s="18">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="O1358" s="2">
+        <f t="shared" ref="O1358:O1421" si="24">N1358*1440-M1358*1440</f>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1358" s="7" t="s">
         <v>68</v>
@@ -72485,11 +72783,33 @@
       <c r="F1359" t="s">
         <v>30</v>
       </c>
+      <c r="G1359" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1359" s="16">
+        <v>17.841999999999999</v>
+      </c>
+      <c r="I1359" s="16">
+        <v>18.954000000000001</v>
+      </c>
       <c r="J1359">
         <v>1</v>
       </c>
       <c r="K1359" s="1">
         <v>1</v>
+      </c>
+      <c r="L1359" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1359" s="18">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="N1359" s="18">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="O1359" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1359" s="7" t="s">
         <v>69</v>
@@ -72514,11 +72834,33 @@
       <c r="F1360" t="s">
         <v>46</v>
       </c>
+      <c r="G1360" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1360" s="16">
+        <v>18.134</v>
+      </c>
+      <c r="I1360" s="16">
+        <v>19.350999999999999</v>
+      </c>
       <c r="J1360">
         <v>1</v>
       </c>
       <c r="K1360" s="1">
         <v>1</v>
+      </c>
+      <c r="L1360" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1360" s="18">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="N1360" s="18">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="O1360" s="2">
+        <f t="shared" si="24"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1360" s="7" t="s">
         <v>70</v>
@@ -72543,11 +72885,33 @@
       <c r="F1361" t="s">
         <v>54</v>
       </c>
+      <c r="G1361" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1361" s="16">
+        <v>18.315000000000001</v>
+      </c>
+      <c r="I1361" s="16">
+        <v>19.53</v>
+      </c>
       <c r="J1361">
         <v>1</v>
       </c>
       <c r="K1361" s="1">
         <v>1</v>
+      </c>
+      <c r="L1361" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1361" s="18">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="N1361" s="18">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="O1361" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1361" s="7" t="s">
         <v>71</v>
@@ -72572,11 +72936,33 @@
       <c r="F1362" t="s">
         <v>36</v>
       </c>
+      <c r="G1362" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1362" s="16">
+        <v>17.965</v>
+      </c>
+      <c r="I1362" s="16">
+        <v>19.145</v>
+      </c>
       <c r="J1362">
         <v>1</v>
       </c>
       <c r="K1362" s="1">
         <v>1</v>
+      </c>
+      <c r="L1362" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1362" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="N1362" s="18">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O1362" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1362" s="7" t="s">
         <v>72</v>
@@ -72601,11 +72987,33 @@
       <c r="F1363" t="s">
         <v>52</v>
       </c>
+      <c r="G1363" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1363" s="16">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="I1363" s="16">
+        <v>19.37</v>
+      </c>
       <c r="J1363">
         <v>1</v>
       </c>
       <c r="K1363" s="1">
         <v>1</v>
+      </c>
+      <c r="L1363" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1363" s="18">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="N1363" s="18">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O1363" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1363" s="7" t="s">
         <v>73</v>
@@ -72630,11 +73038,33 @@
       <c r="F1364" t="s">
         <v>40</v>
       </c>
+      <c r="G1364" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="H1364" s="16">
+        <v>18.361000000000001</v>
+      </c>
+      <c r="I1364" s="16">
+        <v>19.707000000000001</v>
+      </c>
       <c r="J1364">
         <v>1</v>
       </c>
       <c r="K1364" s="1">
         <v>1</v>
+      </c>
+      <c r="L1364" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1364" s="18">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="N1364" s="18">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O1364" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1364" s="7" t="s">
         <v>74</v>
@@ -72659,11 +73089,33 @@
       <c r="F1365" t="s">
         <v>26</v>
       </c>
+      <c r="G1365" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1365" s="16">
+        <v>18.16</v>
+      </c>
+      <c r="I1365" s="16">
+        <v>19.488</v>
+      </c>
       <c r="J1365">
         <v>1</v>
       </c>
       <c r="K1365" s="1">
         <v>1</v>
+      </c>
+      <c r="L1365" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1365" s="18">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="N1365" s="18">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="O1365" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1365" s="7" t="s">
         <v>75</v>
@@ -72688,11 +73140,33 @@
       <c r="F1366" t="s">
         <v>24</v>
       </c>
+      <c r="G1366" s="1">
+        <v>26</v>
+      </c>
+      <c r="H1366" s="16">
+        <v>17.712</v>
+      </c>
+      <c r="I1366" s="16">
+        <v>18.951000000000001</v>
+      </c>
       <c r="J1366">
         <v>2</v>
       </c>
       <c r="K1366" s="1">
         <v>1</v>
+      </c>
+      <c r="L1366" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1366" s="18">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="N1366" s="18">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="O1366" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1366" s="7" t="s">
         <v>76</v>
@@ -72717,11 +73191,33 @@
       <c r="F1367" t="s">
         <v>62</v>
       </c>
+      <c r="G1367" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1367" s="16">
+        <v>18.039000000000001</v>
+      </c>
+      <c r="I1367" s="16">
+        <v>19.145</v>
+      </c>
       <c r="J1367">
         <v>2</v>
       </c>
       <c r="K1367" s="1">
         <v>1</v>
+      </c>
+      <c r="L1367" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1367" s="18">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="N1367" s="18">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="O1367" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1367" s="7" t="s">
         <v>77</v>
@@ -72746,11 +73242,33 @@
       <c r="F1368" t="s">
         <v>44</v>
       </c>
+      <c r="G1368" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1368" s="16">
+        <v>18.234000000000002</v>
+      </c>
+      <c r="I1368" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1368">
         <v>2</v>
       </c>
       <c r="K1368" s="1">
         <v>1</v>
+      </c>
+      <c r="L1368" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1368" s="18">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="N1368" s="18">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="O1368" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1368" s="7" t="s">
         <v>78</v>
@@ -72775,11 +73293,33 @@
       <c r="F1369" t="s">
         <v>42</v>
       </c>
+      <c r="G1369" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1369" s="16">
+        <v>18.39</v>
+      </c>
+      <c r="I1369" s="16">
+        <v>19.492000000000001</v>
+      </c>
       <c r="J1369">
         <v>2</v>
       </c>
       <c r="K1369" s="1">
         <v>1</v>
+      </c>
+      <c r="L1369" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1369" s="18">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="N1369" s="18">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="O1369" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1369" s="7" t="s">
         <v>79</v>
@@ -72804,11 +73344,33 @@
       <c r="F1370" t="s">
         <v>50</v>
       </c>
+      <c r="G1370" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1370" s="16">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="I1370" s="16">
+        <v>19.213999999999999</v>
+      </c>
       <c r="J1370">
         <v>2</v>
       </c>
       <c r="K1370" s="1">
         <v>1</v>
+      </c>
+      <c r="L1370" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1370" s="18">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="N1370" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O1370" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1370" s="7" t="s">
         <v>80</v>
@@ -72833,11 +73395,33 @@
       <c r="F1371" t="s">
         <v>32</v>
       </c>
+      <c r="G1371" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1371" s="16">
+        <v>18.186</v>
+      </c>
+      <c r="I1371" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1371">
         <v>2</v>
       </c>
       <c r="K1371" s="1">
         <v>1</v>
+      </c>
+      <c r="L1371" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1371" s="18">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="N1371" s="18">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="O1371" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1371" s="7" t="s">
         <v>81</v>
@@ -72862,11 +73446,33 @@
       <c r="F1372" t="s">
         <v>48</v>
       </c>
+      <c r="G1372" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1372" s="16">
+        <v>18.084</v>
+      </c>
+      <c r="I1372" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1372">
         <v>2</v>
       </c>
       <c r="K1372" s="1">
         <v>1</v>
+      </c>
+      <c r="L1372" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1372" s="18">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="N1372" s="18">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O1372" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1372" s="7" t="s">
         <v>86</v>
@@ -72891,11 +73497,33 @@
       <c r="F1373" t="s">
         <v>60</v>
       </c>
+      <c r="G1373" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1373" s="16">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="I1373" s="16">
+        <v>19.454999999999998</v>
+      </c>
       <c r="J1373">
         <v>2</v>
       </c>
       <c r="K1373" s="1">
         <v>1</v>
+      </c>
+      <c r="L1373" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1373" s="18">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="N1373" s="18">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="O1373" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1373" s="7" t="s">
         <v>85</v>
@@ -72920,11 +73548,33 @@
       <c r="F1374" t="s">
         <v>64</v>
       </c>
+      <c r="G1374" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1374" s="16">
+        <v>18</v>
+      </c>
+      <c r="I1374" s="16">
+        <v>19.158000000000001</v>
+      </c>
       <c r="J1374">
         <v>2</v>
       </c>
       <c r="K1374" s="1">
         <v>1</v>
+      </c>
+      <c r="L1374" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1374" s="18">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="N1374" s="18">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="O1374" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1374" s="7" t="s">
         <v>82</v>
@@ -72949,11 +73599,33 @@
       <c r="F1375" t="s">
         <v>34</v>
       </c>
+      <c r="G1375" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1375" s="16">
+        <v>48.195</v>
+      </c>
+      <c r="I1375" s="16">
+        <v>19.306000000000001</v>
+      </c>
       <c r="J1375">
         <v>2</v>
       </c>
       <c r="K1375" s="1">
         <v>1</v>
+      </c>
+      <c r="L1375" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1375" s="18">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="N1375" s="18">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="O1375" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1375" s="7" t="s">
         <v>83</v>
@@ -72978,11 +73650,33 @@
       <c r="F1376" t="s">
         <v>38</v>
       </c>
+      <c r="G1376" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1376" s="16">
+        <v>18.215</v>
+      </c>
+      <c r="I1376" s="16">
+        <v>19.52</v>
+      </c>
       <c r="J1376">
         <v>2</v>
       </c>
       <c r="K1376" s="1">
         <v>1</v>
+      </c>
+      <c r="L1376" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1376" s="18">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="N1376" s="18">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="O1376" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1376" s="7" t="s">
         <v>84</v>
@@ -73007,11 +73701,33 @@
       <c r="F1377" t="s">
         <v>56</v>
       </c>
+      <c r="G1377" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1377" s="16">
+        <v>18.524000000000001</v>
+      </c>
+      <c r="I1377" s="16">
+        <v>19.507999999999999</v>
+      </c>
       <c r="J1377">
         <v>1</v>
       </c>
       <c r="K1377" s="1">
         <v>2</v>
+      </c>
+      <c r="L1377" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1377" s="18">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="N1377" s="18">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="O1377" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1377" s="7" t="s">
         <v>66</v>
@@ -73036,11 +73752,33 @@
       <c r="F1378" t="s">
         <v>58</v>
       </c>
+      <c r="G1378" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1378" s="16">
+        <v>17.863</v>
+      </c>
+      <c r="I1378" s="16">
+        <v>19.21</v>
+      </c>
       <c r="J1378">
         <v>1</v>
       </c>
       <c r="K1378" s="1">
         <v>2</v>
+      </c>
+      <c r="L1378" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1378" s="18">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="N1378" s="18">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="O1378" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1378" s="7" t="s">
         <v>67</v>
@@ -73065,11 +73803,33 @@
       <c r="F1379" t="s">
         <v>28</v>
       </c>
+      <c r="G1379" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1379" s="16">
+        <v>17.704999999999998</v>
+      </c>
+      <c r="I1379" s="16">
+        <v>18.837</v>
+      </c>
       <c r="J1379">
         <v>1</v>
       </c>
       <c r="K1379" s="1">
         <v>2</v>
+      </c>
+      <c r="L1379" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1379" s="18">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="N1379" s="18">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="O1379" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1379" s="7" t="s">
         <v>68</v>
@@ -73094,11 +73854,33 @@
       <c r="F1380" t="s">
         <v>30</v>
       </c>
+      <c r="G1380" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1380" s="16">
+        <v>17.841999999999999</v>
+      </c>
+      <c r="I1380" s="16">
+        <v>18.954000000000001</v>
+      </c>
       <c r="J1380">
         <v>1</v>
       </c>
       <c r="K1380" s="1">
         <v>2</v>
+      </c>
+      <c r="L1380" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1380" s="18">
+        <v>0.4375</v>
+      </c>
+      <c r="N1380" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="O1380" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1380" s="7" t="s">
         <v>69</v>
@@ -73123,11 +73905,33 @@
       <c r="F1381" t="s">
         <v>46</v>
       </c>
+      <c r="G1381" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1381" s="16">
+        <v>18.134</v>
+      </c>
+      <c r="I1381" s="16">
+        <v>19.350999999999999</v>
+      </c>
       <c r="J1381">
         <v>1</v>
       </c>
       <c r="K1381" s="1">
         <v>2</v>
+      </c>
+      <c r="L1381" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1381" s="18">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="N1381" s="18">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="O1381" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1381" s="7" t="s">
         <v>70</v>
@@ -73152,11 +73956,33 @@
       <c r="F1382" t="s">
         <v>54</v>
       </c>
+      <c r="G1382" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1382" s="16">
+        <v>18.315000000000001</v>
+      </c>
+      <c r="I1382" s="16">
+        <v>19.53</v>
+      </c>
       <c r="J1382">
         <v>1</v>
       </c>
       <c r="K1382" s="1">
         <v>2</v>
+      </c>
+      <c r="L1382" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1382" s="18">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="N1382" s="18">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O1382" s="2">
+        <f t="shared" si="24"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1382" s="7" t="s">
         <v>71</v>
@@ -73181,11 +74007,33 @@
       <c r="F1383" t="s">
         <v>36</v>
       </c>
+      <c r="G1383" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1383" s="16">
+        <v>17.965</v>
+      </c>
+      <c r="I1383" s="16">
+        <v>19.145</v>
+      </c>
       <c r="J1383">
         <v>1</v>
       </c>
       <c r="K1383" s="1">
         <v>2</v>
+      </c>
+      <c r="L1383" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1383" s="18">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="N1383" s="18">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O1383" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1383" s="7" t="s">
         <v>72</v>
@@ -73210,11 +74058,33 @@
       <c r="F1384" t="s">
         <v>52</v>
       </c>
+      <c r="G1384" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1384" s="16">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="I1384" s="16">
+        <v>19.37</v>
+      </c>
       <c r="J1384">
         <v>1</v>
       </c>
       <c r="K1384" s="1">
         <v>2</v>
+      </c>
+      <c r="L1384" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1384" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="N1384" s="18">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="O1384" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1384" s="7" t="s">
         <v>73</v>
@@ -73239,11 +74109,33 @@
       <c r="F1385" t="s">
         <v>40</v>
       </c>
+      <c r="G1385" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="H1385" s="16">
+        <v>18.361000000000001</v>
+      </c>
+      <c r="I1385" s="16">
+        <v>19.707000000000001</v>
+      </c>
       <c r="J1385">
         <v>1</v>
       </c>
       <c r="K1385" s="1">
         <v>2</v>
+      </c>
+      <c r="L1385" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1385" s="18">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="N1385" s="18">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="O1385" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1385" s="7" t="s">
         <v>74</v>
@@ -73268,11 +74160,33 @@
       <c r="F1386" t="s">
         <v>26</v>
       </c>
+      <c r="G1386" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1386" s="16">
+        <v>18.16</v>
+      </c>
+      <c r="I1386" s="16">
+        <v>19.488</v>
+      </c>
       <c r="J1386">
         <v>1</v>
       </c>
       <c r="K1386" s="1">
         <v>2</v>
+      </c>
+      <c r="L1386" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1386" s="18">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="N1386" s="18">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="O1386" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1386" s="7" t="s">
         <v>75</v>
@@ -73297,11 +74211,33 @@
       <c r="F1387" t="s">
         <v>24</v>
       </c>
+      <c r="G1387" s="1">
+        <v>26</v>
+      </c>
+      <c r="H1387" s="16">
+        <v>17.712</v>
+      </c>
+      <c r="I1387" s="16">
+        <v>18.951000000000001</v>
+      </c>
       <c r="J1387">
         <v>2</v>
       </c>
       <c r="K1387" s="1">
         <v>2</v>
+      </c>
+      <c r="L1387" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1387" s="18">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="N1387" s="18">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="O1387" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1387" s="7" t="s">
         <v>76</v>
@@ -73326,11 +74262,33 @@
       <c r="F1388" t="s">
         <v>62</v>
       </c>
+      <c r="G1388" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1388" s="16">
+        <v>18.039000000000001</v>
+      </c>
+      <c r="I1388" s="16">
+        <v>19.145</v>
+      </c>
       <c r="J1388">
         <v>2</v>
       </c>
       <c r="K1388" s="1">
         <v>2</v>
+      </c>
+      <c r="L1388" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1388" s="18">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="N1388" s="18">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="O1388" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1388" s="7" t="s">
         <v>77</v>
@@ -73355,11 +74313,33 @@
       <c r="F1389" t="s">
         <v>44</v>
       </c>
+      <c r="G1389" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1389" s="16">
+        <v>18.234000000000002</v>
+      </c>
+      <c r="I1389" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1389">
         <v>2</v>
       </c>
       <c r="K1389" s="1">
         <v>2</v>
+      </c>
+      <c r="L1389" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1389" s="18">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N1389" s="18">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="O1389" s="2">
+        <f t="shared" si="24"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1389" s="7" t="s">
         <v>78</v>
@@ -73384,11 +74364,33 @@
       <c r="F1390" t="s">
         <v>42</v>
       </c>
+      <c r="G1390" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1390" s="16">
+        <v>18.39</v>
+      </c>
+      <c r="I1390" s="16">
+        <v>19.492000000000001</v>
+      </c>
       <c r="J1390">
         <v>2</v>
       </c>
       <c r="K1390" s="1">
         <v>2</v>
+      </c>
+      <c r="L1390" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1390" s="18">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="N1390" s="18">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="O1390" s="2">
+        <f t="shared" si="24"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1390" s="7" t="s">
         <v>79</v>
@@ -73413,11 +74415,33 @@
       <c r="F1391" t="s">
         <v>50</v>
       </c>
+      <c r="G1391" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1391" s="16">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="I1391" s="16">
+        <v>19.213999999999999</v>
+      </c>
       <c r="J1391">
         <v>2</v>
       </c>
       <c r="K1391" s="1">
         <v>2</v>
+      </c>
+      <c r="L1391" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1391" s="18">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="N1391" s="18">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="O1391" s="2">
+        <f t="shared" si="24"/>
+        <v>92.999999999999886</v>
       </c>
       <c r="Q1391" s="7" t="s">
         <v>80</v>
@@ -73442,11 +74466,33 @@
       <c r="F1392" t="s">
         <v>32</v>
       </c>
+      <c r="G1392" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1392" s="16">
+        <v>18.186</v>
+      </c>
+      <c r="I1392" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1392">
         <v>2</v>
       </c>
       <c r="K1392" s="1">
         <v>2</v>
+      </c>
+      <c r="L1392" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1392" s="18">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="N1392" s="18">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="O1392" s="2">
+        <f t="shared" si="24"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1392" s="7" t="s">
         <v>81</v>
@@ -73471,11 +74517,33 @@
       <c r="F1393" t="s">
         <v>48</v>
       </c>
+      <c r="G1393" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1393" s="16">
+        <v>18.084</v>
+      </c>
+      <c r="I1393" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1393">
         <v>2</v>
       </c>
       <c r="K1393" s="1">
         <v>2</v>
+      </c>
+      <c r="L1393" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1393" s="18">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="N1393" s="18">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="O1393" s="2">
+        <f t="shared" si="24"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1393" s="7" t="s">
         <v>86</v>
@@ -73500,11 +74568,33 @@
       <c r="F1394" t="s">
         <v>60</v>
       </c>
+      <c r="G1394" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1394" s="16">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="I1394" s="16">
+        <v>19.454999999999998</v>
+      </c>
       <c r="J1394">
         <v>2</v>
       </c>
       <c r="K1394" s="1">
         <v>2</v>
+      </c>
+      <c r="L1394" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1394" s="18">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="N1394" s="18">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="O1394" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1394" s="7" t="s">
         <v>85</v>
@@ -73529,11 +74619,33 @@
       <c r="F1395" t="s">
         <v>64</v>
       </c>
+      <c r="G1395" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1395" s="16">
+        <v>18</v>
+      </c>
+      <c r="I1395" s="16">
+        <v>19.158000000000001</v>
+      </c>
       <c r="J1395">
         <v>2</v>
       </c>
       <c r="K1395" s="1">
         <v>2</v>
+      </c>
+      <c r="L1395" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1395" s="18">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="N1395" s="18">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="O1395" s="2">
+        <f t="shared" si="24"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1395" s="7" t="s">
         <v>82</v>
@@ -73558,11 +74670,33 @@
       <c r="F1396" t="s">
         <v>34</v>
       </c>
+      <c r="G1396" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1396" s="16">
+        <v>48.195</v>
+      </c>
+      <c r="I1396" s="16">
+        <v>19.306000000000001</v>
+      </c>
       <c r="J1396">
         <v>2</v>
       </c>
       <c r="K1396" s="1">
         <v>2</v>
+      </c>
+      <c r="L1396" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1396" s="18">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="N1396" s="18">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="O1396" s="2">
+        <f t="shared" si="24"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1396" s="7" t="s">
         <v>83</v>
@@ -73587,11 +74721,33 @@
       <c r="F1397" t="s">
         <v>38</v>
       </c>
+      <c r="G1397" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1397" s="16">
+        <v>18.215</v>
+      </c>
+      <c r="I1397" s="16">
+        <v>19.52</v>
+      </c>
       <c r="J1397">
         <v>2</v>
       </c>
       <c r="K1397" s="1">
         <v>2</v>
+      </c>
+      <c r="L1397" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1397" s="18">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="N1397" s="18">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="O1397" s="2">
+        <f t="shared" si="24"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1397" s="7" t="s">
         <v>84</v>
@@ -73624,11 +74780,33 @@
       <c r="F1399" t="s">
         <v>122</v>
       </c>
+      <c r="G1399" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1399" s="16">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="I1399" s="16">
+        <v>19.613</v>
+      </c>
       <c r="J1399">
         <v>1</v>
       </c>
       <c r="K1399" s="1">
         <v>1</v>
+      </c>
+      <c r="L1399" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1399" s="18">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="N1399" s="18">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="O1399" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1399" s="7" t="s">
         <v>66</v>
@@ -73653,11 +74831,33 @@
       <c r="F1400" t="s">
         <v>108</v>
       </c>
+      <c r="G1400" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1400" s="16">
+        <v>17.863</v>
+      </c>
+      <c r="I1400" s="16">
+        <v>19.087</v>
+      </c>
       <c r="J1400">
         <v>1</v>
       </c>
       <c r="K1400" s="1">
         <v>1</v>
+      </c>
+      <c r="L1400" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1400" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="N1400" s="18">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="O1400" s="2">
+        <f t="shared" si="24"/>
+        <v>30.000000000000057</v>
       </c>
       <c r="Q1400" s="7" t="s">
         <v>67</v>
@@ -73682,11 +74882,33 @@
       <c r="F1401" t="s">
         <v>100</v>
       </c>
+      <c r="G1401" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1401" s="16">
+        <v>17.731999999999999</v>
+      </c>
+      <c r="I1401" s="16">
+        <v>18.858000000000001</v>
+      </c>
       <c r="J1401">
         <v>1</v>
       </c>
       <c r="K1401" s="1">
         <v>1</v>
+      </c>
+      <c r="L1401" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1401" s="18">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="N1401" s="18">
+        <v>3.754861111111111</v>
+      </c>
+      <c r="O1401" s="2">
+        <f t="shared" si="24"/>
+        <v>4950</v>
       </c>
       <c r="Q1401" s="7" t="s">
         <v>68</v>
@@ -73711,11 +74933,33 @@
       <c r="F1402" t="s">
         <v>112</v>
       </c>
+      <c r="G1402" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1402" s="16">
+        <v>17.920999999999999</v>
+      </c>
+      <c r="I1402" s="16">
+        <v>19.177</v>
+      </c>
       <c r="J1402">
         <v>1</v>
       </c>
       <c r="K1402" s="1">
         <v>1</v>
+      </c>
+      <c r="L1402" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1402" s="18">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="N1402" s="18">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O1402" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1402" s="7" t="s">
         <v>69</v>
@@ -73740,11 +74984,33 @@
       <c r="F1403" t="s">
         <v>126</v>
       </c>
+      <c r="G1403" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1403" s="16">
+        <v>18.170999999999999</v>
+      </c>
+      <c r="I1403" s="16">
+        <v>19.535</v>
+      </c>
       <c r="J1403">
         <v>1</v>
       </c>
       <c r="K1403" s="1">
         <v>1</v>
+      </c>
+      <c r="L1403" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1403" s="18">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="N1403" s="18">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O1403" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1403" s="7" t="s">
         <v>70</v>
@@ -73769,11 +75035,33 @@
       <c r="F1404" t="s">
         <v>116</v>
       </c>
+      <c r="G1404" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1404" s="16">
+        <v>18.356999999999999</v>
+      </c>
+      <c r="I1404" s="16">
+        <v>19.709</v>
+      </c>
       <c r="J1404">
         <v>1</v>
       </c>
       <c r="K1404" s="1">
         <v>1</v>
+      </c>
+      <c r="L1404" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1404" s="18">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="N1404" s="18">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="O1404" s="2">
+        <f t="shared" si="24"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1404" s="7" t="s">
         <v>71</v>
@@ -73798,11 +75086,33 @@
       <c r="F1405" t="s">
         <v>98</v>
       </c>
+      <c r="G1405" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1405" s="16">
+        <v>18.047999999999998</v>
+      </c>
+      <c r="I1405" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1405">
         <v>1</v>
       </c>
       <c r="K1405" s="1">
         <v>1</v>
+      </c>
+      <c r="L1405" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1405" s="18">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="N1405" s="18">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="O1405" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1405" s="7" t="s">
         <v>72</v>
@@ -73827,11 +75137,33 @@
       <c r="F1406" t="s">
         <v>106</v>
       </c>
+      <c r="G1406" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1406" s="16">
+        <v>18.138999999999999</v>
+      </c>
+      <c r="I1406" s="16">
+        <v>19.245000000000001</v>
+      </c>
       <c r="J1406">
         <v>1</v>
       </c>
       <c r="K1406" s="1">
         <v>1</v>
+      </c>
+      <c r="L1406" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1406" s="18">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="N1406" s="18">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O1406" s="2">
+        <f t="shared" si="24"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1406" s="7" t="s">
         <v>73</v>
@@ -73856,11 +75188,33 @@
       <c r="F1407" t="s">
         <v>102</v>
       </c>
+      <c r="G1407" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1407" s="16">
+        <v>18.388000000000002</v>
+      </c>
+      <c r="I1407" s="16">
+        <v>19.712</v>
+      </c>
       <c r="J1407">
         <v>1</v>
       </c>
       <c r="K1407" s="1">
         <v>1</v>
+      </c>
+      <c r="L1407" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1407" s="18">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="N1407" s="18">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="O1407" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1407" s="7" t="s">
         <v>74</v>
@@ -73885,11 +75239,33 @@
       <c r="F1408" t="s">
         <v>118</v>
       </c>
+      <c r="G1408" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1408" s="16">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="I1408" s="16">
+        <v>19.231999999999999</v>
+      </c>
       <c r="J1408">
         <v>1</v>
       </c>
       <c r="K1408" s="1">
         <v>1</v>
+      </c>
+      <c r="L1408" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1408" s="18">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="N1408" s="18">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O1408" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1408" s="7" t="s">
         <v>75</v>
@@ -73914,11 +75290,33 @@
       <c r="F1409" t="s">
         <v>96</v>
       </c>
+      <c r="G1409" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1409" s="16">
+        <v>17.742000000000001</v>
+      </c>
+      <c r="I1409" s="16">
+        <v>19.103000000000002</v>
+      </c>
       <c r="J1409">
         <v>2</v>
       </c>
       <c r="K1409" s="1">
         <v>1</v>
+      </c>
+      <c r="L1409" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1409" s="18">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="N1409" s="18">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="O1409" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1409" s="7" t="s">
         <v>76</v>
@@ -73943,11 +75341,33 @@
       <c r="F1410" t="s">
         <v>136</v>
       </c>
+      <c r="G1410" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1410" s="16">
+        <v>18.053000000000001</v>
+      </c>
+      <c r="I1410" s="16">
+        <v>19.335000000000001</v>
+      </c>
       <c r="J1410">
         <v>2</v>
       </c>
       <c r="K1410" s="1">
         <v>1</v>
+      </c>
+      <c r="L1410" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1410" s="18">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="N1410" s="18">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="O1410" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1410" s="7" t="s">
         <v>77</v>
@@ -73972,11 +75392,33 @@
       <c r="F1411" t="s">
         <v>132</v>
       </c>
+      <c r="G1411" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1411" s="16">
+        <v>18.241</v>
+      </c>
+      <c r="I1411" s="16">
+        <v>19.207000000000001</v>
+      </c>
       <c r="J1411">
         <v>2</v>
       </c>
       <c r="K1411" s="1">
         <v>1</v>
+      </c>
+      <c r="L1411" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1411" s="18">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="N1411" s="18">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="O1411" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1411" s="7" t="s">
         <v>78</v>
@@ -74001,11 +75443,33 @@
       <c r="F1412" t="s">
         <v>104</v>
       </c>
+      <c r="G1412" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1412" s="16">
+        <v>18.39</v>
+      </c>
+      <c r="I1412" s="16">
+        <v>19.513000000000002</v>
+      </c>
       <c r="J1412">
         <v>2</v>
       </c>
       <c r="K1412" s="1">
         <v>1</v>
+      </c>
+      <c r="L1412" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1412" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="N1412" s="18">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="O1412" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1412" s="7" t="s">
         <v>79</v>
@@ -74030,11 +75494,33 @@
       <c r="F1413" t="s">
         <v>124</v>
       </c>
+      <c r="G1413" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1413" s="16">
+        <v>18.131</v>
+      </c>
+      <c r="I1413" s="16">
+        <v>19.38</v>
+      </c>
       <c r="J1413">
         <v>2</v>
       </c>
       <c r="K1413" s="1">
         <v>1</v>
+      </c>
+      <c r="L1413" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1413" s="18">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="N1413" s="18">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="O1413" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1413" s="7" t="s">
         <v>80</v>
@@ -74059,11 +75545,33 @@
       <c r="F1414" t="s">
         <v>130</v>
       </c>
+      <c r="G1414" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1414" s="16">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="I1414" s="16">
+        <v>19.361999999999998</v>
+      </c>
       <c r="J1414">
         <v>2</v>
       </c>
       <c r="K1414" s="1">
         <v>1</v>
+      </c>
+      <c r="L1414" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1414" s="18">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="N1414" s="18">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O1414" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1414" s="7" t="s">
         <v>81</v>
@@ -74088,11 +75596,33 @@
       <c r="F1415" t="s">
         <v>128</v>
       </c>
+      <c r="G1415" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1415" s="16">
+        <v>18.076000000000001</v>
+      </c>
+      <c r="I1415" s="16">
+        <v>19.423999999999999</v>
+      </c>
       <c r="J1415">
         <v>2</v>
       </c>
       <c r="K1415" s="1">
         <v>1</v>
+      </c>
+      <c r="L1415" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1415" s="18">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="N1415" s="18">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="O1415" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1415" s="7" t="s">
         <v>86</v>
@@ -74117,11 +75647,33 @@
       <c r="F1416" t="s">
         <v>120</v>
       </c>
+      <c r="G1416" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1416" s="16">
+        <v>18.145</v>
+      </c>
+      <c r="I1416" s="16">
+        <v>19.213000000000001</v>
+      </c>
       <c r="J1416">
         <v>2</v>
       </c>
       <c r="K1416" s="1">
         <v>1</v>
+      </c>
+      <c r="L1416" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1416" s="18">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="N1416" s="18">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O1416" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1416" s="7" t="s">
         <v>85</v>
@@ -74146,11 +75698,33 @@
       <c r="F1417" t="s">
         <v>134</v>
       </c>
+      <c r="G1417" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1417" s="16">
+        <v>17.995000000000001</v>
+      </c>
+      <c r="I1417" s="16">
+        <v>19.241</v>
+      </c>
       <c r="J1417">
         <v>2</v>
       </c>
       <c r="K1417" s="1">
         <v>1</v>
+      </c>
+      <c r="L1417" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1417" s="18">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="N1417" s="18">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="O1417" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1417" s="7" t="s">
         <v>82</v>
@@ -74175,11 +75749,33 @@
       <c r="F1418" t="s">
         <v>110</v>
       </c>
+      <c r="G1418" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1418" s="16">
+        <v>18.234000000000002</v>
+      </c>
+      <c r="I1418" s="16">
+        <v>19.338999999999999</v>
+      </c>
       <c r="J1418">
         <v>2</v>
       </c>
       <c r="K1418" s="1">
         <v>1</v>
+      </c>
+      <c r="L1418" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1418" s="18">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="N1418" s="18">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="O1418" s="2">
+        <f t="shared" si="24"/>
+        <v>92</v>
       </c>
       <c r="Q1418" s="7" t="s">
         <v>83</v>
@@ -74204,11 +75800,33 @@
       <c r="F1419" t="s">
         <v>114</v>
       </c>
+      <c r="G1419" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1419" s="16">
+        <v>18.210999999999999</v>
+      </c>
+      <c r="I1419" s="16">
+        <v>19.544</v>
+      </c>
       <c r="J1419">
         <v>2</v>
       </c>
       <c r="K1419" s="1">
         <v>1</v>
+      </c>
+      <c r="L1419" s="1">
+        <v>28</v>
+      </c>
+      <c r="M1419" s="18">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="N1419" s="18">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="O1419" s="2">
+        <f t="shared" si="24"/>
+        <v>91</v>
       </c>
       <c r="Q1419" s="7" t="s">
         <v>84</v>
@@ -74233,11 +75851,33 @@
       <c r="F1420" t="s">
         <v>122</v>
       </c>
+      <c r="G1420" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1420" s="16">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="I1420" s="16">
+        <v>19.613</v>
+      </c>
       <c r="J1420">
         <v>1</v>
       </c>
       <c r="K1420" s="1">
         <v>2</v>
+      </c>
+      <c r="L1420" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1420" s="18">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="N1420" s="18">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="O1420" s="2">
+        <f t="shared" si="24"/>
+        <v>90</v>
       </c>
       <c r="Q1420" s="7" t="s">
         <v>66</v>
@@ -74262,11 +75902,33 @@
       <c r="F1421" t="s">
         <v>108</v>
       </c>
+      <c r="G1421" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1421" s="16">
+        <v>17.863</v>
+      </c>
+      <c r="I1421" s="16">
+        <v>19.087</v>
+      </c>
       <c r="J1421">
         <v>1</v>
       </c>
       <c r="K1421" s="1">
         <v>2</v>
+      </c>
+      <c r="L1421" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1421" s="18">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="N1421" s="18">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="O1421" s="2">
+        <f t="shared" si="24"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1421" s="7" t="s">
         <v>67</v>
@@ -74291,11 +75953,33 @@
       <c r="F1422" t="s">
         <v>100</v>
       </c>
+      <c r="G1422" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1422" s="16">
+        <v>17.731999999999999</v>
+      </c>
+      <c r="I1422" s="16">
+        <v>18.858000000000001</v>
+      </c>
       <c r="J1422">
         <v>1</v>
       </c>
       <c r="K1422" s="1">
         <v>2</v>
+      </c>
+      <c r="L1422" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1422" s="18">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="N1422" s="18">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="O1422" s="2">
+        <f t="shared" ref="O1422:O1482" si="25">N1422*1440-M1422*1440</f>
+        <v>90</v>
       </c>
       <c r="Q1422" s="7" t="s">
         <v>68</v>
@@ -74320,11 +76004,33 @@
       <c r="F1423" t="s">
         <v>112</v>
       </c>
+      <c r="G1423" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1423" s="16">
+        <v>17.920999999999999</v>
+      </c>
+      <c r="I1423" s="16">
+        <v>19.177</v>
+      </c>
       <c r="J1423">
         <v>1</v>
       </c>
       <c r="K1423" s="1">
         <v>2</v>
+      </c>
+      <c r="L1423" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1423" s="18">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="N1423" s="18">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="O1423" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1423" s="7" t="s">
         <v>69</v>
@@ -74349,11 +76055,33 @@
       <c r="F1424" t="s">
         <v>126</v>
       </c>
+      <c r="G1424" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1424" s="16">
+        <v>18.170999999999999</v>
+      </c>
+      <c r="I1424" s="16">
+        <v>19.535</v>
+      </c>
       <c r="J1424">
         <v>1</v>
       </c>
       <c r="K1424" s="1">
         <v>2</v>
+      </c>
+      <c r="L1424" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1424" s="18">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="N1424" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="O1424" s="2">
+        <f t="shared" si="25"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1424" s="7" t="s">
         <v>70</v>
@@ -74378,11 +76106,33 @@
       <c r="F1425" t="s">
         <v>116</v>
       </c>
+      <c r="G1425" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1425" s="16">
+        <v>18.356999999999999</v>
+      </c>
+      <c r="I1425" s="16">
+        <v>19.709</v>
+      </c>
       <c r="J1425">
         <v>1</v>
       </c>
       <c r="K1425" s="1">
         <v>2</v>
+      </c>
+      <c r="L1425" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1425" s="18">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="N1425" s="18">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="O1425" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1425" s="7" t="s">
         <v>71</v>
@@ -74407,11 +76157,33 @@
       <c r="F1426" t="s">
         <v>98</v>
       </c>
+      <c r="G1426" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1426" s="16">
+        <v>18.047999999999998</v>
+      </c>
+      <c r="I1426" s="16">
+        <v>19.369</v>
+      </c>
       <c r="J1426">
         <v>1</v>
       </c>
       <c r="K1426" s="1">
         <v>2</v>
+      </c>
+      <c r="L1426" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1426" s="18">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="N1426" s="18">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="O1426" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1426" s="7" t="s">
         <v>72</v>
@@ -74436,11 +76208,33 @@
       <c r="F1427" t="s">
         <v>106</v>
       </c>
+      <c r="G1427" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1427" s="16">
+        <v>18.138999999999999</v>
+      </c>
+      <c r="I1427" s="16">
+        <v>19.245000000000001</v>
+      </c>
       <c r="J1427">
         <v>1</v>
       </c>
       <c r="K1427" s="1">
         <v>2</v>
+      </c>
+      <c r="L1427" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1427" s="18">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="N1427" s="18">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="O1427" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1427" s="7" t="s">
         <v>73</v>
@@ -74465,11 +76259,33 @@
       <c r="F1428" t="s">
         <v>102</v>
       </c>
+      <c r="G1428" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1428" s="16">
+        <v>18.388000000000002</v>
+      </c>
+      <c r="I1428" s="16">
+        <v>19.712</v>
+      </c>
       <c r="J1428">
         <v>1</v>
       </c>
       <c r="K1428" s="1">
         <v>2</v>
+      </c>
+      <c r="L1428" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1428" s="18">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="N1428" s="18">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="O1428" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1428" s="7" t="s">
         <v>74</v>
@@ -74494,11 +76310,33 @@
       <c r="F1429" t="s">
         <v>118</v>
       </c>
+      <c r="G1429" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1429" s="16">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="I1429" s="16">
+        <v>19.231999999999999</v>
+      </c>
       <c r="J1429">
         <v>1</v>
       </c>
       <c r="K1429" s="1">
         <v>2</v>
+      </c>
+      <c r="L1429" s="1">
+        <v>30</v>
+      </c>
+      <c r="M1429" s="18">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="N1429" s="18">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="O1429" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1429" s="7" t="s">
         <v>75</v>
@@ -74523,11 +76361,33 @@
       <c r="F1430" t="s">
         <v>96</v>
       </c>
+      <c r="G1430" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1430" s="16">
+        <v>17.742000000000001</v>
+      </c>
+      <c r="I1430" s="16">
+        <v>19.103000000000002</v>
+      </c>
       <c r="J1430">
         <v>2</v>
       </c>
       <c r="K1430" s="1">
         <v>2</v>
+      </c>
+      <c r="L1430" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1430" s="18">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="N1430" s="18">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="O1430" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1430" s="7" t="s">
         <v>76</v>
@@ -74552,11 +76412,33 @@
       <c r="F1431" t="s">
         <v>136</v>
       </c>
+      <c r="G1431" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1431" s="16">
+        <v>18.053000000000001</v>
+      </c>
+      <c r="I1431" s="16">
+        <v>19.335000000000001</v>
+      </c>
       <c r="J1431">
         <v>2</v>
       </c>
       <c r="K1431" s="1">
         <v>2</v>
+      </c>
+      <c r="L1431" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1431" s="18">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="N1431" s="18">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="O1431" s="2">
+        <f t="shared" si="25"/>
+        <v>89</v>
       </c>
       <c r="Q1431" s="7" t="s">
         <v>77</v>
@@ -74581,11 +76463,33 @@
       <c r="F1432" t="s">
         <v>132</v>
       </c>
+      <c r="G1432" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1432" s="16">
+        <v>18.241</v>
+      </c>
+      <c r="I1432" s="16">
+        <v>19.207000000000001</v>
+      </c>
       <c r="J1432">
         <v>2</v>
       </c>
       <c r="K1432" s="1">
         <v>2</v>
+      </c>
+      <c r="L1432" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1432" s="18">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="N1432" s="18">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="O1432" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1432" s="7" t="s">
         <v>78</v>
@@ -74610,11 +76514,33 @@
       <c r="F1433" t="s">
         <v>104</v>
       </c>
+      <c r="G1433" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1433" s="16">
+        <v>18.39</v>
+      </c>
+      <c r="I1433" s="16">
+        <v>19.513000000000002</v>
+      </c>
       <c r="J1433">
         <v>2</v>
       </c>
       <c r="K1433" s="1">
         <v>2</v>
+      </c>
+      <c r="L1433" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1433" s="18">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N1433" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O1433" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1433" s="7" t="s">
         <v>79</v>
@@ -74639,11 +76565,33 @@
       <c r="F1434" t="s">
         <v>124</v>
       </c>
+      <c r="G1434" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1434" s="16">
+        <v>18.131</v>
+      </c>
+      <c r="I1434" s="16">
+        <v>19.38</v>
+      </c>
       <c r="J1434">
         <v>2</v>
       </c>
       <c r="K1434" s="1">
         <v>2</v>
+      </c>
+      <c r="L1434" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1434" s="18">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="N1434" s="18">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="O1434" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1434" s="7" t="s">
         <v>80</v>
@@ -74668,11 +76616,33 @@
       <c r="F1435" t="s">
         <v>130</v>
       </c>
+      <c r="G1435" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1435" s="16">
+        <v>18.193999999999999</v>
+      </c>
+      <c r="I1435" s="16">
+        <v>19.361999999999998</v>
+      </c>
       <c r="J1435">
         <v>2</v>
       </c>
       <c r="K1435" s="1">
         <v>2</v>
+      </c>
+      <c r="L1435" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1435" s="18">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="N1435" s="18">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="O1435" s="2">
+        <f t="shared" si="25"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1435" s="7" t="s">
         <v>81</v>
@@ -74697,11 +76667,33 @@
       <c r="F1436" t="s">
         <v>128</v>
       </c>
+      <c r="G1436" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1436" s="16">
+        <v>18.076000000000001</v>
+      </c>
+      <c r="I1436" s="16">
+        <v>19.423999999999999</v>
+      </c>
       <c r="J1436">
         <v>2</v>
       </c>
       <c r="K1436" s="1">
         <v>2</v>
+      </c>
+      <c r="L1436" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1436" s="18">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="N1436" s="18">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="O1436" s="2">
+        <f t="shared" si="25"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1436" s="7" t="s">
         <v>86</v>
@@ -74726,11 +76718,33 @@
       <c r="F1437" t="s">
         <v>120</v>
       </c>
+      <c r="G1437" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1437" s="16">
+        <v>18.145</v>
+      </c>
+      <c r="I1437" s="16">
+        <v>19.213000000000001</v>
+      </c>
       <c r="J1437">
         <v>2</v>
       </c>
       <c r="K1437" s="1">
         <v>2</v>
+      </c>
+      <c r="L1437" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1437" s="18">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="N1437" s="18">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="O1437" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1437" s="7" t="s">
         <v>85</v>
@@ -74755,11 +76769,33 @@
       <c r="F1438" t="s">
         <v>134</v>
       </c>
+      <c r="G1438" s="1">
+        <v>23</v>
+      </c>
+      <c r="H1438" s="16">
+        <v>17.995000000000001</v>
+      </c>
+      <c r="I1438" s="16">
+        <v>19.241</v>
+      </c>
       <c r="J1438">
         <v>2</v>
       </c>
       <c r="K1438" s="1">
         <v>2</v>
+      </c>
+      <c r="L1438" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1438" s="18">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="N1438" s="18">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="O1438" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1438" s="7" t="s">
         <v>82</v>
@@ -74784,11 +76820,33 @@
       <c r="F1439" t="s">
         <v>110</v>
       </c>
+      <c r="G1439" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1439" s="16">
+        <v>18.234000000000002</v>
+      </c>
+      <c r="I1439" s="16">
+        <v>19.338999999999999</v>
+      </c>
       <c r="J1439">
         <v>2</v>
       </c>
       <c r="K1439" s="1">
         <v>2</v>
+      </c>
+      <c r="L1439" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1439" s="18">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="N1439" s="18">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="O1439" s="2">
+        <f t="shared" si="25"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1439" s="7" t="s">
         <v>83</v>
@@ -74813,11 +76871,33 @@
       <c r="F1440" t="s">
         <v>114</v>
       </c>
+      <c r="G1440" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1440" s="16">
+        <v>18.210999999999999</v>
+      </c>
+      <c r="I1440" s="16">
+        <v>19.544</v>
+      </c>
       <c r="J1440">
         <v>2</v>
       </c>
       <c r="K1440" s="1">
         <v>2</v>
+      </c>
+      <c r="L1440" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1440" s="18">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="N1440" s="18">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="O1440" s="2">
+        <f t="shared" si="25"/>
+        <v>90.000000000000114</v>
       </c>
       <c r="Q1440" s="7" t="s">
         <v>84</v>
@@ -74842,11 +76922,33 @@
       <c r="F1441" t="s">
         <v>122</v>
       </c>
+      <c r="G1441" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1441" s="16">
+        <v>18.587</v>
+      </c>
+      <c r="I1441" s="16">
+        <v>19.638000000000002</v>
+      </c>
       <c r="J1441">
         <v>1</v>
       </c>
       <c r="K1441" s="1">
         <v>1</v>
+      </c>
+      <c r="L1441" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1441" s="18">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="N1441" s="18">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="O1441" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1441" s="7" t="s">
         <v>66</v>
@@ -74871,11 +76973,33 @@
       <c r="F1442" t="s">
         <v>108</v>
       </c>
+      <c r="G1442" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1442" s="16">
+        <v>17.878</v>
+      </c>
+      <c r="I1442" s="16">
+        <v>19.052</v>
+      </c>
       <c r="J1442">
         <v>1</v>
       </c>
       <c r="K1442" s="1">
         <v>1</v>
+      </c>
+      <c r="L1442" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1442" s="18">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="N1442" s="18">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="O1442" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1442" s="7" t="s">
         <v>67</v>
@@ -74900,11 +77024,33 @@
       <c r="F1443" t="s">
         <v>100</v>
       </c>
+      <c r="G1443" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1443" s="16">
+        <v>17.739000000000001</v>
+      </c>
+      <c r="I1443" s="16">
+        <v>18.838000000000001</v>
+      </c>
       <c r="J1443">
         <v>1</v>
       </c>
       <c r="K1443" s="1">
         <v>1</v>
+      </c>
+      <c r="L1443" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1443" s="18">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="N1443" s="18">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="O1443" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1443" s="7" t="s">
         <v>68</v>
@@ -74929,11 +77075,33 @@
       <c r="F1444" t="s">
         <v>112</v>
       </c>
+      <c r="G1444" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1444" s="16">
+        <v>17.943000000000001</v>
+      </c>
+      <c r="I1444" s="16">
+        <v>19.164000000000001</v>
+      </c>
       <c r="J1444">
         <v>1</v>
       </c>
       <c r="K1444" s="1">
         <v>1</v>
+      </c>
+      <c r="L1444" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1444" s="18">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="N1444" s="18">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="O1444" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1444" s="7" t="s">
         <v>69</v>
@@ -74958,11 +77126,33 @@
       <c r="F1445" t="s">
         <v>126</v>
       </c>
+      <c r="G1445" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1445" s="16">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="I1445" s="16">
+        <v>19.544</v>
+      </c>
       <c r="J1445">
         <v>1</v>
       </c>
       <c r="K1445" s="1">
         <v>1</v>
+      </c>
+      <c r="L1445" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1445" s="18">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="N1445" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="O1445" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1445" s="7" t="s">
         <v>70</v>
@@ -74987,11 +77177,33 @@
       <c r="F1446" t="s">
         <v>116</v>
       </c>
+      <c r="G1446" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1446" s="16">
+        <v>18.399000000000001</v>
+      </c>
+      <c r="I1446" s="16">
+        <v>19.741</v>
+      </c>
       <c r="J1446">
         <v>1</v>
       </c>
       <c r="K1446" s="1">
         <v>1</v>
+      </c>
+      <c r="L1446" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1446" s="18">
+        <v>0.3125</v>
+      </c>
+      <c r="N1446" s="18">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="O1446" s="2">
+        <f t="shared" si="25"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1446" s="7" t="s">
         <v>71</v>
@@ -75016,11 +77228,33 @@
       <c r="F1447" t="s">
         <v>98</v>
       </c>
+      <c r="G1447" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1447" s="16">
+        <v>18.009</v>
+      </c>
+      <c r="I1447" s="16">
+        <v>19.329999999999998</v>
+      </c>
       <c r="J1447">
         <v>1</v>
       </c>
       <c r="K1447" s="1">
         <v>1</v>
+      </c>
+      <c r="L1447" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1447" s="18">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="N1447" s="18">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="O1447" s="2">
+        <f t="shared" si="25"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1447" s="7" t="s">
         <v>72</v>
@@ -75045,11 +77279,33 @@
       <c r="F1448" t="s">
         <v>106</v>
       </c>
+      <c r="G1448" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1448" s="16">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="I1448" s="16">
+        <v>19.202000000000002</v>
+      </c>
       <c r="J1448">
         <v>1</v>
       </c>
       <c r="K1448" s="1">
         <v>1</v>
+      </c>
+      <c r="L1448" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1448" s="18">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="N1448" s="18">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="O1448" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1448" s="7" t="s">
         <v>73</v>
@@ -75074,11 +77330,33 @@
       <c r="F1449" t="s">
         <v>102</v>
       </c>
+      <c r="G1449" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1449" s="16">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="I1449" s="16">
+        <v>19.684000000000001</v>
+      </c>
       <c r="J1449">
         <v>1</v>
       </c>
       <c r="K1449" s="1">
         <v>1</v>
+      </c>
+      <c r="L1449" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1449" s="18">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="N1449" s="18">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="O1449" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1449" s="7" t="s">
         <v>74</v>
@@ -75103,11 +77381,33 @@
       <c r="F1450" t="s">
         <v>118</v>
       </c>
+      <c r="G1450" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1450" s="16">
+        <v>18.184000000000001</v>
+      </c>
+      <c r="I1450" s="16">
+        <v>19.204999999999998</v>
+      </c>
       <c r="J1450">
         <v>1</v>
       </c>
       <c r="K1450" s="1">
         <v>1</v>
+      </c>
+      <c r="L1450" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1450" s="18">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="N1450" s="18">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O1450" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1450" s="7" t="s">
         <v>75</v>
@@ -75132,11 +77432,33 @@
       <c r="F1451" t="s">
         <v>96</v>
       </c>
+      <c r="G1451" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1451" s="16">
+        <v>17.718</v>
+      </c>
+      <c r="I1451" s="16">
+        <v>19.056999999999999</v>
+      </c>
       <c r="J1451">
         <v>2</v>
       </c>
       <c r="K1451" s="1">
         <v>1</v>
+      </c>
+      <c r="L1451" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1451" s="18">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="N1451" s="18">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="O1451" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1451" s="7" t="s">
         <v>76</v>
@@ -75161,11 +77483,33 @@
       <c r="F1452" t="s">
         <v>136</v>
       </c>
+      <c r="G1452" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1452" s="16">
+        <v>18.035</v>
+      </c>
+      <c r="I1452" s="16">
+        <v>19.298999999999999</v>
+      </c>
       <c r="J1452">
         <v>2</v>
       </c>
       <c r="K1452" s="1">
         <v>1</v>
+      </c>
+      <c r="L1452" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1452" s="18">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="N1452" s="18">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="O1452" s="2">
+        <f t="shared" si="25"/>
+        <v>90.000000000000057</v>
       </c>
       <c r="Q1452" s="7" t="s">
         <v>77</v>
@@ -75190,11 +77534,33 @@
       <c r="F1453" t="s">
         <v>132</v>
       </c>
+      <c r="G1453" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1453" s="16">
+        <v>18.228000000000002</v>
+      </c>
+      <c r="I1453" s="16">
+        <v>19.190000000000001</v>
+      </c>
       <c r="J1453">
         <v>2</v>
       </c>
       <c r="K1453" s="1">
         <v>1</v>
+      </c>
+      <c r="L1453" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1453" s="18">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="N1453" s="18">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="O1453" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999943</v>
       </c>
       <c r="Q1453" s="7" t="s">
         <v>78</v>
@@ -75219,11 +77585,33 @@
       <c r="F1454" t="s">
         <v>104</v>
       </c>
+      <c r="G1454" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1454" s="16">
+        <v>18.391999999999999</v>
+      </c>
+      <c r="I1454" s="16">
+        <v>19.510999999999999</v>
+      </c>
       <c r="J1454">
         <v>2</v>
       </c>
       <c r="K1454" s="1">
         <v>1</v>
+      </c>
+      <c r="L1454" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1454" s="18">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="N1454" s="18">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="O1454" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999943</v>
       </c>
       <c r="Q1454" s="7" t="s">
         <v>79</v>
@@ -75248,11 +77636,33 @@
       <c r="F1455" t="s">
         <v>124</v>
       </c>
+      <c r="G1455" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1455" s="16">
+        <v>18.094999999999999</v>
+      </c>
+      <c r="I1455" s="16">
+        <v>19.338000000000001</v>
+      </c>
       <c r="J1455">
         <v>2</v>
       </c>
       <c r="K1455" s="1">
         <v>1</v>
+      </c>
+      <c r="L1455" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1455" s="18">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="N1455" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O1455" s="2">
+        <f t="shared" si="25"/>
+        <v>91.000000000000057</v>
       </c>
       <c r="Q1455" s="7" t="s">
         <v>80</v>
@@ -75277,11 +77687,33 @@
       <c r="F1456" t="s">
         <v>130</v>
       </c>
+      <c r="G1456" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1456" s="16">
+        <v>18.207000000000001</v>
+      </c>
+      <c r="I1456" s="16">
+        <v>19.334</v>
+      </c>
       <c r="J1456">
         <v>2</v>
       </c>
       <c r="K1456" s="1">
         <v>1</v>
+      </c>
+      <c r="L1456" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1456" s="18">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="N1456" s="18">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="O1456" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1456" s="7" t="s">
         <v>81</v>
@@ -75306,11 +77738,33 @@
       <c r="F1457" t="s">
         <v>128</v>
       </c>
+      <c r="G1457" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1457" s="16">
+        <v>18.068999999999999</v>
+      </c>
+      <c r="I1457" s="16">
+        <v>19.390999999999998</v>
+      </c>
       <c r="J1457">
         <v>2</v>
       </c>
       <c r="K1457" s="1">
         <v>1</v>
+      </c>
+      <c r="L1457" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1457" s="18">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="N1457" s="18">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="O1457" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1457" s="7" t="s">
         <v>86</v>
@@ -75335,11 +77789,33 @@
       <c r="F1458" t="s">
         <v>120</v>
       </c>
+      <c r="G1458" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1458" s="16">
+        <v>18.103999999999999</v>
+      </c>
+      <c r="I1458" s="16">
+        <v>19.166</v>
+      </c>
       <c r="J1458">
         <v>2</v>
       </c>
       <c r="K1458" s="1">
         <v>1</v>
+      </c>
+      <c r="L1458" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1458" s="18">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="N1458" s="18">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="O1458" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1458" s="7" t="s">
         <v>85</v>
@@ -75364,11 +77840,33 @@
       <c r="F1459" t="s">
         <v>134</v>
       </c>
+      <c r="G1459" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1459" s="16">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="I1459" s="16">
+        <v>19.315000000000001</v>
+      </c>
       <c r="J1459">
         <v>2</v>
       </c>
       <c r="K1459" s="1">
         <v>1</v>
+      </c>
+      <c r="L1459" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1459" s="18">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="N1459" s="18">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="O1459" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1459" s="7" t="s">
         <v>82</v>
@@ -75393,11 +77891,33 @@
       <c r="F1460" t="s">
         <v>110</v>
       </c>
+      <c r="G1460" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1460" s="16">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="I1460" s="16">
+        <v>19.222000000000001</v>
+      </c>
       <c r="J1460">
         <v>2</v>
       </c>
       <c r="K1460" s="1">
         <v>1</v>
+      </c>
+      <c r="L1460" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1460" s="18">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="N1460" s="18">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="O1460" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1460" s="7" t="s">
         <v>83</v>
@@ -75422,11 +77942,33 @@
       <c r="F1461" t="s">
         <v>114</v>
       </c>
+      <c r="G1461" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1461" s="16">
+        <v>18.212</v>
+      </c>
+      <c r="I1461" s="16">
+        <v>19.521999999999998</v>
+      </c>
       <c r="J1461">
         <v>2</v>
       </c>
       <c r="K1461" s="1">
         <v>1</v>
+      </c>
+      <c r="L1461" s="1">
+        <v>24</v>
+      </c>
+      <c r="M1461" s="18">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="N1461" s="18">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="O1461" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1461" s="7" t="s">
         <v>84</v>
@@ -75451,11 +77993,33 @@
       <c r="F1462" t="s">
         <v>122</v>
       </c>
+      <c r="G1462" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1462" s="16">
+        <v>18.587</v>
+      </c>
+      <c r="I1462" s="16">
+        <v>19.638000000000002</v>
+      </c>
       <c r="J1462">
         <v>1</v>
       </c>
       <c r="K1462" s="1">
         <v>2</v>
+      </c>
+      <c r="L1462" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1462" s="18">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="N1462" s="18">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="O1462" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1462" s="7" t="s">
         <v>66</v>
@@ -75480,11 +78044,33 @@
       <c r="F1463" t="s">
         <v>108</v>
       </c>
+      <c r="G1463" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1463" s="16">
+        <v>17.878</v>
+      </c>
+      <c r="I1463" s="16">
+        <v>19.052</v>
+      </c>
       <c r="J1463">
         <v>1</v>
       </c>
       <c r="K1463" s="1">
         <v>2</v>
+      </c>
+      <c r="L1463" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1463" s="18">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="N1463" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="O1463" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1463" s="7" t="s">
         <v>67</v>
@@ -75509,11 +78095,33 @@
       <c r="F1464" t="s">
         <v>100</v>
       </c>
+      <c r="G1464" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1464" s="16">
+        <v>17.739000000000001</v>
+      </c>
+      <c r="I1464" s="16">
+        <v>18.838000000000001</v>
+      </c>
       <c r="J1464">
         <v>1</v>
       </c>
       <c r="K1464" s="1">
         <v>2</v>
+      </c>
+      <c r="L1464" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1464" s="18">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="N1464" s="18">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="O1464" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1464" s="7" t="s">
         <v>68</v>
@@ -75538,11 +78146,33 @@
       <c r="F1465" t="s">
         <v>112</v>
       </c>
+      <c r="G1465" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1465" s="16">
+        <v>17.943000000000001</v>
+      </c>
+      <c r="I1465" s="16">
+        <v>19.164000000000001</v>
+      </c>
       <c r="J1465">
         <v>1</v>
       </c>
       <c r="K1465" s="1">
         <v>2</v>
+      </c>
+      <c r="L1465" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1465" s="18">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="N1465" s="18">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="O1465" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1465" s="7" t="s">
         <v>69</v>
@@ -75567,11 +78197,33 @@
       <c r="F1466" t="s">
         <v>126</v>
       </c>
+      <c r="G1466" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1466" s="16">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="I1466" s="16">
+        <v>19.544</v>
+      </c>
       <c r="J1466">
         <v>1</v>
       </c>
       <c r="K1466" s="1">
         <v>2</v>
+      </c>
+      <c r="L1466" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1466" s="18">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="N1466" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="O1466" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1466" s="7" t="s">
         <v>70</v>
@@ -75596,11 +78248,33 @@
       <c r="F1467" t="s">
         <v>116</v>
       </c>
+      <c r="G1467" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1467" s="16">
+        <v>18.399000000000001</v>
+      </c>
+      <c r="I1467" s="16">
+        <v>19.741</v>
+      </c>
       <c r="J1467">
         <v>1</v>
       </c>
       <c r="K1467" s="1">
         <v>2</v>
+      </c>
+      <c r="L1467" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1467" s="18">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="N1467" s="18">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="O1467" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1467" s="7" t="s">
         <v>71</v>
@@ -75625,11 +78299,33 @@
       <c r="F1468" t="s">
         <v>98</v>
       </c>
+      <c r="G1468" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1468" s="16">
+        <v>18.009</v>
+      </c>
+      <c r="I1468" s="16">
+        <v>19.329999999999998</v>
+      </c>
       <c r="J1468">
         <v>1</v>
       </c>
       <c r="K1468" s="1">
         <v>2</v>
+      </c>
+      <c r="L1468" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1468" s="18">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="N1468" s="18">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="O1468" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1468" s="7" t="s">
         <v>72</v>
@@ -75654,11 +78350,33 @@
       <c r="F1469" t="s">
         <v>106</v>
       </c>
+      <c r="G1469" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1469" s="16">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="I1469" s="16">
+        <v>19.202000000000002</v>
+      </c>
       <c r="J1469">
         <v>1</v>
       </c>
       <c r="K1469" s="1">
         <v>2</v>
+      </c>
+      <c r="L1469" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1469" s="18">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="N1469" s="18">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="O1469" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1469" s="7" t="s">
         <v>73</v>
@@ -75683,11 +78401,33 @@
       <c r="F1470" t="s">
         <v>102</v>
       </c>
+      <c r="G1470" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1470" s="16">
+        <v>18.376999999999999</v>
+      </c>
+      <c r="I1470" s="16">
+        <v>19.684000000000001</v>
+      </c>
       <c r="J1470">
         <v>1</v>
       </c>
       <c r="K1470" s="1">
         <v>2</v>
+      </c>
+      <c r="L1470" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1470" s="18">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="N1470" s="18">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="O1470" s="2">
+        <f t="shared" si="25"/>
+        <v>91.000000000000114</v>
       </c>
       <c r="Q1470" s="7" t="s">
         <v>74</v>
@@ -75712,11 +78452,33 @@
       <c r="F1471" t="s">
         <v>118</v>
       </c>
+      <c r="G1471" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1471" s="16">
+        <v>18.184000000000001</v>
+      </c>
+      <c r="I1471" s="16">
+        <v>19.204999999999998</v>
+      </c>
       <c r="J1471">
         <v>1</v>
       </c>
       <c r="K1471" s="1">
         <v>2</v>
+      </c>
+      <c r="L1471" s="1">
+        <v>26</v>
+      </c>
+      <c r="M1471" s="18">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="N1471" s="18">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="O1471" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1471" s="7" t="s">
         <v>75</v>
@@ -75741,11 +78503,33 @@
       <c r="F1472" t="s">
         <v>96</v>
       </c>
+      <c r="G1472" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="H1472" s="16">
+        <v>17.718</v>
+      </c>
+      <c r="I1472" s="16">
+        <v>19.056999999999999</v>
+      </c>
       <c r="J1472">
         <v>2</v>
       </c>
       <c r="K1472" s="1">
         <v>2</v>
+      </c>
+      <c r="L1472" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1472" s="18">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="N1472" s="18">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="O1472" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1472" s="7" t="s">
         <v>76</v>
@@ -75770,11 +78554,33 @@
       <c r="F1473" t="s">
         <v>136</v>
       </c>
+      <c r="G1473" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1473" s="16">
+        <v>18.035</v>
+      </c>
+      <c r="I1473" s="16">
+        <v>19.298999999999999</v>
+      </c>
       <c r="J1473">
         <v>2</v>
       </c>
       <c r="K1473" s="1">
         <v>2</v>
+      </c>
+      <c r="L1473" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1473" s="18">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="N1473" s="18">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="O1473" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
       </c>
       <c r="Q1473" s="7" t="s">
         <v>77</v>
@@ -75799,11 +78605,33 @@
       <c r="F1474" t="s">
         <v>132</v>
       </c>
+      <c r="G1474" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1474" s="16">
+        <v>18.228000000000002</v>
+      </c>
+      <c r="I1474" s="16">
+        <v>19.190000000000001</v>
+      </c>
       <c r="J1474">
         <v>2</v>
       </c>
       <c r="K1474" s="1">
         <v>2</v>
+      </c>
+      <c r="L1474" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1474" s="18">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="N1474" s="18">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="O1474" s="2">
+        <f t="shared" si="25"/>
+        <v>90.999999999999886</v>
       </c>
       <c r="Q1474" s="7" t="s">
         <v>78</v>
@@ -75828,11 +78656,33 @@
       <c r="F1475" t="s">
         <v>104</v>
       </c>
+      <c r="G1475" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1475" s="16">
+        <v>18.391999999999999</v>
+      </c>
+      <c r="I1475" s="16">
+        <v>19.510999999999999</v>
+      </c>
       <c r="J1475">
         <v>2</v>
       </c>
       <c r="K1475" s="1">
         <v>2</v>
+      </c>
+      <c r="L1475" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1475" s="18">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="N1475" s="18">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="O1475" s="2">
+        <f t="shared" si="25"/>
+        <v>89.999999999999886</v>
       </c>
       <c r="Q1475" s="7" t="s">
         <v>79</v>
@@ -75857,11 +78707,33 @@
       <c r="F1476" t="s">
         <v>124</v>
       </c>
+      <c r="G1476" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1476" s="16">
+        <v>18.094999999999999</v>
+      </c>
+      <c r="I1476" s="16">
+        <v>19.338000000000001</v>
+      </c>
       <c r="J1476">
         <v>2</v>
       </c>
       <c r="K1476" s="1">
         <v>2</v>
+      </c>
+      <c r="L1476" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1476" s="18">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="N1476" s="18">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="O1476" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1476" s="7" t="s">
         <v>80</v>
@@ -75886,11 +78758,33 @@
       <c r="F1477" t="s">
         <v>130</v>
       </c>
+      <c r="G1477" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1477" s="16">
+        <v>18.207000000000001</v>
+      </c>
+      <c r="I1477" s="16">
+        <v>19.334</v>
+      </c>
       <c r="J1477">
         <v>2</v>
       </c>
       <c r="K1477" s="1">
         <v>2</v>
+      </c>
+      <c r="L1477" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1477" s="18">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="N1477" s="18">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="O1477" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1477" s="7" t="s">
         <v>81</v>
@@ -75915,11 +78809,33 @@
       <c r="F1478" t="s">
         <v>128</v>
       </c>
+      <c r="G1478" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="H1478" s="16">
+        <v>18.068999999999999</v>
+      </c>
+      <c r="I1478" s="16">
+        <v>19.390999999999998</v>
+      </c>
       <c r="J1478">
         <v>2</v>
       </c>
       <c r="K1478" s="1">
         <v>2</v>
+      </c>
+      <c r="L1478" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1478" s="18">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="N1478" s="18">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O1478" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1478" s="7" t="s">
         <v>86</v>
@@ -75944,11 +78860,33 @@
       <c r="F1479" t="s">
         <v>120</v>
       </c>
+      <c r="G1479" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1479" s="16">
+        <v>18.103999999999999</v>
+      </c>
+      <c r="I1479" s="16">
+        <v>19.166</v>
+      </c>
       <c r="J1479">
         <v>2</v>
       </c>
       <c r="K1479" s="1">
         <v>2</v>
+      </c>
+      <c r="L1479" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1479" s="18">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="N1479" s="18">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="O1479" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1479" s="7" t="s">
         <v>85</v>
@@ -75973,11 +78911,33 @@
       <c r="F1480" t="s">
         <v>134</v>
       </c>
+      <c r="G1480" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="H1480" s="16">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="I1480" s="16">
+        <v>19.315000000000001</v>
+      </c>
       <c r="J1480">
         <v>2</v>
       </c>
       <c r="K1480" s="1">
         <v>2</v>
+      </c>
+      <c r="L1480" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1480" s="18">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="N1480" s="18">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="O1480" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1480" s="7" t="s">
         <v>82</v>
@@ -76002,11 +78962,33 @@
       <c r="F1481" t="s">
         <v>110</v>
       </c>
+      <c r="G1481" s="1">
+        <v>25</v>
+      </c>
+      <c r="H1481" s="16">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="I1481" s="16">
+        <v>19.222000000000001</v>
+      </c>
       <c r="J1481">
         <v>2</v>
       </c>
       <c r="K1481" s="1">
         <v>2</v>
+      </c>
+      <c r="L1481" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1481" s="18">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="N1481" s="18">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="O1481" s="2">
+        <f t="shared" si="25"/>
+        <v>91</v>
       </c>
       <c r="Q1481" s="7" t="s">
         <v>83</v>
@@ -76031,11 +79013,33 @@
       <c r="F1482" t="s">
         <v>114</v>
       </c>
+      <c r="G1482" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1482" s="16">
+        <v>18.212</v>
+      </c>
+      <c r="I1482" s="16">
+        <v>19.521999999999998</v>
+      </c>
       <c r="J1482">
         <v>2</v>
       </c>
       <c r="K1482" s="1">
         <v>2</v>
+      </c>
+      <c r="L1482" s="1">
+        <v>32</v>
+      </c>
+      <c r="M1482" s="18">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="N1482" s="18">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="O1482" s="2">
+        <f t="shared" si="25"/>
+        <v>92.000000000000114</v>
       </c>
       <c r="Q1482" s="7" t="s">
         <v>84</v>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="3120" yWindow="8160" windowWidth="22420" windowHeight="6580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="177">
   <si>
     <t>date</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>BadBLCO2</t>
+  </si>
+  <si>
+    <t>BadCO2BLP</t>
+  </si>
+  <si>
+    <t>LateCO2BLP</t>
   </si>
 </sst>
 </file>
@@ -2311,9 +2317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1483" sqref="N1483"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1356" sqref="R1356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -71180,7 +71186,7 @@
         <v>1.41E-3</v>
       </c>
     </row>
-    <row r="1329" spans="1:20" ht="16" customHeight="1">
+    <row r="1329" spans="1:29" ht="16" customHeight="1">
       <c r="A1329" s="3">
         <v>42761</v>
       </c>
@@ -71240,7 +71246,7 @@
         <v>1.9980000000000002E-3</v>
       </c>
     </row>
-    <row r="1330" spans="1:20" ht="16" customHeight="1">
+    <row r="1330" spans="1:29" ht="16" customHeight="1">
       <c r="A1330" s="3">
         <v>42761</v>
       </c>
@@ -71300,7 +71306,7 @@
         <v>1.078E-3</v>
       </c>
     </row>
-    <row r="1331" spans="1:20" ht="16" customHeight="1">
+    <row r="1331" spans="1:29" ht="16" customHeight="1">
       <c r="A1331" s="3">
         <v>42761</v>
       </c>
@@ -71360,7 +71366,7 @@
         <v>1.7329999999999999E-3</v>
       </c>
     </row>
-    <row r="1332" spans="1:20" ht="16" customHeight="1">
+    <row r="1332" spans="1:29" ht="16" customHeight="1">
       <c r="A1332" s="3">
         <v>42761</v>
       </c>
@@ -71420,7 +71426,7 @@
         <v>1.678E-3</v>
       </c>
     </row>
-    <row r="1333" spans="1:20" ht="16" customHeight="1">
+    <row r="1333" spans="1:29" ht="16" customHeight="1">
       <c r="A1333" s="3">
         <v>42761</v>
       </c>
@@ -71480,7 +71486,7 @@
         <v>2.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="1334" spans="1:20" ht="16" customHeight="1">
+    <row r="1334" spans="1:29" ht="16" customHeight="1">
       <c r="A1334" s="3">
         <v>42761</v>
       </c>
@@ -71540,7 +71546,7 @@
         <v>1.805E-3</v>
       </c>
     </row>
-    <row r="1335" spans="1:20" ht="16" customHeight="1">
+    <row r="1335" spans="1:29" ht="16" customHeight="1">
       <c r="A1335" s="3">
         <v>42761</v>
       </c>
@@ -71590,8 +71596,17 @@
       <c r="Q1335" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1336" spans="1:20" ht="16" customHeight="1">
+      <c r="R1335" s="28">
+        <v>3.4509999999999999E-4</v>
+      </c>
+      <c r="S1335" s="28">
+        <v>3.0040000000000002E-3</v>
+      </c>
+      <c r="T1335" s="28">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:29" ht="16" customHeight="1">
       <c r="A1336" s="3">
         <v>42761</v>
       </c>
@@ -71641,8 +71656,17 @@
       <c r="Q1336" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="1337" spans="1:20" ht="16" customHeight="1">
+      <c r="R1336" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1336" s="28">
+        <v>5.3749999999999996E-3</v>
+      </c>
+      <c r="T1336" s="28">
+        <v>3.8930000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:29" ht="16" customHeight="1">
       <c r="A1337" s="3">
         <v>42761</v>
       </c>
@@ -71692,8 +71716,17 @@
       <c r="Q1337" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="1338" spans="1:20" ht="16" customHeight="1">
+      <c r="R1337" s="28">
+        <v>5.5460000000000004E-4</v>
+      </c>
+      <c r="S1337" s="28">
+        <v>3.98E-3</v>
+      </c>
+      <c r="T1337" s="28">
+        <v>3.7060000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:29" ht="16" customHeight="1">
       <c r="A1338" s="3">
         <v>42761</v>
       </c>
@@ -71743,8 +71776,17 @@
       <c r="Q1338" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="1339" spans="1:20" ht="16" customHeight="1">
+      <c r="R1338" s="28">
+        <v>3.9599999999999998E-4</v>
+      </c>
+      <c r="S1338" s="28">
+        <v>3.9039999999999999E-3</v>
+      </c>
+      <c r="T1338" s="28">
+        <v>3.5560000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:29" ht="16" customHeight="1">
       <c r="A1339" s="3">
         <v>42761</v>
       </c>
@@ -71794,8 +71836,17 @@
       <c r="Q1339" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="1340" spans="1:20" ht="16" customHeight="1">
+      <c r="R1339" s="28">
+        <v>1.2459999999999999E-3</v>
+      </c>
+      <c r="S1339" s="1">
+        <v>1.03807E-2</v>
+      </c>
+      <c r="T1339" s="28">
+        <v>6.4660000000000004E-3</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:29" ht="16" customHeight="1">
       <c r="A1340" s="3">
         <v>42761</v>
       </c>
@@ -71845,8 +71896,17 @@
       <c r="Q1340" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1341" spans="1:20" ht="16" customHeight="1">
+      <c r="R1340" s="28">
+        <v>3.5300000000000002E-4</v>
+      </c>
+      <c r="S1340" s="28">
+        <v>4.5729999999999998E-3</v>
+      </c>
+      <c r="T1340" s="28">
+        <v>3.859E-3</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:29" ht="16" customHeight="1">
       <c r="A1341" s="3">
         <v>42761</v>
       </c>
@@ -71896,8 +71956,17 @@
       <c r="Q1341" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1342" spans="1:20" ht="16" customHeight="1">
+      <c r="R1341" s="28">
+        <v>2.106E-4</v>
+      </c>
+      <c r="S1341" s="28">
+        <v>3.9509999999999997E-3</v>
+      </c>
+      <c r="T1341" s="28">
+        <v>3.8790000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:29" ht="16" customHeight="1">
       <c r="A1342" s="3">
         <v>42761</v>
       </c>
@@ -71947,8 +72016,17 @@
       <c r="Q1342" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1343" spans="1:20" ht="16" customHeight="1">
+      <c r="R1342" s="28">
+        <v>2.3039999999999999E-4</v>
+      </c>
+      <c r="S1342" s="28">
+        <v>5.3140000000000001E-3</v>
+      </c>
+      <c r="T1342" s="28">
+        <v>5.8979999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:29" ht="16" customHeight="1">
       <c r="A1343" s="3">
         <v>42761</v>
       </c>
@@ -71998,8 +72076,20 @@
       <c r="Q1343" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1344" spans="1:20" ht="16" customHeight="1">
+      <c r="R1343" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1343" s="28">
+        <v>5.4310000000000001E-3</v>
+      </c>
+      <c r="T1343" s="28">
+        <v>5.0410000000000003E-3</v>
+      </c>
+      <c r="AC1343" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:29" ht="16" customHeight="1">
       <c r="A1344" s="3">
         <v>42761</v>
       </c>
@@ -72049,8 +72139,17 @@
       <c r="Q1344" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1345" spans="1:17" ht="16" customHeight="1">
+      <c r="R1344" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1344" s="28">
+        <v>7.2589999999999998E-3</v>
+      </c>
+      <c r="T1344" s="28">
+        <v>7.5119999999999996E-3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:29" ht="16" customHeight="1">
       <c r="A1345" s="3">
         <v>42761</v>
       </c>
@@ -72100,8 +72199,17 @@
       <c r="Q1345" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="1346" spans="1:17" ht="16" customHeight="1">
+      <c r="R1345" s="28">
+        <v>2.7129999999999998E-4</v>
+      </c>
+      <c r="S1345" s="28">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="T1345" s="28">
+        <v>2.7920000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:29" ht="16" customHeight="1">
       <c r="A1346" s="3">
         <v>42761</v>
       </c>
@@ -72151,8 +72259,17 @@
       <c r="Q1346" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1347" spans="1:17" ht="16" customHeight="1">
+      <c r="R1346" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1346" s="28">
+        <v>3.2989999999999998E-3</v>
+      </c>
+      <c r="T1346" s="28">
+        <v>2.5869999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:29" ht="16" customHeight="1">
       <c r="A1347" s="3">
         <v>42761</v>
       </c>
@@ -72202,8 +72319,17 @@
       <c r="Q1347" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1348" spans="1:17" ht="16" customHeight="1">
+      <c r="R1347" s="28">
+        <v>4.8349999999999999E-4</v>
+      </c>
+      <c r="S1347" s="28">
+        <v>1.2819999999999999E-3</v>
+      </c>
+      <c r="T1347" s="28">
+        <v>3.6900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:29" ht="16" customHeight="1">
       <c r="A1348" s="3">
         <v>42761</v>
       </c>
@@ -72253,8 +72379,20 @@
       <c r="Q1348" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1349" spans="1:17" ht="16" customHeight="1">
+      <c r="R1348" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1348" s="28">
+        <v>2.3080000000000002E-3</v>
+      </c>
+      <c r="T1348" s="28">
+        <v>1.97E-3</v>
+      </c>
+      <c r="AC1348" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:29" ht="16" customHeight="1">
       <c r="A1349" s="3">
         <v>42761</v>
       </c>
@@ -72304,8 +72442,17 @@
       <c r="Q1349" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1350" spans="1:17" ht="16" customHeight="1">
+      <c r="R1349" s="28">
+        <v>8.8020000000000004E-4</v>
+      </c>
+      <c r="S1349" s="28">
+        <v>4.6340000000000001E-3</v>
+      </c>
+      <c r="T1349" s="28">
+        <v>5.6839999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:29" ht="16" customHeight="1">
       <c r="A1350" s="3">
         <v>42761</v>
       </c>
@@ -72355,8 +72502,17 @@
       <c r="Q1350" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="1351" spans="1:17" ht="16" customHeight="1">
+      <c r="R1350" s="28">
+        <v>5.0370000000000005E-4</v>
+      </c>
+      <c r="S1350" s="28">
+        <v>2.6210000000000001E-3</v>
+      </c>
+      <c r="T1350" s="28">
+        <v>3.1410000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:29" ht="16" customHeight="1">
       <c r="A1351" s="3">
         <v>42761</v>
       </c>
@@ -72406,8 +72562,17 @@
       <c r="Q1351" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1352" spans="1:17" ht="16" customHeight="1">
+      <c r="R1351" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1351" s="28">
+        <v>2.0040000000000001E-3</v>
+      </c>
+      <c r="T1351" s="28">
+        <v>7.7130000000000005E-4</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:29" ht="16" customHeight="1">
       <c r="A1352" s="3">
         <v>42761</v>
       </c>
@@ -72457,8 +72622,17 @@
       <c r="Q1352" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="1353" spans="1:17" ht="16" customHeight="1">
+      <c r="R1352" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1352" s="28">
+        <v>2.702E-3</v>
+      </c>
+      <c r="T1352" s="28">
+        <v>2.4849999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:29" ht="16" customHeight="1">
       <c r="A1353" s="3">
         <v>42761</v>
       </c>
@@ -72508,8 +72682,17 @@
       <c r="Q1353" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="1354" spans="1:17" ht="16" customHeight="1">
+      <c r="R1353" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1353" s="28">
+        <v>2.5560000000000001E-3</v>
+      </c>
+      <c r="T1353" s="28">
+        <v>3.222E-3</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:29" ht="16" customHeight="1">
       <c r="A1354" s="3">
         <v>42761</v>
       </c>
@@ -72559,8 +72742,17 @@
       <c r="Q1354" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="1355" spans="1:17" ht="16" customHeight="1">
+      <c r="R1354" s="28">
+        <v>3.2939999999999998E-4</v>
+      </c>
+      <c r="S1354" s="28">
+        <v>2.166E-3</v>
+      </c>
+      <c r="T1354" s="28">
+        <v>2.7490000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:29" ht="16" customHeight="1">
       <c r="A1355" s="3">
         <v>42761</v>
       </c>
@@ -72610,8 +72802,17 @@
       <c r="Q1355" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1356" spans="1:17" ht="16" customHeight="1">
+      <c r="R1355" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1355" s="28">
+        <v>2.2039999999999998E-3</v>
+      </c>
+      <c r="T1355" s="28">
+        <v>3.7230000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:29" ht="16" customHeight="1">
       <c r="A1356" s="3">
         <v>42762</v>
       </c>
@@ -72662,7 +72863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1357" spans="1:17" ht="16" customHeight="1">
+    <row r="1357" spans="1:29" ht="16" customHeight="1">
       <c r="A1357" s="3">
         <v>42762</v>
       </c>
@@ -72713,7 +72914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1358" spans="1:17" ht="16" customHeight="1">
+    <row r="1358" spans="1:29" ht="16" customHeight="1">
       <c r="A1358" s="3">
         <v>42762</v>
       </c>
@@ -72764,7 +72965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1359" spans="1:17" ht="16" customHeight="1">
+    <row r="1359" spans="1:29" ht="16" customHeight="1">
       <c r="A1359" s="3">
         <v>42762</v>
       </c>
@@ -72815,7 +73016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1360" spans="1:17" ht="16" customHeight="1">
+    <row r="1360" spans="1:29" ht="16" customHeight="1">
       <c r="A1360" s="3">
         <v>42762</v>
       </c>

--- a/data/ldeli_integrate.xlsx
+++ b/data/ldeli_integrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="8160" windowWidth="22420" windowHeight="6580" tabRatio="500"/>
+    <workbookView xWindow="3020" yWindow="7840" windowWidth="22420" windowHeight="6580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5503" uniqueCount="180">
   <si>
     <t>date</t>
   </si>
@@ -551,6 +551,15 @@
   </si>
   <si>
     <t>LateCO2BLP</t>
+  </si>
+  <si>
+    <t>BadCO2S1</t>
+  </si>
+  <si>
+    <t>DoublePCO2BL</t>
+  </si>
+  <si>
+    <t>NegCO2S1</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1284,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1358,6 +1367,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="626">
@@ -2318,8 +2330,8 @@
   <dimension ref="A1:AG1779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1356" sqref="R1356"/>
+      <pane ySplit="1" topLeftCell="A1376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1377" sqref="R1377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
@@ -72862,6 +72874,18 @@
       <c r="Q1356" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="R1356" s="29">
+        <v>3.703E-4</v>
+      </c>
+      <c r="S1356" s="28">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="T1356" s="28">
+        <v>2.581E-3</v>
+      </c>
+      <c r="AC1356" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="1357" spans="1:29" ht="16" customHeight="1">
       <c r="A1357" s="3">
@@ -72913,6 +72937,15 @@
       <c r="Q1357" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="R1357" s="28">
+        <v>3.1869999999999999E-4</v>
+      </c>
+      <c r="S1357" s="28">
+        <v>9.4019999999999998E-4</v>
+      </c>
+      <c r="T1357" s="28">
+        <v>2.8999999999999998E-3</v>
+      </c>
     </row>
     <row r="1358" spans="1:29" ht="16" customHeight="1">
       <c r="A1358" s="3">
@@ -72964,6 +72997,15 @@
       <c r="Q1358" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="R1358" s="28">
+        <v>3.3119999999999997E-4</v>
+      </c>
+      <c r="S1358" s="28">
+        <v>2.4689999999999998E-3</v>
+      </c>
+      <c r="T1358" s="28">
+        <v>2.7299999999999998E-3</v>
+      </c>
     </row>
     <row r="1359" spans="1:29" ht="16" customHeight="1">
       <c r="A1359" s="3">
@@ -73015,6 +73057,15 @@
       <c r="Q1359" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="R1359" s="28">
+        <v>5.2550000000000003E-4</v>
+      </c>
+      <c r="S1359" s="28">
+        <v>2.7880000000000001E-3</v>
+      </c>
+      <c r="T1359" s="28">
+        <v>2.8170000000000001E-3</v>
+      </c>
     </row>
     <row r="1360" spans="1:29" ht="16" customHeight="1">
       <c r="A1360" s="3">
@@ -73066,8 +73117,20 @@
       <c r="Q1360" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="1361" spans="1:17" ht="16" customHeight="1">
+      <c r="R1360" s="28">
+        <v>7.2320000000000001E-4</v>
+      </c>
+      <c r="S1360" s="28">
+        <v>3.0590000000000001E-3</v>
+      </c>
+      <c r="T1360" s="28">
+        <v>3.1710000000000002E-3</v>
+      </c>
+      <c r="AC1360" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:29" ht="16" customHeight="1">
       <c r="A1361" s="3">
         <v>42762</v>
       </c>
@@ -73117,8 +73180,17 @@
       <c r="Q1361" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1362" spans="1:17" ht="16" customHeight="1">
+      <c r="R1361" s="28">
+        <v>7.5219999999999996E-4</v>
+      </c>
+      <c r="S1361" s="28">
+        <v>2.6280000000000001E-3</v>
+      </c>
+      <c r="T1361" s="28">
+        <v>2.66E-3</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:29" ht="16" customHeight="1">
       <c r="A1362" s="3">
         <v>42762</v>
       </c>
@@ -73168,8 +73240,17 @@
       <c r="Q1362" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="1363" spans="1:17" ht="16" customHeight="1">
+      <c r="R1362" s="28">
+        <v>4.4559999999999999E-4</v>
+      </c>
+      <c r="S1362" s="28">
+        <v>3.1189999999999998E-3</v>
+      </c>
+      <c r="T1362" s="28">
+        <v>3.4459999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:29" ht="16" customHeight="1">
       <c r="A1363" s="3">
         <v>42762</v>
       </c>
@@ -73219,8 +73300,17 @@
       <c r="Q1363" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1364" spans="1:17" ht="16" customHeight="1">
+      <c r="R1363" s="28">
+        <v>7.9719999999999997E-4</v>
+      </c>
+      <c r="S1363" s="28">
+        <v>3.447E-3</v>
+      </c>
+      <c r="T1363" s="28">
+        <v>3.908E-3</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:29" ht="16" customHeight="1">
       <c r="A1364" s="3">
         <v>42762</v>
       </c>
@@ -73270,8 +73360,17 @@
       <c r="Q1364" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1365" spans="1:17" ht="16" customHeight="1">
+      <c r="R1364" s="28">
+        <v>1.121E-4</v>
+      </c>
+      <c r="S1364" s="28">
+        <v>3.6020000000000002E-3</v>
+      </c>
+      <c r="T1364" s="28">
+        <v>3.248E-3</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:29" ht="16" customHeight="1">
       <c r="A1365" s="3">
         <v>42762</v>
       </c>
@@ -73321,8 +73420,17 @@
       <c r="Q1365" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="1366" spans="1:17" ht="16" customHeight="1">
+      <c r="R1365" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1365" s="28">
+        <v>2.5119999999999999E-3</v>
+      </c>
+      <c r="T1365" s="28">
+        <v>3.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:29" ht="16" customHeight="1">
       <c r="A1366" s="3">
         <v>42762</v>
       </c>
@@ -73372,8 +73480,17 @@
       <c r="Q1366" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="1367" spans="1:17" ht="16" customHeight="1">
+      <c r="R1366" s="28">
+        <v>7.8229999999999999E-4</v>
+      </c>
+      <c r="S1366" s="28">
+        <v>3.9610000000000001E-3</v>
+      </c>
+      <c r="T1366" s="28">
+        <v>4.5599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:29" ht="16" customHeight="1">
       <c r="A1367" s="3">
         <v>42762</v>
       </c>
@@ -73423,8 +73540,17 @@
       <c r="Q1367" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1368" spans="1:17" ht="16" customHeight="1">
+      <c r="R1367" s="28">
+        <v>3.7080000000000001E-4</v>
+      </c>
+      <c r="S1367" s="28">
+        <v>2.9740000000000001E-3</v>
+      </c>
+      <c r="T1367" s="28">
+        <v>3.3639999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:29" ht="16" customHeight="1">
       <c r="A1368" s="3">
         <v>42762</v>
       </c>
@@ -73474,8 +73600,17 @@
       <c r="Q1368" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1369" spans="1:17" ht="16" customHeight="1">
+      <c r="R1368" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1368" s="28">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="T1368" s="28">
+        <v>2.6310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:29" ht="16" customHeight="1">
       <c r="A1369" s="3">
         <v>42762</v>
       </c>
@@ -73525,8 +73660,17 @@
       <c r="Q1369" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1370" spans="1:17" ht="16" customHeight="1">
+      <c r="R1369" s="28">
+        <v>9.8639999999999991E-4</v>
+      </c>
+      <c r="S1369" s="28">
+        <v>2.8670000000000002E-3</v>
+      </c>
+      <c r="T1369" s="28">
+        <v>2.5709999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:29" ht="16" customHeight="1">
       <c r="A1370" s="3">
         <v>42762</v>
       </c>
@@ -73576,8 +73720,17 @@
       <c r="Q1370" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1371" spans="1:17" ht="16" customHeight="1">
+      <c r="R1370" s="28">
+        <v>1.2440000000000001E-3</v>
+      </c>
+      <c r="S1370" s="28">
+        <v>6.9629999999999996E-3</v>
+      </c>
+      <c r="T1370" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:29" ht="16" customHeight="1">
       <c r="A1371" s="3">
         <v>42762</v>
       </c>
@@ -73627,8 +73780,20 @@
       <c r="Q1371" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="1372" spans="1:17" ht="16" customHeight="1">
+      <c r="R1371" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1371" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1371" s="28">
+        <v>3.0270000000000002E-3</v>
+      </c>
+      <c r="AC1371" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:29" ht="16" customHeight="1">
       <c r="A1372" s="3">
         <v>42762</v>
       </c>
@@ -73678,8 +73843,17 @@
       <c r="Q1372" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1373" spans="1:17" ht="16" customHeight="1">
+      <c r="R1372" s="28">
+        <v>5.1380000000000002E-4</v>
+      </c>
+      <c r="S1372" s="28">
+        <v>3.359E-3</v>
+      </c>
+      <c r="T1372" s="28">
+        <v>3.0379999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:29" ht="16" customHeight="1">
       <c r="A1373" s="3">
         <v>42762</v>
       </c>
@@ -73729,8 +73903,17 @@
       <c r="Q1373" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="1374" spans="1:17" ht="16" customHeight="1">
+      <c r="R1373" s="28">
+        <v>6.6580000000000003E-4</v>
+      </c>
+      <c r="S1373" s="28">
+        <v>3.444E-3</v>
+      </c>
+      <c r="T1373" s="28">
+        <v>1.245E-3</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:29" ht="16" customHeight="1">
       <c r="A1374" s="3">
         <v>42762</v>
       </c>
@@ -73780,8 +73963,17 @@
       <c r="Q1374" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="1375" spans="1:17" ht="16" customHeight="1">
+      <c r="R1374" s="28">
+        <v>1.5579999999999999E-4</v>
+      </c>
+      <c r="S1374" s="28">
+        <v>3.8960000000000002E-3</v>
+      </c>
+      <c r="T1374" s="28">
+        <v>3.0560000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:29" ht="16" customHeight="1">
       <c r="A1375" s="3">
         <v>42762</v>
       </c>
@@ -73831,8 +74023,17 @@
       <c r="Q1375" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="1376" spans="1:17" ht="16" customHeight="1">
+      <c r="R1375" s="28">
+        <v>4.2509999999999998E-4</v>
+      </c>
+      <c r="S1375" s="28">
+        <v>3.4970000000000001E-3</v>
+      </c>
+      <c r="T1375" s="28">
+        <v>3.5899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:29" ht="16" customHeight="1">
       <c r="A1376" s="3">
         <v>42762</v>
       </c>
@@ -73881,6 +74082,15 @@
       </c>
       <c r="Q1376" s="7" t="s">
         <v>84</v>
+      </c>
+      <c r="R1376" s="28">
+        <v>1.712E-3</v>
+      </c>
+      <c r="S1376" s="28">
+        <v>3.6289999999999998E-3</v>
+      </c>
+      <c r="T1376" s="28">
+        <v>3.3630000000000001E-3</v>
       </c>
     </row>
     <row r="1377" spans="1:17" ht="16" customHeight="1">
